--- a/data/Cam_FilingPeriod.xlsx
+++ b/data/Cam_FilingPeriod.xlsx
@@ -9,15 +9,15 @@
   <sheets>
     <sheet sheetId="1" r:id="rId1" name="Cam_FilingPeriod"/>
   </sheets>
-  <definedNames>
-    <definedName name="Cam_FilingPeriod">'Cam_FilingPeriod'!$A$1:$N$103</definedName>
-  </definedNames>
   <calcPr calcId="125725" fullCalcOnLoad="true"/>
 </workbook>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="dd-mmm-yy"/>
+  </numFmts>
   <fonts count="1">
     <font>
       <sz val="11"/>
@@ -26,6 +26,37 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000" tint="0"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000" tint="0"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000" tint="0"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000" tint="0"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000" tint="0"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000" tint="0"/>
+      <name val="Calibri"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -33,6 +64,42 @@
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FF000000"/>
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC0C0C0"/>
+        <bgColor rgb="FFC0C0C0"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FF000000"/>
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FF000000"/>
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FF000000"/>
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FF000000"/>
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -43,14 +110,96 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFD0D7E5"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFD0D7E5"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFD0D7E5"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFD0D7E5"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFD0D7E5"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFD0D7E5"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFD0D7E5"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFD0D7E5"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFD0D7E5"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFD0D7E5"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFD0D7E5"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFD0D7E5"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFD0D7E5"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFD0D7E5"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFD0D7E5"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFD0D7E5"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" applyProtection="1" applyNumberFormat="1" xfId="0">
-      <alignment wrapText="0" vertical="center" horizontal="general"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyFill="1" applyProtection="1" applyAlignment="1" applyFont="1" xfId="0">
+      <alignment wrapText="0" vertical="center" horizontal="left"/>
+      <protection locked="1" hidden="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyFill="1" applyProtection="1" applyBorder="1" applyAlignment="1" applyFont="1" xfId="0">
+      <alignment wrapText="0" vertical="center" horizontal="center"/>
+      <protection locked="1" hidden="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" applyFill="1" applyProtection="1" applyBorder="1" applyAlignment="1" applyFont="1" xfId="0">
+      <alignment wrapText="0" vertical="center" horizontal="center"/>
+      <protection locked="1" hidden="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="3" applyFill="1" applyProtection="1" applyBorder="1" applyAlignment="1" applyFont="1" xfId="0">
+      <alignment wrapText="1" vertical="center" horizontal="right"/>
+      <protection locked="1" hidden="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="6" borderId="4" applyFill="1" applyProtection="1" applyBorder="1" applyAlignment="1" applyNumberFormat="1" applyFont="1" xfId="0">
+      <alignment wrapText="1" vertical="center" horizontal="right"/>
+      <protection locked="1" hidden="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="5" applyFill="1" applyProtection="1" applyBorder="1" applyAlignment="1" applyFont="1" xfId="0">
+      <alignment wrapText="1" vertical="center" horizontal="general"/>
       <protection locked="1" hidden="0"/>
     </xf>
   </cellXfs>
@@ -347,3685 +496,3745 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N103"/>
+  <dimension ref="A1:N104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" rightToLeft="false">
       <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col customWidth="true" min="1" max="1" width="14.0625"/>
+    <col customWidth="true" min="2" max="2" width="39.55078125"/>
+    <col customWidth="true" min="3" max="3" width="14.0625"/>
+    <col customWidth="true" min="4" max="4" width="14.0625"/>
+    <col customWidth="true" min="5" max="5" width="31.640625"/>
+    <col customWidth="true" min="6" max="6" width="14.0625"/>
+    <col customWidth="true" min="7" max="7" width="14.0625"/>
+    <col customWidth="true" min="8" max="8" width="14.0625"/>
+    <col customWidth="true" min="9" max="9" width="14.0625"/>
+    <col customWidth="true" min="10" max="10" width="14.0625"/>
+    <col customWidth="true" min="11" max="11" width="14.0625"/>
+    <col customWidth="true" min="12" max="12" width="14.0625"/>
+    <col customWidth="true" min="13" max="13" width="14.0625"/>
+    <col customWidth="true" min="14" max="14" width="14.0625"/>
+  </cols>
   <sheetData>
     <row outlineLevel="0" r="1">
-      <c r="A1" s="0" t="inlineStr">
+      <c r="A1" s="2" t="inlineStr">
         <is>
           <t>FilingPeriodId</t>
         </is>
       </c>
-      <c r="B1" s="0" t="inlineStr">
+      <c r="B1" s="2" t="inlineStr">
         <is>
           <t>FilingDate</t>
         </is>
       </c>
-      <c r="C1" s="0" t="inlineStr">
+      <c r="C1" s="2" t="inlineStr">
         <is>
           <t>DueDate</t>
         </is>
       </c>
-      <c r="D1" s="0" t="inlineStr">
+      <c r="D1" s="2" t="inlineStr">
         <is>
           <t>OLDDBReportingPeriodId</t>
         </is>
       </c>
-      <c r="E1" s="0" t="inlineStr">
+      <c r="E1" s="2" t="inlineStr">
         <is>
           <t>Description</t>
         </is>
       </c>
-      <c r="F1" s="0" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>AllowStatementOfNoActivity</t>
         </is>
       </c>
-      <c r="G1" s="0" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
         <is>
           <t>FilingPeriodTypeId</t>
         </is>
       </c>
-      <c r="H1" s="0" t="inlineStr">
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>ExcludeFromCascading</t>
         </is>
       </c>
-      <c r="I1" s="0" t="inlineStr">
+      <c r="I1" s="2" t="inlineStr">
         <is>
           <t>SupplementalInitDate</t>
         </is>
       </c>
-      <c r="J1" s="0" t="inlineStr">
+      <c r="J1" s="2" t="inlineStr">
         <is>
           <t>RegularFilingPeriodId</t>
         </is>
       </c>
-      <c r="K1" s="0" t="inlineStr">
+      <c r="K1" s="2" t="inlineStr">
         <is>
           <t>InitialDate</t>
         </is>
       </c>
-      <c r="L1" s="0" t="inlineStr">
+      <c r="L1" s="2" t="inlineStr">
         <is>
           <t>FilingPeriodEmailingSendStatusId</t>
         </is>
       </c>
-      <c r="M1" s="0" t="inlineStr">
+      <c r="M1" s="2" t="inlineStr">
         <is>
           <t>FilingPeriodReminderSendStatusId</t>
         </is>
       </c>
-      <c r="N1" s="0" t="inlineStr">
+      <c r="N1" s="2" t="inlineStr">
         <is>
           <t>DateReminderSent</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="2">
-      <c r="A2" s="0">
+      <c r="A2" s="4">
         <v>19</v>
       </c>
-      <c r="B2" s="1">
+      <c r="B2" s="5">
         <v>38117</v>
       </c>
-      <c r="C2" s="1">
+      <c r="C2" s="5">
         <v>38117</v>
       </c>
-      <c r="E2" s="0" t="inlineStr">
+      <c r="E2" s="6" t="inlineStr">
         <is>
           <t>First Primary Report </t>
         </is>
       </c>
-      <c r="F2" s="0">
-        <v>1</v>
-      </c>
-      <c r="G2" s="0">
-        <v>1</v>
-      </c>
-      <c r="H2" s="0">
-        <v>0</v>
-      </c>
-      <c r="K2" s="1">
+      <c r="F2" s="4">
+        <v>1</v>
+      </c>
+      <c r="G2" s="4">
+        <v>1</v>
+      </c>
+      <c r="H2" s="4">
+        <v>0</v>
+      </c>
+      <c r="K2" s="5">
         <v>37988</v>
       </c>
-      <c r="L2" s="0">
-        <v>1</v>
-      </c>
-      <c r="M2" s="0">
+      <c r="L2" s="4">
+        <v>1</v>
+      </c>
+      <c r="M2" s="4">
         <v>1</v>
       </c>
     </row>
     <row outlineLevel="0" r="3">
-      <c r="A3" s="0">
+      <c r="A3" s="4">
         <v>20</v>
       </c>
-      <c r="B3" s="1">
+      <c r="B3" s="5">
         <v>38134</v>
       </c>
-      <c r="C3" s="1">
+      <c r="C3" s="5">
         <v>38134</v>
       </c>
-      <c r="E3" s="0" t="inlineStr">
+      <c r="E3" s="6" t="inlineStr">
         <is>
           <t>Second Primary Report</t>
         </is>
       </c>
-      <c r="F3" s="0">
-        <v>1</v>
-      </c>
-      <c r="G3" s="0">
-        <v>1</v>
-      </c>
-      <c r="H3" s="0">
-        <v>0</v>
-      </c>
-      <c r="K3" s="1">
+      <c r="F3" s="4">
+        <v>1</v>
+      </c>
+      <c r="G3" s="4">
+        <v>1</v>
+      </c>
+      <c r="H3" s="4">
+        <v>0</v>
+      </c>
+      <c r="K3" s="5">
         <v>38118</v>
       </c>
-      <c r="L3" s="0">
-        <v>1</v>
-      </c>
-      <c r="M3" s="0">
+      <c r="L3" s="4">
+        <v>1</v>
+      </c>
+      <c r="M3" s="4">
         <v>1</v>
       </c>
     </row>
     <row outlineLevel="0" r="4">
-      <c r="A4" s="0">
+      <c r="A4" s="4">
         <v>21</v>
       </c>
-      <c r="B4" s="1">
+      <c r="B4" s="5">
         <v>38169</v>
       </c>
-      <c r="C4" s="1">
+      <c r="C4" s="5">
         <v>38169</v>
       </c>
-      <c r="E4" s="0" t="inlineStr">
+      <c r="E4" s="6" t="inlineStr">
         <is>
           <t>Third Primary Report</t>
         </is>
       </c>
-      <c r="F4" s="0">
-        <v>1</v>
-      </c>
-      <c r="G4" s="0">
-        <v>1</v>
-      </c>
-      <c r="H4" s="0">
-        <v>0</v>
-      </c>
-      <c r="K4" s="1">
+      <c r="F4" s="4">
+        <v>1</v>
+      </c>
+      <c r="G4" s="4">
+        <v>1</v>
+      </c>
+      <c r="H4" s="4">
+        <v>0</v>
+      </c>
+      <c r="K4" s="5">
         <v>38140</v>
       </c>
-      <c r="L4" s="0">
-        <v>1</v>
-      </c>
-      <c r="M4" s="0">
+      <c r="L4" s="4">
+        <v>1</v>
+      </c>
+      <c r="M4" s="4">
         <v>1</v>
       </c>
     </row>
     <row outlineLevel="0" r="5">
-      <c r="A5" s="0">
+      <c r="A5" s="4">
         <v>22</v>
       </c>
-      <c r="B5" s="1">
+      <c r="B5" s="5">
         <v>38272</v>
       </c>
-      <c r="C5" s="1">
+      <c r="C5" s="5">
         <v>38272</v>
       </c>
-      <c r="E5" s="0" t="inlineStr">
+      <c r="E5" s="6" t="inlineStr">
         <is>
           <t>First General Report</t>
         </is>
       </c>
-      <c r="F5" s="0">
-        <v>1</v>
-      </c>
-      <c r="G5" s="0">
-        <v>1</v>
-      </c>
-      <c r="H5" s="0">
-        <v>0</v>
-      </c>
-      <c r="K5" s="1">
+      <c r="F5" s="4">
+        <v>1</v>
+      </c>
+      <c r="G5" s="4">
+        <v>1</v>
+      </c>
+      <c r="H5" s="4">
+        <v>0</v>
+      </c>
+      <c r="K5" s="5">
         <v>38170</v>
       </c>
-      <c r="L5" s="0">
-        <v>1</v>
-      </c>
-      <c r="M5" s="0">
+      <c r="L5" s="4">
+        <v>1</v>
+      </c>
+      <c r="M5" s="4">
         <v>1</v>
       </c>
     </row>
     <row outlineLevel="0" r="6">
-      <c r="A6" s="0">
+      <c r="A6" s="4">
         <v>23</v>
       </c>
-      <c r="B6" s="1">
+      <c r="B6" s="5">
         <v>38288</v>
       </c>
-      <c r="C6" s="1">
+      <c r="C6" s="5">
         <v>38288</v>
       </c>
-      <c r="E6" s="0" t="inlineStr">
+      <c r="E6" s="6" t="inlineStr">
         <is>
           <t>Second General Report</t>
         </is>
       </c>
-      <c r="F6" s="0">
-        <v>1</v>
-      </c>
-      <c r="G6" s="0">
-        <v>1</v>
-      </c>
-      <c r="H6" s="0">
-        <v>0</v>
-      </c>
-      <c r="K6" s="1">
+      <c r="F6" s="4">
+        <v>1</v>
+      </c>
+      <c r="G6" s="4">
+        <v>1</v>
+      </c>
+      <c r="H6" s="4">
+        <v>0</v>
+      </c>
+      <c r="K6" s="5">
         <v>38273</v>
       </c>
-      <c r="L6" s="0">
-        <v>1</v>
-      </c>
-      <c r="M6" s="0">
+      <c r="L6" s="4">
+        <v>1</v>
+      </c>
+      <c r="M6" s="4">
         <v>1</v>
       </c>
     </row>
     <row outlineLevel="0" r="7">
-      <c r="A7" s="0">
+      <c r="A7" s="4">
         <v>24</v>
       </c>
-      <c r="B7" s="1">
+      <c r="B7" s="5">
         <v>38323.7083333333</v>
       </c>
-      <c r="C7" s="1">
+      <c r="C7" s="5">
         <v>38323.7083333333</v>
       </c>
-      <c r="D7" s="0">
+      <c r="D7" s="4">
         <v>17</v>
       </c>
-      <c r="E7" s="0" t="inlineStr">
+      <c r="E7" s="6" t="inlineStr">
         <is>
           <t>Third General</t>
         </is>
       </c>
-      <c r="F7" s="0">
-        <v>1</v>
-      </c>
-      <c r="G7" s="0">
-        <v>1</v>
-      </c>
-      <c r="H7" s="0">
-        <v>0</v>
-      </c>
-      <c r="K7" s="1">
+      <c r="F7" s="4">
+        <v>1</v>
+      </c>
+      <c r="G7" s="4">
+        <v>1</v>
+      </c>
+      <c r="H7" s="4">
+        <v>0</v>
+      </c>
+      <c r="K7" s="5">
         <v>38294</v>
       </c>
-      <c r="L7" s="0">
-        <v>1</v>
-      </c>
-      <c r="M7" s="0">
+      <c r="L7" s="4">
+        <v>1</v>
+      </c>
+      <c r="M7" s="4">
         <v>1</v>
       </c>
     </row>
     <row outlineLevel="0" r="8">
-      <c r="A8" s="0">
+      <c r="A8" s="4">
         <v>25</v>
       </c>
-      <c r="B8" s="1">
+      <c r="B8" s="5">
         <v>38481.7083333333</v>
       </c>
-      <c r="C8" s="1">
+      <c r="C8" s="5">
         <v>38481.7083333333</v>
       </c>
-      <c r="D8" s="0">
+      <c r="D8" s="4">
         <v>18</v>
       </c>
-      <c r="F8" s="0">
-        <v>1</v>
-      </c>
-      <c r="G8" s="0">
-        <v>1</v>
-      </c>
-      <c r="H8" s="0">
-        <v>0</v>
-      </c>
-      <c r="K8" s="1">
+      <c r="E8" s="6" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="F8" s="4">
+        <v>1</v>
+      </c>
+      <c r="G8" s="4">
+        <v>1</v>
+      </c>
+      <c r="H8" s="4">
+        <v>0</v>
+      </c>
+      <c r="K8" s="5">
         <v>38324</v>
       </c>
-      <c r="L8" s="0">
-        <v>1</v>
-      </c>
-      <c r="M8" s="0">
+      <c r="L8" s="4">
+        <v>1</v>
+      </c>
+      <c r="M8" s="4">
         <v>1</v>
       </c>
     </row>
     <row outlineLevel="0" r="9">
-      <c r="A9" s="0">
+      <c r="A9" s="4">
         <v>26</v>
       </c>
-      <c r="B9" s="1">
+      <c r="B9" s="5">
         <v>37987.7083333333</v>
       </c>
-      <c r="C9" s="1">
+      <c r="C9" s="5">
         <v>37987.7083333333</v>
       </c>
-      <c r="D9" s="0">
+      <c r="D9" s="4">
         <v>19</v>
       </c>
-      <c r="E9" s="0" t="inlineStr">
+      <c r="E9" s="6" t="inlineStr">
         <is>
           <t>1/1/2004 Opening</t>
         </is>
       </c>
-      <c r="F9" s="0">
-        <v>1</v>
-      </c>
-      <c r="G9" s="0">
-        <v>1</v>
-      </c>
-      <c r="H9" s="0">
-        <v>0</v>
-      </c>
-      <c r="K9" s="1">
+      <c r="F9" s="4">
+        <v>1</v>
+      </c>
+      <c r="G9" s="4">
+        <v>1</v>
+      </c>
+      <c r="H9" s="4">
+        <v>0</v>
+      </c>
+      <c r="K9" s="5">
         <v>38078</v>
       </c>
-      <c r="L9" s="0">
-        <v>1</v>
-      </c>
-      <c r="M9" s="0">
+      <c r="L9" s="4">
+        <v>1</v>
+      </c>
+      <c r="M9" s="4">
         <v>1</v>
       </c>
     </row>
     <row outlineLevel="0" r="10">
-      <c r="A10" s="0">
+      <c r="A10" s="4">
         <v>27</v>
       </c>
-      <c r="B10" s="1">
+      <c r="B10" s="5">
         <v>38139</v>
       </c>
-      <c r="C10" s="1">
+      <c r="C10" s="5">
         <v>38139</v>
       </c>
-      <c r="E10" s="0" t="inlineStr">
+      <c r="E10" s="6" t="inlineStr">
         <is>
           <t>Primary Supplemental Report</t>
         </is>
       </c>
-      <c r="F10" s="0">
-        <v>1</v>
-      </c>
-      <c r="G10" s="0">
-        <v>1</v>
-      </c>
-      <c r="H10" s="0">
-        <v>1</v>
-      </c>
-      <c r="K10" s="1">
+      <c r="F10" s="4">
+        <v>1</v>
+      </c>
+      <c r="G10" s="4">
+        <v>1</v>
+      </c>
+      <c r="H10" s="4">
+        <v>1</v>
+      </c>
+      <c r="K10" s="5">
         <v>38135</v>
       </c>
-      <c r="L10" s="0">
-        <v>1</v>
-      </c>
-      <c r="M10" s="0">
+      <c r="L10" s="4">
+        <v>1</v>
+      </c>
+      <c r="M10" s="4">
         <v>1</v>
       </c>
     </row>
     <row outlineLevel="0" r="11">
-      <c r="A11" s="0">
+      <c r="A11" s="4">
         <v>28</v>
       </c>
-      <c r="B11" s="1">
+      <c r="B11" s="5">
         <v>38293</v>
       </c>
-      <c r="C11" s="1">
+      <c r="C11" s="5">
         <v>38293</v>
       </c>
-      <c r="E11" s="0" t="inlineStr">
+      <c r="E11" s="6" t="inlineStr">
         <is>
           <t>General Supplemental Report</t>
         </is>
       </c>
-      <c r="F11" s="0">
-        <v>1</v>
-      </c>
-      <c r="G11" s="0">
-        <v>1</v>
-      </c>
-      <c r="H11" s="0">
-        <v>1</v>
-      </c>
-      <c r="K11" s="1">
+      <c r="F11" s="4">
+        <v>1</v>
+      </c>
+      <c r="G11" s="4">
+        <v>1</v>
+      </c>
+      <c r="H11" s="4">
+        <v>1</v>
+      </c>
+      <c r="K11" s="5">
         <v>38289</v>
       </c>
-      <c r="L11" s="0">
-        <v>1</v>
-      </c>
-      <c r="M11" s="0">
+      <c r="L11" s="4">
+        <v>1</v>
+      </c>
+      <c r="M11" s="4">
         <v>1</v>
       </c>
     </row>
     <row outlineLevel="0" r="12">
-      <c r="A12" s="0">
+      <c r="A12" s="4">
         <v>29</v>
       </c>
-      <c r="B12" s="1">
+      <c r="B12" s="5">
         <v>38845.7083333333</v>
       </c>
-      <c r="C12" s="1">
+      <c r="C12" s="5">
         <v>38845.7083333333</v>
       </c>
-      <c r="D12" s="0">
+      <c r="D12" s="4">
         <v>26</v>
       </c>
-      <c r="E12" s="0" t="inlineStr">
+      <c r="E12" s="6" t="inlineStr">
         <is>
           <t>First Primary</t>
         </is>
       </c>
-      <c r="F12" s="0">
-        <v>1</v>
-      </c>
-      <c r="G12" s="0">
-        <v>1</v>
-      </c>
-      <c r="H12" s="0">
-        <v>0</v>
-      </c>
-      <c r="K12" s="1">
+      <c r="F12" s="4">
+        <v>1</v>
+      </c>
+      <c r="G12" s="4">
+        <v>1</v>
+      </c>
+      <c r="H12" s="4">
+        <v>0</v>
+      </c>
+      <c r="K12" s="5">
         <v>38482</v>
       </c>
-      <c r="L12" s="0">
-        <v>1</v>
-      </c>
-      <c r="M12" s="0">
+      <c r="L12" s="4">
+        <v>1</v>
+      </c>
+      <c r="M12" s="4">
         <v>1</v>
       </c>
     </row>
     <row outlineLevel="0" r="13">
-      <c r="A13" s="0">
+      <c r="A13" s="4">
         <v>30</v>
       </c>
-      <c r="B13" s="1">
+      <c r="B13" s="5">
         <v>38869.7083333333</v>
       </c>
-      <c r="C13" s="1">
+      <c r="C13" s="5">
         <v>38869.7083333333</v>
       </c>
-      <c r="D13" s="0">
+      <c r="D13" s="4">
         <v>27</v>
       </c>
-      <c r="E13" s="0" t="inlineStr">
+      <c r="E13" s="6" t="inlineStr">
         <is>
           <t>Second Primary</t>
         </is>
       </c>
-      <c r="F13" s="0">
-        <v>1</v>
-      </c>
-      <c r="G13" s="0">
-        <v>1</v>
-      </c>
-      <c r="H13" s="0">
-        <v>0</v>
-      </c>
-      <c r="K13" s="1">
+      <c r="F13" s="4">
+        <v>1</v>
+      </c>
+      <c r="G13" s="4">
+        <v>1</v>
+      </c>
+      <c r="H13" s="4">
+        <v>0</v>
+      </c>
+      <c r="K13" s="5">
         <v>38864</v>
       </c>
-      <c r="L13" s="0">
-        <v>1</v>
-      </c>
-      <c r="M13" s="0">
+      <c r="L13" s="4">
+        <v>1</v>
+      </c>
+      <c r="M13" s="4">
         <v>1</v>
       </c>
     </row>
     <row outlineLevel="0" r="14">
-      <c r="A14" s="0">
+      <c r="A14" s="4">
         <v>31</v>
       </c>
-      <c r="B14" s="1">
+      <c r="B14" s="5">
         <v>38904.7083333333</v>
       </c>
-      <c r="C14" s="1">
+      <c r="C14" s="5">
         <v>38904.7083333333</v>
       </c>
-      <c r="D14" s="0">
+      <c r="D14" s="4">
         <v>28</v>
       </c>
-      <c r="E14" s="0" t="inlineStr">
+      <c r="E14" s="6" t="inlineStr">
         <is>
           <t>Third Primary</t>
         </is>
       </c>
-      <c r="F14" s="0">
-        <v>1</v>
-      </c>
-      <c r="G14" s="0">
-        <v>1</v>
-      </c>
-      <c r="H14" s="0">
-        <v>0</v>
-      </c>
-      <c r="K14" s="1">
+      <c r="F14" s="4">
+        <v>1</v>
+      </c>
+      <c r="G14" s="4">
+        <v>1</v>
+      </c>
+      <c r="H14" s="4">
+        <v>0</v>
+      </c>
+      <c r="K14" s="5">
         <v>38875</v>
       </c>
-      <c r="L14" s="0">
-        <v>1</v>
-      </c>
-      <c r="M14" s="0">
+      <c r="L14" s="4">
+        <v>1</v>
+      </c>
+      <c r="M14" s="4">
         <v>1</v>
       </c>
     </row>
     <row outlineLevel="0" r="15">
-      <c r="A15" s="0">
+      <c r="A15" s="4">
         <v>32</v>
       </c>
-      <c r="B15" s="1">
+      <c r="B15" s="5">
         <v>39000.7083333333</v>
       </c>
-      <c r="C15" s="1">
+      <c r="C15" s="5">
         <v>39000.7083333333</v>
       </c>
-      <c r="D15" s="0">
+      <c r="D15" s="4">
         <v>29</v>
       </c>
-      <c r="E15" s="0" t="inlineStr">
+      <c r="E15" s="6" t="inlineStr">
         <is>
           <t>First General</t>
         </is>
       </c>
-      <c r="F15" s="0">
-        <v>1</v>
-      </c>
-      <c r="G15" s="0">
-        <v>1</v>
-      </c>
-      <c r="H15" s="0">
-        <v>0</v>
-      </c>
-      <c r="K15" s="1">
+      <c r="F15" s="4">
+        <v>1</v>
+      </c>
+      <c r="G15" s="4">
+        <v>1</v>
+      </c>
+      <c r="H15" s="4">
+        <v>0</v>
+      </c>
+      <c r="K15" s="5">
         <v>38905</v>
       </c>
-      <c r="L15" s="0">
-        <v>1</v>
-      </c>
-      <c r="M15" s="0">
+      <c r="L15" s="4">
+        <v>1</v>
+      </c>
+      <c r="M15" s="4">
         <v>1</v>
       </c>
     </row>
     <row outlineLevel="0" r="16">
-      <c r="A16" s="0">
+      <c r="A16" s="4">
         <v>33</v>
       </c>
-      <c r="B16" s="1">
+      <c r="B16" s="5">
         <v>39023.7083333333</v>
       </c>
-      <c r="C16" s="1">
+      <c r="C16" s="5">
         <v>39023.7083333333</v>
       </c>
-      <c r="D16" s="0">
+      <c r="D16" s="4">
         <v>30</v>
       </c>
-      <c r="E16" s="0" t="inlineStr">
+      <c r="E16" s="6" t="inlineStr">
         <is>
           <t>Second General</t>
         </is>
       </c>
-      <c r="F16" s="0">
-        <v>1</v>
-      </c>
-      <c r="G16" s="0">
-        <v>1</v>
-      </c>
-      <c r="H16" s="0">
-        <v>0</v>
-      </c>
-      <c r="K16" s="1">
+      <c r="F16" s="4">
+        <v>1</v>
+      </c>
+      <c r="G16" s="4">
+        <v>1</v>
+      </c>
+      <c r="H16" s="4">
+        <v>0</v>
+      </c>
+      <c r="K16" s="5">
         <v>39001</v>
       </c>
-      <c r="L16" s="0">
-        <v>1</v>
-      </c>
-      <c r="M16" s="0">
+      <c r="L16" s="4">
+        <v>1</v>
+      </c>
+      <c r="M16" s="4">
         <v>1</v>
       </c>
     </row>
     <row outlineLevel="0" r="17">
-      <c r="A17" s="0">
+      <c r="A17" s="4">
         <v>34</v>
       </c>
-      <c r="B17" s="1">
+      <c r="B17" s="5">
         <v>39058.7083333333</v>
       </c>
-      <c r="C17" s="1">
+      <c r="C17" s="5">
         <v>39058.7083333333</v>
       </c>
-      <c r="D17" s="0">
+      <c r="D17" s="4">
         <v>31</v>
       </c>
-      <c r="E17" s="0" t="inlineStr">
+      <c r="E17" s="6" t="inlineStr">
         <is>
           <t>Third General</t>
         </is>
       </c>
-      <c r="F17" s="0">
-        <v>1</v>
-      </c>
-      <c r="G17" s="0">
-        <v>1</v>
-      </c>
-      <c r="H17" s="0">
-        <v>0</v>
-      </c>
-      <c r="K17" s="1">
+      <c r="F17" s="4">
+        <v>1</v>
+      </c>
+      <c r="G17" s="4">
+        <v>1</v>
+      </c>
+      <c r="H17" s="4">
+        <v>0</v>
+      </c>
+      <c r="K17" s="5">
         <v>39029</v>
       </c>
-      <c r="L17" s="0">
-        <v>1</v>
-      </c>
-      <c r="M17" s="0">
+      <c r="L17" s="4">
+        <v>1</v>
+      </c>
+      <c r="M17" s="4">
         <v>1</v>
       </c>
     </row>
     <row outlineLevel="0" r="18">
-      <c r="A18" s="0">
+      <c r="A18" s="4">
         <v>35</v>
       </c>
-      <c r="B18" s="1">
+      <c r="B18" s="5">
         <v>38874.7083333333</v>
       </c>
-      <c r="C18" s="1">
+      <c r="C18" s="5">
         <v>38874.7083333333</v>
       </c>
-      <c r="D18" s="0">
+      <c r="D18" s="4">
         <v>37</v>
       </c>
-      <c r="E18" s="0" t="inlineStr">
+      <c r="E18" s="6" t="inlineStr">
         <is>
           <t>Primary Supplemental</t>
         </is>
       </c>
-      <c r="F18" s="0">
-        <v>1</v>
-      </c>
-      <c r="G18" s="0">
-        <v>1</v>
-      </c>
-      <c r="H18" s="0">
-        <v>1</v>
-      </c>
-      <c r="K18" s="1">
+      <c r="F18" s="4">
+        <v>1</v>
+      </c>
+      <c r="G18" s="4">
+        <v>1</v>
+      </c>
+      <c r="H18" s="4">
+        <v>1</v>
+      </c>
+      <c r="K18" s="5">
         <v>38870</v>
       </c>
-      <c r="L18" s="0">
-        <v>1</v>
-      </c>
-      <c r="M18" s="0">
+      <c r="L18" s="4">
+        <v>1</v>
+      </c>
+      <c r="M18" s="4">
         <v>1</v>
       </c>
     </row>
     <row outlineLevel="0" r="19">
-      <c r="A19" s="0">
+      <c r="A19" s="4">
         <v>36</v>
       </c>
-      <c r="B19" s="1">
+      <c r="B19" s="5">
         <v>39028.7083333333</v>
       </c>
-      <c r="C19" s="1">
+      <c r="C19" s="5">
         <v>39028.7083333333</v>
       </c>
-      <c r="D19" s="0">
+      <c r="D19" s="4">
         <v>39</v>
       </c>
-      <c r="E19" s="0" t="inlineStr">
+      <c r="E19" s="6" t="inlineStr">
         <is>
           <t>General Supplemental</t>
         </is>
       </c>
-      <c r="F19" s="0">
-        <v>1</v>
-      </c>
-      <c r="G19" s="0">
-        <v>1</v>
-      </c>
-      <c r="H19" s="0">
-        <v>1</v>
-      </c>
-      <c r="K19" s="1">
+      <c r="F19" s="4">
+        <v>1</v>
+      </c>
+      <c r="G19" s="4">
+        <v>1</v>
+      </c>
+      <c r="H19" s="4">
+        <v>1</v>
+      </c>
+      <c r="K19" s="5">
         <v>39024</v>
       </c>
-      <c r="L19" s="0">
-        <v>1</v>
-      </c>
-      <c r="M19" s="0">
+      <c r="L19" s="4">
+        <v>1</v>
+      </c>
+      <c r="M19" s="4">
         <v>1</v>
       </c>
     </row>
     <row outlineLevel="0" r="20">
-      <c r="A20" s="0">
+      <c r="A20" s="4">
         <v>37</v>
       </c>
-      <c r="B20" s="1">
+      <c r="B20" s="5">
         <v>39216.7083333333</v>
       </c>
-      <c r="C20" s="1">
+      <c r="C20" s="5">
         <v>39216.7083333333</v>
       </c>
-      <c r="D20" s="0">
+      <c r="D20" s="4">
         <v>41</v>
       </c>
-      <c r="F20" s="0">
-        <v>1</v>
-      </c>
-      <c r="G20" s="0">
-        <v>1</v>
-      </c>
-      <c r="H20" s="0">
-        <v>0</v>
-      </c>
-      <c r="K20" s="1">
+      <c r="E20" s="6" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="F20" s="4">
+        <v>1</v>
+      </c>
+      <c r="G20" s="4">
+        <v>1</v>
+      </c>
+      <c r="H20" s="4">
+        <v>0</v>
+      </c>
+      <c r="K20" s="5">
         <v>39059</v>
       </c>
-      <c r="L20" s="0">
-        <v>1</v>
-      </c>
-      <c r="M20" s="0">
+      <c r="L20" s="4">
+        <v>1</v>
+      </c>
+      <c r="M20" s="4">
         <v>1</v>
       </c>
     </row>
     <row outlineLevel="0" r="21">
-      <c r="A21" s="0">
+      <c r="A21" s="4">
         <v>38</v>
       </c>
-      <c r="B21" s="1">
+      <c r="B21" s="5">
         <v>38863.7083333333</v>
       </c>
-      <c r="C21" s="1">
+      <c r="C21" s="5">
         <v>38863.7083333333</v>
       </c>
-      <c r="D21" s="0">
+      <c r="D21" s="4">
         <v>43</v>
       </c>
-      <c r="E21" s="0" t="inlineStr">
+      <c r="E21" s="6" t="inlineStr">
         <is>
           <t>PRC Non Participating Report</t>
         </is>
       </c>
-      <c r="F21" s="0">
-        <v>1</v>
-      </c>
-      <c r="G21" s="0">
-        <v>1</v>
-      </c>
-      <c r="H21" s="0">
-        <v>1</v>
-      </c>
-      <c r="K21" s="1">
+      <c r="F21" s="4">
+        <v>1</v>
+      </c>
+      <c r="G21" s="4">
+        <v>1</v>
+      </c>
+      <c r="H21" s="4">
+        <v>1</v>
+      </c>
+      <c r="K21" s="5">
         <v>38846</v>
       </c>
-      <c r="L21" s="0">
-        <v>1</v>
-      </c>
-      <c r="M21" s="0">
+      <c r="L21" s="4">
+        <v>1</v>
+      </c>
+      <c r="M21" s="4">
         <v>1</v>
       </c>
     </row>
     <row outlineLevel="0" r="22">
-      <c r="A22" s="0">
+      <c r="A22" s="4">
         <v>39</v>
       </c>
-      <c r="B22" s="1">
+      <c r="B22" s="5">
         <v>39000.7083333333</v>
       </c>
-      <c r="C22" s="1">
+      <c r="C22" s="5">
         <v>39000.7083333333</v>
       </c>
-      <c r="D22" s="0">
+      <c r="D22" s="4">
         <v>57</v>
       </c>
-      <c r="E22" s="0" t="inlineStr">
+      <c r="E22" s="6" t="inlineStr">
         <is>
           <t>General Statement Of Exception</t>
         </is>
       </c>
-      <c r="F22" s="0">
-        <v>1</v>
-      </c>
-      <c r="G22" s="0">
-        <v>1</v>
-      </c>
-      <c r="H22" s="0">
-        <v>1</v>
-      </c>
-      <c r="K22" s="1">
+      <c r="F22" s="4">
+        <v>1</v>
+      </c>
+      <c r="G22" s="4">
+        <v>1</v>
+      </c>
+      <c r="H22" s="4">
+        <v>1</v>
+      </c>
+      <c r="K22" s="5">
         <v>38905</v>
       </c>
-      <c r="L22" s="0">
-        <v>1</v>
-      </c>
-      <c r="M22" s="0">
+      <c r="L22" s="4">
+        <v>1</v>
+      </c>
+      <c r="M22" s="4">
         <v>1</v>
       </c>
     </row>
     <row outlineLevel="0" r="23">
-      <c r="A23" s="0">
+      <c r="A23" s="4">
         <v>40</v>
       </c>
-      <c r="B23" s="1">
+      <c r="B23" s="5">
         <v>39580.7083333333</v>
       </c>
-      <c r="C23" s="1">
+      <c r="C23" s="5">
         <v>39580.7083333333</v>
       </c>
-      <c r="D23" s="0">
+      <c r="D23" s="4">
         <v>60</v>
       </c>
-      <c r="E23" s="0" t="inlineStr">
+      <c r="E23" s="6" t="inlineStr">
         <is>
           <t>2008 Annual</t>
         </is>
       </c>
-      <c r="F23" s="0">
-        <v>1</v>
-      </c>
-      <c r="G23" s="0">
-        <v>1</v>
-      </c>
-      <c r="H23" s="0">
-        <v>0</v>
-      </c>
-      <c r="K23" s="1">
+      <c r="F23" s="4">
+        <v>1</v>
+      </c>
+      <c r="G23" s="4">
+        <v>1</v>
+      </c>
+      <c r="H23" s="4">
+        <v>0</v>
+      </c>
+      <c r="K23" s="5">
         <v>39581</v>
       </c>
-      <c r="L23" s="0">
-        <v>1</v>
-      </c>
-      <c r="M23" s="0">
+      <c r="L23" s="4">
+        <v>1</v>
+      </c>
+      <c r="M23" s="4">
         <v>1</v>
       </c>
     </row>
     <row outlineLevel="0" r="24">
-      <c r="A24" s="0">
+      <c r="A24" s="4">
         <v>41</v>
       </c>
-      <c r="B24" s="1">
+      <c r="B24" s="5">
         <v>39944.7083333333</v>
       </c>
-      <c r="C24" s="1">
+      <c r="C24" s="5">
         <v>39944.7083333333</v>
       </c>
-      <c r="D24" s="0">
+      <c r="D24" s="4">
         <v>61</v>
       </c>
-      <c r="E24" s="0" t="inlineStr">
+      <c r="E24" s="6" t="inlineStr">
         <is>
           <t>2009 Annual</t>
         </is>
       </c>
-      <c r="F24" s="0">
-        <v>1</v>
-      </c>
-      <c r="G24" s="0">
-        <v>1</v>
-      </c>
-      <c r="H24" s="0">
-        <v>0</v>
-      </c>
-      <c r="K24" s="1">
+      <c r="F24" s="4">
+        <v>1</v>
+      </c>
+      <c r="G24" s="4">
+        <v>1</v>
+      </c>
+      <c r="H24" s="4">
+        <v>0</v>
+      </c>
+      <c r="K24" s="5">
         <v>39787</v>
       </c>
-      <c r="L24" s="0">
-        <v>1</v>
-      </c>
-      <c r="M24" s="0">
+      <c r="L24" s="4">
+        <v>1</v>
+      </c>
+      <c r="M24" s="4">
         <v>1</v>
       </c>
     </row>
     <row outlineLevel="0" r="25">
-      <c r="A25" s="0">
+      <c r="A25" s="4">
         <v>42</v>
       </c>
-      <c r="B25" s="1">
+      <c r="B25" s="5">
         <v>39580.7083333333</v>
       </c>
-      <c r="C25" s="1">
+      <c r="C25" s="5">
         <v>39580.7083333333</v>
       </c>
-      <c r="D25" s="0">
+      <c r="D25" s="4">
         <v>62</v>
       </c>
-      <c r="E25" s="0" t="inlineStr">
+      <c r="E25" s="6" t="inlineStr">
         <is>
           <t>Primary Statement Of Exception</t>
         </is>
       </c>
-      <c r="F25" s="0">
-        <v>1</v>
-      </c>
-      <c r="G25" s="0">
-        <v>1</v>
-      </c>
-      <c r="H25" s="0">
-        <v>1</v>
-      </c>
-      <c r="K25" s="1">
+      <c r="F25" s="4">
+        <v>1</v>
+      </c>
+      <c r="G25" s="4">
+        <v>1</v>
+      </c>
+      <c r="H25" s="4">
+        <v>1</v>
+      </c>
+      <c r="K25" s="5">
         <v>39581</v>
       </c>
-      <c r="L25" s="0">
-        <v>1</v>
-      </c>
-      <c r="M25" s="0">
+      <c r="L25" s="4">
+        <v>1</v>
+      </c>
+      <c r="M25" s="4">
         <v>1</v>
       </c>
     </row>
     <row outlineLevel="0" r="26">
-      <c r="A26" s="0">
+      <c r="A26" s="4">
         <v>43</v>
       </c>
-      <c r="B26" s="1">
+      <c r="B26" s="5">
         <v>39580</v>
       </c>
-      <c r="C26" s="1">
+      <c r="C26" s="5">
         <v>39580</v>
       </c>
-      <c r="E26" s="0" t="inlineStr">
+      <c r="E26" s="6" t="inlineStr">
         <is>
           <t>First Primary</t>
         </is>
       </c>
-      <c r="F26" s="0">
-        <v>1</v>
-      </c>
-      <c r="G26" s="0">
-        <v>1</v>
-      </c>
-      <c r="H26" s="0">
-        <v>0</v>
-      </c>
-      <c r="K26" s="1">
+      <c r="F26" s="4">
+        <v>1</v>
+      </c>
+      <c r="G26" s="4">
+        <v>1</v>
+      </c>
+      <c r="H26" s="4">
+        <v>0</v>
+      </c>
+      <c r="K26" s="5">
         <v>39217</v>
       </c>
-      <c r="L26" s="0">
-        <v>1</v>
-      </c>
-      <c r="M26" s="0">
+      <c r="L26" s="4">
+        <v>1</v>
+      </c>
+      <c r="M26" s="4">
         <v>1</v>
       </c>
     </row>
     <row outlineLevel="0" r="27">
-      <c r="A27" s="0">
+      <c r="A27" s="4">
         <v>44</v>
       </c>
-      <c r="B27" s="1">
+      <c r="B27" s="5">
         <v>39597.7083333333</v>
       </c>
-      <c r="C27" s="1">
+      <c r="C27" s="5">
         <v>39597.7083333333</v>
       </c>
-      <c r="D27" s="0">
+      <c r="D27" s="4">
         <v>64</v>
       </c>
-      <c r="E27" s="0" t="inlineStr">
+      <c r="E27" s="6" t="inlineStr">
         <is>
           <t>Second Primary</t>
         </is>
       </c>
-      <c r="F27" s="0">
-        <v>1</v>
-      </c>
-      <c r="G27" s="0">
-        <v>1</v>
-      </c>
-      <c r="H27" s="0">
-        <v>0</v>
-      </c>
-      <c r="K27" s="1">
+      <c r="F27" s="4">
+        <v>1</v>
+      </c>
+      <c r="G27" s="4">
+        <v>1</v>
+      </c>
+      <c r="H27" s="4">
+        <v>0</v>
+      </c>
+      <c r="K27" s="5">
         <v>39592</v>
       </c>
-      <c r="L27" s="0">
-        <v>1</v>
-      </c>
-      <c r="M27" s="0">
+      <c r="L27" s="4">
+        <v>1</v>
+      </c>
+      <c r="M27" s="4">
         <v>1</v>
       </c>
     </row>
     <row outlineLevel="0" r="28">
-      <c r="A28" s="0">
+      <c r="A28" s="4">
         <v>45</v>
       </c>
-      <c r="B28" s="1">
+      <c r="B28" s="5">
         <v>39602.7083333333</v>
       </c>
-      <c r="C28" s="1">
+      <c r="C28" s="5">
         <v>39602.7083333333</v>
       </c>
-      <c r="D28" s="0">
+      <c r="D28" s="4">
         <v>65</v>
       </c>
-      <c r="E28" s="0" t="inlineStr">
+      <c r="E28" s="6" t="inlineStr">
         <is>
           <t>Primary Supplemental</t>
         </is>
       </c>
-      <c r="F28" s="0">
-        <v>1</v>
-      </c>
-      <c r="G28" s="0">
-        <v>1</v>
-      </c>
-      <c r="H28" s="0">
-        <v>1</v>
-      </c>
-      <c r="K28" s="1">
+      <c r="F28" s="4">
+        <v>1</v>
+      </c>
+      <c r="G28" s="4">
+        <v>1</v>
+      </c>
+      <c r="H28" s="4">
+        <v>1</v>
+      </c>
+      <c r="K28" s="5">
         <v>39598</v>
       </c>
-      <c r="L28" s="0">
-        <v>1</v>
-      </c>
-      <c r="M28" s="0">
+      <c r="L28" s="4">
+        <v>1</v>
+      </c>
+      <c r="M28" s="4">
         <v>1</v>
       </c>
     </row>
     <row outlineLevel="0" r="29">
-      <c r="A29" s="0">
+      <c r="A29" s="4">
         <v>46</v>
       </c>
-      <c r="B29" s="1">
+      <c r="B29" s="5">
         <v>39632.7083333333</v>
       </c>
-      <c r="C29" s="1">
+      <c r="C29" s="5">
         <v>39632.7083333333</v>
       </c>
-      <c r="D29" s="0">
+      <c r="D29" s="4">
         <v>66</v>
       </c>
-      <c r="E29" s="0" t="inlineStr">
+      <c r="E29" s="6" t="inlineStr">
         <is>
           <t>Third Primary</t>
         </is>
       </c>
-      <c r="F29" s="0">
-        <v>1</v>
-      </c>
-      <c r="G29" s="0">
-        <v>1</v>
-      </c>
-      <c r="H29" s="0">
-        <v>0</v>
-      </c>
-      <c r="K29" s="1">
+      <c r="F29" s="4">
+        <v>1</v>
+      </c>
+      <c r="G29" s="4">
+        <v>1</v>
+      </c>
+      <c r="H29" s="4">
+        <v>0</v>
+      </c>
+      <c r="K29" s="5">
         <v>39603</v>
       </c>
-      <c r="L29" s="0">
-        <v>1</v>
-      </c>
-      <c r="M29" s="0">
+      <c r="L29" s="4">
+        <v>1</v>
+      </c>
+      <c r="M29" s="4">
         <v>1</v>
       </c>
     </row>
     <row outlineLevel="0" r="30">
-      <c r="A30" s="0">
+      <c r="A30" s="4">
         <v>47</v>
       </c>
-      <c r="B30" s="1">
+      <c r="B30" s="5">
         <v>39734.7083333333</v>
       </c>
-      <c r="C30" s="1">
+      <c r="C30" s="5">
         <v>39734.7083333333</v>
       </c>
-      <c r="E30" s="0" t="inlineStr">
+      <c r="E30" s="6" t="inlineStr">
         <is>
           <t>General Statement Of Exception</t>
         </is>
       </c>
-      <c r="F30" s="0">
-        <v>1</v>
-      </c>
-      <c r="G30" s="0">
-        <v>1</v>
-      </c>
-      <c r="H30" s="0">
-        <v>0</v>
-      </c>
-      <c r="K30" s="1">
+      <c r="F30" s="4">
+        <v>1</v>
+      </c>
+      <c r="G30" s="4">
+        <v>1</v>
+      </c>
+      <c r="H30" s="4">
+        <v>0</v>
+      </c>
+      <c r="K30" s="5">
         <v>39729</v>
       </c>
-      <c r="L30" s="0">
-        <v>1</v>
-      </c>
-      <c r="M30" s="0">
+      <c r="L30" s="4">
+        <v>1</v>
+      </c>
+      <c r="M30" s="4">
         <v>1</v>
       </c>
     </row>
     <row outlineLevel="0" r="31">
-      <c r="A31" s="0">
+      <c r="A31" s="4">
         <v>48</v>
       </c>
-      <c r="B31" s="1">
+      <c r="B31" s="5">
         <v>39734.7083333333</v>
       </c>
-      <c r="C31" s="1">
+      <c r="C31" s="5">
         <v>39734.7083333333</v>
       </c>
-      <c r="D31" s="0">
+      <c r="D31" s="4">
         <v>68</v>
       </c>
-      <c r="E31" s="0" t="inlineStr">
+      <c r="E31" s="6" t="inlineStr">
         <is>
           <t>First General</t>
         </is>
       </c>
-      <c r="F31" s="0">
-        <v>1</v>
-      </c>
-      <c r="G31" s="0">
-        <v>1</v>
-      </c>
-      <c r="H31" s="0">
-        <v>0</v>
-      </c>
-      <c r="K31" s="1">
+      <c r="F31" s="4">
+        <v>1</v>
+      </c>
+      <c r="G31" s="4">
+        <v>1</v>
+      </c>
+      <c r="H31" s="4">
+        <v>0</v>
+      </c>
+      <c r="K31" s="5">
         <v>39729</v>
       </c>
-      <c r="L31" s="0">
-        <v>1</v>
-      </c>
-      <c r="M31" s="0">
+      <c r="L31" s="4">
+        <v>1</v>
+      </c>
+      <c r="M31" s="4">
         <v>1</v>
       </c>
     </row>
     <row outlineLevel="0" r="32">
-      <c r="A32" s="0">
+      <c r="A32" s="4">
         <v>49</v>
       </c>
-      <c r="B32" s="1">
+      <c r="B32" s="5">
         <v>39751.7083333333</v>
       </c>
-      <c r="C32" s="1">
+      <c r="C32" s="5">
         <v>39751.7083333333</v>
       </c>
-      <c r="D32" s="0">
+      <c r="D32" s="4">
         <v>69</v>
       </c>
-      <c r="E32" s="0" t="inlineStr">
+      <c r="E32" s="6" t="inlineStr">
         <is>
           <t>Second General</t>
         </is>
       </c>
-      <c r="F32" s="0">
-        <v>1</v>
-      </c>
-      <c r="G32" s="0">
-        <v>1</v>
-      </c>
-      <c r="H32" s="0">
-        <v>0</v>
-      </c>
-      <c r="K32" s="1">
+      <c r="F32" s="4">
+        <v>1</v>
+      </c>
+      <c r="G32" s="4">
+        <v>1</v>
+      </c>
+      <c r="H32" s="4">
+        <v>0</v>
+      </c>
+      <c r="K32" s="5">
         <v>39746</v>
       </c>
-      <c r="L32" s="0">
-        <v>1</v>
-      </c>
-      <c r="M32" s="0">
+      <c r="L32" s="4">
+        <v>1</v>
+      </c>
+      <c r="M32" s="4">
         <v>1</v>
       </c>
     </row>
     <row outlineLevel="0" r="33">
-      <c r="A33" s="0">
+      <c r="A33" s="4">
         <v>50</v>
       </c>
-      <c r="B33" s="1">
+      <c r="B33" s="5">
         <v>39756.7083333333</v>
       </c>
-      <c r="C33" s="1">
+      <c r="C33" s="5">
         <v>39756.7083333333</v>
       </c>
-      <c r="D33" s="0">
+      <c r="D33" s="4">
         <v>70</v>
       </c>
-      <c r="E33" s="0" t="inlineStr">
+      <c r="E33" s="6" t="inlineStr">
         <is>
           <t>General Supplemental</t>
         </is>
       </c>
-      <c r="F33" s="0">
-        <v>1</v>
-      </c>
-      <c r="G33" s="0">
-        <v>1</v>
-      </c>
-      <c r="H33" s="0">
-        <v>1</v>
-      </c>
-      <c r="K33" s="1">
+      <c r="F33" s="4">
+        <v>1</v>
+      </c>
+      <c r="G33" s="4">
+        <v>1</v>
+      </c>
+      <c r="H33" s="4">
+        <v>1</v>
+      </c>
+      <c r="K33" s="5">
         <v>39752</v>
       </c>
-      <c r="L33" s="0">
-        <v>1</v>
-      </c>
-      <c r="M33" s="0">
+      <c r="L33" s="4">
+        <v>1</v>
+      </c>
+      <c r="M33" s="4">
         <v>1</v>
       </c>
     </row>
     <row outlineLevel="0" r="34">
-      <c r="A34" s="0">
+      <c r="A34" s="4">
         <v>51</v>
       </c>
-      <c r="B34" s="1">
+      <c r="B34" s="5">
         <v>39786.7083333333</v>
       </c>
-      <c r="C34" s="1">
+      <c r="C34" s="5">
         <v>39786.7083333333</v>
       </c>
-      <c r="D34" s="0">
+      <c r="D34" s="4">
         <v>71</v>
       </c>
-      <c r="E34" s="0" t="inlineStr">
+      <c r="E34" s="6" t="inlineStr">
         <is>
           <t>Third General</t>
         </is>
       </c>
-      <c r="F34" s="0">
-        <v>1</v>
-      </c>
-      <c r="G34" s="0">
-        <v>1</v>
-      </c>
-      <c r="H34" s="0">
-        <v>0</v>
-      </c>
-      <c r="K34" s="1">
+      <c r="F34" s="4">
+        <v>1</v>
+      </c>
+      <c r="G34" s="4">
+        <v>1</v>
+      </c>
+      <c r="H34" s="4">
+        <v>0</v>
+      </c>
+      <c r="K34" s="5">
         <v>39757</v>
       </c>
-      <c r="L34" s="0">
-        <v>1</v>
-      </c>
-      <c r="M34" s="0">
+      <c r="L34" s="4">
+        <v>1</v>
+      </c>
+      <c r="M34" s="4">
         <v>1</v>
       </c>
     </row>
     <row outlineLevel="0" r="35">
-      <c r="A35" s="0">
+      <c r="A35" s="4">
         <v>52</v>
       </c>
-      <c r="B35" s="1">
+      <c r="B35" s="5">
         <v>39944.7083333333</v>
       </c>
-      <c r="C35" s="1">
+      <c r="C35" s="5">
         <v>39944.7083333333</v>
       </c>
-      <c r="D35" s="0">
+      <c r="D35" s="4">
         <v>72</v>
       </c>
-      <c r="E35" s="0" t="inlineStr">
+      <c r="E35" s="6" t="inlineStr">
         <is>
           <t>2009 Annual</t>
         </is>
       </c>
-      <c r="F35" s="0">
-        <v>1</v>
-      </c>
-      <c r="G35" s="0">
-        <v>1</v>
-      </c>
-      <c r="H35" s="0">
-        <v>0</v>
-      </c>
-      <c r="K35" s="1">
+      <c r="F35" s="4">
+        <v>1</v>
+      </c>
+      <c r="G35" s="4">
+        <v>1</v>
+      </c>
+      <c r="H35" s="4">
+        <v>0</v>
+      </c>
+      <c r="K35" s="5">
         <v>39787</v>
       </c>
-      <c r="L35" s="0">
-        <v>1</v>
-      </c>
-      <c r="M35" s="0">
+      <c r="L35" s="4">
+        <v>1</v>
+      </c>
+      <c r="M35" s="4">
         <v>1</v>
       </c>
     </row>
     <row outlineLevel="0" r="36">
-      <c r="A36" s="0">
+      <c r="A36" s="4">
         <v>53</v>
       </c>
-      <c r="B36" s="1">
+      <c r="B36" s="5">
         <v>39591.7083333333</v>
       </c>
-      <c r="C36" s="1">
+      <c r="C36" s="5">
         <v>39591.7083333333</v>
       </c>
-      <c r="D36" s="0">
+      <c r="D36" s="4">
         <v>73</v>
       </c>
-      <c r="E36" s="0" t="inlineStr">
+      <c r="E36" s="6" t="inlineStr">
         <is>
           <t>Primary Supplemental PRC/JUDGES</t>
         </is>
       </c>
-      <c r="F36" s="0">
-        <v>1</v>
-      </c>
-      <c r="G36" s="0">
-        <v>1</v>
-      </c>
-      <c r="H36" s="0">
-        <v>1</v>
-      </c>
-      <c r="K36" s="1">
+      <c r="F36" s="4">
+        <v>1</v>
+      </c>
+      <c r="G36" s="4">
+        <v>1</v>
+      </c>
+      <c r="H36" s="4">
+        <v>1</v>
+      </c>
+      <c r="K36" s="5">
         <v>39581</v>
       </c>
-      <c r="L36" s="0">
-        <v>1</v>
-      </c>
-      <c r="M36" s="0">
+      <c r="L36" s="4">
+        <v>1</v>
+      </c>
+      <c r="M36" s="4">
         <v>1</v>
       </c>
     </row>
     <row outlineLevel="0" r="37">
-      <c r="A37" s="0">
+      <c r="A37" s="4">
         <v>54</v>
       </c>
-      <c r="B37" s="1">
+      <c r="B37" s="5">
         <v>39728.7083333333</v>
       </c>
-      <c r="C37" s="1">
+      <c r="C37" s="5">
         <v>39728.7083333333</v>
       </c>
-      <c r="D37" s="0">
+      <c r="D37" s="4">
         <v>74</v>
       </c>
-      <c r="E37" s="0" t="inlineStr">
+      <c r="E37" s="6" t="inlineStr">
         <is>
           <t>General 1 Supplemental PRC/JUDGES</t>
         </is>
       </c>
-      <c r="F37" s="0">
-        <v>1</v>
-      </c>
-      <c r="G37" s="0">
-        <v>1</v>
-      </c>
-      <c r="H37" s="0">
-        <v>1</v>
-      </c>
-      <c r="K37" s="1">
+      <c r="F37" s="4">
+        <v>1</v>
+      </c>
+      <c r="G37" s="4">
+        <v>1</v>
+      </c>
+      <c r="H37" s="4">
+        <v>1</v>
+      </c>
+      <c r="K37" s="5">
         <v>39633</v>
       </c>
-      <c r="L37" s="0">
-        <v>1</v>
-      </c>
-      <c r="M37" s="0">
+      <c r="L37" s="4">
+        <v>1</v>
+      </c>
+      <c r="M37" s="4">
         <v>1</v>
       </c>
     </row>
     <row outlineLevel="0" r="38">
-      <c r="A38" s="0">
+      <c r="A38" s="4">
         <v>55</v>
       </c>
-      <c r="B38" s="1">
+      <c r="B38" s="5">
         <v>39745.7083333333</v>
       </c>
-      <c r="C38" s="1">
+      <c r="C38" s="5">
         <v>39745.7083333333</v>
       </c>
-      <c r="D38" s="0">
+      <c r="D38" s="4">
         <v>75</v>
       </c>
-      <c r="E38" s="0" t="inlineStr">
+      <c r="E38" s="6" t="inlineStr">
         <is>
           <t>General 2 Supplemental PRC/JUDGES</t>
         </is>
       </c>
-      <c r="F38" s="0">
-        <v>1</v>
-      </c>
-      <c r="G38" s="0">
-        <v>1</v>
-      </c>
-      <c r="H38" s="0">
-        <v>1</v>
-      </c>
-      <c r="K38" s="1">
+      <c r="F38" s="4">
+        <v>1</v>
+      </c>
+      <c r="G38" s="4">
+        <v>1</v>
+      </c>
+      <c r="H38" s="4">
+        <v>1</v>
+      </c>
+      <c r="K38" s="5">
         <v>39735</v>
       </c>
-      <c r="L38" s="0">
-        <v>1</v>
-      </c>
-      <c r="M38" s="0">
+      <c r="L38" s="4">
+        <v>1</v>
+      </c>
+      <c r="M38" s="4">
         <v>1</v>
       </c>
     </row>
     <row outlineLevel="0" r="39">
-      <c r="A39" s="0">
+      <c r="A39" s="4">
         <v>56</v>
       </c>
-      <c r="B39" s="1">
+      <c r="B39" s="5">
         <v>38845.7083333333</v>
       </c>
-      <c r="C39" s="1">
+      <c r="C39" s="5">
         <v>38845.7083333333</v>
       </c>
-      <c r="D39" s="0">
+      <c r="D39" s="4">
         <v>79</v>
       </c>
-      <c r="E39" s="0" t="inlineStr">
+      <c r="E39" s="6" t="inlineStr">
         <is>
           <t>2006 Annual</t>
         </is>
       </c>
-      <c r="F39" s="0">
-        <v>1</v>
-      </c>
-      <c r="G39" s="0">
-        <v>1</v>
-      </c>
-      <c r="H39" s="0">
-        <v>0</v>
-      </c>
-      <c r="K39" s="1">
+      <c r="F39" s="4">
+        <v>1</v>
+      </c>
+      <c r="G39" s="4">
+        <v>1</v>
+      </c>
+      <c r="H39" s="4">
+        <v>0</v>
+      </c>
+      <c r="K39" s="5">
         <v>38482</v>
       </c>
-      <c r="L39" s="0">
-        <v>1</v>
-      </c>
-      <c r="M39" s="0">
+      <c r="L39" s="4">
+        <v>1</v>
+      </c>
+      <c r="M39" s="4">
         <v>1</v>
       </c>
     </row>
     <row outlineLevel="0" r="40">
-      <c r="A40" s="0">
+      <c r="A40" s="4">
         <v>57</v>
       </c>
-      <c r="B40" s="1">
+      <c r="B40" s="5">
         <v>39216.7083333333</v>
       </c>
-      <c r="C40" s="1">
+      <c r="C40" s="5">
         <v>39216.7083333333</v>
       </c>
-      <c r="D40" s="0">
+      <c r="D40" s="4">
         <v>80</v>
       </c>
-      <c r="E40" s="0" t="inlineStr">
+      <c r="E40" s="6" t="inlineStr">
         <is>
           <t>2007 Annual</t>
         </is>
       </c>
-      <c r="F40" s="0">
-        <v>1</v>
-      </c>
-      <c r="G40" s="0">
-        <v>1</v>
-      </c>
-      <c r="H40" s="0">
-        <v>0</v>
-      </c>
-      <c r="K40" s="1">
+      <c r="F40" s="4">
+        <v>1</v>
+      </c>
+      <c r="G40" s="4">
+        <v>1</v>
+      </c>
+      <c r="H40" s="4">
+        <v>0</v>
+      </c>
+      <c r="K40" s="5">
         <v>39059</v>
       </c>
-      <c r="L40" s="0">
-        <v>1</v>
-      </c>
-      <c r="M40" s="0">
+      <c r="L40" s="4">
+        <v>1</v>
+      </c>
+      <c r="M40" s="4">
         <v>1</v>
       </c>
     </row>
     <row outlineLevel="0" r="41">
-      <c r="A41" s="0">
+      <c r="A41" s="4">
         <v>58</v>
       </c>
-      <c r="B41" s="1">
+      <c r="B41" s="5">
         <v>39580.7083333333</v>
       </c>
-      <c r="C41" s="1">
+      <c r="C41" s="5">
         <v>39580.7083333333</v>
       </c>
-      <c r="D41" s="0">
+      <c r="D41" s="4">
         <v>81</v>
       </c>
-      <c r="E41" s="0" t="inlineStr">
+      <c r="E41" s="6" t="inlineStr">
         <is>
           <t>2008 Annual</t>
         </is>
       </c>
-      <c r="F41" s="0">
-        <v>1</v>
-      </c>
-      <c r="G41" s="0">
-        <v>1</v>
-      </c>
-      <c r="H41" s="0">
-        <v>0</v>
-      </c>
-      <c r="K41" s="1">
+      <c r="F41" s="4">
+        <v>1</v>
+      </c>
+      <c r="G41" s="4">
+        <v>1</v>
+      </c>
+      <c r="H41" s="4">
+        <v>0</v>
+      </c>
+      <c r="K41" s="5">
         <v>39581</v>
       </c>
-      <c r="L41" s="0">
-        <v>1</v>
-      </c>
-      <c r="M41" s="0">
+      <c r="L41" s="4">
+        <v>1</v>
+      </c>
+      <c r="M41" s="4">
         <v>1</v>
       </c>
     </row>
     <row outlineLevel="0" r="42">
-      <c r="A42" s="0">
+      <c r="A42" s="4">
         <v>59</v>
       </c>
-      <c r="B42" s="1">
+      <c r="B42" s="5">
         <v>39944.7083333333</v>
       </c>
-      <c r="C42" s="1">
+      <c r="C42" s="5">
         <v>39944.7083333333</v>
       </c>
-      <c r="D42" s="0">
+      <c r="D42" s="4">
         <v>82</v>
       </c>
-      <c r="E42" s="0" t="inlineStr">
+      <c r="E42" s="6" t="inlineStr">
         <is>
           <t>2009 Annual</t>
         </is>
       </c>
-      <c r="F42" s="0">
-        <v>1</v>
-      </c>
-      <c r="G42" s="0">
-        <v>1</v>
-      </c>
-      <c r="H42" s="0">
-        <v>0</v>
-      </c>
-      <c r="K42" s="1">
+      <c r="F42" s="4">
+        <v>1</v>
+      </c>
+      <c r="G42" s="4">
+        <v>1</v>
+      </c>
+      <c r="H42" s="4">
+        <v>0</v>
+      </c>
+      <c r="K42" s="5">
         <v>39787</v>
       </c>
-      <c r="L42" s="0">
-        <v>1</v>
-      </c>
-      <c r="M42" s="0">
+      <c r="L42" s="4">
+        <v>1</v>
+      </c>
+      <c r="M42" s="4">
         <v>1</v>
       </c>
     </row>
     <row outlineLevel="0" r="43">
-      <c r="A43" s="0">
+      <c r="A43" s="4">
         <v>60</v>
       </c>
-      <c r="B43" s="1">
+      <c r="B43" s="5">
         <v>40098</v>
       </c>
-      <c r="C43" s="1">
+      <c r="C43" s="5">
         <v>40090</v>
       </c>
-      <c r="E43" s="0" t="inlineStr">
+      <c r="E43" s="6" t="inlineStr">
         <is>
           <t>2009 Second Bi-Annual</t>
         </is>
       </c>
-      <c r="F43" s="0">
-        <v>1</v>
-      </c>
-      <c r="G43" s="0">
-        <v>1</v>
-      </c>
-      <c r="H43" s="0">
-        <v>0</v>
-      </c>
-      <c r="K43" s="1">
+      <c r="F43" s="4">
+        <v>1</v>
+      </c>
+      <c r="G43" s="4">
+        <v>1</v>
+      </c>
+      <c r="H43" s="4">
+        <v>0</v>
+      </c>
+      <c r="K43" s="5">
         <v>39945</v>
       </c>
-      <c r="L43" s="0">
-        <v>1</v>
-      </c>
-      <c r="M43" s="0">
+      <c r="L43" s="4">
+        <v>1</v>
+      </c>
+      <c r="M43" s="4">
         <v>1</v>
       </c>
     </row>
     <row outlineLevel="0" r="44">
-      <c r="A44" s="0">
+      <c r="A44" s="4">
         <v>62</v>
       </c>
-      <c r="B44" s="1">
+      <c r="B44" s="5">
         <v>40098</v>
       </c>
-      <c r="C44" s="1">
+      <c r="C44" s="5">
         <v>40090</v>
       </c>
-      <c r="E44" s="0" t="inlineStr">
+      <c r="E44" s="6" t="inlineStr">
         <is>
           <t>2009 Second Bi-Annual</t>
         </is>
       </c>
-      <c r="F44" s="0">
-        <v>1</v>
-      </c>
-      <c r="G44" s="0">
-        <v>1</v>
-      </c>
-      <c r="H44" s="0">
-        <v>0</v>
-      </c>
-      <c r="K44" s="1">
+      <c r="F44" s="4">
+        <v>1</v>
+      </c>
+      <c r="G44" s="4">
+        <v>1</v>
+      </c>
+      <c r="H44" s="4">
+        <v>0</v>
+      </c>
+      <c r="K44" s="5">
         <v>39945</v>
       </c>
-      <c r="L44" s="0">
-        <v>1</v>
-      </c>
-      <c r="M44" s="0">
+      <c r="L44" s="4">
+        <v>1</v>
+      </c>
+      <c r="M44" s="4">
         <v>1</v>
       </c>
     </row>
     <row outlineLevel="0" r="45">
-      <c r="A45" s="0">
+      <c r="A45" s="4">
         <v>63</v>
       </c>
-      <c r="B45" s="1">
+      <c r="B45" s="5">
         <v>40280</v>
       </c>
-      <c r="C45" s="1">
+      <c r="C45" s="5">
         <v>40273</v>
       </c>
-      <c r="E45" s="0" t="inlineStr">
+      <c r="E45" s="6" t="inlineStr">
         <is>
           <t>First Primary Report 2010</t>
         </is>
       </c>
-      <c r="F45" s="0">
-        <v>1</v>
-      </c>
-      <c r="G45" s="0">
-        <v>1</v>
-      </c>
-      <c r="H45" s="0">
-        <v>0</v>
-      </c>
-      <c r="K45" s="1">
+      <c r="F45" s="4">
+        <v>1</v>
+      </c>
+      <c r="G45" s="4">
+        <v>1</v>
+      </c>
+      <c r="H45" s="4">
+        <v>0</v>
+      </c>
+      <c r="K45" s="5">
         <v>40091</v>
       </c>
-      <c r="L45" s="0">
-        <v>1</v>
-      </c>
-      <c r="M45" s="0">
+      <c r="L45" s="4">
+        <v>1</v>
+      </c>
+      <c r="M45" s="4">
         <v>1</v>
       </c>
     </row>
     <row outlineLevel="0" r="46">
-      <c r="A46" s="0">
+      <c r="A46" s="4">
         <v>64</v>
       </c>
-      <c r="B46" s="1">
+      <c r="B46" s="5">
         <v>40308.9999884259</v>
       </c>
-      <c r="C46" s="1">
+      <c r="C46" s="5">
         <v>40301</v>
       </c>
-      <c r="E46" s="0" t="inlineStr">
+      <c r="E46" s="6" t="inlineStr">
         <is>
           <t>Second Primary Report 2010</t>
         </is>
       </c>
-      <c r="F46" s="0">
-        <v>1</v>
-      </c>
-      <c r="G46" s="0">
-        <v>1</v>
-      </c>
-      <c r="H46" s="0">
-        <v>0</v>
-      </c>
-      <c r="K46" s="1">
+      <c r="F46" s="4">
+        <v>1</v>
+      </c>
+      <c r="G46" s="4">
+        <v>1</v>
+      </c>
+      <c r="H46" s="4">
+        <v>0</v>
+      </c>
+      <c r="K46" s="5">
         <v>40274</v>
       </c>
-      <c r="L46" s="0">
-        <v>1</v>
-      </c>
-      <c r="M46" s="0">
+      <c r="L46" s="4">
+        <v>1</v>
+      </c>
+      <c r="M46" s="4">
         <v>1</v>
       </c>
     </row>
     <row outlineLevel="0" r="47">
-      <c r="A47" s="0">
+      <c r="A47" s="4">
         <v>65</v>
       </c>
-      <c r="B47" s="1">
+      <c r="B47" s="5">
         <v>40325.9993055556</v>
       </c>
-      <c r="C47" s="1">
+      <c r="C47" s="5">
         <v>40323.9993055556</v>
       </c>
-      <c r="E47" s="0" t="inlineStr">
+      <c r="E47" s="6" t="inlineStr">
         <is>
           <t>Third Primary Report 2010</t>
         </is>
       </c>
-      <c r="F47" s="0">
-        <v>1</v>
-      </c>
-      <c r="G47" s="0">
-        <v>1</v>
-      </c>
-      <c r="H47" s="0">
-        <v>0</v>
-      </c>
-      <c r="K47" s="1">
+      <c r="F47" s="4">
+        <v>1</v>
+      </c>
+      <c r="G47" s="4">
+        <v>1</v>
+      </c>
+      <c r="H47" s="4">
+        <v>0</v>
+      </c>
+      <c r="K47" s="5">
         <v>40302</v>
       </c>
-      <c r="L47" s="0">
-        <v>1</v>
-      </c>
-      <c r="M47" s="0">
+      <c r="L47" s="4">
+        <v>1</v>
+      </c>
+      <c r="M47" s="4">
         <v>1</v>
       </c>
     </row>
     <row outlineLevel="0" r="48">
-      <c r="A48" s="0">
+      <c r="A48" s="4">
         <v>67</v>
       </c>
-      <c r="B48" s="1">
+      <c r="B48" s="5">
         <v>40360.7083333333</v>
       </c>
-      <c r="C48" s="1">
+      <c r="C48" s="5">
         <v>40354.9993055556</v>
       </c>
-      <c r="E48" s="0" t="inlineStr">
+      <c r="E48" s="6" t="inlineStr">
         <is>
           <t>Fourth Primary Report 2010</t>
         </is>
       </c>
-      <c r="F48" s="0">
-        <v>1</v>
-      </c>
-      <c r="G48" s="0">
-        <v>1</v>
-      </c>
-      <c r="H48" s="0">
-        <v>0</v>
-      </c>
-      <c r="K48" s="1">
+      <c r="F48" s="4">
+        <v>1</v>
+      </c>
+      <c r="G48" s="4">
+        <v>1</v>
+      </c>
+      <c r="H48" s="4">
+        <v>0</v>
+      </c>
+      <c r="K48" s="5">
         <v>40324</v>
       </c>
-      <c r="L48" s="0">
-        <v>1</v>
-      </c>
-      <c r="M48" s="0">
+      <c r="L48" s="4">
+        <v>1</v>
+      </c>
+      <c r="M48" s="4">
         <v>1</v>
       </c>
     </row>
     <row outlineLevel="0" r="49">
-      <c r="A49" s="0">
+      <c r="A49" s="4">
         <v>68</v>
       </c>
-      <c r="B49" s="1">
+      <c r="B49" s="5">
         <v>40329.5</v>
       </c>
-      <c r="C49" s="1">
+      <c r="C49" s="5">
         <v>40329.5</v>
       </c>
-      <c r="E49" s="0" t="inlineStr">
+      <c r="E49" s="6" t="inlineStr">
         <is>
           <t>Primary Supplemental Report 2010</t>
         </is>
       </c>
-      <c r="F49" s="0">
-        <v>0</v>
-      </c>
-      <c r="G49" s="0">
+      <c r="F49" s="4">
+        <v>0</v>
+      </c>
+      <c r="G49" s="4">
         <v>2</v>
       </c>
-      <c r="H49" s="0">
-        <v>1</v>
-      </c>
-      <c r="I49" s="1">
+      <c r="H49" s="4">
+        <v>1</v>
+      </c>
+      <c r="I49" s="5">
         <v>40323.7083333333</v>
       </c>
-      <c r="J49" s="0">
+      <c r="J49" s="4">
         <v>67</v>
       </c>
-      <c r="K49" s="1">
+      <c r="K49" s="5">
         <v>40323</v>
       </c>
-      <c r="L49" s="0">
-        <v>1</v>
-      </c>
-      <c r="M49" s="0">
+      <c r="L49" s="4">
+        <v>1</v>
+      </c>
+      <c r="M49" s="4">
         <v>1</v>
       </c>
     </row>
     <row outlineLevel="0" r="50">
-      <c r="A50" s="0">
+      <c r="A50" s="4">
         <v>69</v>
       </c>
-      <c r="B50" s="1">
+      <c r="B50" s="5">
         <v>40434.7083333333</v>
       </c>
-      <c r="C50" s="1">
+      <c r="C50" s="5">
         <v>40427.7083333333</v>
       </c>
-      <c r="E50" s="0" t="inlineStr">
+      <c r="E50" s="6" t="inlineStr">
         <is>
           <t>First General Report  2010</t>
         </is>
       </c>
-      <c r="F50" s="0">
-        <v>0</v>
-      </c>
-      <c r="G50" s="0">
-        <v>1</v>
-      </c>
-      <c r="H50" s="0">
-        <v>0</v>
-      </c>
-      <c r="K50" s="1">
+      <c r="F50" s="4">
+        <v>0</v>
+      </c>
+      <c r="G50" s="4">
+        <v>1</v>
+      </c>
+      <c r="H50" s="4">
+        <v>0</v>
+      </c>
+      <c r="K50" s="5">
         <v>40355</v>
       </c>
-      <c r="L50" s="0">
-        <v>1</v>
-      </c>
-      <c r="M50" s="0">
+      <c r="L50" s="4">
+        <v>1</v>
+      </c>
+      <c r="M50" s="4">
         <v>1</v>
       </c>
     </row>
     <row outlineLevel="0" r="51">
-      <c r="A51" s="0">
+      <c r="A51" s="4">
         <v>70</v>
       </c>
-      <c r="B51" s="1">
+      <c r="B51" s="5">
         <v>40463.7083333333</v>
       </c>
-      <c r="C51" s="1">
+      <c r="C51" s="5">
         <v>40455.9993055556</v>
       </c>
-      <c r="E51" s="0" t="inlineStr">
+      <c r="E51" s="6" t="inlineStr">
         <is>
           <t>Second General Report  2010</t>
         </is>
       </c>
-      <c r="F51" s="0">
-        <v>1</v>
-      </c>
-      <c r="G51" s="0">
-        <v>1</v>
-      </c>
-      <c r="H51" s="0">
-        <v>0</v>
-      </c>
-      <c r="K51" s="1">
+      <c r="F51" s="4">
+        <v>1</v>
+      </c>
+      <c r="G51" s="4">
+        <v>1</v>
+      </c>
+      <c r="H51" s="4">
+        <v>0</v>
+      </c>
+      <c r="K51" s="5">
         <v>40428</v>
       </c>
-      <c r="L51" s="0">
-        <v>1</v>
-      </c>
-      <c r="M51" s="0">
+      <c r="L51" s="4">
+        <v>1</v>
+      </c>
+      <c r="M51" s="4">
         <v>1</v>
       </c>
     </row>
     <row outlineLevel="0" r="52">
-      <c r="A52" s="0">
+      <c r="A52" s="4">
         <v>71</v>
       </c>
-      <c r="B52" s="1">
+      <c r="B52" s="5">
         <v>40479.7083333333</v>
       </c>
-      <c r="C52" s="1">
+      <c r="C52" s="5">
         <v>40477.7083333333</v>
       </c>
-      <c r="E52" s="0" t="inlineStr">
+      <c r="E52" s="6" t="inlineStr">
         <is>
           <t>Third General Report  2010</t>
         </is>
       </c>
-      <c r="F52" s="0">
-        <v>1</v>
-      </c>
-      <c r="G52" s="0">
-        <v>1</v>
-      </c>
-      <c r="H52" s="0">
-        <v>0</v>
-      </c>
-      <c r="K52" s="1">
+      <c r="F52" s="4">
+        <v>1</v>
+      </c>
+      <c r="G52" s="4">
+        <v>1</v>
+      </c>
+      <c r="H52" s="4">
+        <v>0</v>
+      </c>
+      <c r="K52" s="5">
         <v>40456</v>
       </c>
-      <c r="L52" s="0">
-        <v>1</v>
-      </c>
-      <c r="M52" s="0">
+      <c r="L52" s="4">
+        <v>1</v>
+      </c>
+      <c r="M52" s="4">
         <v>1</v>
       </c>
     </row>
     <row outlineLevel="0" r="53">
-      <c r="A53" s="0">
+      <c r="A53" s="4">
         <v>72</v>
       </c>
-      <c r="B53" s="1">
+      <c r="B53" s="5">
         <v>40514.7083333333</v>
       </c>
-      <c r="C53" s="1">
+      <c r="C53" s="5">
         <v>40509.7083333333</v>
       </c>
-      <c r="E53" s="0" t="inlineStr">
+      <c r="E53" s="6" t="inlineStr">
         <is>
           <t>Fourth General Report 2010 </t>
         </is>
       </c>
-      <c r="F53" s="0">
-        <v>1</v>
-      </c>
-      <c r="G53" s="0">
-        <v>1</v>
-      </c>
-      <c r="H53" s="0">
-        <v>0</v>
-      </c>
-      <c r="K53" s="1">
+      <c r="F53" s="4">
+        <v>1</v>
+      </c>
+      <c r="G53" s="4">
+        <v>1</v>
+      </c>
+      <c r="H53" s="4">
+        <v>0</v>
+      </c>
+      <c r="K53" s="5">
         <v>40478</v>
       </c>
-      <c r="L53" s="0">
-        <v>1</v>
-      </c>
-      <c r="M53" s="0">
+      <c r="L53" s="4">
+        <v>1</v>
+      </c>
+      <c r="M53" s="4">
         <v>1</v>
       </c>
     </row>
     <row outlineLevel="0" r="54">
-      <c r="A54" s="0">
+      <c r="A54" s="4">
         <v>73</v>
       </c>
-      <c r="B54" s="1">
+      <c r="B54" s="5">
         <v>40483.5</v>
       </c>
-      <c r="C54" s="1">
+      <c r="C54" s="5">
         <v>40483.5</v>
       </c>
-      <c r="E54" s="0" t="inlineStr">
+      <c r="E54" s="6" t="inlineStr">
         <is>
           <t>General Supplemental Report 2010</t>
         </is>
       </c>
-      <c r="F54" s="0">
-        <v>0</v>
-      </c>
-      <c r="G54" s="0">
+      <c r="F54" s="4">
+        <v>0</v>
+      </c>
+      <c r="G54" s="4">
         <v>2</v>
       </c>
-      <c r="H54" s="0">
-        <v>1</v>
-      </c>
-      <c r="I54" s="1">
+      <c r="H54" s="4">
+        <v>1</v>
+      </c>
+      <c r="I54" s="5">
         <v>40477.7083333333</v>
       </c>
-      <c r="J54" s="0">
+      <c r="J54" s="4">
         <v>72</v>
       </c>
-      <c r="K54" s="1">
+      <c r="K54" s="5">
         <v>40477</v>
       </c>
-      <c r="L54" s="0">
-        <v>1</v>
-      </c>
-      <c r="M54" s="0">
+      <c r="L54" s="4">
+        <v>1</v>
+      </c>
+      <c r="M54" s="4">
         <v>1</v>
       </c>
     </row>
     <row outlineLevel="0" r="55">
-      <c r="A55" s="0">
+      <c r="A55" s="4">
         <v>75</v>
       </c>
-      <c r="B55" s="1">
+      <c r="B55" s="5">
         <v>40280.7083333333</v>
       </c>
-      <c r="C55" s="1">
+      <c r="C55" s="5">
         <v>40273.7083333333</v>
       </c>
-      <c r="E55" s="0" t="inlineStr">
+      <c r="E55" s="6" t="inlineStr">
         <is>
           <t>2010 First biannual</t>
         </is>
       </c>
-      <c r="F55" s="0">
-        <v>0</v>
-      </c>
-      <c r="G55" s="0">
+      <c r="F55" s="4">
+        <v>0</v>
+      </c>
+      <c r="G55" s="4">
         <v>3</v>
       </c>
-      <c r="H55" s="0">
-        <v>0</v>
-      </c>
-      <c r="K55" s="1">
+      <c r="H55" s="4">
+        <v>0</v>
+      </c>
+      <c r="K55" s="5">
         <v>40091</v>
       </c>
-      <c r="L55" s="0">
-        <v>1</v>
-      </c>
-      <c r="M55" s="0">
+      <c r="L55" s="4">
+        <v>1</v>
+      </c>
+      <c r="M55" s="4">
         <v>1</v>
       </c>
     </row>
     <row outlineLevel="0" r="56">
-      <c r="A56" s="0">
+      <c r="A56" s="4">
         <v>76</v>
       </c>
-      <c r="B56" s="1">
+      <c r="B56" s="5">
         <v>40463.7083333333</v>
       </c>
-      <c r="C56" s="1">
+      <c r="C56" s="5">
         <v>40455.9993055556</v>
       </c>
-      <c r="E56" s="0" t="inlineStr">
+      <c r="E56" s="6" t="inlineStr">
         <is>
           <t>2010 Second Biannual</t>
         </is>
       </c>
-      <c r="F56" s="0">
-        <v>0</v>
-      </c>
-      <c r="G56" s="0">
+      <c r="F56" s="4">
+        <v>0</v>
+      </c>
+      <c r="G56" s="4">
         <v>3</v>
       </c>
-      <c r="H56" s="0">
-        <v>0</v>
-      </c>
-      <c r="K56" s="1">
+      <c r="H56" s="4">
+        <v>0</v>
+      </c>
+      <c r="K56" s="5">
         <v>40274</v>
       </c>
-      <c r="L56" s="0">
-        <v>1</v>
-      </c>
-      <c r="M56" s="0">
+      <c r="L56" s="4">
+        <v>1</v>
+      </c>
+      <c r="M56" s="4">
         <v>1</v>
       </c>
     </row>
     <row outlineLevel="0" r="57">
-      <c r="A57" s="0">
+      <c r="A57" s="4">
         <v>77</v>
       </c>
-      <c r="B57" s="1">
+      <c r="B57" s="5">
         <v>40644.7083333333</v>
       </c>
-      <c r="C57" s="1">
+      <c r="C57" s="5">
         <v>40637.7083333333</v>
       </c>
-      <c r="E57" s="0" t="inlineStr">
+      <c r="E57" s="6" t="inlineStr">
         <is>
           <t>2011 First Bi-Annual </t>
         </is>
       </c>
-      <c r="F57" s="0">
-        <v>1</v>
-      </c>
-      <c r="G57" s="0">
+      <c r="F57" s="4">
+        <v>1</v>
+      </c>
+      <c r="G57" s="4">
         <v>3</v>
       </c>
-      <c r="H57" s="0">
-        <v>0</v>
-      </c>
-      <c r="K57" s="1">
+      <c r="H57" s="4">
+        <v>0</v>
+      </c>
+      <c r="K57" s="5">
         <v>40456</v>
       </c>
-      <c r="L57" s="0">
-        <v>1</v>
-      </c>
-      <c r="M57" s="0">
+      <c r="L57" s="4">
+        <v>1</v>
+      </c>
+      <c r="M57" s="4">
         <v>1</v>
       </c>
     </row>
     <row outlineLevel="0" r="58">
-      <c r="A58" s="0">
+      <c r="A58" s="4">
         <v>78</v>
       </c>
-      <c r="B58" s="1">
+      <c r="B58" s="5">
         <v>40827.7083333333</v>
       </c>
-      <c r="C58" s="1">
+      <c r="C58" s="5">
         <v>40819.7083333333</v>
       </c>
-      <c r="E58" s="0" t="inlineStr">
+      <c r="E58" s="6" t="inlineStr">
         <is>
           <t>2011 Second Bi-Annual</t>
         </is>
       </c>
-      <c r="F58" s="0">
-        <v>1</v>
-      </c>
-      <c r="G58" s="0">
+      <c r="F58" s="4">
+        <v>1</v>
+      </c>
+      <c r="G58" s="4">
         <v>3</v>
       </c>
-      <c r="H58" s="0">
-        <v>0</v>
-      </c>
-      <c r="K58" s="1">
+      <c r="H58" s="4">
+        <v>0</v>
+      </c>
+      <c r="K58" s="5">
         <v>40638</v>
       </c>
-      <c r="L58" s="0">
-        <v>1</v>
-      </c>
-      <c r="M58" s="0">
+      <c r="L58" s="4">
+        <v>1</v>
+      </c>
+      <c r="M58" s="4">
         <v>1</v>
       </c>
     </row>
     <row outlineLevel="0" r="59">
-      <c r="A59" s="0">
+      <c r="A59" s="4">
         <v>79</v>
       </c>
-      <c r="B59" s="1">
+      <c r="B59" s="5">
         <v>41008.7083333333</v>
       </c>
-      <c r="C59" s="1">
+      <c r="C59" s="5">
         <v>41001.9993055556</v>
       </c>
-      <c r="E59" s="0" t="inlineStr">
+      <c r="E59" s="6" t="inlineStr">
         <is>
           <t>2012 First Biannual</t>
         </is>
       </c>
-      <c r="F59" s="0">
-        <v>1</v>
-      </c>
-      <c r="G59" s="0">
+      <c r="F59" s="4">
+        <v>1</v>
+      </c>
+      <c r="G59" s="4">
         <v>3</v>
       </c>
-      <c r="H59" s="0">
-        <v>0</v>
-      </c>
-      <c r="K59" s="1">
+      <c r="H59" s="4">
+        <v>0</v>
+      </c>
+      <c r="K59" s="5">
         <v>40820</v>
       </c>
-      <c r="L59" s="0">
-        <v>1</v>
-      </c>
-      <c r="M59" s="0">
+      <c r="L59" s="4">
+        <v>1</v>
+      </c>
+      <c r="M59" s="4">
         <v>1</v>
       </c>
     </row>
     <row outlineLevel="0" r="60">
-      <c r="A60" s="0">
+      <c r="A60" s="4">
         <v>80</v>
       </c>
-      <c r="B60" s="1">
+      <c r="B60" s="5">
         <v>41008.7083333333</v>
       </c>
-      <c r="C60" s="1">
+      <c r="C60" s="5">
         <v>41001.9993055556</v>
       </c>
-      <c r="E60" s="0" t="inlineStr">
+      <c r="E60" s="6" t="inlineStr">
         <is>
           <t>First Primary Report 2012 </t>
         </is>
       </c>
-      <c r="F60" s="0">
-        <v>1</v>
-      </c>
-      <c r="G60" s="0">
-        <v>1</v>
-      </c>
-      <c r="H60" s="0">
-        <v>0</v>
-      </c>
-      <c r="K60" s="1">
+      <c r="F60" s="4">
+        <v>1</v>
+      </c>
+      <c r="G60" s="4">
+        <v>1</v>
+      </c>
+      <c r="H60" s="4">
+        <v>0</v>
+      </c>
+      <c r="K60" s="5">
         <v>40820</v>
       </c>
-      <c r="L60" s="0">
-        <v>1</v>
-      </c>
-      <c r="M60" s="0">
+      <c r="L60" s="4">
+        <v>1</v>
+      </c>
+      <c r="M60" s="4">
         <v>1</v>
       </c>
     </row>
     <row outlineLevel="0" r="61">
-      <c r="A61" s="0">
+      <c r="A61" s="4">
         <v>81</v>
       </c>
-      <c r="B61" s="1">
+      <c r="B61" s="5">
         <v>41043.7083333333</v>
       </c>
-      <c r="C61" s="1">
+      <c r="C61" s="5">
         <v>41036.5</v>
       </c>
-      <c r="E61" s="0" t="inlineStr">
+      <c r="E61" s="6" t="inlineStr">
         <is>
           <t>Second Primary Report 2012</t>
         </is>
       </c>
-      <c r="F61" s="0">
-        <v>1</v>
-      </c>
-      <c r="G61" s="0">
-        <v>1</v>
-      </c>
-      <c r="H61" s="0">
-        <v>0</v>
-      </c>
-      <c r="K61" s="1">
+      <c r="F61" s="4">
+        <v>1</v>
+      </c>
+      <c r="G61" s="4">
+        <v>1</v>
+      </c>
+      <c r="H61" s="4">
+        <v>0</v>
+      </c>
+      <c r="K61" s="5">
         <v>41002</v>
       </c>
-      <c r="L61" s="0">
-        <v>1</v>
-      </c>
-      <c r="M61" s="0">
+      <c r="L61" s="4">
+        <v>1</v>
+      </c>
+      <c r="M61" s="4">
         <v>1</v>
       </c>
     </row>
     <row outlineLevel="0" r="62">
-      <c r="A62" s="0">
+      <c r="A62" s="4">
         <v>82</v>
       </c>
-      <c r="B62" s="1">
+      <c r="B62" s="5">
         <v>41060.7083333333</v>
       </c>
-      <c r="C62" s="1">
+      <c r="C62" s="5">
         <v>41060.9993055556</v>
       </c>
-      <c r="E62" s="0" t="inlineStr">
+      <c r="E62" s="6" t="inlineStr">
         <is>
           <t>Third Primary Report 2012</t>
         </is>
       </c>
-      <c r="F62" s="0">
-        <v>1</v>
-      </c>
-      <c r="G62" s="0">
-        <v>1</v>
-      </c>
-      <c r="H62" s="0">
-        <v>0</v>
-      </c>
-      <c r="K62" s="1">
+      <c r="F62" s="4">
+        <v>1</v>
+      </c>
+      <c r="G62" s="4">
+        <v>1</v>
+      </c>
+      <c r="H62" s="4">
+        <v>0</v>
+      </c>
+      <c r="K62" s="5">
         <v>41037</v>
       </c>
-      <c r="L62" s="0">
-        <v>1</v>
-      </c>
-      <c r="M62" s="0">
+      <c r="L62" s="4">
+        <v>1</v>
+      </c>
+      <c r="M62" s="4">
         <v>1</v>
       </c>
     </row>
     <row outlineLevel="0" r="63">
-      <c r="A63" s="0">
+      <c r="A63" s="4">
         <v>83</v>
       </c>
-      <c r="B63" s="1">
+      <c r="B63" s="5">
         <v>41190.7083333333</v>
       </c>
-      <c r="C63" s="1">
+      <c r="C63" s="5">
         <v>41183.7083333333</v>
       </c>
-      <c r="E63" s="0" t="inlineStr">
+      <c r="E63" s="6" t="inlineStr">
         <is>
           <t>2012 Second Biannual</t>
         </is>
       </c>
-      <c r="F63" s="0">
-        <v>1</v>
-      </c>
-      <c r="G63" s="0">
+      <c r="F63" s="4">
+        <v>1</v>
+      </c>
+      <c r="G63" s="4">
         <v>3</v>
       </c>
-      <c r="H63" s="0">
-        <v>0</v>
-      </c>
-      <c r="K63" s="1">
+      <c r="H63" s="4">
+        <v>0</v>
+      </c>
+      <c r="K63" s="5">
         <v>41002</v>
       </c>
-      <c r="L63" s="0">
-        <v>1</v>
-      </c>
-      <c r="M63" s="0">
+      <c r="L63" s="4">
+        <v>1</v>
+      </c>
+      <c r="M63" s="4">
         <v>1</v>
       </c>
     </row>
     <row outlineLevel="0" r="64">
-      <c r="A64" s="0">
+      <c r="A64" s="4">
         <v>84</v>
       </c>
-      <c r="B64" s="1">
+      <c r="B64" s="5">
         <v>41055.5</v>
       </c>
-      <c r="C64" s="1">
+      <c r="C64" s="5">
         <v>41053.5</v>
       </c>
-      <c r="E64" s="0" t="inlineStr">
+      <c r="E64" s="6" t="inlineStr">
         <is>
           <t>2012 Voter Action Act Primary Supplemental </t>
         </is>
       </c>
-      <c r="F64" s="0">
-        <v>1</v>
-      </c>
-      <c r="G64" s="0">
-        <v>1</v>
-      </c>
-      <c r="H64" s="0">
-        <v>0</v>
-      </c>
-      <c r="K64" s="1">
+      <c r="F64" s="4">
+        <v>1</v>
+      </c>
+      <c r="G64" s="4">
+        <v>1</v>
+      </c>
+      <c r="H64" s="4">
+        <v>0</v>
+      </c>
+      <c r="K64" s="5">
         <v>41037</v>
       </c>
-      <c r="L64" s="0">
-        <v>1</v>
-      </c>
-      <c r="M64" s="0">
+      <c r="L64" s="4">
+        <v>1</v>
+      </c>
+      <c r="M64" s="4">
         <v>1</v>
       </c>
     </row>
     <row outlineLevel="0" r="65">
-      <c r="A65" s="0">
+      <c r="A65" s="4">
         <v>85</v>
       </c>
-      <c r="B65" s="1">
+      <c r="B65" s="5">
         <v>41064.5</v>
       </c>
-      <c r="C65" s="1">
+      <c r="C65" s="5">
         <v>41064.5</v>
       </c>
-      <c r="E65" s="0" t="inlineStr">
+      <c r="E65" s="6" t="inlineStr">
         <is>
           <t>2012 Primary Supp. (Legis/Judical Candidates Only)</t>
         </is>
       </c>
-      <c r="F65" s="0">
-        <v>0</v>
-      </c>
-      <c r="G65" s="0">
+      <c r="F65" s="4">
+        <v>0</v>
+      </c>
+      <c r="G65" s="4">
         <v>2</v>
       </c>
-      <c r="H65" s="0">
-        <v>1</v>
-      </c>
-      <c r="I65" s="1">
+      <c r="H65" s="4">
+        <v>1</v>
+      </c>
+      <c r="I65" s="5">
         <v>41061</v>
       </c>
-      <c r="J65" s="0">
+      <c r="J65" s="4">
         <v>86</v>
       </c>
-      <c r="K65" s="1">
+      <c r="K65" s="5">
         <v>41061</v>
       </c>
-      <c r="L65" s="0">
-        <v>1</v>
-      </c>
-      <c r="M65" s="0">
+      <c r="L65" s="4">
+        <v>1</v>
+      </c>
+      <c r="M65" s="4">
         <v>1</v>
       </c>
     </row>
     <row outlineLevel="0" r="66">
-      <c r="A66" s="0">
+      <c r="A66" s="4">
         <v>86</v>
       </c>
-      <c r="B66" s="1">
+      <c r="B66" s="5">
         <v>41095.7083333333</v>
       </c>
-      <c r="C66" s="1">
+      <c r="C66" s="5">
         <v>41090</v>
       </c>
-      <c r="E66" s="0" t="inlineStr">
+      <c r="E66" s="6" t="inlineStr">
         <is>
           <t>Fourth Primary Report 2012</t>
         </is>
       </c>
-      <c r="F66" s="0">
-        <v>1</v>
-      </c>
-      <c r="G66" s="0">
-        <v>1</v>
-      </c>
-      <c r="H66" s="0">
-        <v>0</v>
-      </c>
-      <c r="K66" s="1">
+      <c r="F66" s="4">
+        <v>1</v>
+      </c>
+      <c r="G66" s="4">
+        <v>1</v>
+      </c>
+      <c r="H66" s="4">
+        <v>0</v>
+      </c>
+      <c r="K66" s="5">
         <v>41059</v>
       </c>
-      <c r="L66" s="0">
-        <v>1</v>
-      </c>
-      <c r="M66" s="0">
+      <c r="L66" s="4">
+        <v>1</v>
+      </c>
+      <c r="M66" s="4">
         <v>1</v>
       </c>
     </row>
     <row outlineLevel="0" r="67">
-      <c r="A67" s="0">
+      <c r="A67" s="4">
         <v>87</v>
       </c>
-      <c r="B67" s="1">
+      <c r="B67" s="5">
         <v>41162.7083333333</v>
       </c>
-      <c r="C67" s="1">
+      <c r="C67" s="5">
         <v>41155</v>
       </c>
-      <c r="E67" s="0" t="inlineStr">
+      <c r="E67" s="6" t="inlineStr">
         <is>
           <t>First General Report 2012</t>
         </is>
       </c>
-      <c r="F67" s="0">
-        <v>1</v>
-      </c>
-      <c r="G67" s="0">
-        <v>1</v>
-      </c>
-      <c r="H67" s="0">
-        <v>0</v>
-      </c>
-      <c r="K67" s="1">
+      <c r="F67" s="4">
+        <v>1</v>
+      </c>
+      <c r="G67" s="4">
+        <v>1</v>
+      </c>
+      <c r="H67" s="4">
+        <v>0</v>
+      </c>
+      <c r="K67" s="5">
         <v>41091</v>
       </c>
-      <c r="L67" s="0">
-        <v>1</v>
-      </c>
-      <c r="M67" s="0">
+      <c r="L67" s="4">
+        <v>1</v>
+      </c>
+      <c r="M67" s="4">
         <v>1</v>
       </c>
     </row>
     <row outlineLevel="0" r="68">
-      <c r="A68" s="0">
+      <c r="A68" s="4">
         <v>88</v>
       </c>
-      <c r="B68" s="1">
+      <c r="B68" s="5">
         <v>41190.7083333333</v>
       </c>
-      <c r="C68" s="1">
+      <c r="C68" s="5">
         <v>41183.5</v>
       </c>
-      <c r="E68" s="0" t="inlineStr">
+      <c r="E68" s="6" t="inlineStr">
         <is>
           <t>Second General Report 2012</t>
         </is>
       </c>
-      <c r="F68" s="0">
-        <v>1</v>
-      </c>
-      <c r="G68" s="0">
-        <v>1</v>
-      </c>
-      <c r="H68" s="0">
-        <v>0</v>
-      </c>
-      <c r="K68" s="1">
+      <c r="F68" s="4">
+        <v>1</v>
+      </c>
+      <c r="G68" s="4">
+        <v>1</v>
+      </c>
+      <c r="H68" s="4">
+        <v>0</v>
+      </c>
+      <c r="K68" s="5">
         <v>41156</v>
       </c>
-      <c r="L68" s="0">
-        <v>1</v>
-      </c>
-      <c r="M68" s="0">
+      <c r="L68" s="4">
+        <v>1</v>
+      </c>
+      <c r="M68" s="4">
         <v>1</v>
       </c>
     </row>
     <row outlineLevel="0" r="69">
-      <c r="A69" s="0">
+      <c r="A69" s="4">
         <v>89</v>
       </c>
-      <c r="B69" s="1">
+      <c r="B69" s="5">
         <v>41214.7083333333</v>
       </c>
-      <c r="C69" s="1">
+      <c r="C69" s="5">
         <v>41214.7083333333</v>
       </c>
-      <c r="E69" s="0" t="inlineStr">
+      <c r="E69" s="6" t="inlineStr">
         <is>
           <t>Third General Report 2012</t>
         </is>
       </c>
-      <c r="F69" s="0">
-        <v>1</v>
-      </c>
-      <c r="G69" s="0">
-        <v>1</v>
-      </c>
-      <c r="H69" s="0">
-        <v>0</v>
-      </c>
-      <c r="K69" s="1">
+      <c r="F69" s="4">
+        <v>1</v>
+      </c>
+      <c r="G69" s="4">
+        <v>1</v>
+      </c>
+      <c r="H69" s="4">
+        <v>0</v>
+      </c>
+      <c r="K69" s="5">
         <v>41184</v>
       </c>
-      <c r="L69" s="0">
-        <v>1</v>
-      </c>
-      <c r="M69" s="0">
+      <c r="L69" s="4">
+        <v>1</v>
+      </c>
+      <c r="M69" s="4">
         <v>1</v>
       </c>
     </row>
     <row outlineLevel="0" r="70">
-      <c r="A70" s="0">
+      <c r="A70" s="4">
         <v>90</v>
       </c>
-      <c r="B70" s="1">
+      <c r="B70" s="5">
         <v>41372.7083333333</v>
       </c>
-      <c r="C70" s="1">
+      <c r="C70" s="5">
         <v>41365.9993055556</v>
       </c>
-      <c r="E70" s="0" t="inlineStr">
+      <c r="E70" s="6" t="inlineStr">
         <is>
           <t>2013 First Biannual</t>
         </is>
       </c>
-      <c r="F70" s="0">
-        <v>1</v>
-      </c>
-      <c r="G70" s="0">
+      <c r="F70" s="4">
+        <v>1</v>
+      </c>
+      <c r="G70" s="4">
         <v>3</v>
       </c>
-      <c r="H70" s="0">
-        <v>0</v>
-      </c>
-      <c r="K70" s="1">
+      <c r="H70" s="4">
+        <v>0</v>
+      </c>
+      <c r="K70" s="5">
         <v>41184</v>
       </c>
-      <c r="L70" s="0">
-        <v>1</v>
-      </c>
-      <c r="M70" s="0">
+      <c r="L70" s="4">
+        <v>1</v>
+      </c>
+      <c r="M70" s="4">
         <v>1</v>
       </c>
     </row>
     <row outlineLevel="0" r="71">
-      <c r="A71" s="0">
+      <c r="A71" s="4">
         <v>91</v>
       </c>
-      <c r="B71" s="1">
+      <c r="B71" s="5">
         <v>41249.7083333333</v>
       </c>
-      <c r="C71" s="1">
+      <c r="C71" s="5">
         <v>41244.9993055556</v>
       </c>
-      <c r="E71" s="0" t="inlineStr">
+      <c r="E71" s="6" t="inlineStr">
         <is>
           <t>Fourth General Report 2012</t>
         </is>
       </c>
-      <c r="F71" s="0">
-        <v>1</v>
-      </c>
-      <c r="G71" s="0">
-        <v>1</v>
-      </c>
-      <c r="H71" s="0">
-        <v>0</v>
-      </c>
-      <c r="K71" s="1">
+      <c r="F71" s="4">
+        <v>1</v>
+      </c>
+      <c r="G71" s="4">
+        <v>1</v>
+      </c>
+      <c r="H71" s="4">
+        <v>0</v>
+      </c>
+      <c r="K71" s="5">
         <v>41213</v>
       </c>
-      <c r="L71" s="0">
-        <v>1</v>
-      </c>
-      <c r="M71" s="0">
+      <c r="L71" s="4">
+        <v>1</v>
+      </c>
+      <c r="M71" s="4">
         <v>1</v>
       </c>
     </row>
     <row outlineLevel="0" r="72">
-      <c r="A72" s="0">
+      <c r="A72" s="4">
         <v>92</v>
       </c>
-      <c r="B72" s="1">
+      <c r="B72" s="5">
         <v>41218.5</v>
       </c>
-      <c r="C72" s="1">
+      <c r="C72" s="5">
         <v>41218.5</v>
       </c>
-      <c r="E72" s="0" t="inlineStr">
+      <c r="E72" s="6" t="inlineStr">
         <is>
           <t>2012 General Supp. (Legis/Judical Candidates Only)</t>
         </is>
       </c>
-      <c r="F72" s="0">
-        <v>0</v>
-      </c>
-      <c r="G72" s="0">
+      <c r="F72" s="4">
+        <v>0</v>
+      </c>
+      <c r="G72" s="4">
         <v>2</v>
       </c>
-      <c r="H72" s="0">
-        <v>1</v>
-      </c>
-      <c r="I72" s="1">
+      <c r="H72" s="4">
+        <v>1</v>
+      </c>
+      <c r="I72" s="5">
         <v>41214.7090277778</v>
       </c>
-      <c r="J72" s="0">
+      <c r="J72" s="4">
         <v>91</v>
       </c>
-      <c r="K72" s="1">
+      <c r="K72" s="5">
         <v>41214.7090277778</v>
       </c>
-      <c r="L72" s="0">
-        <v>1</v>
-      </c>
-      <c r="M72" s="0">
+      <c r="L72" s="4">
+        <v>1</v>
+      </c>
+      <c r="M72" s="4">
         <v>1</v>
       </c>
     </row>
     <row outlineLevel="0" r="73">
-      <c r="A73" s="0">
+      <c r="A73" s="4">
         <v>93</v>
       </c>
-      <c r="B73" s="1">
+      <c r="B73" s="5">
         <v>41561.7083333333</v>
       </c>
-      <c r="C73" s="1">
+      <c r="C73" s="5">
         <v>41554.9993055556</v>
       </c>
-      <c r="E73" s="0" t="inlineStr">
+      <c r="E73" s="6" t="inlineStr">
         <is>
           <t>2013 Second Biannual</t>
         </is>
       </c>
-      <c r="F73" s="0">
-        <v>1</v>
-      </c>
-      <c r="G73" s="0">
+      <c r="F73" s="4">
+        <v>1</v>
+      </c>
+      <c r="G73" s="4">
         <v>3</v>
       </c>
-      <c r="H73" s="0">
-        <v>0</v>
-      </c>
-      <c r="K73" s="1">
+      <c r="H73" s="4">
+        <v>0</v>
+      </c>
+      <c r="K73" s="5">
         <v>41366</v>
       </c>
-      <c r="L73" s="0">
-        <v>1</v>
-      </c>
-      <c r="M73" s="0">
+      <c r="L73" s="4">
+        <v>1</v>
+      </c>
+      <c r="M73" s="4">
         <v>1</v>
       </c>
     </row>
     <row outlineLevel="0" r="74">
-      <c r="A74" s="0">
+      <c r="A74" s="4">
         <v>94</v>
       </c>
-      <c r="B74" s="1">
+      <c r="B74" s="5">
         <v>41743.7083333333</v>
       </c>
-      <c r="C74" s="1">
+      <c r="C74" s="5">
         <v>41736.9993055556</v>
       </c>
-      <c r="E74" s="0" t="inlineStr">
+      <c r="E74" s="6" t="inlineStr">
         <is>
           <t>2014 First Biannual </t>
         </is>
       </c>
-      <c r="F74" s="0">
-        <v>1</v>
-      </c>
-      <c r="G74" s="0">
+      <c r="F74" s="4">
+        <v>1</v>
+      </c>
+      <c r="G74" s="4">
         <v>3</v>
       </c>
-      <c r="H74" s="0">
-        <v>0</v>
-      </c>
-      <c r="K74" s="1">
+      <c r="H74" s="4">
+        <v>0</v>
+      </c>
+      <c r="K74" s="5">
         <v>41555</v>
       </c>
-      <c r="L74" s="0">
-        <v>1</v>
-      </c>
-      <c r="M74" s="0">
+      <c r="L74" s="4">
+        <v>1</v>
+      </c>
+      <c r="M74" s="4">
         <v>1</v>
       </c>
     </row>
     <row outlineLevel="0" r="75">
-      <c r="A75" s="0">
+      <c r="A75" s="4">
         <v>95</v>
       </c>
-      <c r="B75" s="1">
+      <c r="B75" s="5">
         <v>41743.7083333333</v>
       </c>
-      <c r="C75" s="1">
+      <c r="C75" s="5">
         <v>41736.9993055556</v>
       </c>
-      <c r="E75" s="0" t="inlineStr">
+      <c r="E75" s="6" t="inlineStr">
         <is>
           <t>2014 First Primary</t>
         </is>
       </c>
-      <c r="F75" s="0">
-        <v>1</v>
-      </c>
-      <c r="G75" s="0">
-        <v>1</v>
-      </c>
-      <c r="H75" s="0">
-        <v>0</v>
-      </c>
-      <c r="K75" s="1">
+      <c r="F75" s="4">
+        <v>1</v>
+      </c>
+      <c r="G75" s="4">
+        <v>1</v>
+      </c>
+      <c r="H75" s="4">
+        <v>0</v>
+      </c>
+      <c r="K75" s="5">
         <v>41555</v>
       </c>
-      <c r="L75" s="0">
-        <v>1</v>
-      </c>
-      <c r="M75" s="0">
+      <c r="L75" s="4">
+        <v>1</v>
+      </c>
+      <c r="M75" s="4">
         <v>1</v>
       </c>
     </row>
     <row outlineLevel="0" r="76">
-      <c r="A76" s="0">
+      <c r="A76" s="4">
         <v>96</v>
       </c>
-      <c r="B76" s="1">
+      <c r="B76" s="5">
         <v>41771.7083333333</v>
       </c>
-      <c r="C76" s="1">
+      <c r="C76" s="5">
         <v>41764.9993055556</v>
       </c>
-      <c r="E76" s="0" t="inlineStr">
+      <c r="E76" s="6" t="inlineStr">
         <is>
           <t>2014 Second Primary</t>
         </is>
       </c>
-      <c r="F76" s="0">
-        <v>1</v>
-      </c>
-      <c r="G76" s="0">
-        <v>1</v>
-      </c>
-      <c r="H76" s="0">
-        <v>0</v>
-      </c>
-      <c r="K76" s="1">
+      <c r="F76" s="4">
+        <v>1</v>
+      </c>
+      <c r="G76" s="4">
+        <v>1</v>
+      </c>
+      <c r="H76" s="4">
+        <v>0</v>
+      </c>
+      <c r="K76" s="5">
         <v>41737</v>
       </c>
-      <c r="L76" s="0">
-        <v>1</v>
-      </c>
-      <c r="M76" s="0">
+      <c r="L76" s="4">
+        <v>1</v>
+      </c>
+      <c r="M76" s="4">
         <v>1</v>
       </c>
     </row>
     <row outlineLevel="0" r="77">
-      <c r="A77" s="0">
+      <c r="A77" s="4">
         <v>97</v>
       </c>
-      <c r="B77" s="1">
+      <c r="B77" s="5">
         <v>41925.7083333333</v>
       </c>
-      <c r="C77" s="1">
+      <c r="C77" s="5">
         <v>41918.9993055556</v>
       </c>
-      <c r="E77" s="0" t="inlineStr">
+      <c r="E77" s="6" t="inlineStr">
         <is>
           <t>2014 Second Biannual</t>
         </is>
       </c>
-      <c r="F77" s="0">
-        <v>1</v>
-      </c>
-      <c r="G77" s="0">
+      <c r="F77" s="4">
+        <v>1</v>
+      </c>
+      <c r="G77" s="4">
         <v>3</v>
       </c>
-      <c r="H77" s="0">
-        <v>0</v>
-      </c>
-      <c r="K77" s="1">
+      <c r="H77" s="4">
+        <v>0</v>
+      </c>
+      <c r="K77" s="5">
         <v>41737</v>
       </c>
-      <c r="L77" s="0">
-        <v>1</v>
-      </c>
-      <c r="M77" s="0">
+      <c r="L77" s="4">
+        <v>1</v>
+      </c>
+      <c r="M77" s="4">
         <v>1</v>
       </c>
     </row>
     <row outlineLevel="0" r="78">
-      <c r="A78" s="0">
+      <c r="A78" s="4">
         <v>98</v>
       </c>
-      <c r="B78" s="1">
+      <c r="B78" s="5">
         <v>41788.7083333333</v>
       </c>
-      <c r="C78" s="1">
+      <c r="C78" s="5">
         <v>41786.9993055556</v>
       </c>
-      <c r="E78" s="0" t="inlineStr">
+      <c r="E78" s="6" t="inlineStr">
         <is>
           <t>2014 Third Primary</t>
         </is>
       </c>
-      <c r="F78" s="0">
-        <v>1</v>
-      </c>
-      <c r="G78" s="0">
-        <v>1</v>
-      </c>
-      <c r="H78" s="0">
-        <v>0</v>
-      </c>
-      <c r="K78" s="1">
+      <c r="F78" s="4">
+        <v>1</v>
+      </c>
+      <c r="G78" s="4">
+        <v>1</v>
+      </c>
+      <c r="H78" s="4">
+        <v>0</v>
+      </c>
+      <c r="K78" s="5">
         <v>41765</v>
       </c>
-      <c r="L78" s="0">
-        <v>1</v>
-      </c>
-      <c r="M78" s="0">
+      <c r="L78" s="4">
+        <v>1</v>
+      </c>
+      <c r="M78" s="4">
         <v>1</v>
       </c>
     </row>
     <row outlineLevel="0" r="79">
-      <c r="A79" s="0">
+      <c r="A79" s="4">
         <v>99</v>
       </c>
-      <c r="B79" s="1">
+      <c r="B79" s="5">
         <v>41792.5</v>
       </c>
-      <c r="C79" s="1">
+      <c r="C79" s="5">
         <v>41792.5</v>
       </c>
-      <c r="E79" s="0" t="inlineStr">
+      <c r="E79" s="6" t="inlineStr">
         <is>
           <t>2014 Primary Supplemental</t>
         </is>
       </c>
-      <c r="F79" s="0">
-        <v>0</v>
-      </c>
-      <c r="G79" s="0">
+      <c r="F79" s="4">
+        <v>0</v>
+      </c>
+      <c r="G79" s="4">
         <v>2</v>
       </c>
-      <c r="H79" s="0">
-        <v>1</v>
-      </c>
-      <c r="I79" s="1">
+      <c r="H79" s="4">
+        <v>1</v>
+      </c>
+      <c r="I79" s="5">
         <v>41786.7090277778</v>
       </c>
-      <c r="J79" s="0">
+      <c r="J79" s="4">
         <v>100</v>
       </c>
-      <c r="K79" s="1">
+      <c r="K79" s="5">
         <v>41786.7090277778</v>
       </c>
-      <c r="L79" s="0">
-        <v>1</v>
-      </c>
-      <c r="M79" s="0">
+      <c r="L79" s="4">
+        <v>1</v>
+      </c>
+      <c r="M79" s="4">
         <v>1</v>
       </c>
     </row>
     <row outlineLevel="0" r="80">
-      <c r="A80" s="0">
+      <c r="A80" s="4">
         <v>100</v>
       </c>
-      <c r="B80" s="1">
+      <c r="B80" s="5">
         <v>41823.7083333333</v>
       </c>
-      <c r="C80" s="1">
+      <c r="C80" s="5">
         <v>41818.9993055556</v>
       </c>
-      <c r="E80" s="0" t="inlineStr">
+      <c r="E80" s="6" t="inlineStr">
         <is>
           <t>2014 Fourth Primary</t>
         </is>
       </c>
-      <c r="F80" s="0">
-        <v>1</v>
-      </c>
-      <c r="G80" s="0">
-        <v>1</v>
-      </c>
-      <c r="H80" s="0">
-        <v>0</v>
-      </c>
-      <c r="K80" s="1">
+      <c r="F80" s="4">
+        <v>1</v>
+      </c>
+      <c r="G80" s="4">
+        <v>1</v>
+      </c>
+      <c r="H80" s="4">
+        <v>0</v>
+      </c>
+      <c r="K80" s="5">
         <v>41787</v>
       </c>
-      <c r="L80" s="0">
-        <v>1</v>
-      </c>
-      <c r="M80" s="0">
+      <c r="L80" s="4">
+        <v>1</v>
+      </c>
+      <c r="M80" s="4">
         <v>1</v>
       </c>
     </row>
     <row outlineLevel="0" r="81">
-      <c r="A81" s="0">
+      <c r="A81" s="4">
         <v>101</v>
       </c>
-      <c r="B81" s="1">
+      <c r="B81" s="5">
         <v>41890.7083333333</v>
       </c>
-      <c r="C81" s="1">
+      <c r="C81" s="5">
         <v>41883.9993055556</v>
       </c>
-      <c r="E81" s="0" t="inlineStr">
+      <c r="E81" s="6" t="inlineStr">
         <is>
           <t>2014 First General </t>
         </is>
       </c>
-      <c r="F81" s="0">
-        <v>1</v>
-      </c>
-      <c r="G81" s="0">
-        <v>1</v>
-      </c>
-      <c r="H81" s="0">
-        <v>0</v>
-      </c>
-      <c r="K81" s="1">
+      <c r="F81" s="4">
+        <v>1</v>
+      </c>
+      <c r="G81" s="4">
+        <v>1</v>
+      </c>
+      <c r="H81" s="4">
+        <v>0</v>
+      </c>
+      <c r="K81" s="5">
         <v>41819</v>
       </c>
-      <c r="L81" s="0">
-        <v>1</v>
-      </c>
-      <c r="M81" s="0">
+      <c r="L81" s="4">
+        <v>1</v>
+      </c>
+      <c r="M81" s="4">
         <v>1</v>
       </c>
     </row>
     <row outlineLevel="0" r="82">
-      <c r="A82" s="0">
+      <c r="A82" s="4">
         <v>102</v>
       </c>
-      <c r="B82" s="1">
+      <c r="B82" s="5">
         <v>41925.7083333333</v>
       </c>
-      <c r="C82" s="1">
+      <c r="C82" s="5">
         <v>41918.9993055556</v>
       </c>
-      <c r="E82" s="0" t="inlineStr">
+      <c r="E82" s="6" t="inlineStr">
         <is>
           <t>2014 Second General </t>
         </is>
       </c>
-      <c r="F82" s="0">
-        <v>1</v>
-      </c>
-      <c r="G82" s="0">
-        <v>1</v>
-      </c>
-      <c r="H82" s="0">
-        <v>0</v>
-      </c>
-      <c r="K82" s="1">
+      <c r="F82" s="4">
+        <v>1</v>
+      </c>
+      <c r="G82" s="4">
+        <v>1</v>
+      </c>
+      <c r="H82" s="4">
+        <v>0</v>
+      </c>
+      <c r="K82" s="5">
         <v>41884</v>
       </c>
-      <c r="L82" s="0">
-        <v>1</v>
-      </c>
-      <c r="M82" s="0">
+      <c r="L82" s="4">
+        <v>1</v>
+      </c>
+      <c r="M82" s="4">
         <v>1</v>
       </c>
     </row>
     <row outlineLevel="0" r="83">
-      <c r="A83" s="0">
+      <c r="A83" s="4">
         <v>103</v>
       </c>
-      <c r="B83" s="1">
+      <c r="B83" s="5">
         <v>41942.7083333333</v>
       </c>
-      <c r="C83" s="1">
+      <c r="C83" s="5">
         <v>41942.7083333333</v>
       </c>
-      <c r="E83" s="0" t="inlineStr">
+      <c r="E83" s="6" t="inlineStr">
         <is>
           <t>2014 Third General</t>
         </is>
       </c>
-      <c r="F83" s="0">
-        <v>1</v>
-      </c>
-      <c r="G83" s="0">
-        <v>1</v>
-      </c>
-      <c r="H83" s="0">
-        <v>0</v>
-      </c>
-      <c r="K83" s="1">
+      <c r="F83" s="4">
+        <v>1</v>
+      </c>
+      <c r="G83" s="4">
+        <v>1</v>
+      </c>
+      <c r="H83" s="4">
+        <v>0</v>
+      </c>
+      <c r="K83" s="5">
         <v>41919</v>
       </c>
-      <c r="L83" s="0">
-        <v>1</v>
-      </c>
-      <c r="M83" s="0">
+      <c r="L83" s="4">
+        <v>1</v>
+      </c>
+      <c r="M83" s="4">
         <v>1</v>
       </c>
     </row>
     <row outlineLevel="0" r="84">
-      <c r="A84" s="0">
+      <c r="A84" s="4">
         <v>104</v>
       </c>
-      <c r="B84" s="1">
+      <c r="B84" s="5">
         <v>41977.7083333333</v>
       </c>
-      <c r="C84" s="1">
+      <c r="C84" s="5">
         <v>41972.9993055556</v>
       </c>
-      <c r="E84" s="0" t="inlineStr">
+      <c r="E84" s="6" t="inlineStr">
         <is>
           <t>2014 Fourth General</t>
         </is>
       </c>
-      <c r="F84" s="0">
-        <v>1</v>
-      </c>
-      <c r="G84" s="0">
-        <v>1</v>
-      </c>
-      <c r="H84" s="0">
-        <v>0</v>
-      </c>
-      <c r="K84" s="1">
+      <c r="F84" s="4">
+        <v>1</v>
+      </c>
+      <c r="G84" s="4">
+        <v>1</v>
+      </c>
+      <c r="H84" s="4">
+        <v>0</v>
+      </c>
+      <c r="K84" s="5">
         <v>41941</v>
       </c>
-      <c r="L84" s="0">
-        <v>1</v>
-      </c>
-      <c r="M84" s="0">
+      <c r="L84" s="4">
+        <v>1</v>
+      </c>
+      <c r="M84" s="4">
         <v>1</v>
       </c>
     </row>
     <row outlineLevel="0" r="85">
-      <c r="A85" s="0">
+      <c r="A85" s="4">
         <v>105</v>
       </c>
-      <c r="B85" s="1">
+      <c r="B85" s="5">
         <v>41946.5</v>
       </c>
-      <c r="C85" s="1">
+      <c r="C85" s="5">
         <v>41946.5</v>
       </c>
-      <c r="E85" s="0" t="inlineStr">
+      <c r="E85" s="6" t="inlineStr">
         <is>
           <t>2014 General Supplemental</t>
         </is>
       </c>
-      <c r="F85" s="0">
-        <v>0</v>
-      </c>
-      <c r="G85" s="0">
+      <c r="F85" s="4">
+        <v>0</v>
+      </c>
+      <c r="G85" s="4">
         <v>2</v>
       </c>
-      <c r="H85" s="0">
-        <v>0</v>
-      </c>
-      <c r="I85" s="1">
+      <c r="H85" s="4">
+        <v>0</v>
+      </c>
+      <c r="I85" s="5">
         <v>41940.7090277778</v>
       </c>
-      <c r="J85" s="0">
+      <c r="J85" s="4">
         <v>104</v>
       </c>
-      <c r="K85" s="1">
+      <c r="K85" s="5">
         <v>41940.7090277778</v>
       </c>
-      <c r="L85" s="0">
-        <v>1</v>
-      </c>
-      <c r="M85" s="0">
+      <c r="L85" s="4">
+        <v>1</v>
+      </c>
+      <c r="M85" s="4">
         <v>1</v>
       </c>
     </row>
     <row outlineLevel="0" r="86">
-      <c r="A86" s="0">
+      <c r="A86" s="4">
         <v>106</v>
       </c>
-      <c r="B86" s="1">
+      <c r="B86" s="5">
         <v>42107.7083333333</v>
       </c>
-      <c r="C86" s="1">
+      <c r="C86" s="5">
         <v>42100.9993055556</v>
       </c>
-      <c r="E86" s="0" t="inlineStr">
+      <c r="E86" s="6" t="inlineStr">
         <is>
           <t>2015 First Biannual</t>
         </is>
       </c>
-      <c r="F86" s="0">
-        <v>1</v>
-      </c>
-      <c r="G86" s="0">
+      <c r="F86" s="4">
+        <v>1</v>
+      </c>
+      <c r="G86" s="4">
         <v>3</v>
       </c>
-      <c r="H86" s="0">
-        <v>0</v>
-      </c>
-      <c r="K86" s="1">
+      <c r="H86" s="4">
+        <v>0</v>
+      </c>
+      <c r="K86" s="5">
         <v>41919</v>
       </c>
-      <c r="L86" s="0">
-        <v>1</v>
-      </c>
-      <c r="M86" s="0">
+      <c r="L86" s="4">
+        <v>1</v>
+      </c>
+      <c r="M86" s="4">
         <v>1</v>
       </c>
     </row>
     <row outlineLevel="0" r="87">
-      <c r="A87" s="0">
+      <c r="A87" s="4">
         <v>107</v>
       </c>
-      <c r="B87" s="1">
+      <c r="B87" s="5">
         <v>42107.9993055556</v>
       </c>
-      <c r="C87" s="1">
+      <c r="C87" s="5">
         <v>42066.9993055556</v>
       </c>
-      <c r="E87" s="0" t="inlineStr">
+      <c r="E87" s="6" t="inlineStr">
         <is>
           <t>2015 School District Report </t>
         </is>
       </c>
-      <c r="F87" s="0">
-        <v>1</v>
-      </c>
-      <c r="G87" s="0">
+      <c r="F87" s="4">
+        <v>1</v>
+      </c>
+      <c r="G87" s="4">
         <v>4</v>
       </c>
-      <c r="H87" s="0">
-        <v>0</v>
-      </c>
-      <c r="K87" s="1">
+      <c r="H87" s="4">
+        <v>0</v>
+      </c>
+      <c r="K87" s="5">
         <v>41334</v>
       </c>
-      <c r="L87" s="0">
-        <v>1</v>
-      </c>
-      <c r="M87" s="0">
+      <c r="L87" s="4">
+        <v>1</v>
+      </c>
+      <c r="M87" s="4">
         <v>1</v>
       </c>
     </row>
     <row outlineLevel="0" r="88">
-      <c r="A88" s="0">
+      <c r="A88" s="4">
         <v>108</v>
       </c>
-      <c r="B88" s="1">
+      <c r="B88" s="5">
         <v>42290.9993055556</v>
       </c>
-      <c r="C88" s="1">
+      <c r="C88" s="5">
         <v>42282.9993055556</v>
       </c>
-      <c r="E88" s="0" t="inlineStr">
+      <c r="E88" s="6" t="inlineStr">
         <is>
           <t>2015 Second Biannual</t>
         </is>
       </c>
-      <c r="F88" s="0">
-        <v>1</v>
-      </c>
-      <c r="G88" s="0">
+      <c r="F88" s="4">
+        <v>1</v>
+      </c>
+      <c r="G88" s="4">
         <v>3</v>
       </c>
-      <c r="H88" s="0">
-        <v>0</v>
-      </c>
-      <c r="K88" s="1">
+      <c r="H88" s="4">
+        <v>0</v>
+      </c>
+      <c r="K88" s="5">
         <v>42101</v>
       </c>
-      <c r="L88" s="0">
-        <v>1</v>
-      </c>
-      <c r="M88" s="0">
+      <c r="L88" s="4">
+        <v>1</v>
+      </c>
+      <c r="M88" s="4">
         <v>1</v>
       </c>
     </row>
     <row outlineLevel="0" r="89">
-      <c r="A89" s="0">
+      <c r="A89" s="4">
         <v>109</v>
       </c>
-      <c r="B89" s="1">
+      <c r="B89" s="5">
         <v>42471.9993055556</v>
       </c>
-      <c r="C89" s="1">
+      <c r="C89" s="5">
         <v>42464.9993055556</v>
       </c>
-      <c r="E89" s="0" t="inlineStr">
+      <c r="E89" s="6" t="inlineStr">
         <is>
           <t>2016 First Biannual </t>
         </is>
       </c>
-      <c r="F89" s="0">
-        <v>1</v>
-      </c>
-      <c r="G89" s="0">
+      <c r="F89" s="4">
+        <v>1</v>
+      </c>
+      <c r="G89" s="4">
         <v>3</v>
       </c>
-      <c r="H89" s="0">
-        <v>0</v>
-      </c>
-      <c r="K89" s="1">
+      <c r="H89" s="4">
+        <v>0</v>
+      </c>
+      <c r="K89" s="5">
         <v>42283</v>
       </c>
-      <c r="L89" s="0">
-        <v>1</v>
-      </c>
-      <c r="M89" s="0">
+      <c r="L89" s="4">
+        <v>1</v>
+      </c>
+      <c r="M89" s="4">
         <v>1</v>
       </c>
     </row>
     <row outlineLevel="0" r="90">
-      <c r="A90" s="0">
+      <c r="A90" s="4">
         <v>110</v>
       </c>
-      <c r="B90" s="1">
+      <c r="B90" s="5">
         <v>42471.9993055556</v>
       </c>
-      <c r="C90" s="1">
+      <c r="C90" s="5">
         <v>42464.9993055556</v>
       </c>
-      <c r="E90" s="0" t="inlineStr">
+      <c r="E90" s="6" t="inlineStr">
         <is>
           <t>2016 First Primary</t>
         </is>
       </c>
-      <c r="F90" s="0">
-        <v>1</v>
-      </c>
-      <c r="G90" s="0">
-        <v>1</v>
-      </c>
-      <c r="H90" s="0">
-        <v>0</v>
-      </c>
-      <c r="K90" s="1">
+      <c r="F90" s="4">
+        <v>1</v>
+      </c>
+      <c r="G90" s="4">
+        <v>1</v>
+      </c>
+      <c r="H90" s="4">
+        <v>0</v>
+      </c>
+      <c r="K90" s="5">
         <v>42283</v>
       </c>
-      <c r="L90" s="0">
-        <v>1</v>
-      </c>
-      <c r="M90" s="0">
+      <c r="L90" s="4">
+        <v>1</v>
+      </c>
+      <c r="M90" s="4">
         <v>1</v>
       </c>
     </row>
     <row outlineLevel="0" r="91">
-      <c r="A91" s="0">
+      <c r="A91" s="4">
         <v>111</v>
       </c>
-      <c r="B91" s="1">
+      <c r="B91" s="5">
         <v>42471</v>
       </c>
-      <c r="C91" s="1">
+      <c r="C91" s="5">
         <v>42471.9993055556</v>
       </c>
-      <c r="E91" s="0" t="inlineStr">
+      <c r="E91" s="6" t="inlineStr">
         <is>
           <t>2016 School District Report</t>
         </is>
       </c>
-      <c r="F91" s="0">
-        <v>1</v>
-      </c>
-      <c r="G91" s="0">
+      <c r="F91" s="4">
+        <v>1</v>
+      </c>
+      <c r="G91" s="4">
         <v>4</v>
       </c>
-      <c r="H91" s="0">
-        <v>0</v>
-      </c>
-      <c r="K91" s="1">
+      <c r="H91" s="4">
+        <v>0</v>
+      </c>
+      <c r="K91" s="5">
         <v>42067</v>
       </c>
-      <c r="L91" s="0">
-        <v>1</v>
-      </c>
-      <c r="M91" s="0">
+      <c r="L91" s="4">
+        <v>1</v>
+      </c>
+      <c r="M91" s="4">
         <v>1</v>
       </c>
     </row>
     <row outlineLevel="0" r="92">
-      <c r="A92" s="0">
+      <c r="A92" s="4">
         <v>112</v>
       </c>
-      <c r="B92" s="1">
+      <c r="B92" s="5">
         <v>42499.9993055556</v>
       </c>
-      <c r="C92" s="1">
+      <c r="C92" s="5">
         <v>42492.9993055556</v>
       </c>
-      <c r="E92" s="0" t="inlineStr">
+      <c r="E92" s="6" t="inlineStr">
         <is>
           <t>2016 Second Primary</t>
         </is>
       </c>
-      <c r="F92" s="0">
-        <v>1</v>
-      </c>
-      <c r="G92" s="0">
-        <v>1</v>
-      </c>
-      <c r="H92" s="0">
-        <v>0</v>
-      </c>
-      <c r="K92" s="1">
+      <c r="F92" s="4">
+        <v>1</v>
+      </c>
+      <c r="G92" s="4">
+        <v>1</v>
+      </c>
+      <c r="H92" s="4">
+        <v>0</v>
+      </c>
+      <c r="K92" s="5">
         <v>42465</v>
       </c>
-      <c r="L92" s="0">
-        <v>1</v>
-      </c>
-      <c r="M92" s="0">
+      <c r="L92" s="4">
+        <v>1</v>
+      </c>
+      <c r="M92" s="4">
         <v>1</v>
       </c>
     </row>
     <row outlineLevel="0" r="93">
-      <c r="A93" s="0">
+      <c r="A93" s="4">
         <v>113</v>
       </c>
-      <c r="B93" s="1">
+      <c r="B93" s="5">
         <v>42654.9993055556</v>
       </c>
-      <c r="C93" s="1">
+      <c r="C93" s="5">
         <v>42646.9993055556</v>
       </c>
-      <c r="E93" s="0" t="inlineStr">
+      <c r="E93" s="6" t="inlineStr">
         <is>
           <t>2016 Second Biannual </t>
         </is>
       </c>
-      <c r="F93" s="0">
-        <v>1</v>
-      </c>
-      <c r="G93" s="0">
+      <c r="F93" s="4">
+        <v>1</v>
+      </c>
+      <c r="G93" s="4">
         <v>3</v>
       </c>
-      <c r="H93" s="0">
-        <v>0</v>
-      </c>
-      <c r="K93" s="1">
+      <c r="H93" s="4">
+        <v>0</v>
+      </c>
+      <c r="K93" s="5">
         <v>42465</v>
       </c>
-      <c r="L93" s="0">
-        <v>1</v>
-      </c>
-      <c r="M93" s="0">
+      <c r="L93" s="4">
+        <v>1</v>
+      </c>
+      <c r="M93" s="4">
         <v>1</v>
       </c>
     </row>
     <row outlineLevel="0" r="94">
-      <c r="A94" s="0">
+      <c r="A94" s="4">
         <v>114</v>
       </c>
-      <c r="B94" s="1">
+      <c r="B94" s="5">
         <v>42523.9993055556</v>
       </c>
-      <c r="C94" s="1">
+      <c r="C94" s="5">
         <v>42523.9993055556</v>
       </c>
-      <c r="E94" s="0" t="inlineStr">
+      <c r="E94" s="6" t="inlineStr">
         <is>
           <t>2016 Third Primary</t>
         </is>
       </c>
-      <c r="F94" s="0">
-        <v>1</v>
-      </c>
-      <c r="G94" s="0">
-        <v>1</v>
-      </c>
-      <c r="H94" s="0">
-        <v>0</v>
-      </c>
-      <c r="K94" s="1">
+      <c r="F94" s="4">
+        <v>1</v>
+      </c>
+      <c r="G94" s="4">
+        <v>1</v>
+      </c>
+      <c r="H94" s="4">
+        <v>0</v>
+      </c>
+      <c r="K94" s="5">
         <v>42493</v>
       </c>
-      <c r="L94" s="0">
-        <v>1</v>
-      </c>
-      <c r="M94" s="0">
+      <c r="L94" s="4">
+        <v>1</v>
+      </c>
+      <c r="M94" s="4">
         <v>1</v>
       </c>
     </row>
     <row outlineLevel="0" r="95">
-      <c r="A95" s="0">
+      <c r="A95" s="4">
         <v>115</v>
       </c>
-      <c r="B95" s="1">
+      <c r="B95" s="5">
         <v>42558.9993055556</v>
       </c>
-      <c r="C95" s="1">
+      <c r="C95" s="5">
         <v>42553.5409722222</v>
       </c>
-      <c r="E95" s="0" t="inlineStr">
+      <c r="E95" s="6" t="inlineStr">
         <is>
           <t>2016 Fourth Primary</t>
         </is>
       </c>
-      <c r="F95" s="0">
-        <v>1</v>
-      </c>
-      <c r="G95" s="0">
-        <v>1</v>
-      </c>
-      <c r="H95" s="0">
-        <v>0</v>
-      </c>
-      <c r="K95" s="1">
+      <c r="F95" s="4">
+        <v>1</v>
+      </c>
+      <c r="G95" s="4">
+        <v>1</v>
+      </c>
+      <c r="H95" s="4">
+        <v>0</v>
+      </c>
+      <c r="K95" s="5">
         <v>42522</v>
       </c>
-      <c r="L95" s="0">
-        <v>1</v>
-      </c>
-      <c r="M95" s="0">
+      <c r="L95" s="4">
+        <v>1</v>
+      </c>
+      <c r="M95" s="4">
         <v>1</v>
       </c>
     </row>
     <row outlineLevel="0" r="96">
-      <c r="A96" s="0">
+      <c r="A96" s="4">
         <v>116</v>
       </c>
-      <c r="B96" s="1">
+      <c r="B96" s="5">
         <v>42527.5</v>
       </c>
-      <c r="C96" s="1">
+      <c r="C96" s="5">
         <v>42527.5</v>
       </c>
-      <c r="E96" s="0" t="inlineStr">
+      <c r="E96" s="6" t="inlineStr">
         <is>
           <t>2016 Primary Supplemental</t>
         </is>
       </c>
-      <c r="F96" s="0">
-        <v>0</v>
-      </c>
-      <c r="G96" s="0">
+      <c r="F96" s="4">
+        <v>0</v>
+      </c>
+      <c r="G96" s="4">
         <v>2</v>
       </c>
-      <c r="H96" s="0">
-        <v>0</v>
-      </c>
-      <c r="I96" s="1">
+      <c r="H96" s="4">
+        <v>0</v>
+      </c>
+      <c r="I96" s="5">
         <v>42521</v>
       </c>
-      <c r="J96" s="0">
+      <c r="J96" s="4">
         <v>115</v>
       </c>
-      <c r="K96" s="1">
+      <c r="K96" s="5">
         <v>42521</v>
       </c>
-      <c r="L96" s="0">
-        <v>1</v>
-      </c>
-      <c r="M96" s="0">
+      <c r="L96" s="4">
+        <v>1</v>
+      </c>
+      <c r="M96" s="4">
         <v>1</v>
       </c>
     </row>
     <row outlineLevel="0" r="97">
-      <c r="A97" s="0">
+      <c r="A97" s="4">
         <v>117</v>
       </c>
-      <c r="B97" s="1">
+      <c r="B97" s="5">
         <v>42625.9993055556</v>
       </c>
-      <c r="C97" s="1">
+      <c r="C97" s="5">
         <v>42618</v>
       </c>
-      <c r="E97" s="0" t="inlineStr">
+      <c r="E97" s="6" t="inlineStr">
         <is>
           <t>2016 First General </t>
         </is>
       </c>
-      <c r="F97" s="0">
-        <v>1</v>
-      </c>
-      <c r="G97" s="0">
-        <v>1</v>
-      </c>
-      <c r="H97" s="0">
-        <v>0</v>
-      </c>
-      <c r="K97" s="1">
+      <c r="F97" s="4">
+        <v>1</v>
+      </c>
+      <c r="G97" s="4">
+        <v>1</v>
+      </c>
+      <c r="H97" s="4">
+        <v>0</v>
+      </c>
+      <c r="K97" s="5">
         <v>42554</v>
       </c>
-      <c r="L97" s="0">
-        <v>1</v>
-      </c>
-      <c r="M97" s="0">
+      <c r="L97" s="4">
+        <v>1</v>
+      </c>
+      <c r="M97" s="4">
         <v>1</v>
       </c>
     </row>
     <row outlineLevel="0" r="98">
-      <c r="A98" s="0">
+      <c r="A98" s="4">
         <v>118</v>
       </c>
-      <c r="B98" s="1">
+      <c r="B98" s="5">
         <v>42654.9993055556</v>
       </c>
-      <c r="C98" s="1">
+      <c r="C98" s="5">
         <v>42646.9993055556</v>
       </c>
-      <c r="E98" s="0" t="inlineStr">
+      <c r="E98" s="6" t="inlineStr">
         <is>
           <t>2016 Second General</t>
         </is>
       </c>
-      <c r="F98" s="0">
-        <v>1</v>
-      </c>
-      <c r="G98" s="0">
-        <v>1</v>
-      </c>
-      <c r="H98" s="0">
-        <v>0</v>
-      </c>
-      <c r="K98" s="1">
+      <c r="F98" s="4">
+        <v>1</v>
+      </c>
+      <c r="G98" s="4">
+        <v>1</v>
+      </c>
+      <c r="H98" s="4">
+        <v>0</v>
+      </c>
+      <c r="K98" s="5">
         <v>42619</v>
       </c>
-      <c r="L98" s="0">
-        <v>1</v>
-      </c>
-      <c r="M98" s="0">
+      <c r="L98" s="4">
+        <v>1</v>
+      </c>
+      <c r="M98" s="4">
         <v>1</v>
       </c>
     </row>
     <row outlineLevel="0" r="99">
-      <c r="A99" s="0">
+      <c r="A99" s="4">
         <v>119</v>
       </c>
-      <c r="B99" s="1">
+      <c r="B99" s="5">
         <v>42677.9993055556</v>
       </c>
-      <c r="C99" s="1">
+      <c r="C99" s="5">
         <v>42677.9993055556</v>
       </c>
-      <c r="E99" s="0" t="inlineStr">
+      <c r="E99" s="6" t="inlineStr">
         <is>
           <t>2016 Third General</t>
         </is>
       </c>
-      <c r="F99" s="0">
-        <v>1</v>
-      </c>
-      <c r="G99" s="0">
-        <v>1</v>
-      </c>
-      <c r="H99" s="0">
-        <v>0</v>
-      </c>
-      <c r="K99" s="1">
+      <c r="F99" s="4">
+        <v>1</v>
+      </c>
+      <c r="G99" s="4">
+        <v>1</v>
+      </c>
+      <c r="H99" s="4">
+        <v>0</v>
+      </c>
+      <c r="K99" s="5">
         <v>42647</v>
       </c>
-      <c r="L99" s="0">
-        <v>1</v>
-      </c>
-      <c r="M99" s="0">
+      <c r="L99" s="4">
+        <v>1</v>
+      </c>
+      <c r="M99" s="4">
         <v>1</v>
       </c>
     </row>
     <row outlineLevel="0" r="100">
-      <c r="A100" s="0">
+      <c r="A100" s="4">
         <v>120</v>
       </c>
-      <c r="B100" s="1">
+      <c r="B100" s="5">
         <v>42681.5</v>
       </c>
-      <c r="C100" s="1">
+      <c r="C100" s="5">
         <v>42681.5</v>
       </c>
-      <c r="E100" s="0" t="inlineStr">
+      <c r="E100" s="6" t="inlineStr">
         <is>
           <t>2016 General Supplemental </t>
         </is>
       </c>
-      <c r="F100" s="0">
-        <v>0</v>
-      </c>
-      <c r="G100" s="0">
+      <c r="F100" s="4">
+        <v>0</v>
+      </c>
+      <c r="G100" s="4">
         <v>2</v>
       </c>
-      <c r="H100" s="0">
-        <v>0</v>
-      </c>
-      <c r="I100" s="1">
+      <c r="H100" s="4">
+        <v>0</v>
+      </c>
+      <c r="I100" s="5">
         <v>42675</v>
       </c>
-      <c r="J100" s="0">
+      <c r="J100" s="4">
         <v>121</v>
       </c>
-      <c r="K100" s="1">
+      <c r="K100" s="5">
         <v>42675</v>
       </c>
-      <c r="L100" s="0">
-        <v>1</v>
-      </c>
-      <c r="M100" s="0">
+      <c r="L100" s="4">
+        <v>1</v>
+      </c>
+      <c r="M100" s="4">
         <v>1</v>
       </c>
     </row>
     <row outlineLevel="0" r="101">
-      <c r="A101" s="0">
+      <c r="A101" s="4">
         <v>121</v>
       </c>
-      <c r="B101" s="1">
+      <c r="B101" s="5">
         <v>42712.9993055556</v>
       </c>
-      <c r="C101" s="1">
+      <c r="C101" s="5">
         <v>42707.9993055556</v>
       </c>
-      <c r="E101" s="0" t="inlineStr">
+      <c r="E101" s="6" t="inlineStr">
         <is>
           <t>2016 Fourth General </t>
         </is>
       </c>
-      <c r="F101" s="0">
-        <v>1</v>
-      </c>
-      <c r="G101" s="0">
-        <v>1</v>
-      </c>
-      <c r="H101" s="0">
-        <v>0</v>
-      </c>
-      <c r="K101" s="1">
+      <c r="F101" s="4">
+        <v>1</v>
+      </c>
+      <c r="G101" s="4">
+        <v>1</v>
+      </c>
+      <c r="H101" s="4">
+        <v>0</v>
+      </c>
+      <c r="K101" s="5">
         <v>42676</v>
       </c>
-      <c r="L101" s="0">
-        <v>1</v>
-      </c>
-      <c r="M101" s="0">
+      <c r="L101" s="4">
+        <v>1</v>
+      </c>
+      <c r="M101" s="4">
         <v>1</v>
       </c>
     </row>
     <row outlineLevel="0" r="102">
-      <c r="A102" s="0">
+      <c r="A102" s="4">
         <v>122</v>
       </c>
-      <c r="B102" s="1">
+      <c r="B102" s="5">
         <v>42835.9993055556</v>
       </c>
-      <c r="C102" s="1">
+      <c r="C102" s="5">
         <v>42773.9993055556</v>
       </c>
-      <c r="E102" s="0" t="inlineStr">
+      <c r="E102" s="6" t="inlineStr">
         <is>
           <t>2017 School District Report</t>
         </is>
       </c>
-      <c r="F102" s="0">
-        <v>1</v>
-      </c>
-      <c r="G102" s="0">
+      <c r="F102" s="4">
+        <v>1</v>
+      </c>
+      <c r="G102" s="4">
         <v>4</v>
       </c>
-      <c r="H102" s="0">
-        <v>0</v>
-      </c>
-      <c r="K102" s="1">
+      <c r="H102" s="4">
+        <v>0</v>
+      </c>
+      <c r="K102" s="5">
         <v>42068</v>
       </c>
-      <c r="L102" s="0">
-        <v>1</v>
-      </c>
-      <c r="M102" s="0">
+      <c r="L102" s="4">
+        <v>1</v>
+      </c>
+      <c r="M102" s="4">
         <v>1</v>
       </c>
     </row>
     <row outlineLevel="0" r="103">
-      <c r="A103" s="0">
+      <c r="A103" s="4">
         <v>123</v>
       </c>
-      <c r="B103" s="1">
+      <c r="B103" s="5">
         <v>42835.9993055556</v>
       </c>
-      <c r="C103" s="1">
+      <c r="C103" s="5">
         <v>42828.9993055556</v>
       </c>
-      <c r="E103" s="0" t="inlineStr">
+      <c r="E103" s="6" t="inlineStr">
         <is>
           <t>2017 First Biannual</t>
         </is>
       </c>
-      <c r="F103" s="0">
-        <v>1</v>
-      </c>
-      <c r="G103" s="0">
+      <c r="F103" s="4">
+        <v>1</v>
+      </c>
+      <c r="G103" s="4">
         <v>3</v>
       </c>
-      <c r="H103" s="0">
-        <v>0</v>
-      </c>
-      <c r="K103" s="1">
+      <c r="H103" s="4">
+        <v>0</v>
+      </c>
+      <c r="K103" s="5">
         <v>42647</v>
       </c>
-      <c r="L103" s="0">
-        <v>1</v>
-      </c>
-      <c r="M103" s="0">
+      <c r="L103" s="4">
+        <v>1</v>
+      </c>
+      <c r="M103" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="104">
+      <c r="A104" s="4">
+        <v>124</v>
+      </c>
+      <c r="B104" s="5">
+        <v>43017.9993055556</v>
+      </c>
+      <c r="C104" s="5">
+        <v>43010.9993055556</v>
+      </c>
+      <c r="E104" s="6" t="inlineStr">
+        <is>
+          <t>2017 Second Biannual</t>
+        </is>
+      </c>
+      <c r="F104" s="4">
+        <v>1</v>
+      </c>
+      <c r="G104" s="4">
+        <v>3</v>
+      </c>
+      <c r="H104" s="4">
+        <v>0</v>
+      </c>
+      <c r="K104" s="5">
+        <v>42829</v>
+      </c>
+      <c r="L104" s="4">
+        <v>1</v>
+      </c>
+      <c r="M104" s="4">
         <v>1</v>
       </c>
     </row>

--- a/data/Cam_FilingPeriod.xlsx
+++ b/data/Cam_FilingPeriod.xlsx
@@ -496,7 +496,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N104"/>
+  <dimension ref="A1:N107"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" rightToLeft="false">
       <selection activeCell="C5" sqref="C5"/>
@@ -4238,6 +4238,105 @@
         <v>1</v>
       </c>
     </row>
+    <row outlineLevel="0" r="105">
+      <c r="A105" s="4">
+        <v>125</v>
+      </c>
+      <c r="B105" s="5">
+        <v>43199.9993055556</v>
+      </c>
+      <c r="C105" s="5">
+        <v>43192.9993055556</v>
+      </c>
+      <c r="E105" s="6" t="inlineStr">
+        <is>
+          <t>2018 First Primary Report</t>
+        </is>
+      </c>
+      <c r="F105" s="4">
+        <v>1</v>
+      </c>
+      <c r="G105" s="4">
+        <v>1</v>
+      </c>
+      <c r="H105" s="4">
+        <v>0</v>
+      </c>
+      <c r="K105" s="5">
+        <v>43011.9993055556</v>
+      </c>
+      <c r="L105" s="4">
+        <v>1</v>
+      </c>
+      <c r="M105" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="106">
+      <c r="A106" s="4">
+        <v>126</v>
+      </c>
+      <c r="B106" s="5">
+        <v>43199.9993055556</v>
+      </c>
+      <c r="C106" s="5">
+        <v>43192.9993055556</v>
+      </c>
+      <c r="E106" s="6" t="inlineStr">
+        <is>
+          <t>2018 First Biannual</t>
+        </is>
+      </c>
+      <c r="F106" s="4">
+        <v>1</v>
+      </c>
+      <c r="G106" s="4">
+        <v>3</v>
+      </c>
+      <c r="H106" s="4">
+        <v>0</v>
+      </c>
+      <c r="K106" s="5">
+        <v>43011.9993055556</v>
+      </c>
+      <c r="L106" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="107">
+      <c r="A107" s="4">
+        <v>127</v>
+      </c>
+      <c r="B107" s="5">
+        <v>43199.9993055556</v>
+      </c>
+      <c r="C107" s="5">
+        <v>43199.9993055556</v>
+      </c>
+      <c r="E107" s="6" t="inlineStr">
+        <is>
+          <t>2018 School District Report</t>
+        </is>
+      </c>
+      <c r="F107" s="4">
+        <v>1</v>
+      </c>
+      <c r="G107" s="4">
+        <v>4</v>
+      </c>
+      <c r="H107" s="4">
+        <v>0</v>
+      </c>
+      <c r="K107" s="5">
+        <v>42774</v>
+      </c>
+      <c r="L107" s="4">
+        <v>1</v>
+      </c>
+      <c r="M107" s="4">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/Cam_FilingPeriod.xlsx
+++ b/data/Cam_FilingPeriod.xlsx
@@ -496,7 +496,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N107"/>
+  <dimension ref="A1:N109"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" rightToLeft="false">
       <selection activeCell="C5" sqref="C5"/>
@@ -4337,6 +4337,74 @@
         <v>1</v>
       </c>
     </row>
+    <row outlineLevel="0" r="108">
+      <c r="A108" s="4">
+        <v>128</v>
+      </c>
+      <c r="B108" s="5">
+        <v>43234.9993055556</v>
+      </c>
+      <c r="C108" s="5">
+        <v>43227.9993055556</v>
+      </c>
+      <c r="E108" s="6" t="inlineStr">
+        <is>
+          <t>2018 Second Primary</t>
+        </is>
+      </c>
+      <c r="F108" s="4">
+        <v>1</v>
+      </c>
+      <c r="G108" s="4">
+        <v>1</v>
+      </c>
+      <c r="H108" s="4">
+        <v>0</v>
+      </c>
+      <c r="K108" s="5">
+        <v>43193</v>
+      </c>
+      <c r="L108" s="4">
+        <v>1</v>
+      </c>
+      <c r="M108" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="109">
+      <c r="A109" s="4">
+        <v>129</v>
+      </c>
+      <c r="B109" s="5">
+        <v>43381.9993055556</v>
+      </c>
+      <c r="C109" s="5">
+        <v>43374.9993055556</v>
+      </c>
+      <c r="E109" s="6" t="inlineStr">
+        <is>
+          <t>2018 Second Biannual</t>
+        </is>
+      </c>
+      <c r="F109" s="4">
+        <v>1</v>
+      </c>
+      <c r="G109" s="4">
+        <v>3</v>
+      </c>
+      <c r="H109" s="4">
+        <v>0</v>
+      </c>
+      <c r="K109" s="5">
+        <v>43193</v>
+      </c>
+      <c r="L109" s="4">
+        <v>1</v>
+      </c>
+      <c r="M109" s="4">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/Cam_FilingPeriod.xlsx
+++ b/data/Cam_FilingPeriod.xlsx
@@ -9,15 +9,15 @@
   <sheets>
     <sheet sheetId="1" r:id="rId1" name="Cam_FilingPeriod"/>
   </sheets>
-  <definedNames>
-    <definedName name="Cam_FilingPeriod">'Cam_FilingPeriod'!$A$1:$N$112</definedName>
-  </definedNames>
   <calcPr calcId="125725" fullCalcOnLoad="true"/>
 </workbook>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="dd-mmm-yy"/>
+  </numFmts>
   <fonts count="1">
     <font>
       <sz val="11"/>
@@ -26,6 +26,37 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000" tint="0"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000" tint="0"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000" tint="0"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000" tint="0"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000" tint="0"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000" tint="0"/>
+      <name val="Calibri"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -33,6 +64,42 @@
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FF000000"/>
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC0C0C0"/>
+        <bgColor rgb="FFC0C0C0"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FF000000"/>
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FF000000"/>
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FF000000"/>
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FF000000"/>
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -43,14 +110,96 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFD0D7E5"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFD0D7E5"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFD0D7E5"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFD0D7E5"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFD0D7E5"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFD0D7E5"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFD0D7E5"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFD0D7E5"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFD0D7E5"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFD0D7E5"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFD0D7E5"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFD0D7E5"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFD0D7E5"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFD0D7E5"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFD0D7E5"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFD0D7E5"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" applyProtection="1" applyNumberFormat="1" xfId="0">
-      <alignment wrapText="0" vertical="center" horizontal="general"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyFill="1" applyProtection="1" applyAlignment="1" applyFont="1" xfId="0">
+      <alignment wrapText="0" vertical="center" horizontal="left"/>
+      <protection locked="1" hidden="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyFill="1" applyProtection="1" applyBorder="1" applyAlignment="1" applyFont="1" xfId="0">
+      <alignment wrapText="0" vertical="center" horizontal="center"/>
+      <protection locked="1" hidden="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" applyFill="1" applyProtection="1" applyBorder="1" applyAlignment="1" applyFont="1" xfId="0">
+      <alignment wrapText="0" vertical="center" horizontal="center"/>
+      <protection locked="1" hidden="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="3" applyFill="1" applyProtection="1" applyBorder="1" applyAlignment="1" applyFont="1" xfId="0">
+      <alignment wrapText="1" vertical="center" horizontal="right"/>
+      <protection locked="1" hidden="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="6" borderId="4" applyFill="1" applyProtection="1" applyBorder="1" applyAlignment="1" applyNumberFormat="1" applyFont="1" xfId="0">
+      <alignment wrapText="1" vertical="center" horizontal="right"/>
+      <protection locked="1" hidden="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="5" applyFill="1" applyProtection="1" applyBorder="1" applyAlignment="1" applyFont="1" xfId="0">
+      <alignment wrapText="1" vertical="center" horizontal="general"/>
       <protection locked="1" hidden="0"/>
     </xf>
   </cellXfs>
@@ -347,3994 +496,4054 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N112"/>
+  <dimension ref="A1:N113"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" rightToLeft="false">
       <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col customWidth="true" min="1" max="1" width="14.0625"/>
+    <col customWidth="true" min="2" max="2" width="14.0625"/>
+    <col customWidth="true" min="3" max="3" width="14.0625"/>
+    <col customWidth="true" min="4" max="4" width="14.0625"/>
+    <col customWidth="true" min="5" max="5" width="14.0625"/>
+    <col customWidth="true" min="6" max="6" width="14.0625"/>
+    <col customWidth="true" min="7" max="7" width="14.0625"/>
+    <col customWidth="true" min="8" max="8" width="14.0625"/>
+    <col customWidth="true" min="9" max="9" width="14.0625"/>
+    <col customWidth="true" min="10" max="10" width="14.0625"/>
+    <col customWidth="true" min="11" max="11" width="14.0625"/>
+    <col customWidth="true" min="12" max="12" width="14.0625"/>
+    <col customWidth="true" min="13" max="13" width="14.0625"/>
+    <col customWidth="true" min="14" max="14" width="14.0625"/>
+  </cols>
   <sheetData>
     <row outlineLevel="0" r="1">
-      <c r="A1" s="0" t="inlineStr">
+      <c r="A1" s="2" t="inlineStr">
         <is>
           <t>FilingPeriodId</t>
         </is>
       </c>
-      <c r="B1" s="0" t="inlineStr">
+      <c r="B1" s="2" t="inlineStr">
         <is>
           <t>FilingDate</t>
         </is>
       </c>
-      <c r="C1" s="0" t="inlineStr">
+      <c r="C1" s="2" t="inlineStr">
         <is>
           <t>DueDate</t>
         </is>
       </c>
-      <c r="D1" s="0" t="inlineStr">
+      <c r="D1" s="2" t="inlineStr">
         <is>
           <t>OLDDBReportingPeriodId</t>
         </is>
       </c>
-      <c r="E1" s="0" t="inlineStr">
+      <c r="E1" s="2" t="inlineStr">
         <is>
           <t>Description</t>
         </is>
       </c>
-      <c r="F1" s="0" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>AllowStatementOfNoActivity</t>
         </is>
       </c>
-      <c r="G1" s="0" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
         <is>
           <t>FilingPeriodTypeId</t>
         </is>
       </c>
-      <c r="H1" s="0" t="inlineStr">
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>ExcludeFromCascading</t>
         </is>
       </c>
-      <c r="I1" s="0" t="inlineStr">
+      <c r="I1" s="2" t="inlineStr">
         <is>
           <t>SupplementalInitDate</t>
         </is>
       </c>
-      <c r="J1" s="0" t="inlineStr">
+      <c r="J1" s="2" t="inlineStr">
         <is>
           <t>RegularFilingPeriodId</t>
         </is>
       </c>
-      <c r="K1" s="0" t="inlineStr">
+      <c r="K1" s="2" t="inlineStr">
         <is>
           <t>InitialDate</t>
         </is>
       </c>
-      <c r="L1" s="0" t="inlineStr">
+      <c r="L1" s="2" t="inlineStr">
         <is>
           <t>FilingPeriodEmailingSendStatusId</t>
         </is>
       </c>
-      <c r="M1" s="0" t="inlineStr">
+      <c r="M1" s="2" t="inlineStr">
         <is>
           <t>FilingPeriodReminderSendStatusId</t>
         </is>
       </c>
-      <c r="N1" s="0" t="inlineStr">
+      <c r="N1" s="2" t="inlineStr">
         <is>
           <t>DateReminderSent</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="2">
-      <c r="A2" s="0">
+      <c r="A2" s="4">
         <v>19</v>
       </c>
-      <c r="B2" s="1">
+      <c r="B2" s="5">
         <v>38117</v>
       </c>
-      <c r="C2" s="1">
+      <c r="C2" s="5">
         <v>38117</v>
       </c>
-      <c r="E2" s="0" t="inlineStr">
+      <c r="E2" s="6" t="inlineStr">
         <is>
           <t>First Primary Report </t>
         </is>
       </c>
-      <c r="F2" s="0">
-        <v>1</v>
-      </c>
-      <c r="G2" s="0">
-        <v>1</v>
-      </c>
-      <c r="H2" s="0">
-        <v>0</v>
-      </c>
-      <c r="K2" s="1">
+      <c r="F2" s="4">
+        <v>1</v>
+      </c>
+      <c r="G2" s="4">
+        <v>1</v>
+      </c>
+      <c r="H2" s="4">
+        <v>0</v>
+      </c>
+      <c r="K2" s="5">
         <v>37988</v>
       </c>
-      <c r="L2" s="0">
-        <v>1</v>
-      </c>
-      <c r="M2" s="0">
+      <c r="L2" s="4">
+        <v>1</v>
+      </c>
+      <c r="M2" s="4">
         <v>1</v>
       </c>
     </row>
     <row outlineLevel="0" r="3">
-      <c r="A3" s="0">
+      <c r="A3" s="4">
         <v>20</v>
       </c>
-      <c r="B3" s="1">
+      <c r="B3" s="5">
         <v>38134</v>
       </c>
-      <c r="C3" s="1">
+      <c r="C3" s="5">
         <v>38134</v>
       </c>
-      <c r="E3" s="0" t="inlineStr">
+      <c r="E3" s="6" t="inlineStr">
         <is>
           <t>Second Primary Report</t>
         </is>
       </c>
-      <c r="F3" s="0">
-        <v>1</v>
-      </c>
-      <c r="G3" s="0">
-        <v>1</v>
-      </c>
-      <c r="H3" s="0">
-        <v>0</v>
-      </c>
-      <c r="K3" s="1">
+      <c r="F3" s="4">
+        <v>1</v>
+      </c>
+      <c r="G3" s="4">
+        <v>1</v>
+      </c>
+      <c r="H3" s="4">
+        <v>0</v>
+      </c>
+      <c r="K3" s="5">
         <v>38118</v>
       </c>
-      <c r="L3" s="0">
-        <v>1</v>
-      </c>
-      <c r="M3" s="0">
+      <c r="L3" s="4">
+        <v>1</v>
+      </c>
+      <c r="M3" s="4">
         <v>1</v>
       </c>
     </row>
     <row outlineLevel="0" r="4">
-      <c r="A4" s="0">
+      <c r="A4" s="4">
         <v>21</v>
       </c>
-      <c r="B4" s="1">
+      <c r="B4" s="5">
         <v>38169</v>
       </c>
-      <c r="C4" s="1">
+      <c r="C4" s="5">
         <v>38169</v>
       </c>
-      <c r="E4" s="0" t="inlineStr">
+      <c r="E4" s="6" t="inlineStr">
         <is>
           <t>Third Primary Report</t>
         </is>
       </c>
-      <c r="F4" s="0">
-        <v>1</v>
-      </c>
-      <c r="G4" s="0">
-        <v>1</v>
-      </c>
-      <c r="H4" s="0">
-        <v>0</v>
-      </c>
-      <c r="K4" s="1">
+      <c r="F4" s="4">
+        <v>1</v>
+      </c>
+      <c r="G4" s="4">
+        <v>1</v>
+      </c>
+      <c r="H4" s="4">
+        <v>0</v>
+      </c>
+      <c r="K4" s="5">
         <v>38140</v>
       </c>
-      <c r="L4" s="0">
-        <v>1</v>
-      </c>
-      <c r="M4" s="0">
+      <c r="L4" s="4">
+        <v>1</v>
+      </c>
+      <c r="M4" s="4">
         <v>1</v>
       </c>
     </row>
     <row outlineLevel="0" r="5">
-      <c r="A5" s="0">
+      <c r="A5" s="4">
         <v>22</v>
       </c>
-      <c r="B5" s="1">
+      <c r="B5" s="5">
         <v>38272</v>
       </c>
-      <c r="C5" s="1">
+      <c r="C5" s="5">
         <v>38272</v>
       </c>
-      <c r="E5" s="0" t="inlineStr">
+      <c r="E5" s="6" t="inlineStr">
         <is>
           <t>First General Report</t>
         </is>
       </c>
-      <c r="F5" s="0">
-        <v>1</v>
-      </c>
-      <c r="G5" s="0">
-        <v>1</v>
-      </c>
-      <c r="H5" s="0">
-        <v>0</v>
-      </c>
-      <c r="K5" s="1">
+      <c r="F5" s="4">
+        <v>1</v>
+      </c>
+      <c r="G5" s="4">
+        <v>1</v>
+      </c>
+      <c r="H5" s="4">
+        <v>0</v>
+      </c>
+      <c r="K5" s="5">
         <v>38170</v>
       </c>
-      <c r="L5" s="0">
-        <v>1</v>
-      </c>
-      <c r="M5" s="0">
+      <c r="L5" s="4">
+        <v>1</v>
+      </c>
+      <c r="M5" s="4">
         <v>1</v>
       </c>
     </row>
     <row outlineLevel="0" r="6">
-      <c r="A6" s="0">
+      <c r="A6" s="4">
         <v>23</v>
       </c>
-      <c r="B6" s="1">
+      <c r="B6" s="5">
         <v>38288</v>
       </c>
-      <c r="C6" s="1">
+      <c r="C6" s="5">
         <v>38288</v>
       </c>
-      <c r="E6" s="0" t="inlineStr">
+      <c r="E6" s="6" t="inlineStr">
         <is>
           <t>Second General Report</t>
         </is>
       </c>
-      <c r="F6" s="0">
-        <v>1</v>
-      </c>
-      <c r="G6" s="0">
-        <v>1</v>
-      </c>
-      <c r="H6" s="0">
-        <v>0</v>
-      </c>
-      <c r="K6" s="1">
+      <c r="F6" s="4">
+        <v>1</v>
+      </c>
+      <c r="G6" s="4">
+        <v>1</v>
+      </c>
+      <c r="H6" s="4">
+        <v>0</v>
+      </c>
+      <c r="K6" s="5">
         <v>38273</v>
       </c>
-      <c r="L6" s="0">
-        <v>1</v>
-      </c>
-      <c r="M6" s="0">
+      <c r="L6" s="4">
+        <v>1</v>
+      </c>
+      <c r="M6" s="4">
         <v>1</v>
       </c>
     </row>
     <row outlineLevel="0" r="7">
-      <c r="A7" s="0">
+      <c r="A7" s="4">
         <v>24</v>
       </c>
-      <c r="B7" s="1">
+      <c r="B7" s="5">
         <v>38323.7083333333</v>
       </c>
-      <c r="C7" s="1">
+      <c r="C7" s="5">
         <v>38323.7083333333</v>
       </c>
-      <c r="D7" s="0">
+      <c r="D7" s="4">
         <v>17</v>
       </c>
-      <c r="E7" s="0" t="inlineStr">
+      <c r="E7" s="6" t="inlineStr">
         <is>
           <t>Third General</t>
         </is>
       </c>
-      <c r="F7" s="0">
-        <v>1</v>
-      </c>
-      <c r="G7" s="0">
-        <v>1</v>
-      </c>
-      <c r="H7" s="0">
-        <v>0</v>
-      </c>
-      <c r="K7" s="1">
+      <c r="F7" s="4">
+        <v>1</v>
+      </c>
+      <c r="G7" s="4">
+        <v>1</v>
+      </c>
+      <c r="H7" s="4">
+        <v>0</v>
+      </c>
+      <c r="K7" s="5">
         <v>38294</v>
       </c>
-      <c r="L7" s="0">
-        <v>1</v>
-      </c>
-      <c r="M7" s="0">
+      <c r="L7" s="4">
+        <v>1</v>
+      </c>
+      <c r="M7" s="4">
         <v>1</v>
       </c>
     </row>
     <row outlineLevel="0" r="8">
-      <c r="A8" s="0">
+      <c r="A8" s="4">
         <v>25</v>
       </c>
-      <c r="B8" s="1">
+      <c r="B8" s="5">
         <v>38481.7083333333</v>
       </c>
-      <c r="C8" s="1">
+      <c r="C8" s="5">
         <v>38481.7083333333</v>
       </c>
-      <c r="D8" s="0">
+      <c r="D8" s="4">
         <v>18</v>
       </c>
-      <c r="F8" s="0">
-        <v>1</v>
-      </c>
-      <c r="G8" s="0">
-        <v>1</v>
-      </c>
-      <c r="H8" s="0">
-        <v>0</v>
-      </c>
-      <c r="K8" s="1">
+      <c r="E8" s="6" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="F8" s="4">
+        <v>1</v>
+      </c>
+      <c r="G8" s="4">
+        <v>1</v>
+      </c>
+      <c r="H8" s="4">
+        <v>0</v>
+      </c>
+      <c r="K8" s="5">
         <v>38324</v>
       </c>
-      <c r="L8" s="0">
-        <v>1</v>
-      </c>
-      <c r="M8" s="0">
+      <c r="L8" s="4">
+        <v>1</v>
+      </c>
+      <c r="M8" s="4">
         <v>1</v>
       </c>
     </row>
     <row outlineLevel="0" r="9">
-      <c r="A9" s="0">
+      <c r="A9" s="4">
         <v>26</v>
       </c>
-      <c r="B9" s="1">
+      <c r="B9" s="5">
         <v>37987.7083333333</v>
       </c>
-      <c r="C9" s="1">
+      <c r="C9" s="5">
         <v>37987.7083333333</v>
       </c>
-      <c r="D9" s="0">
+      <c r="D9" s="4">
         <v>19</v>
       </c>
-      <c r="E9" s="0" t="inlineStr">
+      <c r="E9" s="6" t="inlineStr">
         <is>
           <t>1/1/2004 Opening</t>
         </is>
       </c>
-      <c r="F9" s="0">
-        <v>1</v>
-      </c>
-      <c r="G9" s="0">
-        <v>1</v>
-      </c>
-      <c r="H9" s="0">
-        <v>0</v>
-      </c>
-      <c r="K9" s="1">
+      <c r="F9" s="4">
+        <v>1</v>
+      </c>
+      <c r="G9" s="4">
+        <v>1</v>
+      </c>
+      <c r="H9" s="4">
+        <v>0</v>
+      </c>
+      <c r="K9" s="5">
         <v>38078</v>
       </c>
-      <c r="L9" s="0">
-        <v>1</v>
-      </c>
-      <c r="M9" s="0">
+      <c r="L9" s="4">
+        <v>1</v>
+      </c>
+      <c r="M9" s="4">
         <v>1</v>
       </c>
     </row>
     <row outlineLevel="0" r="10">
-      <c r="A10" s="0">
+      <c r="A10" s="4">
         <v>27</v>
       </c>
-      <c r="B10" s="1">
+      <c r="B10" s="5">
         <v>38139</v>
       </c>
-      <c r="C10" s="1">
+      <c r="C10" s="5">
         <v>38139</v>
       </c>
-      <c r="E10" s="0" t="inlineStr">
+      <c r="E10" s="6" t="inlineStr">
         <is>
           <t>Primary Supplemental Report</t>
         </is>
       </c>
-      <c r="F10" s="0">
-        <v>1</v>
-      </c>
-      <c r="G10" s="0">
-        <v>1</v>
-      </c>
-      <c r="H10" s="0">
-        <v>1</v>
-      </c>
-      <c r="K10" s="1">
+      <c r="F10" s="4">
+        <v>1</v>
+      </c>
+      <c r="G10" s="4">
+        <v>1</v>
+      </c>
+      <c r="H10" s="4">
+        <v>1</v>
+      </c>
+      <c r="K10" s="5">
         <v>38135</v>
       </c>
-      <c r="L10" s="0">
-        <v>1</v>
-      </c>
-      <c r="M10" s="0">
+      <c r="L10" s="4">
+        <v>1</v>
+      </c>
+      <c r="M10" s="4">
         <v>1</v>
       </c>
     </row>
     <row outlineLevel="0" r="11">
-      <c r="A11" s="0">
+      <c r="A11" s="4">
         <v>28</v>
       </c>
-      <c r="B11" s="1">
+      <c r="B11" s="5">
         <v>38293</v>
       </c>
-      <c r="C11" s="1">
+      <c r="C11" s="5">
         <v>38293</v>
       </c>
-      <c r="E11" s="0" t="inlineStr">
+      <c r="E11" s="6" t="inlineStr">
         <is>
           <t>General Supplemental Report</t>
         </is>
       </c>
-      <c r="F11" s="0">
-        <v>1</v>
-      </c>
-      <c r="G11" s="0">
-        <v>1</v>
-      </c>
-      <c r="H11" s="0">
-        <v>1</v>
-      </c>
-      <c r="K11" s="1">
+      <c r="F11" s="4">
+        <v>1</v>
+      </c>
+      <c r="G11" s="4">
+        <v>1</v>
+      </c>
+      <c r="H11" s="4">
+        <v>1</v>
+      </c>
+      <c r="K11" s="5">
         <v>38289</v>
       </c>
-      <c r="L11" s="0">
-        <v>1</v>
-      </c>
-      <c r="M11" s="0">
+      <c r="L11" s="4">
+        <v>1</v>
+      </c>
+      <c r="M11" s="4">
         <v>1</v>
       </c>
     </row>
     <row outlineLevel="0" r="12">
-      <c r="A12" s="0">
+      <c r="A12" s="4">
         <v>29</v>
       </c>
-      <c r="B12" s="1">
+      <c r="B12" s="5">
         <v>38845.7083333333</v>
       </c>
-      <c r="C12" s="1">
+      <c r="C12" s="5">
         <v>38845.7083333333</v>
       </c>
-      <c r="D12" s="0">
+      <c r="D12" s="4">
         <v>26</v>
       </c>
-      <c r="E12" s="0" t="inlineStr">
+      <c r="E12" s="6" t="inlineStr">
         <is>
           <t>First Primary</t>
         </is>
       </c>
-      <c r="F12" s="0">
-        <v>1</v>
-      </c>
-      <c r="G12" s="0">
-        <v>1</v>
-      </c>
-      <c r="H12" s="0">
-        <v>0</v>
-      </c>
-      <c r="K12" s="1">
+      <c r="F12" s="4">
+        <v>1</v>
+      </c>
+      <c r="G12" s="4">
+        <v>1</v>
+      </c>
+      <c r="H12" s="4">
+        <v>0</v>
+      </c>
+      <c r="K12" s="5">
         <v>38482</v>
       </c>
-      <c r="L12" s="0">
-        <v>1</v>
-      </c>
-      <c r="M12" s="0">
+      <c r="L12" s="4">
+        <v>1</v>
+      </c>
+      <c r="M12" s="4">
         <v>1</v>
       </c>
     </row>
     <row outlineLevel="0" r="13">
-      <c r="A13" s="0">
+      <c r="A13" s="4">
         <v>30</v>
       </c>
-      <c r="B13" s="1">
+      <c r="B13" s="5">
         <v>38869.7083333333</v>
       </c>
-      <c r="C13" s="1">
+      <c r="C13" s="5">
         <v>38869.7083333333</v>
       </c>
-      <c r="D13" s="0">
+      <c r="D13" s="4">
         <v>27</v>
       </c>
-      <c r="E13" s="0" t="inlineStr">
+      <c r="E13" s="6" t="inlineStr">
         <is>
           <t>Second Primary</t>
         </is>
       </c>
-      <c r="F13" s="0">
-        <v>1</v>
-      </c>
-      <c r="G13" s="0">
-        <v>1</v>
-      </c>
-      <c r="H13" s="0">
-        <v>0</v>
-      </c>
-      <c r="K13" s="1">
+      <c r="F13" s="4">
+        <v>1</v>
+      </c>
+      <c r="G13" s="4">
+        <v>1</v>
+      </c>
+      <c r="H13" s="4">
+        <v>0</v>
+      </c>
+      <c r="K13" s="5">
         <v>38864</v>
       </c>
-      <c r="L13" s="0">
-        <v>1</v>
-      </c>
-      <c r="M13" s="0">
+      <c r="L13" s="4">
+        <v>1</v>
+      </c>
+      <c r="M13" s="4">
         <v>1</v>
       </c>
     </row>
     <row outlineLevel="0" r="14">
-      <c r="A14" s="0">
+      <c r="A14" s="4">
         <v>31</v>
       </c>
-      <c r="B14" s="1">
+      <c r="B14" s="5">
         <v>38904.7083333333</v>
       </c>
-      <c r="C14" s="1">
+      <c r="C14" s="5">
         <v>38904.7083333333</v>
       </c>
-      <c r="D14" s="0">
+      <c r="D14" s="4">
         <v>28</v>
       </c>
-      <c r="E14" s="0" t="inlineStr">
+      <c r="E14" s="6" t="inlineStr">
         <is>
           <t>Third Primary</t>
         </is>
       </c>
-      <c r="F14" s="0">
-        <v>1</v>
-      </c>
-      <c r="G14" s="0">
-        <v>1</v>
-      </c>
-      <c r="H14" s="0">
-        <v>0</v>
-      </c>
-      <c r="K14" s="1">
+      <c r="F14" s="4">
+        <v>1</v>
+      </c>
+      <c r="G14" s="4">
+        <v>1</v>
+      </c>
+      <c r="H14" s="4">
+        <v>0</v>
+      </c>
+      <c r="K14" s="5">
         <v>38875</v>
       </c>
-      <c r="L14" s="0">
-        <v>1</v>
-      </c>
-      <c r="M14" s="0">
+      <c r="L14" s="4">
+        <v>1</v>
+      </c>
+      <c r="M14" s="4">
         <v>1</v>
       </c>
     </row>
     <row outlineLevel="0" r="15">
-      <c r="A15" s="0">
+      <c r="A15" s="4">
         <v>32</v>
       </c>
-      <c r="B15" s="1">
+      <c r="B15" s="5">
         <v>39000.7083333333</v>
       </c>
-      <c r="C15" s="1">
+      <c r="C15" s="5">
         <v>39000.7083333333</v>
       </c>
-      <c r="D15" s="0">
+      <c r="D15" s="4">
         <v>29</v>
       </c>
-      <c r="E15" s="0" t="inlineStr">
+      <c r="E15" s="6" t="inlineStr">
         <is>
           <t>First General</t>
         </is>
       </c>
-      <c r="F15" s="0">
-        <v>1</v>
-      </c>
-      <c r="G15" s="0">
-        <v>1</v>
-      </c>
-      <c r="H15" s="0">
-        <v>0</v>
-      </c>
-      <c r="K15" s="1">
+      <c r="F15" s="4">
+        <v>1</v>
+      </c>
+      <c r="G15" s="4">
+        <v>1</v>
+      </c>
+      <c r="H15" s="4">
+        <v>0</v>
+      </c>
+      <c r="K15" s="5">
         <v>38905</v>
       </c>
-      <c r="L15" s="0">
-        <v>1</v>
-      </c>
-      <c r="M15" s="0">
+      <c r="L15" s="4">
+        <v>1</v>
+      </c>
+      <c r="M15" s="4">
         <v>1</v>
       </c>
     </row>
     <row outlineLevel="0" r="16">
-      <c r="A16" s="0">
+      <c r="A16" s="4">
         <v>33</v>
       </c>
-      <c r="B16" s="1">
+      <c r="B16" s="5">
         <v>39023.7083333333</v>
       </c>
-      <c r="C16" s="1">
+      <c r="C16" s="5">
         <v>39023.7083333333</v>
       </c>
-      <c r="D16" s="0">
+      <c r="D16" s="4">
         <v>30</v>
       </c>
-      <c r="E16" s="0" t="inlineStr">
+      <c r="E16" s="6" t="inlineStr">
         <is>
           <t>Second General</t>
         </is>
       </c>
-      <c r="F16" s="0">
-        <v>1</v>
-      </c>
-      <c r="G16" s="0">
-        <v>1</v>
-      </c>
-      <c r="H16" s="0">
-        <v>0</v>
-      </c>
-      <c r="K16" s="1">
+      <c r="F16" s="4">
+        <v>1</v>
+      </c>
+      <c r="G16" s="4">
+        <v>1</v>
+      </c>
+      <c r="H16" s="4">
+        <v>0</v>
+      </c>
+      <c r="K16" s="5">
         <v>39001</v>
       </c>
-      <c r="L16" s="0">
-        <v>1</v>
-      </c>
-      <c r="M16" s="0">
+      <c r="L16" s="4">
+        <v>1</v>
+      </c>
+      <c r="M16" s="4">
         <v>1</v>
       </c>
     </row>
     <row outlineLevel="0" r="17">
-      <c r="A17" s="0">
+      <c r="A17" s="4">
         <v>34</v>
       </c>
-      <c r="B17" s="1">
+      <c r="B17" s="5">
         <v>39058.7083333333</v>
       </c>
-      <c r="C17" s="1">
+      <c r="C17" s="5">
         <v>39058.7083333333</v>
       </c>
-      <c r="D17" s="0">
+      <c r="D17" s="4">
         <v>31</v>
       </c>
-      <c r="E17" s="0" t="inlineStr">
+      <c r="E17" s="6" t="inlineStr">
         <is>
           <t>Third General</t>
         </is>
       </c>
-      <c r="F17" s="0">
-        <v>1</v>
-      </c>
-      <c r="G17" s="0">
-        <v>1</v>
-      </c>
-      <c r="H17" s="0">
-        <v>0</v>
-      </c>
-      <c r="K17" s="1">
+      <c r="F17" s="4">
+        <v>1</v>
+      </c>
+      <c r="G17" s="4">
+        <v>1</v>
+      </c>
+      <c r="H17" s="4">
+        <v>0</v>
+      </c>
+      <c r="K17" s="5">
         <v>39029</v>
       </c>
-      <c r="L17" s="0">
-        <v>1</v>
-      </c>
-      <c r="M17" s="0">
+      <c r="L17" s="4">
+        <v>1</v>
+      </c>
+      <c r="M17" s="4">
         <v>1</v>
       </c>
     </row>
     <row outlineLevel="0" r="18">
-      <c r="A18" s="0">
+      <c r="A18" s="4">
         <v>35</v>
       </c>
-      <c r="B18" s="1">
+      <c r="B18" s="5">
         <v>38874.7083333333</v>
       </c>
-      <c r="C18" s="1">
+      <c r="C18" s="5">
         <v>38874.7083333333</v>
       </c>
-      <c r="D18" s="0">
+      <c r="D18" s="4">
         <v>37</v>
       </c>
-      <c r="E18" s="0" t="inlineStr">
+      <c r="E18" s="6" t="inlineStr">
         <is>
           <t>Primary Supplemental</t>
         </is>
       </c>
-      <c r="F18" s="0">
-        <v>1</v>
-      </c>
-      <c r="G18" s="0">
-        <v>1</v>
-      </c>
-      <c r="H18" s="0">
-        <v>1</v>
-      </c>
-      <c r="K18" s="1">
+      <c r="F18" s="4">
+        <v>1</v>
+      </c>
+      <c r="G18" s="4">
+        <v>1</v>
+      </c>
+      <c r="H18" s="4">
+        <v>1</v>
+      </c>
+      <c r="K18" s="5">
         <v>38870</v>
       </c>
-      <c r="L18" s="0">
-        <v>1</v>
-      </c>
-      <c r="M18" s="0">
+      <c r="L18" s="4">
+        <v>1</v>
+      </c>
+      <c r="M18" s="4">
         <v>1</v>
       </c>
     </row>
     <row outlineLevel="0" r="19">
-      <c r="A19" s="0">
+      <c r="A19" s="4">
         <v>36</v>
       </c>
-      <c r="B19" s="1">
+      <c r="B19" s="5">
         <v>39028.7083333333</v>
       </c>
-      <c r="C19" s="1">
+      <c r="C19" s="5">
         <v>39028.7083333333</v>
       </c>
-      <c r="D19" s="0">
+      <c r="D19" s="4">
         <v>39</v>
       </c>
-      <c r="E19" s="0" t="inlineStr">
+      <c r="E19" s="6" t="inlineStr">
         <is>
           <t>General Supplemental</t>
         </is>
       </c>
-      <c r="F19" s="0">
-        <v>1</v>
-      </c>
-      <c r="G19" s="0">
-        <v>1</v>
-      </c>
-      <c r="H19" s="0">
-        <v>1</v>
-      </c>
-      <c r="K19" s="1">
+      <c r="F19" s="4">
+        <v>1</v>
+      </c>
+      <c r="G19" s="4">
+        <v>1</v>
+      </c>
+      <c r="H19" s="4">
+        <v>1</v>
+      </c>
+      <c r="K19" s="5">
         <v>39024</v>
       </c>
-      <c r="L19" s="0">
-        <v>1</v>
-      </c>
-      <c r="M19" s="0">
+      <c r="L19" s="4">
+        <v>1</v>
+      </c>
+      <c r="M19" s="4">
         <v>1</v>
       </c>
     </row>
     <row outlineLevel="0" r="20">
-      <c r="A20" s="0">
+      <c r="A20" s="4">
         <v>37</v>
       </c>
-      <c r="B20" s="1">
+      <c r="B20" s="5">
         <v>39216.7083333333</v>
       </c>
-      <c r="C20" s="1">
+      <c r="C20" s="5">
         <v>39216.7083333333</v>
       </c>
-      <c r="D20" s="0">
+      <c r="D20" s="4">
         <v>41</v>
       </c>
-      <c r="F20" s="0">
-        <v>1</v>
-      </c>
-      <c r="G20" s="0">
-        <v>1</v>
-      </c>
-      <c r="H20" s="0">
-        <v>0</v>
-      </c>
-      <c r="K20" s="1">
+      <c r="E20" s="6" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="F20" s="4">
+        <v>1</v>
+      </c>
+      <c r="G20" s="4">
+        <v>1</v>
+      </c>
+      <c r="H20" s="4">
+        <v>0</v>
+      </c>
+      <c r="K20" s="5">
         <v>39059</v>
       </c>
-      <c r="L20" s="0">
-        <v>1</v>
-      </c>
-      <c r="M20" s="0">
+      <c r="L20" s="4">
+        <v>1</v>
+      </c>
+      <c r="M20" s="4">
         <v>1</v>
       </c>
     </row>
     <row outlineLevel="0" r="21">
-      <c r="A21" s="0">
+      <c r="A21" s="4">
         <v>38</v>
       </c>
-      <c r="B21" s="1">
+      <c r="B21" s="5">
         <v>38863.7083333333</v>
       </c>
-      <c r="C21" s="1">
+      <c r="C21" s="5">
         <v>38863.7083333333</v>
       </c>
-      <c r="D21" s="0">
+      <c r="D21" s="4">
         <v>43</v>
       </c>
-      <c r="E21" s="0" t="inlineStr">
+      <c r="E21" s="6" t="inlineStr">
         <is>
           <t>PRC Non Participating Report</t>
         </is>
       </c>
-      <c r="F21" s="0">
-        <v>1</v>
-      </c>
-      <c r="G21" s="0">
-        <v>1</v>
-      </c>
-      <c r="H21" s="0">
-        <v>1</v>
-      </c>
-      <c r="K21" s="1">
+      <c r="F21" s="4">
+        <v>1</v>
+      </c>
+      <c r="G21" s="4">
+        <v>1</v>
+      </c>
+      <c r="H21" s="4">
+        <v>1</v>
+      </c>
+      <c r="K21" s="5">
         <v>38846</v>
       </c>
-      <c r="L21" s="0">
-        <v>1</v>
-      </c>
-      <c r="M21" s="0">
+      <c r="L21" s="4">
+        <v>1</v>
+      </c>
+      <c r="M21" s="4">
         <v>1</v>
       </c>
     </row>
     <row outlineLevel="0" r="22">
-      <c r="A22" s="0">
+      <c r="A22" s="4">
         <v>39</v>
       </c>
-      <c r="B22" s="1">
+      <c r="B22" s="5">
         <v>39000.7083333333</v>
       </c>
-      <c r="C22" s="1">
+      <c r="C22" s="5">
         <v>39000.7083333333</v>
       </c>
-      <c r="D22" s="0">
+      <c r="D22" s="4">
         <v>57</v>
       </c>
-      <c r="E22" s="0" t="inlineStr">
+      <c r="E22" s="6" t="inlineStr">
         <is>
           <t>General Statement Of Exception</t>
         </is>
       </c>
-      <c r="F22" s="0">
-        <v>1</v>
-      </c>
-      <c r="G22" s="0">
-        <v>1</v>
-      </c>
-      <c r="H22" s="0">
-        <v>1</v>
-      </c>
-      <c r="K22" s="1">
+      <c r="F22" s="4">
+        <v>1</v>
+      </c>
+      <c r="G22" s="4">
+        <v>1</v>
+      </c>
+      <c r="H22" s="4">
+        <v>1</v>
+      </c>
+      <c r="K22" s="5">
         <v>38905</v>
       </c>
-      <c r="L22" s="0">
-        <v>1</v>
-      </c>
-      <c r="M22" s="0">
+      <c r="L22" s="4">
+        <v>1</v>
+      </c>
+      <c r="M22" s="4">
         <v>1</v>
       </c>
     </row>
     <row outlineLevel="0" r="23">
-      <c r="A23" s="0">
+      <c r="A23" s="4">
         <v>40</v>
       </c>
-      <c r="B23" s="1">
+      <c r="B23" s="5">
         <v>39580.7083333333</v>
       </c>
-      <c r="C23" s="1">
+      <c r="C23" s="5">
         <v>39580.7083333333</v>
       </c>
-      <c r="D23" s="0">
+      <c r="D23" s="4">
         <v>60</v>
       </c>
-      <c r="E23" s="0" t="inlineStr">
+      <c r="E23" s="6" t="inlineStr">
         <is>
           <t>2008 Annual</t>
         </is>
       </c>
-      <c r="F23" s="0">
-        <v>1</v>
-      </c>
-      <c r="G23" s="0">
-        <v>1</v>
-      </c>
-      <c r="H23" s="0">
-        <v>0</v>
-      </c>
-      <c r="K23" s="1">
+      <c r="F23" s="4">
+        <v>1</v>
+      </c>
+      <c r="G23" s="4">
+        <v>1</v>
+      </c>
+      <c r="H23" s="4">
+        <v>0</v>
+      </c>
+      <c r="K23" s="5">
         <v>39581</v>
       </c>
-      <c r="L23" s="0">
-        <v>1</v>
-      </c>
-      <c r="M23" s="0">
+      <c r="L23" s="4">
+        <v>1</v>
+      </c>
+      <c r="M23" s="4">
         <v>1</v>
       </c>
     </row>
     <row outlineLevel="0" r="24">
-      <c r="A24" s="0">
+      <c r="A24" s="4">
         <v>41</v>
       </c>
-      <c r="B24" s="1">
+      <c r="B24" s="5">
         <v>39944.7083333333</v>
       </c>
-      <c r="C24" s="1">
+      <c r="C24" s="5">
         <v>39944.7083333333</v>
       </c>
-      <c r="D24" s="0">
+      <c r="D24" s="4">
         <v>61</v>
       </c>
-      <c r="E24" s="0" t="inlineStr">
+      <c r="E24" s="6" t="inlineStr">
         <is>
           <t>2009 Annual</t>
         </is>
       </c>
-      <c r="F24" s="0">
-        <v>1</v>
-      </c>
-      <c r="G24" s="0">
-        <v>1</v>
-      </c>
-      <c r="H24" s="0">
-        <v>0</v>
-      </c>
-      <c r="K24" s="1">
+      <c r="F24" s="4">
+        <v>1</v>
+      </c>
+      <c r="G24" s="4">
+        <v>1</v>
+      </c>
+      <c r="H24" s="4">
+        <v>0</v>
+      </c>
+      <c r="K24" s="5">
         <v>39787</v>
       </c>
-      <c r="L24" s="0">
-        <v>1</v>
-      </c>
-      <c r="M24" s="0">
+      <c r="L24" s="4">
+        <v>1</v>
+      </c>
+      <c r="M24" s="4">
         <v>1</v>
       </c>
     </row>
     <row outlineLevel="0" r="25">
-      <c r="A25" s="0">
+      <c r="A25" s="4">
         <v>42</v>
       </c>
-      <c r="B25" s="1">
+      <c r="B25" s="5">
         <v>39580.7083333333</v>
       </c>
-      <c r="C25" s="1">
+      <c r="C25" s="5">
         <v>39580.7083333333</v>
       </c>
-      <c r="D25" s="0">
+      <c r="D25" s="4">
         <v>62</v>
       </c>
-      <c r="E25" s="0" t="inlineStr">
+      <c r="E25" s="6" t="inlineStr">
         <is>
           <t>Primary Statement Of Exception</t>
         </is>
       </c>
-      <c r="F25" s="0">
-        <v>1</v>
-      </c>
-      <c r="G25" s="0">
-        <v>1</v>
-      </c>
-      <c r="H25" s="0">
-        <v>1</v>
-      </c>
-      <c r="K25" s="1">
+      <c r="F25" s="4">
+        <v>1</v>
+      </c>
+      <c r="G25" s="4">
+        <v>1</v>
+      </c>
+      <c r="H25" s="4">
+        <v>1</v>
+      </c>
+      <c r="K25" s="5">
         <v>39581</v>
       </c>
-      <c r="L25" s="0">
-        <v>1</v>
-      </c>
-      <c r="M25" s="0">
+      <c r="L25" s="4">
+        <v>1</v>
+      </c>
+      <c r="M25" s="4">
         <v>1</v>
       </c>
     </row>
     <row outlineLevel="0" r="26">
-      <c r="A26" s="0">
+      <c r="A26" s="4">
         <v>43</v>
       </c>
-      <c r="B26" s="1">
+      <c r="B26" s="5">
         <v>39580</v>
       </c>
-      <c r="C26" s="1">
+      <c r="C26" s="5">
         <v>39580</v>
       </c>
-      <c r="E26" s="0" t="inlineStr">
+      <c r="E26" s="6" t="inlineStr">
         <is>
           <t>First Primary</t>
         </is>
       </c>
-      <c r="F26" s="0">
-        <v>1</v>
-      </c>
-      <c r="G26" s="0">
-        <v>1</v>
-      </c>
-      <c r="H26" s="0">
-        <v>0</v>
-      </c>
-      <c r="K26" s="1">
+      <c r="F26" s="4">
+        <v>1</v>
+      </c>
+      <c r="G26" s="4">
+        <v>1</v>
+      </c>
+      <c r="H26" s="4">
+        <v>0</v>
+      </c>
+      <c r="K26" s="5">
         <v>39217</v>
       </c>
-      <c r="L26" s="0">
-        <v>1</v>
-      </c>
-      <c r="M26" s="0">
+      <c r="L26" s="4">
+        <v>1</v>
+      </c>
+      <c r="M26" s="4">
         <v>1</v>
       </c>
     </row>
     <row outlineLevel="0" r="27">
-      <c r="A27" s="0">
+      <c r="A27" s="4">
         <v>44</v>
       </c>
-      <c r="B27" s="1">
+      <c r="B27" s="5">
         <v>39597.7083333333</v>
       </c>
-      <c r="C27" s="1">
+      <c r="C27" s="5">
         <v>39597.7083333333</v>
       </c>
-      <c r="D27" s="0">
+      <c r="D27" s="4">
         <v>64</v>
       </c>
-      <c r="E27" s="0" t="inlineStr">
+      <c r="E27" s="6" t="inlineStr">
         <is>
           <t>Second Primary</t>
         </is>
       </c>
-      <c r="F27" s="0">
-        <v>1</v>
-      </c>
-      <c r="G27" s="0">
-        <v>1</v>
-      </c>
-      <c r="H27" s="0">
-        <v>0</v>
-      </c>
-      <c r="K27" s="1">
+      <c r="F27" s="4">
+        <v>1</v>
+      </c>
+      <c r="G27" s="4">
+        <v>1</v>
+      </c>
+      <c r="H27" s="4">
+        <v>0</v>
+      </c>
+      <c r="K27" s="5">
         <v>39592</v>
       </c>
-      <c r="L27" s="0">
-        <v>1</v>
-      </c>
-      <c r="M27" s="0">
+      <c r="L27" s="4">
+        <v>1</v>
+      </c>
+      <c r="M27" s="4">
         <v>1</v>
       </c>
     </row>
     <row outlineLevel="0" r="28">
-      <c r="A28" s="0">
+      <c r="A28" s="4">
         <v>45</v>
       </c>
-      <c r="B28" s="1">
+      <c r="B28" s="5">
         <v>39602.7083333333</v>
       </c>
-      <c r="C28" s="1">
+      <c r="C28" s="5">
         <v>39602.7083333333</v>
       </c>
-      <c r="D28" s="0">
+      <c r="D28" s="4">
         <v>65</v>
       </c>
-      <c r="E28" s="0" t="inlineStr">
+      <c r="E28" s="6" t="inlineStr">
         <is>
           <t>Primary Supplemental</t>
         </is>
       </c>
-      <c r="F28" s="0">
-        <v>1</v>
-      </c>
-      <c r="G28" s="0">
-        <v>1</v>
-      </c>
-      <c r="H28" s="0">
-        <v>1</v>
-      </c>
-      <c r="K28" s="1">
+      <c r="F28" s="4">
+        <v>1</v>
+      </c>
+      <c r="G28" s="4">
+        <v>1</v>
+      </c>
+      <c r="H28" s="4">
+        <v>1</v>
+      </c>
+      <c r="K28" s="5">
         <v>39598</v>
       </c>
-      <c r="L28" s="0">
-        <v>1</v>
-      </c>
-      <c r="M28" s="0">
+      <c r="L28" s="4">
+        <v>1</v>
+      </c>
+      <c r="M28" s="4">
         <v>1</v>
       </c>
     </row>
     <row outlineLevel="0" r="29">
-      <c r="A29" s="0">
+      <c r="A29" s="4">
         <v>46</v>
       </c>
-      <c r="B29" s="1">
+      <c r="B29" s="5">
         <v>39632.7083333333</v>
       </c>
-      <c r="C29" s="1">
+      <c r="C29" s="5">
         <v>39632.7083333333</v>
       </c>
-      <c r="D29" s="0">
+      <c r="D29" s="4">
         <v>66</v>
       </c>
-      <c r="E29" s="0" t="inlineStr">
+      <c r="E29" s="6" t="inlineStr">
         <is>
           <t>Third Primary</t>
         </is>
       </c>
-      <c r="F29" s="0">
-        <v>1</v>
-      </c>
-      <c r="G29" s="0">
-        <v>1</v>
-      </c>
-      <c r="H29" s="0">
-        <v>0</v>
-      </c>
-      <c r="K29" s="1">
+      <c r="F29" s="4">
+        <v>1</v>
+      </c>
+      <c r="G29" s="4">
+        <v>1</v>
+      </c>
+      <c r="H29" s="4">
+        <v>0</v>
+      </c>
+      <c r="K29" s="5">
         <v>39603</v>
       </c>
-      <c r="L29" s="0">
-        <v>1</v>
-      </c>
-      <c r="M29" s="0">
+      <c r="L29" s="4">
+        <v>1</v>
+      </c>
+      <c r="M29" s="4">
         <v>1</v>
       </c>
     </row>
     <row outlineLevel="0" r="30">
-      <c r="A30" s="0">
+      <c r="A30" s="4">
         <v>47</v>
       </c>
-      <c r="B30" s="1">
+      <c r="B30" s="5">
         <v>39734.7083333333</v>
       </c>
-      <c r="C30" s="1">
+      <c r="C30" s="5">
         <v>39734.7083333333</v>
       </c>
-      <c r="E30" s="0" t="inlineStr">
+      <c r="E30" s="6" t="inlineStr">
         <is>
           <t>General Statement Of Exception</t>
         </is>
       </c>
-      <c r="F30" s="0">
-        <v>1</v>
-      </c>
-      <c r="G30" s="0">
-        <v>1</v>
-      </c>
-      <c r="H30" s="0">
-        <v>0</v>
-      </c>
-      <c r="K30" s="1">
+      <c r="F30" s="4">
+        <v>1</v>
+      </c>
+      <c r="G30" s="4">
+        <v>1</v>
+      </c>
+      <c r="H30" s="4">
+        <v>0</v>
+      </c>
+      <c r="K30" s="5">
         <v>39729</v>
       </c>
-      <c r="L30" s="0">
-        <v>1</v>
-      </c>
-      <c r="M30" s="0">
+      <c r="L30" s="4">
+        <v>1</v>
+      </c>
+      <c r="M30" s="4">
         <v>1</v>
       </c>
     </row>
     <row outlineLevel="0" r="31">
-      <c r="A31" s="0">
+      <c r="A31" s="4">
         <v>48</v>
       </c>
-      <c r="B31" s="1">
+      <c r="B31" s="5">
         <v>39734.7083333333</v>
       </c>
-      <c r="C31" s="1">
+      <c r="C31" s="5">
         <v>39734.7083333333</v>
       </c>
-      <c r="D31" s="0">
+      <c r="D31" s="4">
         <v>68</v>
       </c>
-      <c r="E31" s="0" t="inlineStr">
+      <c r="E31" s="6" t="inlineStr">
         <is>
           <t>First General</t>
         </is>
       </c>
-      <c r="F31" s="0">
-        <v>1</v>
-      </c>
-      <c r="G31" s="0">
-        <v>1</v>
-      </c>
-      <c r="H31" s="0">
-        <v>0</v>
-      </c>
-      <c r="K31" s="1">
+      <c r="F31" s="4">
+        <v>1</v>
+      </c>
+      <c r="G31" s="4">
+        <v>1</v>
+      </c>
+      <c r="H31" s="4">
+        <v>0</v>
+      </c>
+      <c r="K31" s="5">
         <v>39729</v>
       </c>
-      <c r="L31" s="0">
-        <v>1</v>
-      </c>
-      <c r="M31" s="0">
+      <c r="L31" s="4">
+        <v>1</v>
+      </c>
+      <c r="M31" s="4">
         <v>1</v>
       </c>
     </row>
     <row outlineLevel="0" r="32">
-      <c r="A32" s="0">
+      <c r="A32" s="4">
         <v>49</v>
       </c>
-      <c r="B32" s="1">
+      <c r="B32" s="5">
         <v>39751.7083333333</v>
       </c>
-      <c r="C32" s="1">
+      <c r="C32" s="5">
         <v>39751.7083333333</v>
       </c>
-      <c r="D32" s="0">
+      <c r="D32" s="4">
         <v>69</v>
       </c>
-      <c r="E32" s="0" t="inlineStr">
+      <c r="E32" s="6" t="inlineStr">
         <is>
           <t>Second General</t>
         </is>
       </c>
-      <c r="F32" s="0">
-        <v>1</v>
-      </c>
-      <c r="G32" s="0">
-        <v>1</v>
-      </c>
-      <c r="H32" s="0">
-        <v>0</v>
-      </c>
-      <c r="K32" s="1">
+      <c r="F32" s="4">
+        <v>1</v>
+      </c>
+      <c r="G32" s="4">
+        <v>1</v>
+      </c>
+      <c r="H32" s="4">
+        <v>0</v>
+      </c>
+      <c r="K32" s="5">
         <v>39746</v>
       </c>
-      <c r="L32" s="0">
-        <v>1</v>
-      </c>
-      <c r="M32" s="0">
+      <c r="L32" s="4">
+        <v>1</v>
+      </c>
+      <c r="M32" s="4">
         <v>1</v>
       </c>
     </row>
     <row outlineLevel="0" r="33">
-      <c r="A33" s="0">
+      <c r="A33" s="4">
         <v>50</v>
       </c>
-      <c r="B33" s="1">
+      <c r="B33" s="5">
         <v>39756.7083333333</v>
       </c>
-      <c r="C33" s="1">
+      <c r="C33" s="5">
         <v>39756.7083333333</v>
       </c>
-      <c r="D33" s="0">
+      <c r="D33" s="4">
         <v>70</v>
       </c>
-      <c r="E33" s="0" t="inlineStr">
+      <c r="E33" s="6" t="inlineStr">
         <is>
           <t>General Supplemental</t>
         </is>
       </c>
-      <c r="F33" s="0">
-        <v>1</v>
-      </c>
-      <c r="G33" s="0">
-        <v>1</v>
-      </c>
-      <c r="H33" s="0">
-        <v>1</v>
-      </c>
-      <c r="K33" s="1">
+      <c r="F33" s="4">
+        <v>1</v>
+      </c>
+      <c r="G33" s="4">
+        <v>1</v>
+      </c>
+      <c r="H33" s="4">
+        <v>1</v>
+      </c>
+      <c r="K33" s="5">
         <v>39752</v>
       </c>
-      <c r="L33" s="0">
-        <v>1</v>
-      </c>
-      <c r="M33" s="0">
+      <c r="L33" s="4">
+        <v>1</v>
+      </c>
+      <c r="M33" s="4">
         <v>1</v>
       </c>
     </row>
     <row outlineLevel="0" r="34">
-      <c r="A34" s="0">
+      <c r="A34" s="4">
         <v>51</v>
       </c>
-      <c r="B34" s="1">
+      <c r="B34" s="5">
         <v>39786.7083333333</v>
       </c>
-      <c r="C34" s="1">
+      <c r="C34" s="5">
         <v>39786.7083333333</v>
       </c>
-      <c r="D34" s="0">
+      <c r="D34" s="4">
         <v>71</v>
       </c>
-      <c r="E34" s="0" t="inlineStr">
+      <c r="E34" s="6" t="inlineStr">
         <is>
           <t>Third General</t>
         </is>
       </c>
-      <c r="F34" s="0">
-        <v>1</v>
-      </c>
-      <c r="G34" s="0">
-        <v>1</v>
-      </c>
-      <c r="H34" s="0">
-        <v>0</v>
-      </c>
-      <c r="K34" s="1">
+      <c r="F34" s="4">
+        <v>1</v>
+      </c>
+      <c r="G34" s="4">
+        <v>1</v>
+      </c>
+      <c r="H34" s="4">
+        <v>0</v>
+      </c>
+      <c r="K34" s="5">
         <v>39757</v>
       </c>
-      <c r="L34" s="0">
-        <v>1</v>
-      </c>
-      <c r="M34" s="0">
+      <c r="L34" s="4">
+        <v>1</v>
+      </c>
+      <c r="M34" s="4">
         <v>1</v>
       </c>
     </row>
     <row outlineLevel="0" r="35">
-      <c r="A35" s="0">
+      <c r="A35" s="4">
         <v>52</v>
       </c>
-      <c r="B35" s="1">
+      <c r="B35" s="5">
         <v>39944.7083333333</v>
       </c>
-      <c r="C35" s="1">
+      <c r="C35" s="5">
         <v>39944.7083333333</v>
       </c>
-      <c r="D35" s="0">
+      <c r="D35" s="4">
         <v>72</v>
       </c>
-      <c r="E35" s="0" t="inlineStr">
+      <c r="E35" s="6" t="inlineStr">
         <is>
           <t>2009 Annual</t>
         </is>
       </c>
-      <c r="F35" s="0">
-        <v>1</v>
-      </c>
-      <c r="G35" s="0">
-        <v>1</v>
-      </c>
-      <c r="H35" s="0">
-        <v>0</v>
-      </c>
-      <c r="K35" s="1">
+      <c r="F35" s="4">
+        <v>1</v>
+      </c>
+      <c r="G35" s="4">
+        <v>1</v>
+      </c>
+      <c r="H35" s="4">
+        <v>0</v>
+      </c>
+      <c r="K35" s="5">
         <v>39787</v>
       </c>
-      <c r="L35" s="0">
-        <v>1</v>
-      </c>
-      <c r="M35" s="0">
+      <c r="L35" s="4">
+        <v>1</v>
+      </c>
+      <c r="M35" s="4">
         <v>1</v>
       </c>
     </row>
     <row outlineLevel="0" r="36">
-      <c r="A36" s="0">
+      <c r="A36" s="4">
         <v>53</v>
       </c>
-      <c r="B36" s="1">
+      <c r="B36" s="5">
         <v>39591.7083333333</v>
       </c>
-      <c r="C36" s="1">
+      <c r="C36" s="5">
         <v>39591.7083333333</v>
       </c>
-      <c r="D36" s="0">
+      <c r="D36" s="4">
         <v>73</v>
       </c>
-      <c r="E36" s="0" t="inlineStr">
+      <c r="E36" s="6" t="inlineStr">
         <is>
           <t>Primary Supplemental PRC/JUDGES</t>
         </is>
       </c>
-      <c r="F36" s="0">
-        <v>1</v>
-      </c>
-      <c r="G36" s="0">
-        <v>1</v>
-      </c>
-      <c r="H36" s="0">
-        <v>1</v>
-      </c>
-      <c r="K36" s="1">
+      <c r="F36" s="4">
+        <v>1</v>
+      </c>
+      <c r="G36" s="4">
+        <v>1</v>
+      </c>
+      <c r="H36" s="4">
+        <v>1</v>
+      </c>
+      <c r="K36" s="5">
         <v>39581</v>
       </c>
-      <c r="L36" s="0">
-        <v>1</v>
-      </c>
-      <c r="M36" s="0">
+      <c r="L36" s="4">
+        <v>1</v>
+      </c>
+      <c r="M36" s="4">
         <v>1</v>
       </c>
     </row>
     <row outlineLevel="0" r="37">
-      <c r="A37" s="0">
+      <c r="A37" s="4">
         <v>54</v>
       </c>
-      <c r="B37" s="1">
+      <c r="B37" s="5">
         <v>39728.7083333333</v>
       </c>
-      <c r="C37" s="1">
+      <c r="C37" s="5">
         <v>39728.7083333333</v>
       </c>
-      <c r="D37" s="0">
+      <c r="D37" s="4">
         <v>74</v>
       </c>
-      <c r="E37" s="0" t="inlineStr">
+      <c r="E37" s="6" t="inlineStr">
         <is>
           <t>General 1 Supplemental PRC/JUDGES</t>
         </is>
       </c>
-      <c r="F37" s="0">
-        <v>1</v>
-      </c>
-      <c r="G37" s="0">
-        <v>1</v>
-      </c>
-      <c r="H37" s="0">
-        <v>1</v>
-      </c>
-      <c r="K37" s="1">
+      <c r="F37" s="4">
+        <v>1</v>
+      </c>
+      <c r="G37" s="4">
+        <v>1</v>
+      </c>
+      <c r="H37" s="4">
+        <v>1</v>
+      </c>
+      <c r="K37" s="5">
         <v>39633</v>
       </c>
-      <c r="L37" s="0">
-        <v>1</v>
-      </c>
-      <c r="M37" s="0">
+      <c r="L37" s="4">
+        <v>1</v>
+      </c>
+      <c r="M37" s="4">
         <v>1</v>
       </c>
     </row>
     <row outlineLevel="0" r="38">
-      <c r="A38" s="0">
+      <c r="A38" s="4">
         <v>55</v>
       </c>
-      <c r="B38" s="1">
+      <c r="B38" s="5">
         <v>39745.7083333333</v>
       </c>
-      <c r="C38" s="1">
+      <c r="C38" s="5">
         <v>39745.7083333333</v>
       </c>
-      <c r="D38" s="0">
+      <c r="D38" s="4">
         <v>75</v>
       </c>
-      <c r="E38" s="0" t="inlineStr">
+      <c r="E38" s="6" t="inlineStr">
         <is>
           <t>General 2 Supplemental PRC/JUDGES</t>
         </is>
       </c>
-      <c r="F38" s="0">
-        <v>1</v>
-      </c>
-      <c r="G38" s="0">
-        <v>1</v>
-      </c>
-      <c r="H38" s="0">
-        <v>1</v>
-      </c>
-      <c r="K38" s="1">
+      <c r="F38" s="4">
+        <v>1</v>
+      </c>
+      <c r="G38" s="4">
+        <v>1</v>
+      </c>
+      <c r="H38" s="4">
+        <v>1</v>
+      </c>
+      <c r="K38" s="5">
         <v>39735</v>
       </c>
-      <c r="L38" s="0">
-        <v>1</v>
-      </c>
-      <c r="M38" s="0">
+      <c r="L38" s="4">
+        <v>1</v>
+      </c>
+      <c r="M38" s="4">
         <v>1</v>
       </c>
     </row>
     <row outlineLevel="0" r="39">
-      <c r="A39" s="0">
+      <c r="A39" s="4">
         <v>56</v>
       </c>
-      <c r="B39" s="1">
+      <c r="B39" s="5">
         <v>38845.7083333333</v>
       </c>
-      <c r="C39" s="1">
+      <c r="C39" s="5">
         <v>38845.7083333333</v>
       </c>
-      <c r="D39" s="0">
+      <c r="D39" s="4">
         <v>79</v>
       </c>
-      <c r="E39" s="0" t="inlineStr">
+      <c r="E39" s="6" t="inlineStr">
         <is>
           <t>2006 Annual</t>
         </is>
       </c>
-      <c r="F39" s="0">
-        <v>1</v>
-      </c>
-      <c r="G39" s="0">
-        <v>1</v>
-      </c>
-      <c r="H39" s="0">
-        <v>0</v>
-      </c>
-      <c r="K39" s="1">
+      <c r="F39" s="4">
+        <v>1</v>
+      </c>
+      <c r="G39" s="4">
+        <v>1</v>
+      </c>
+      <c r="H39" s="4">
+        <v>0</v>
+      </c>
+      <c r="K39" s="5">
         <v>38482</v>
       </c>
-      <c r="L39" s="0">
-        <v>1</v>
-      </c>
-      <c r="M39" s="0">
+      <c r="L39" s="4">
+        <v>1</v>
+      </c>
+      <c r="M39" s="4">
         <v>1</v>
       </c>
     </row>
     <row outlineLevel="0" r="40">
-      <c r="A40" s="0">
+      <c r="A40" s="4">
         <v>57</v>
       </c>
-      <c r="B40" s="1">
+      <c r="B40" s="5">
         <v>39216.7083333333</v>
       </c>
-      <c r="C40" s="1">
+      <c r="C40" s="5">
         <v>39216.7083333333</v>
       </c>
-      <c r="D40" s="0">
+      <c r="D40" s="4">
         <v>80</v>
       </c>
-      <c r="E40" s="0" t="inlineStr">
+      <c r="E40" s="6" t="inlineStr">
         <is>
           <t>2007 Annual</t>
         </is>
       </c>
-      <c r="F40" s="0">
-        <v>1</v>
-      </c>
-      <c r="G40" s="0">
-        <v>1</v>
-      </c>
-      <c r="H40" s="0">
-        <v>0</v>
-      </c>
-      <c r="K40" s="1">
+      <c r="F40" s="4">
+        <v>1</v>
+      </c>
+      <c r="G40" s="4">
+        <v>1</v>
+      </c>
+      <c r="H40" s="4">
+        <v>0</v>
+      </c>
+      <c r="K40" s="5">
         <v>39059</v>
       </c>
-      <c r="L40" s="0">
-        <v>1</v>
-      </c>
-      <c r="M40" s="0">
+      <c r="L40" s="4">
+        <v>1</v>
+      </c>
+      <c r="M40" s="4">
         <v>1</v>
       </c>
     </row>
     <row outlineLevel="0" r="41">
-      <c r="A41" s="0">
+      <c r="A41" s="4">
         <v>58</v>
       </c>
-      <c r="B41" s="1">
+      <c r="B41" s="5">
         <v>39580.7083333333</v>
       </c>
-      <c r="C41" s="1">
+      <c r="C41" s="5">
         <v>39580.7083333333</v>
       </c>
-      <c r="D41" s="0">
+      <c r="D41" s="4">
         <v>81</v>
       </c>
-      <c r="E41" s="0" t="inlineStr">
+      <c r="E41" s="6" t="inlineStr">
         <is>
           <t>2008 Annual</t>
         </is>
       </c>
-      <c r="F41" s="0">
-        <v>1</v>
-      </c>
-      <c r="G41" s="0">
-        <v>1</v>
-      </c>
-      <c r="H41" s="0">
-        <v>0</v>
-      </c>
-      <c r="K41" s="1">
+      <c r="F41" s="4">
+        <v>1</v>
+      </c>
+      <c r="G41" s="4">
+        <v>1</v>
+      </c>
+      <c r="H41" s="4">
+        <v>0</v>
+      </c>
+      <c r="K41" s="5">
         <v>39581</v>
       </c>
-      <c r="L41" s="0">
-        <v>1</v>
-      </c>
-      <c r="M41" s="0">
+      <c r="L41" s="4">
+        <v>1</v>
+      </c>
+      <c r="M41" s="4">
         <v>1</v>
       </c>
     </row>
     <row outlineLevel="0" r="42">
-      <c r="A42" s="0">
+      <c r="A42" s="4">
         <v>59</v>
       </c>
-      <c r="B42" s="1">
+      <c r="B42" s="5">
         <v>39944.7083333333</v>
       </c>
-      <c r="C42" s="1">
+      <c r="C42" s="5">
         <v>39944.7083333333</v>
       </c>
-      <c r="D42" s="0">
+      <c r="D42" s="4">
         <v>82</v>
       </c>
-      <c r="E42" s="0" t="inlineStr">
+      <c r="E42" s="6" t="inlineStr">
         <is>
           <t>2009 Annual</t>
         </is>
       </c>
-      <c r="F42" s="0">
-        <v>1</v>
-      </c>
-      <c r="G42" s="0">
-        <v>1</v>
-      </c>
-      <c r="H42" s="0">
-        <v>0</v>
-      </c>
-      <c r="K42" s="1">
+      <c r="F42" s="4">
+        <v>1</v>
+      </c>
+      <c r="G42" s="4">
+        <v>1</v>
+      </c>
+      <c r="H42" s="4">
+        <v>0</v>
+      </c>
+      <c r="K42" s="5">
         <v>39787</v>
       </c>
-      <c r="L42" s="0">
-        <v>1</v>
-      </c>
-      <c r="M42" s="0">
+      <c r="L42" s="4">
+        <v>1</v>
+      </c>
+      <c r="M42" s="4">
         <v>1</v>
       </c>
     </row>
     <row outlineLevel="0" r="43">
-      <c r="A43" s="0">
+      <c r="A43" s="4">
         <v>60</v>
       </c>
-      <c r="B43" s="1">
+      <c r="B43" s="5">
         <v>40098</v>
       </c>
-      <c r="C43" s="1">
+      <c r="C43" s="5">
         <v>40090</v>
       </c>
-      <c r="E43" s="0" t="inlineStr">
+      <c r="E43" s="6" t="inlineStr">
         <is>
           <t>2009 Second Bi-Annual</t>
         </is>
       </c>
-      <c r="F43" s="0">
-        <v>1</v>
-      </c>
-      <c r="G43" s="0">
-        <v>1</v>
-      </c>
-      <c r="H43" s="0">
-        <v>0</v>
-      </c>
-      <c r="K43" s="1">
+      <c r="F43" s="4">
+        <v>1</v>
+      </c>
+      <c r="G43" s="4">
+        <v>1</v>
+      </c>
+      <c r="H43" s="4">
+        <v>0</v>
+      </c>
+      <c r="K43" s="5">
         <v>39945</v>
       </c>
-      <c r="L43" s="0">
-        <v>1</v>
-      </c>
-      <c r="M43" s="0">
+      <c r="L43" s="4">
+        <v>1</v>
+      </c>
+      <c r="M43" s="4">
         <v>1</v>
       </c>
     </row>
     <row outlineLevel="0" r="44">
-      <c r="A44" s="0">
+      <c r="A44" s="4">
         <v>62</v>
       </c>
-      <c r="B44" s="1">
+      <c r="B44" s="5">
         <v>40098</v>
       </c>
-      <c r="C44" s="1">
+      <c r="C44" s="5">
         <v>40090</v>
       </c>
-      <c r="E44" s="0" t="inlineStr">
+      <c r="E44" s="6" t="inlineStr">
         <is>
           <t>2009 Second Bi-Annual</t>
         </is>
       </c>
-      <c r="F44" s="0">
-        <v>1</v>
-      </c>
-      <c r="G44" s="0">
-        <v>1</v>
-      </c>
-      <c r="H44" s="0">
-        <v>0</v>
-      </c>
-      <c r="K44" s="1">
+      <c r="F44" s="4">
+        <v>1</v>
+      </c>
+      <c r="G44" s="4">
+        <v>1</v>
+      </c>
+      <c r="H44" s="4">
+        <v>0</v>
+      </c>
+      <c r="K44" s="5">
         <v>39945</v>
       </c>
-      <c r="L44" s="0">
-        <v>1</v>
-      </c>
-      <c r="M44" s="0">
+      <c r="L44" s="4">
+        <v>1</v>
+      </c>
+      <c r="M44" s="4">
         <v>1</v>
       </c>
     </row>
     <row outlineLevel="0" r="45">
-      <c r="A45" s="0">
+      <c r="A45" s="4">
         <v>63</v>
       </c>
-      <c r="B45" s="1">
+      <c r="B45" s="5">
         <v>40280</v>
       </c>
-      <c r="C45" s="1">
+      <c r="C45" s="5">
         <v>40273</v>
       </c>
-      <c r="E45" s="0" t="inlineStr">
+      <c r="E45" s="6" t="inlineStr">
         <is>
           <t>First Primary Report 2010</t>
         </is>
       </c>
-      <c r="F45" s="0">
-        <v>1</v>
-      </c>
-      <c r="G45" s="0">
-        <v>1</v>
-      </c>
-      <c r="H45" s="0">
-        <v>0</v>
-      </c>
-      <c r="K45" s="1">
+      <c r="F45" s="4">
+        <v>1</v>
+      </c>
+      <c r="G45" s="4">
+        <v>1</v>
+      </c>
+      <c r="H45" s="4">
+        <v>0</v>
+      </c>
+      <c r="K45" s="5">
         <v>40091</v>
       </c>
-      <c r="L45" s="0">
-        <v>1</v>
-      </c>
-      <c r="M45" s="0">
+      <c r="L45" s="4">
+        <v>1</v>
+      </c>
+      <c r="M45" s="4">
         <v>1</v>
       </c>
     </row>
     <row outlineLevel="0" r="46">
-      <c r="A46" s="0">
+      <c r="A46" s="4">
         <v>64</v>
       </c>
-      <c r="B46" s="1">
+      <c r="B46" s="5">
         <v>40308.9999884259</v>
       </c>
-      <c r="C46" s="1">
+      <c r="C46" s="5">
         <v>40301</v>
       </c>
-      <c r="E46" s="0" t="inlineStr">
+      <c r="E46" s="6" t="inlineStr">
         <is>
           <t>Second Primary Report 2010</t>
         </is>
       </c>
-      <c r="F46" s="0">
-        <v>1</v>
-      </c>
-      <c r="G46" s="0">
-        <v>1</v>
-      </c>
-      <c r="H46" s="0">
-        <v>0</v>
-      </c>
-      <c r="K46" s="1">
+      <c r="F46" s="4">
+        <v>1</v>
+      </c>
+      <c r="G46" s="4">
+        <v>1</v>
+      </c>
+      <c r="H46" s="4">
+        <v>0</v>
+      </c>
+      <c r="K46" s="5">
         <v>40274</v>
       </c>
-      <c r="L46" s="0">
-        <v>1</v>
-      </c>
-      <c r="M46" s="0">
+      <c r="L46" s="4">
+        <v>1</v>
+      </c>
+      <c r="M46" s="4">
         <v>1</v>
       </c>
     </row>
     <row outlineLevel="0" r="47">
-      <c r="A47" s="0">
+      <c r="A47" s="4">
         <v>65</v>
       </c>
-      <c r="B47" s="1">
+      <c r="B47" s="5">
         <v>40325.9993055556</v>
       </c>
-      <c r="C47" s="1">
+      <c r="C47" s="5">
         <v>40323.9993055556</v>
       </c>
-      <c r="E47" s="0" t="inlineStr">
+      <c r="E47" s="6" t="inlineStr">
         <is>
           <t>Third Primary Report 2010</t>
         </is>
       </c>
-      <c r="F47" s="0">
-        <v>1</v>
-      </c>
-      <c r="G47" s="0">
-        <v>1</v>
-      </c>
-      <c r="H47" s="0">
-        <v>0</v>
-      </c>
-      <c r="K47" s="1">
+      <c r="F47" s="4">
+        <v>1</v>
+      </c>
+      <c r="G47" s="4">
+        <v>1</v>
+      </c>
+      <c r="H47" s="4">
+        <v>0</v>
+      </c>
+      <c r="K47" s="5">
         <v>40302</v>
       </c>
-      <c r="L47" s="0">
-        <v>1</v>
-      </c>
-      <c r="M47" s="0">
+      <c r="L47" s="4">
+        <v>1</v>
+      </c>
+      <c r="M47" s="4">
         <v>1</v>
       </c>
     </row>
     <row outlineLevel="0" r="48">
-      <c r="A48" s="0">
+      <c r="A48" s="4">
         <v>67</v>
       </c>
-      <c r="B48" s="1">
+      <c r="B48" s="5">
         <v>40360.7083333333</v>
       </c>
-      <c r="C48" s="1">
+      <c r="C48" s="5">
         <v>40354.9993055556</v>
       </c>
-      <c r="E48" s="0" t="inlineStr">
+      <c r="E48" s="6" t="inlineStr">
         <is>
           <t>Fourth Primary Report 2010</t>
         </is>
       </c>
-      <c r="F48" s="0">
-        <v>1</v>
-      </c>
-      <c r="G48" s="0">
-        <v>1</v>
-      </c>
-      <c r="H48" s="0">
-        <v>0</v>
-      </c>
-      <c r="K48" s="1">
+      <c r="F48" s="4">
+        <v>1</v>
+      </c>
+      <c r="G48" s="4">
+        <v>1</v>
+      </c>
+      <c r="H48" s="4">
+        <v>0</v>
+      </c>
+      <c r="K48" s="5">
         <v>40324</v>
       </c>
-      <c r="L48" s="0">
-        <v>1</v>
-      </c>
-      <c r="M48" s="0">
+      <c r="L48" s="4">
+        <v>1</v>
+      </c>
+      <c r="M48" s="4">
         <v>1</v>
       </c>
     </row>
     <row outlineLevel="0" r="49">
-      <c r="A49" s="0">
+      <c r="A49" s="4">
         <v>68</v>
       </c>
-      <c r="B49" s="1">
+      <c r="B49" s="5">
         <v>40329.5</v>
       </c>
-      <c r="C49" s="1">
+      <c r="C49" s="5">
         <v>40329.5</v>
       </c>
-      <c r="E49" s="0" t="inlineStr">
+      <c r="E49" s="6" t="inlineStr">
         <is>
           <t>Primary Supplemental Report 2010</t>
         </is>
       </c>
-      <c r="F49" s="0">
-        <v>0</v>
-      </c>
-      <c r="G49" s="0">
+      <c r="F49" s="4">
+        <v>0</v>
+      </c>
+      <c r="G49" s="4">
         <v>2</v>
       </c>
-      <c r="H49" s="0">
-        <v>1</v>
-      </c>
-      <c r="I49" s="1">
+      <c r="H49" s="4">
+        <v>1</v>
+      </c>
+      <c r="I49" s="5">
         <v>40323.7083333333</v>
       </c>
-      <c r="J49" s="0">
+      <c r="J49" s="4">
         <v>67</v>
       </c>
-      <c r="K49" s="1">
+      <c r="K49" s="5">
         <v>40323</v>
       </c>
-      <c r="L49" s="0">
-        <v>1</v>
-      </c>
-      <c r="M49" s="0">
+      <c r="L49" s="4">
+        <v>1</v>
+      </c>
+      <c r="M49" s="4">
         <v>1</v>
       </c>
     </row>
     <row outlineLevel="0" r="50">
-      <c r="A50" s="0">
+      <c r="A50" s="4">
         <v>69</v>
       </c>
-      <c r="B50" s="1">
+      <c r="B50" s="5">
         <v>40434.7083333333</v>
       </c>
-      <c r="C50" s="1">
+      <c r="C50" s="5">
         <v>40427.7083333333</v>
       </c>
-      <c r="E50" s="0" t="inlineStr">
+      <c r="E50" s="6" t="inlineStr">
         <is>
           <t>First General Report  2010</t>
         </is>
       </c>
-      <c r="F50" s="0">
-        <v>0</v>
-      </c>
-      <c r="G50" s="0">
-        <v>1</v>
-      </c>
-      <c r="H50" s="0">
-        <v>0</v>
-      </c>
-      <c r="K50" s="1">
+      <c r="F50" s="4">
+        <v>0</v>
+      </c>
+      <c r="G50" s="4">
+        <v>1</v>
+      </c>
+      <c r="H50" s="4">
+        <v>0</v>
+      </c>
+      <c r="K50" s="5">
         <v>40355</v>
       </c>
-      <c r="L50" s="0">
-        <v>1</v>
-      </c>
-      <c r="M50" s="0">
+      <c r="L50" s="4">
+        <v>1</v>
+      </c>
+      <c r="M50" s="4">
         <v>1</v>
       </c>
     </row>
     <row outlineLevel="0" r="51">
-      <c r="A51" s="0">
+      <c r="A51" s="4">
         <v>70</v>
       </c>
-      <c r="B51" s="1">
+      <c r="B51" s="5">
         <v>40463.7083333333</v>
       </c>
-      <c r="C51" s="1">
+      <c r="C51" s="5">
         <v>40455.9993055556</v>
       </c>
-      <c r="E51" s="0" t="inlineStr">
+      <c r="E51" s="6" t="inlineStr">
         <is>
           <t>Second General Report  2010</t>
         </is>
       </c>
-      <c r="F51" s="0">
-        <v>1</v>
-      </c>
-      <c r="G51" s="0">
-        <v>1</v>
-      </c>
-      <c r="H51" s="0">
-        <v>0</v>
-      </c>
-      <c r="K51" s="1">
+      <c r="F51" s="4">
+        <v>1</v>
+      </c>
+      <c r="G51" s="4">
+        <v>1</v>
+      </c>
+      <c r="H51" s="4">
+        <v>0</v>
+      </c>
+      <c r="K51" s="5">
         <v>40428</v>
       </c>
-      <c r="L51" s="0">
-        <v>1</v>
-      </c>
-      <c r="M51" s="0">
+      <c r="L51" s="4">
+        <v>1</v>
+      </c>
+      <c r="M51" s="4">
         <v>1</v>
       </c>
     </row>
     <row outlineLevel="0" r="52">
-      <c r="A52" s="0">
+      <c r="A52" s="4">
         <v>71</v>
       </c>
-      <c r="B52" s="1">
+      <c r="B52" s="5">
         <v>40479.7083333333</v>
       </c>
-      <c r="C52" s="1">
+      <c r="C52" s="5">
         <v>40477.7083333333</v>
       </c>
-      <c r="E52" s="0" t="inlineStr">
+      <c r="E52" s="6" t="inlineStr">
         <is>
           <t>Third General Report  2010</t>
         </is>
       </c>
-      <c r="F52" s="0">
-        <v>1</v>
-      </c>
-      <c r="G52" s="0">
-        <v>1</v>
-      </c>
-      <c r="H52" s="0">
-        <v>0</v>
-      </c>
-      <c r="K52" s="1">
+      <c r="F52" s="4">
+        <v>1</v>
+      </c>
+      <c r="G52" s="4">
+        <v>1</v>
+      </c>
+      <c r="H52" s="4">
+        <v>0</v>
+      </c>
+      <c r="K52" s="5">
         <v>40456</v>
       </c>
-      <c r="L52" s="0">
-        <v>1</v>
-      </c>
-      <c r="M52" s="0">
+      <c r="L52" s="4">
+        <v>1</v>
+      </c>
+      <c r="M52" s="4">
         <v>1</v>
       </c>
     </row>
     <row outlineLevel="0" r="53">
-      <c r="A53" s="0">
+      <c r="A53" s="4">
         <v>72</v>
       </c>
-      <c r="B53" s="1">
+      <c r="B53" s="5">
         <v>40514.7083333333</v>
       </c>
-      <c r="C53" s="1">
+      <c r="C53" s="5">
         <v>40509.7083333333</v>
       </c>
-      <c r="E53" s="0" t="inlineStr">
+      <c r="E53" s="6" t="inlineStr">
         <is>
           <t>Fourth General Report 2010 </t>
         </is>
       </c>
-      <c r="F53" s="0">
-        <v>1</v>
-      </c>
-      <c r="G53" s="0">
-        <v>1</v>
-      </c>
-      <c r="H53" s="0">
-        <v>0</v>
-      </c>
-      <c r="K53" s="1">
+      <c r="F53" s="4">
+        <v>1</v>
+      </c>
+      <c r="G53" s="4">
+        <v>1</v>
+      </c>
+      <c r="H53" s="4">
+        <v>0</v>
+      </c>
+      <c r="K53" s="5">
         <v>40478</v>
       </c>
-      <c r="L53" s="0">
-        <v>1</v>
-      </c>
-      <c r="M53" s="0">
+      <c r="L53" s="4">
+        <v>1</v>
+      </c>
+      <c r="M53" s="4">
         <v>1</v>
       </c>
     </row>
     <row outlineLevel="0" r="54">
-      <c r="A54" s="0">
+      <c r="A54" s="4">
         <v>73</v>
       </c>
-      <c r="B54" s="1">
+      <c r="B54" s="5">
         <v>40483.5</v>
       </c>
-      <c r="C54" s="1">
+      <c r="C54" s="5">
         <v>40483.5</v>
       </c>
-      <c r="E54" s="0" t="inlineStr">
+      <c r="E54" s="6" t="inlineStr">
         <is>
           <t>General Supplemental Report 2010</t>
         </is>
       </c>
-      <c r="F54" s="0">
-        <v>0</v>
-      </c>
-      <c r="G54" s="0">
+      <c r="F54" s="4">
+        <v>0</v>
+      </c>
+      <c r="G54" s="4">
         <v>2</v>
       </c>
-      <c r="H54" s="0">
-        <v>1</v>
-      </c>
-      <c r="I54" s="1">
+      <c r="H54" s="4">
+        <v>1</v>
+      </c>
+      <c r="I54" s="5">
         <v>40477.7083333333</v>
       </c>
-      <c r="J54" s="0">
+      <c r="J54" s="4">
         <v>72</v>
       </c>
-      <c r="K54" s="1">
+      <c r="K54" s="5">
         <v>40477</v>
       </c>
-      <c r="L54" s="0">
-        <v>1</v>
-      </c>
-      <c r="M54" s="0">
+      <c r="L54" s="4">
+        <v>1</v>
+      </c>
+      <c r="M54" s="4">
         <v>1</v>
       </c>
     </row>
     <row outlineLevel="0" r="55">
-      <c r="A55" s="0">
+      <c r="A55" s="4">
         <v>75</v>
       </c>
-      <c r="B55" s="1">
+      <c r="B55" s="5">
         <v>40280.7083333333</v>
       </c>
-      <c r="C55" s="1">
+      <c r="C55" s="5">
         <v>40273.7083333333</v>
       </c>
-      <c r="E55" s="0" t="inlineStr">
+      <c r="E55" s="6" t="inlineStr">
         <is>
           <t>2010 First biannual</t>
         </is>
       </c>
-      <c r="F55" s="0">
-        <v>0</v>
-      </c>
-      <c r="G55" s="0">
+      <c r="F55" s="4">
+        <v>0</v>
+      </c>
+      <c r="G55" s="4">
         <v>3</v>
       </c>
-      <c r="H55" s="0">
-        <v>0</v>
-      </c>
-      <c r="K55" s="1">
+      <c r="H55" s="4">
+        <v>0</v>
+      </c>
+      <c r="K55" s="5">
         <v>40091</v>
       </c>
-      <c r="L55" s="0">
-        <v>1</v>
-      </c>
-      <c r="M55" s="0">
+      <c r="L55" s="4">
+        <v>1</v>
+      </c>
+      <c r="M55" s="4">
         <v>1</v>
       </c>
     </row>
     <row outlineLevel="0" r="56">
-      <c r="A56" s="0">
+      <c r="A56" s="4">
         <v>76</v>
       </c>
-      <c r="B56" s="1">
+      <c r="B56" s="5">
         <v>40463.7083333333</v>
       </c>
-      <c r="C56" s="1">
+      <c r="C56" s="5">
         <v>40455.9993055556</v>
       </c>
-      <c r="E56" s="0" t="inlineStr">
+      <c r="E56" s="6" t="inlineStr">
         <is>
           <t>2010 Second Biannual</t>
         </is>
       </c>
-      <c r="F56" s="0">
-        <v>0</v>
-      </c>
-      <c r="G56" s="0">
+      <c r="F56" s="4">
+        <v>0</v>
+      </c>
+      <c r="G56" s="4">
         <v>3</v>
       </c>
-      <c r="H56" s="0">
-        <v>0</v>
-      </c>
-      <c r="K56" s="1">
+      <c r="H56" s="4">
+        <v>0</v>
+      </c>
+      <c r="K56" s="5">
         <v>40274</v>
       </c>
-      <c r="L56" s="0">
-        <v>1</v>
-      </c>
-      <c r="M56" s="0">
+      <c r="L56" s="4">
+        <v>1</v>
+      </c>
+      <c r="M56" s="4">
         <v>1</v>
       </c>
     </row>
     <row outlineLevel="0" r="57">
-      <c r="A57" s="0">
+      <c r="A57" s="4">
         <v>77</v>
       </c>
-      <c r="B57" s="1">
+      <c r="B57" s="5">
         <v>40644.7083333333</v>
       </c>
-      <c r="C57" s="1">
+      <c r="C57" s="5">
         <v>40637.7083333333</v>
       </c>
-      <c r="E57" s="0" t="inlineStr">
+      <c r="E57" s="6" t="inlineStr">
         <is>
           <t>2011 First Bi-Annual </t>
         </is>
       </c>
-      <c r="F57" s="0">
-        <v>1</v>
-      </c>
-      <c r="G57" s="0">
+      <c r="F57" s="4">
+        <v>1</v>
+      </c>
+      <c r="G57" s="4">
         <v>3</v>
       </c>
-      <c r="H57" s="0">
-        <v>0</v>
-      </c>
-      <c r="K57" s="1">
+      <c r="H57" s="4">
+        <v>0</v>
+      </c>
+      <c r="K57" s="5">
         <v>40456</v>
       </c>
-      <c r="L57" s="0">
-        <v>1</v>
-      </c>
-      <c r="M57" s="0">
+      <c r="L57" s="4">
+        <v>1</v>
+      </c>
+      <c r="M57" s="4">
         <v>1</v>
       </c>
     </row>
     <row outlineLevel="0" r="58">
-      <c r="A58" s="0">
+      <c r="A58" s="4">
         <v>78</v>
       </c>
-      <c r="B58" s="1">
+      <c r="B58" s="5">
         <v>40827.7083333333</v>
       </c>
-      <c r="C58" s="1">
+      <c r="C58" s="5">
         <v>40819.7083333333</v>
       </c>
-      <c r="E58" s="0" t="inlineStr">
+      <c r="E58" s="6" t="inlineStr">
         <is>
           <t>2011 Second Bi-Annual</t>
         </is>
       </c>
-      <c r="F58" s="0">
-        <v>1</v>
-      </c>
-      <c r="G58" s="0">
+      <c r="F58" s="4">
+        <v>1</v>
+      </c>
+      <c r="G58" s="4">
         <v>3</v>
       </c>
-      <c r="H58" s="0">
-        <v>0</v>
-      </c>
-      <c r="K58" s="1">
+      <c r="H58" s="4">
+        <v>0</v>
+      </c>
+      <c r="K58" s="5">
         <v>40638</v>
       </c>
-      <c r="L58" s="0">
-        <v>1</v>
-      </c>
-      <c r="M58" s="0">
+      <c r="L58" s="4">
+        <v>1</v>
+      </c>
+      <c r="M58" s="4">
         <v>1</v>
       </c>
     </row>
     <row outlineLevel="0" r="59">
-      <c r="A59" s="0">
+      <c r="A59" s="4">
         <v>79</v>
       </c>
-      <c r="B59" s="1">
+      <c r="B59" s="5">
         <v>41008.7083333333</v>
       </c>
-      <c r="C59" s="1">
+      <c r="C59" s="5">
         <v>41001.9993055556</v>
       </c>
-      <c r="E59" s="0" t="inlineStr">
+      <c r="E59" s="6" t="inlineStr">
         <is>
           <t>2012 First Biannual</t>
         </is>
       </c>
-      <c r="F59" s="0">
-        <v>1</v>
-      </c>
-      <c r="G59" s="0">
+      <c r="F59" s="4">
+        <v>1</v>
+      </c>
+      <c r="G59" s="4">
         <v>3</v>
       </c>
-      <c r="H59" s="0">
-        <v>0</v>
-      </c>
-      <c r="K59" s="1">
+      <c r="H59" s="4">
+        <v>0</v>
+      </c>
+      <c r="K59" s="5">
         <v>40820</v>
       </c>
-      <c r="L59" s="0">
-        <v>1</v>
-      </c>
-      <c r="M59" s="0">
+      <c r="L59" s="4">
+        <v>1</v>
+      </c>
+      <c r="M59" s="4">
         <v>1</v>
       </c>
     </row>
     <row outlineLevel="0" r="60">
-      <c r="A60" s="0">
+      <c r="A60" s="4">
         <v>80</v>
       </c>
-      <c r="B60" s="1">
+      <c r="B60" s="5">
         <v>41008.7083333333</v>
       </c>
-      <c r="C60" s="1">
+      <c r="C60" s="5">
         <v>41001.9993055556</v>
       </c>
-      <c r="E60" s="0" t="inlineStr">
+      <c r="E60" s="6" t="inlineStr">
         <is>
           <t>First Primary Report 2012 </t>
         </is>
       </c>
-      <c r="F60" s="0">
-        <v>1</v>
-      </c>
-      <c r="G60" s="0">
-        <v>1</v>
-      </c>
-      <c r="H60" s="0">
-        <v>0</v>
-      </c>
-      <c r="K60" s="1">
+      <c r="F60" s="4">
+        <v>1</v>
+      </c>
+      <c r="G60" s="4">
+        <v>1</v>
+      </c>
+      <c r="H60" s="4">
+        <v>0</v>
+      </c>
+      <c r="K60" s="5">
         <v>40820</v>
       </c>
-      <c r="L60" s="0">
-        <v>1</v>
-      </c>
-      <c r="M60" s="0">
+      <c r="L60" s="4">
+        <v>1</v>
+      </c>
+      <c r="M60" s="4">
         <v>1</v>
       </c>
     </row>
     <row outlineLevel="0" r="61">
-      <c r="A61" s="0">
+      <c r="A61" s="4">
         <v>81</v>
       </c>
-      <c r="B61" s="1">
+      <c r="B61" s="5">
         <v>41043.7083333333</v>
       </c>
-      <c r="C61" s="1">
+      <c r="C61" s="5">
         <v>41036.5</v>
       </c>
-      <c r="E61" s="0" t="inlineStr">
+      <c r="E61" s="6" t="inlineStr">
         <is>
           <t>Second Primary Report 2012</t>
         </is>
       </c>
-      <c r="F61" s="0">
-        <v>1</v>
-      </c>
-      <c r="G61" s="0">
-        <v>1</v>
-      </c>
-      <c r="H61" s="0">
-        <v>0</v>
-      </c>
-      <c r="K61" s="1">
+      <c r="F61" s="4">
+        <v>1</v>
+      </c>
+      <c r="G61" s="4">
+        <v>1</v>
+      </c>
+      <c r="H61" s="4">
+        <v>0</v>
+      </c>
+      <c r="K61" s="5">
         <v>41002</v>
       </c>
-      <c r="L61" s="0">
-        <v>1</v>
-      </c>
-      <c r="M61" s="0">
+      <c r="L61" s="4">
+        <v>1</v>
+      </c>
+      <c r="M61" s="4">
         <v>1</v>
       </c>
     </row>
     <row outlineLevel="0" r="62">
-      <c r="A62" s="0">
+      <c r="A62" s="4">
         <v>82</v>
       </c>
-      <c r="B62" s="1">
+      <c r="B62" s="5">
         <v>41060.7083333333</v>
       </c>
-      <c r="C62" s="1">
+      <c r="C62" s="5">
         <v>41060.9993055556</v>
       </c>
-      <c r="E62" s="0" t="inlineStr">
+      <c r="E62" s="6" t="inlineStr">
         <is>
           <t>Third Primary Report 2012</t>
         </is>
       </c>
-      <c r="F62" s="0">
-        <v>1</v>
-      </c>
-      <c r="G62" s="0">
-        <v>1</v>
-      </c>
-      <c r="H62" s="0">
-        <v>0</v>
-      </c>
-      <c r="K62" s="1">
+      <c r="F62" s="4">
+        <v>1</v>
+      </c>
+      <c r="G62" s="4">
+        <v>1</v>
+      </c>
+      <c r="H62" s="4">
+        <v>0</v>
+      </c>
+      <c r="K62" s="5">
         <v>41037</v>
       </c>
-      <c r="L62" s="0">
-        <v>1</v>
-      </c>
-      <c r="M62" s="0">
+      <c r="L62" s="4">
+        <v>1</v>
+      </c>
+      <c r="M62" s="4">
         <v>1</v>
       </c>
     </row>
     <row outlineLevel="0" r="63">
-      <c r="A63" s="0">
+      <c r="A63" s="4">
         <v>83</v>
       </c>
-      <c r="B63" s="1">
+      <c r="B63" s="5">
         <v>41190.7083333333</v>
       </c>
-      <c r="C63" s="1">
+      <c r="C63" s="5">
         <v>41183.7083333333</v>
       </c>
-      <c r="E63" s="0" t="inlineStr">
+      <c r="E63" s="6" t="inlineStr">
         <is>
           <t>2012 Second Biannual</t>
         </is>
       </c>
-      <c r="F63" s="0">
-        <v>1</v>
-      </c>
-      <c r="G63" s="0">
+      <c r="F63" s="4">
+        <v>1</v>
+      </c>
+      <c r="G63" s="4">
         <v>3</v>
       </c>
-      <c r="H63" s="0">
-        <v>0</v>
-      </c>
-      <c r="K63" s="1">
+      <c r="H63" s="4">
+        <v>0</v>
+      </c>
+      <c r="K63" s="5">
         <v>41002</v>
       </c>
-      <c r="L63" s="0">
-        <v>1</v>
-      </c>
-      <c r="M63" s="0">
+      <c r="L63" s="4">
+        <v>1</v>
+      </c>
+      <c r="M63" s="4">
         <v>1</v>
       </c>
     </row>
     <row outlineLevel="0" r="64">
-      <c r="A64" s="0">
+      <c r="A64" s="4">
         <v>84</v>
       </c>
-      <c r="B64" s="1">
+      <c r="B64" s="5">
         <v>41055.5</v>
       </c>
-      <c r="C64" s="1">
+      <c r="C64" s="5">
         <v>41053.5</v>
       </c>
-      <c r="E64" s="0" t="inlineStr">
+      <c r="E64" s="6" t="inlineStr">
         <is>
           <t>2012 Voter Action Act Primary Supplemental </t>
         </is>
       </c>
-      <c r="F64" s="0">
-        <v>1</v>
-      </c>
-      <c r="G64" s="0">
-        <v>1</v>
-      </c>
-      <c r="H64" s="0">
-        <v>0</v>
-      </c>
-      <c r="K64" s="1">
+      <c r="F64" s="4">
+        <v>1</v>
+      </c>
+      <c r="G64" s="4">
+        <v>1</v>
+      </c>
+      <c r="H64" s="4">
+        <v>0</v>
+      </c>
+      <c r="K64" s="5">
         <v>41037</v>
       </c>
-      <c r="L64" s="0">
-        <v>1</v>
-      </c>
-      <c r="M64" s="0">
+      <c r="L64" s="4">
+        <v>1</v>
+      </c>
+      <c r="M64" s="4">
         <v>1</v>
       </c>
     </row>
     <row outlineLevel="0" r="65">
-      <c r="A65" s="0">
+      <c r="A65" s="4">
         <v>85</v>
       </c>
-      <c r="B65" s="1">
+      <c r="B65" s="5">
         <v>41064.5</v>
       </c>
-      <c r="C65" s="1">
+      <c r="C65" s="5">
         <v>41064.5</v>
       </c>
-      <c r="E65" s="0" t="inlineStr">
+      <c r="E65" s="6" t="inlineStr">
         <is>
           <t>2012 Primary Supp. (Legis/Judical Candidates Only)</t>
         </is>
       </c>
-      <c r="F65" s="0">
-        <v>0</v>
-      </c>
-      <c r="G65" s="0">
+      <c r="F65" s="4">
+        <v>0</v>
+      </c>
+      <c r="G65" s="4">
         <v>2</v>
       </c>
-      <c r="H65" s="0">
-        <v>1</v>
-      </c>
-      <c r="I65" s="1">
+      <c r="H65" s="4">
+        <v>1</v>
+      </c>
+      <c r="I65" s="5">
         <v>41061</v>
       </c>
-      <c r="J65" s="0">
+      <c r="J65" s="4">
         <v>86</v>
       </c>
-      <c r="K65" s="1">
+      <c r="K65" s="5">
         <v>41061</v>
       </c>
-      <c r="L65" s="0">
-        <v>1</v>
-      </c>
-      <c r="M65" s="0">
+      <c r="L65" s="4">
+        <v>1</v>
+      </c>
+      <c r="M65" s="4">
         <v>1</v>
       </c>
     </row>
     <row outlineLevel="0" r="66">
-      <c r="A66" s="0">
+      <c r="A66" s="4">
         <v>86</v>
       </c>
-      <c r="B66" s="1">
+      <c r="B66" s="5">
         <v>41095.7083333333</v>
       </c>
-      <c r="C66" s="1">
+      <c r="C66" s="5">
         <v>41090</v>
       </c>
-      <c r="E66" s="0" t="inlineStr">
+      <c r="E66" s="6" t="inlineStr">
         <is>
           <t>Fourth Primary Report 2012</t>
         </is>
       </c>
-      <c r="F66" s="0">
-        <v>1</v>
-      </c>
-      <c r="G66" s="0">
-        <v>1</v>
-      </c>
-      <c r="H66" s="0">
-        <v>0</v>
-      </c>
-      <c r="K66" s="1">
+      <c r="F66" s="4">
+        <v>1</v>
+      </c>
+      <c r="G66" s="4">
+        <v>1</v>
+      </c>
+      <c r="H66" s="4">
+        <v>0</v>
+      </c>
+      <c r="K66" s="5">
         <v>41059</v>
       </c>
-      <c r="L66" s="0">
-        <v>1</v>
-      </c>
-      <c r="M66" s="0">
+      <c r="L66" s="4">
+        <v>1</v>
+      </c>
+      <c r="M66" s="4">
         <v>1</v>
       </c>
     </row>
     <row outlineLevel="0" r="67">
-      <c r="A67" s="0">
+      <c r="A67" s="4">
         <v>87</v>
       </c>
-      <c r="B67" s="1">
+      <c r="B67" s="5">
         <v>41162.7083333333</v>
       </c>
-      <c r="C67" s="1">
+      <c r="C67" s="5">
         <v>41155</v>
       </c>
-      <c r="E67" s="0" t="inlineStr">
+      <c r="E67" s="6" t="inlineStr">
         <is>
           <t>First General Report 2012</t>
         </is>
       </c>
-      <c r="F67" s="0">
-        <v>1</v>
-      </c>
-      <c r="G67" s="0">
-        <v>1</v>
-      </c>
-      <c r="H67" s="0">
-        <v>0</v>
-      </c>
-      <c r="K67" s="1">
+      <c r="F67" s="4">
+        <v>1</v>
+      </c>
+      <c r="G67" s="4">
+        <v>1</v>
+      </c>
+      <c r="H67" s="4">
+        <v>0</v>
+      </c>
+      <c r="K67" s="5">
         <v>41091</v>
       </c>
-      <c r="L67" s="0">
-        <v>1</v>
-      </c>
-      <c r="M67" s="0">
+      <c r="L67" s="4">
+        <v>1</v>
+      </c>
+      <c r="M67" s="4">
         <v>1</v>
       </c>
     </row>
     <row outlineLevel="0" r="68">
-      <c r="A68" s="0">
+      <c r="A68" s="4">
         <v>88</v>
       </c>
-      <c r="B68" s="1">
+      <c r="B68" s="5">
         <v>41190.7083333333</v>
       </c>
-      <c r="C68" s="1">
+      <c r="C68" s="5">
         <v>41183.5</v>
       </c>
-      <c r="E68" s="0" t="inlineStr">
+      <c r="E68" s="6" t="inlineStr">
         <is>
           <t>Second General Report 2012</t>
         </is>
       </c>
-      <c r="F68" s="0">
-        <v>1</v>
-      </c>
-      <c r="G68" s="0">
-        <v>1</v>
-      </c>
-      <c r="H68" s="0">
-        <v>0</v>
-      </c>
-      <c r="K68" s="1">
+      <c r="F68" s="4">
+        <v>1</v>
+      </c>
+      <c r="G68" s="4">
+        <v>1</v>
+      </c>
+      <c r="H68" s="4">
+        <v>0</v>
+      </c>
+      <c r="K68" s="5">
         <v>41156</v>
       </c>
-      <c r="L68" s="0">
-        <v>1</v>
-      </c>
-      <c r="M68" s="0">
+      <c r="L68" s="4">
+        <v>1</v>
+      </c>
+      <c r="M68" s="4">
         <v>1</v>
       </c>
     </row>
     <row outlineLevel="0" r="69">
-      <c r="A69" s="0">
+      <c r="A69" s="4">
         <v>89</v>
       </c>
-      <c r="B69" s="1">
+      <c r="B69" s="5">
         <v>41214.7083333333</v>
       </c>
-      <c r="C69" s="1">
+      <c r="C69" s="5">
         <v>41214.7083333333</v>
       </c>
-      <c r="E69" s="0" t="inlineStr">
+      <c r="E69" s="6" t="inlineStr">
         <is>
           <t>Third General Report 2012</t>
         </is>
       </c>
-      <c r="F69" s="0">
-        <v>1</v>
-      </c>
-      <c r="G69" s="0">
-        <v>1</v>
-      </c>
-      <c r="H69" s="0">
-        <v>0</v>
-      </c>
-      <c r="K69" s="1">
+      <c r="F69" s="4">
+        <v>1</v>
+      </c>
+      <c r="G69" s="4">
+        <v>1</v>
+      </c>
+      <c r="H69" s="4">
+        <v>0</v>
+      </c>
+      <c r="K69" s="5">
         <v>41184</v>
       </c>
-      <c r="L69" s="0">
-        <v>1</v>
-      </c>
-      <c r="M69" s="0">
+      <c r="L69" s="4">
+        <v>1</v>
+      </c>
+      <c r="M69" s="4">
         <v>1</v>
       </c>
     </row>
     <row outlineLevel="0" r="70">
-      <c r="A70" s="0">
+      <c r="A70" s="4">
         <v>90</v>
       </c>
-      <c r="B70" s="1">
+      <c r="B70" s="5">
         <v>41372.7083333333</v>
       </c>
-      <c r="C70" s="1">
+      <c r="C70" s="5">
         <v>41365.9993055556</v>
       </c>
-      <c r="E70" s="0" t="inlineStr">
+      <c r="E70" s="6" t="inlineStr">
         <is>
           <t>2013 First Biannual</t>
         </is>
       </c>
-      <c r="F70" s="0">
-        <v>1</v>
-      </c>
-      <c r="G70" s="0">
+      <c r="F70" s="4">
+        <v>1</v>
+      </c>
+      <c r="G70" s="4">
         <v>3</v>
       </c>
-      <c r="H70" s="0">
-        <v>0</v>
-      </c>
-      <c r="K70" s="1">
+      <c r="H70" s="4">
+        <v>0</v>
+      </c>
+      <c r="K70" s="5">
         <v>41184</v>
       </c>
-      <c r="L70" s="0">
-        <v>1</v>
-      </c>
-      <c r="M70" s="0">
+      <c r="L70" s="4">
+        <v>1</v>
+      </c>
+      <c r="M70" s="4">
         <v>1</v>
       </c>
     </row>
     <row outlineLevel="0" r="71">
-      <c r="A71" s="0">
+      <c r="A71" s="4">
         <v>91</v>
       </c>
-      <c r="B71" s="1">
+      <c r="B71" s="5">
         <v>41249.7083333333</v>
       </c>
-      <c r="C71" s="1">
+      <c r="C71" s="5">
         <v>41244.9993055556</v>
       </c>
-      <c r="E71" s="0" t="inlineStr">
+      <c r="E71" s="6" t="inlineStr">
         <is>
           <t>Fourth General Report 2012</t>
         </is>
       </c>
-      <c r="F71" s="0">
-        <v>1</v>
-      </c>
-      <c r="G71" s="0">
-        <v>1</v>
-      </c>
-      <c r="H71" s="0">
-        <v>0</v>
-      </c>
-      <c r="K71" s="1">
+      <c r="F71" s="4">
+        <v>1</v>
+      </c>
+      <c r="G71" s="4">
+        <v>1</v>
+      </c>
+      <c r="H71" s="4">
+        <v>0</v>
+      </c>
+      <c r="K71" s="5">
         <v>41213</v>
       </c>
-      <c r="L71" s="0">
-        <v>1</v>
-      </c>
-      <c r="M71" s="0">
+      <c r="L71" s="4">
+        <v>1</v>
+      </c>
+      <c r="M71" s="4">
         <v>1</v>
       </c>
     </row>
     <row outlineLevel="0" r="72">
-      <c r="A72" s="0">
+      <c r="A72" s="4">
         <v>92</v>
       </c>
-      <c r="B72" s="1">
+      <c r="B72" s="5">
         <v>41218.5</v>
       </c>
-      <c r="C72" s="1">
+      <c r="C72" s="5">
         <v>41218.5</v>
       </c>
-      <c r="E72" s="0" t="inlineStr">
+      <c r="E72" s="6" t="inlineStr">
         <is>
           <t>2012 General Supp. (Legis/Judical Candidates Only)</t>
         </is>
       </c>
-      <c r="F72" s="0">
-        <v>0</v>
-      </c>
-      <c r="G72" s="0">
+      <c r="F72" s="4">
+        <v>0</v>
+      </c>
+      <c r="G72" s="4">
         <v>2</v>
       </c>
-      <c r="H72" s="0">
-        <v>1</v>
-      </c>
-      <c r="I72" s="1">
+      <c r="H72" s="4">
+        <v>1</v>
+      </c>
+      <c r="I72" s="5">
         <v>41214.7090277778</v>
       </c>
-      <c r="J72" s="0">
+      <c r="J72" s="4">
         <v>91</v>
       </c>
-      <c r="K72" s="1">
+      <c r="K72" s="5">
         <v>41214.7090277778</v>
       </c>
-      <c r="L72" s="0">
-        <v>1</v>
-      </c>
-      <c r="M72" s="0">
+      <c r="L72" s="4">
+        <v>1</v>
+      </c>
+      <c r="M72" s="4">
         <v>1</v>
       </c>
     </row>
     <row outlineLevel="0" r="73">
-      <c r="A73" s="0">
+      <c r="A73" s="4">
         <v>93</v>
       </c>
-      <c r="B73" s="1">
+      <c r="B73" s="5">
         <v>41561.7083333333</v>
       </c>
-      <c r="C73" s="1">
+      <c r="C73" s="5">
         <v>41554.9993055556</v>
       </c>
-      <c r="E73" s="0" t="inlineStr">
+      <c r="E73" s="6" t="inlineStr">
         <is>
           <t>2013 Second Biannual</t>
         </is>
       </c>
-      <c r="F73" s="0">
-        <v>1</v>
-      </c>
-      <c r="G73" s="0">
+      <c r="F73" s="4">
+        <v>1</v>
+      </c>
+      <c r="G73" s="4">
         <v>3</v>
       </c>
-      <c r="H73" s="0">
-        <v>0</v>
-      </c>
-      <c r="K73" s="1">
+      <c r="H73" s="4">
+        <v>0</v>
+      </c>
+      <c r="K73" s="5">
         <v>41366</v>
       </c>
-      <c r="L73" s="0">
-        <v>1</v>
-      </c>
-      <c r="M73" s="0">
+      <c r="L73" s="4">
+        <v>1</v>
+      </c>
+      <c r="M73" s="4">
         <v>1</v>
       </c>
     </row>
     <row outlineLevel="0" r="74">
-      <c r="A74" s="0">
+      <c r="A74" s="4">
         <v>94</v>
       </c>
-      <c r="B74" s="1">
+      <c r="B74" s="5">
         <v>41743.7083333333</v>
       </c>
-      <c r="C74" s="1">
+      <c r="C74" s="5">
         <v>41736.9993055556</v>
       </c>
-      <c r="E74" s="0" t="inlineStr">
+      <c r="E74" s="6" t="inlineStr">
         <is>
           <t>2014 First Biannual </t>
         </is>
       </c>
-      <c r="F74" s="0">
-        <v>1</v>
-      </c>
-      <c r="G74" s="0">
+      <c r="F74" s="4">
+        <v>1</v>
+      </c>
+      <c r="G74" s="4">
         <v>3</v>
       </c>
-      <c r="H74" s="0">
-        <v>0</v>
-      </c>
-      <c r="K74" s="1">
+      <c r="H74" s="4">
+        <v>0</v>
+      </c>
+      <c r="K74" s="5">
         <v>41555</v>
       </c>
-      <c r="L74" s="0">
-        <v>1</v>
-      </c>
-      <c r="M74" s="0">
+      <c r="L74" s="4">
+        <v>1</v>
+      </c>
+      <c r="M74" s="4">
         <v>1</v>
       </c>
     </row>
     <row outlineLevel="0" r="75">
-      <c r="A75" s="0">
+      <c r="A75" s="4">
         <v>95</v>
       </c>
-      <c r="B75" s="1">
+      <c r="B75" s="5">
         <v>41743.7083333333</v>
       </c>
-      <c r="C75" s="1">
+      <c r="C75" s="5">
         <v>41736.9993055556</v>
       </c>
-      <c r="E75" s="0" t="inlineStr">
+      <c r="E75" s="6" t="inlineStr">
         <is>
           <t>2014 First Primary</t>
         </is>
       </c>
-      <c r="F75" s="0">
-        <v>1</v>
-      </c>
-      <c r="G75" s="0">
-        <v>1</v>
-      </c>
-      <c r="H75" s="0">
-        <v>0</v>
-      </c>
-      <c r="K75" s="1">
+      <c r="F75" s="4">
+        <v>1</v>
+      </c>
+      <c r="G75" s="4">
+        <v>1</v>
+      </c>
+      <c r="H75" s="4">
+        <v>0</v>
+      </c>
+      <c r="K75" s="5">
         <v>41555</v>
       </c>
-      <c r="L75" s="0">
-        <v>1</v>
-      </c>
-      <c r="M75" s="0">
+      <c r="L75" s="4">
+        <v>1</v>
+      </c>
+      <c r="M75" s="4">
         <v>1</v>
       </c>
     </row>
     <row outlineLevel="0" r="76">
-      <c r="A76" s="0">
+      <c r="A76" s="4">
         <v>96</v>
       </c>
-      <c r="B76" s="1">
+      <c r="B76" s="5">
         <v>41771.7083333333</v>
       </c>
-      <c r="C76" s="1">
+      <c r="C76" s="5">
         <v>41764.9993055556</v>
       </c>
-      <c r="E76" s="0" t="inlineStr">
+      <c r="E76" s="6" t="inlineStr">
         <is>
           <t>2014 Second Primary</t>
         </is>
       </c>
-      <c r="F76" s="0">
-        <v>1</v>
-      </c>
-      <c r="G76" s="0">
-        <v>1</v>
-      </c>
-      <c r="H76" s="0">
-        <v>0</v>
-      </c>
-      <c r="K76" s="1">
+      <c r="F76" s="4">
+        <v>1</v>
+      </c>
+      <c r="G76" s="4">
+        <v>1</v>
+      </c>
+      <c r="H76" s="4">
+        <v>0</v>
+      </c>
+      <c r="K76" s="5">
         <v>41737</v>
       </c>
-      <c r="L76" s="0">
-        <v>1</v>
-      </c>
-      <c r="M76" s="0">
+      <c r="L76" s="4">
+        <v>1</v>
+      </c>
+      <c r="M76" s="4">
         <v>1</v>
       </c>
     </row>
     <row outlineLevel="0" r="77">
-      <c r="A77" s="0">
+      <c r="A77" s="4">
         <v>97</v>
       </c>
-      <c r="B77" s="1">
+      <c r="B77" s="5">
         <v>41925.7083333333</v>
       </c>
-      <c r="C77" s="1">
+      <c r="C77" s="5">
         <v>41918.9993055556</v>
       </c>
-      <c r="E77" s="0" t="inlineStr">
+      <c r="E77" s="6" t="inlineStr">
         <is>
           <t>2014 Second Biannual</t>
         </is>
       </c>
-      <c r="F77" s="0">
-        <v>1</v>
-      </c>
-      <c r="G77" s="0">
+      <c r="F77" s="4">
+        <v>1</v>
+      </c>
+      <c r="G77" s="4">
         <v>3</v>
       </c>
-      <c r="H77" s="0">
-        <v>0</v>
-      </c>
-      <c r="K77" s="1">
+      <c r="H77" s="4">
+        <v>0</v>
+      </c>
+      <c r="K77" s="5">
         <v>41737</v>
       </c>
-      <c r="L77" s="0">
-        <v>1</v>
-      </c>
-      <c r="M77" s="0">
+      <c r="L77" s="4">
+        <v>1</v>
+      </c>
+      <c r="M77" s="4">
         <v>1</v>
       </c>
     </row>
     <row outlineLevel="0" r="78">
-      <c r="A78" s="0">
+      <c r="A78" s="4">
         <v>98</v>
       </c>
-      <c r="B78" s="1">
+      <c r="B78" s="5">
         <v>41788.7083333333</v>
       </c>
-      <c r="C78" s="1">
+      <c r="C78" s="5">
         <v>41786.9993055556</v>
       </c>
-      <c r="E78" s="0" t="inlineStr">
+      <c r="E78" s="6" t="inlineStr">
         <is>
           <t>2014 Third Primary</t>
         </is>
       </c>
-      <c r="F78" s="0">
-        <v>1</v>
-      </c>
-      <c r="G78" s="0">
-        <v>1</v>
-      </c>
-      <c r="H78" s="0">
-        <v>0</v>
-      </c>
-      <c r="K78" s="1">
+      <c r="F78" s="4">
+        <v>1</v>
+      </c>
+      <c r="G78" s="4">
+        <v>1</v>
+      </c>
+      <c r="H78" s="4">
+        <v>0</v>
+      </c>
+      <c r="K78" s="5">
         <v>41765</v>
       </c>
-      <c r="L78" s="0">
-        <v>1</v>
-      </c>
-      <c r="M78" s="0">
+      <c r="L78" s="4">
+        <v>1</v>
+      </c>
+      <c r="M78" s="4">
         <v>1</v>
       </c>
     </row>
     <row outlineLevel="0" r="79">
-      <c r="A79" s="0">
+      <c r="A79" s="4">
         <v>99</v>
       </c>
-      <c r="B79" s="1">
+      <c r="B79" s="5">
         <v>41792.5</v>
       </c>
-      <c r="C79" s="1">
+      <c r="C79" s="5">
         <v>41792.5</v>
       </c>
-      <c r="E79" s="0" t="inlineStr">
+      <c r="E79" s="6" t="inlineStr">
         <is>
           <t>2014 Primary Supplemental</t>
         </is>
       </c>
-      <c r="F79" s="0">
-        <v>0</v>
-      </c>
-      <c r="G79" s="0">
+      <c r="F79" s="4">
+        <v>0</v>
+      </c>
+      <c r="G79" s="4">
         <v>2</v>
       </c>
-      <c r="H79" s="0">
-        <v>1</v>
-      </c>
-      <c r="I79" s="1">
+      <c r="H79" s="4">
+        <v>1</v>
+      </c>
+      <c r="I79" s="5">
         <v>41786.7090277778</v>
       </c>
-      <c r="J79" s="0">
+      <c r="J79" s="4">
         <v>100</v>
       </c>
-      <c r="K79" s="1">
+      <c r="K79" s="5">
         <v>41786.7090277778</v>
       </c>
-      <c r="L79" s="0">
-        <v>1</v>
-      </c>
-      <c r="M79" s="0">
+      <c r="L79" s="4">
+        <v>1</v>
+      </c>
+      <c r="M79" s="4">
         <v>1</v>
       </c>
     </row>
     <row outlineLevel="0" r="80">
-      <c r="A80" s="0">
+      <c r="A80" s="4">
         <v>100</v>
       </c>
-      <c r="B80" s="1">
+      <c r="B80" s="5">
         <v>41823.7083333333</v>
       </c>
-      <c r="C80" s="1">
+      <c r="C80" s="5">
         <v>41818.9993055556</v>
       </c>
-      <c r="E80" s="0" t="inlineStr">
+      <c r="E80" s="6" t="inlineStr">
         <is>
           <t>2014 Fourth Primary</t>
         </is>
       </c>
-      <c r="F80" s="0">
-        <v>1</v>
-      </c>
-      <c r="G80" s="0">
-        <v>1</v>
-      </c>
-      <c r="H80" s="0">
-        <v>0</v>
-      </c>
-      <c r="K80" s="1">
+      <c r="F80" s="4">
+        <v>1</v>
+      </c>
+      <c r="G80" s="4">
+        <v>1</v>
+      </c>
+      <c r="H80" s="4">
+        <v>0</v>
+      </c>
+      <c r="K80" s="5">
         <v>41787</v>
       </c>
-      <c r="L80" s="0">
-        <v>1</v>
-      </c>
-      <c r="M80" s="0">
+      <c r="L80" s="4">
+        <v>1</v>
+      </c>
+      <c r="M80" s="4">
         <v>1</v>
       </c>
     </row>
     <row outlineLevel="0" r="81">
-      <c r="A81" s="0">
+      <c r="A81" s="4">
         <v>101</v>
       </c>
-      <c r="B81" s="1">
+      <c r="B81" s="5">
         <v>41890.7083333333</v>
       </c>
-      <c r="C81" s="1">
+      <c r="C81" s="5">
         <v>41883.9993055556</v>
       </c>
-      <c r="E81" s="0" t="inlineStr">
+      <c r="E81" s="6" t="inlineStr">
         <is>
           <t>2014 First General </t>
         </is>
       </c>
-      <c r="F81" s="0">
-        <v>1</v>
-      </c>
-      <c r="G81" s="0">
-        <v>1</v>
-      </c>
-      <c r="H81" s="0">
-        <v>0</v>
-      </c>
-      <c r="K81" s="1">
+      <c r="F81" s="4">
+        <v>1</v>
+      </c>
+      <c r="G81" s="4">
+        <v>1</v>
+      </c>
+      <c r="H81" s="4">
+        <v>0</v>
+      </c>
+      <c r="K81" s="5">
         <v>41819</v>
       </c>
-      <c r="L81" s="0">
-        <v>1</v>
-      </c>
-      <c r="M81" s="0">
+      <c r="L81" s="4">
+        <v>1</v>
+      </c>
+      <c r="M81" s="4">
         <v>1</v>
       </c>
     </row>
     <row outlineLevel="0" r="82">
-      <c r="A82" s="0">
+      <c r="A82" s="4">
         <v>102</v>
       </c>
-      <c r="B82" s="1">
+      <c r="B82" s="5">
         <v>41925.7083333333</v>
       </c>
-      <c r="C82" s="1">
+      <c r="C82" s="5">
         <v>41918.9993055556</v>
       </c>
-      <c r="E82" s="0" t="inlineStr">
+      <c r="E82" s="6" t="inlineStr">
         <is>
           <t>2014 Second General </t>
         </is>
       </c>
-      <c r="F82" s="0">
-        <v>1</v>
-      </c>
-      <c r="G82" s="0">
-        <v>1</v>
-      </c>
-      <c r="H82" s="0">
-        <v>0</v>
-      </c>
-      <c r="K82" s="1">
+      <c r="F82" s="4">
+        <v>1</v>
+      </c>
+      <c r="G82" s="4">
+        <v>1</v>
+      </c>
+      <c r="H82" s="4">
+        <v>0</v>
+      </c>
+      <c r="K82" s="5">
         <v>41884</v>
       </c>
-      <c r="L82" s="0">
-        <v>1</v>
-      </c>
-      <c r="M82" s="0">
+      <c r="L82" s="4">
+        <v>1</v>
+      </c>
+      <c r="M82" s="4">
         <v>1</v>
       </c>
     </row>
     <row outlineLevel="0" r="83">
-      <c r="A83" s="0">
+      <c r="A83" s="4">
         <v>103</v>
       </c>
-      <c r="B83" s="1">
+      <c r="B83" s="5">
         <v>41942.7083333333</v>
       </c>
-      <c r="C83" s="1">
+      <c r="C83" s="5">
         <v>41942.7083333333</v>
       </c>
-      <c r="E83" s="0" t="inlineStr">
+      <c r="E83" s="6" t="inlineStr">
         <is>
           <t>2014 Third General</t>
         </is>
       </c>
-      <c r="F83" s="0">
-        <v>1</v>
-      </c>
-      <c r="G83" s="0">
-        <v>1</v>
-      </c>
-      <c r="H83" s="0">
-        <v>0</v>
-      </c>
-      <c r="K83" s="1">
+      <c r="F83" s="4">
+        <v>1</v>
+      </c>
+      <c r="G83" s="4">
+        <v>1</v>
+      </c>
+      <c r="H83" s="4">
+        <v>0</v>
+      </c>
+      <c r="K83" s="5">
         <v>41919</v>
       </c>
-      <c r="L83" s="0">
-        <v>1</v>
-      </c>
-      <c r="M83" s="0">
+      <c r="L83" s="4">
+        <v>1</v>
+      </c>
+      <c r="M83" s="4">
         <v>1</v>
       </c>
     </row>
     <row outlineLevel="0" r="84">
-      <c r="A84" s="0">
+      <c r="A84" s="4">
         <v>104</v>
       </c>
-      <c r="B84" s="1">
+      <c r="B84" s="5">
         <v>41977.7083333333</v>
       </c>
-      <c r="C84" s="1">
+      <c r="C84" s="5">
         <v>41972.9993055556</v>
       </c>
-      <c r="E84" s="0" t="inlineStr">
+      <c r="E84" s="6" t="inlineStr">
         <is>
           <t>2014 Fourth General</t>
         </is>
       </c>
-      <c r="F84" s="0">
-        <v>1</v>
-      </c>
-      <c r="G84" s="0">
-        <v>1</v>
-      </c>
-      <c r="H84" s="0">
-        <v>0</v>
-      </c>
-      <c r="K84" s="1">
+      <c r="F84" s="4">
+        <v>1</v>
+      </c>
+      <c r="G84" s="4">
+        <v>1</v>
+      </c>
+      <c r="H84" s="4">
+        <v>0</v>
+      </c>
+      <c r="K84" s="5">
         <v>41941</v>
       </c>
-      <c r="L84" s="0">
-        <v>1</v>
-      </c>
-      <c r="M84" s="0">
+      <c r="L84" s="4">
+        <v>1</v>
+      </c>
+      <c r="M84" s="4">
         <v>1</v>
       </c>
     </row>
     <row outlineLevel="0" r="85">
-      <c r="A85" s="0">
+      <c r="A85" s="4">
         <v>105</v>
       </c>
-      <c r="B85" s="1">
+      <c r="B85" s="5">
         <v>41946.5</v>
       </c>
-      <c r="C85" s="1">
+      <c r="C85" s="5">
         <v>41946.5</v>
       </c>
-      <c r="E85" s="0" t="inlineStr">
+      <c r="E85" s="6" t="inlineStr">
         <is>
           <t>2014 General Supplemental</t>
         </is>
       </c>
-      <c r="F85" s="0">
-        <v>0</v>
-      </c>
-      <c r="G85" s="0">
+      <c r="F85" s="4">
+        <v>0</v>
+      </c>
+      <c r="G85" s="4">
         <v>2</v>
       </c>
-      <c r="H85" s="0">
-        <v>0</v>
-      </c>
-      <c r="I85" s="1">
+      <c r="H85" s="4">
+        <v>0</v>
+      </c>
+      <c r="I85" s="5">
         <v>41940.7090277778</v>
       </c>
-      <c r="J85" s="0">
+      <c r="J85" s="4">
         <v>104</v>
       </c>
-      <c r="K85" s="1">
+      <c r="K85" s="5">
         <v>41940.7090277778</v>
       </c>
-      <c r="L85" s="0">
-        <v>1</v>
-      </c>
-      <c r="M85" s="0">
+      <c r="L85" s="4">
+        <v>1</v>
+      </c>
+      <c r="M85" s="4">
         <v>1</v>
       </c>
     </row>
     <row outlineLevel="0" r="86">
-      <c r="A86" s="0">
+      <c r="A86" s="4">
         <v>106</v>
       </c>
-      <c r="B86" s="1">
+      <c r="B86" s="5">
         <v>42107.7083333333</v>
       </c>
-      <c r="C86" s="1">
+      <c r="C86" s="5">
         <v>42100.9993055556</v>
       </c>
-      <c r="E86" s="0" t="inlineStr">
+      <c r="E86" s="6" t="inlineStr">
         <is>
           <t>2015 First Biannual</t>
         </is>
       </c>
-      <c r="F86" s="0">
-        <v>1</v>
-      </c>
-      <c r="G86" s="0">
+      <c r="F86" s="4">
+        <v>1</v>
+      </c>
+      <c r="G86" s="4">
         <v>3</v>
       </c>
-      <c r="H86" s="0">
-        <v>0</v>
-      </c>
-      <c r="K86" s="1">
+      <c r="H86" s="4">
+        <v>0</v>
+      </c>
+      <c r="K86" s="5">
         <v>41919</v>
       </c>
-      <c r="L86" s="0">
-        <v>1</v>
-      </c>
-      <c r="M86" s="0">
+      <c r="L86" s="4">
+        <v>1</v>
+      </c>
+      <c r="M86" s="4">
         <v>1</v>
       </c>
     </row>
     <row outlineLevel="0" r="87">
-      <c r="A87" s="0">
+      <c r="A87" s="4">
         <v>107</v>
       </c>
-      <c r="B87" s="1">
+      <c r="B87" s="5">
         <v>42107.9993055556</v>
       </c>
-      <c r="C87" s="1">
+      <c r="C87" s="5">
         <v>42066.9993055556</v>
       </c>
-      <c r="E87" s="0" t="inlineStr">
+      <c r="E87" s="6" t="inlineStr">
         <is>
           <t>2015 School District Report </t>
         </is>
       </c>
-      <c r="F87" s="0">
-        <v>1</v>
-      </c>
-      <c r="G87" s="0">
+      <c r="F87" s="4">
+        <v>1</v>
+      </c>
+      <c r="G87" s="4">
         <v>4</v>
       </c>
-      <c r="H87" s="0">
-        <v>0</v>
-      </c>
-      <c r="K87" s="1">
+      <c r="H87" s="4">
+        <v>0</v>
+      </c>
+      <c r="K87" s="5">
         <v>41334</v>
       </c>
-      <c r="L87" s="0">
-        <v>1</v>
-      </c>
-      <c r="M87" s="0">
+      <c r="L87" s="4">
+        <v>1</v>
+      </c>
+      <c r="M87" s="4">
         <v>1</v>
       </c>
     </row>
     <row outlineLevel="0" r="88">
-      <c r="A88" s="0">
+      <c r="A88" s="4">
         <v>108</v>
       </c>
-      <c r="B88" s="1">
+      <c r="B88" s="5">
         <v>42290.9993055556</v>
       </c>
-      <c r="C88" s="1">
+      <c r="C88" s="5">
         <v>42282.9993055556</v>
       </c>
-      <c r="E88" s="0" t="inlineStr">
+      <c r="E88" s="6" t="inlineStr">
         <is>
           <t>2015 Second Biannual</t>
         </is>
       </c>
-      <c r="F88" s="0">
-        <v>1</v>
-      </c>
-      <c r="G88" s="0">
+      <c r="F88" s="4">
+        <v>1</v>
+      </c>
+      <c r="G88" s="4">
         <v>3</v>
       </c>
-      <c r="H88" s="0">
-        <v>0</v>
-      </c>
-      <c r="K88" s="1">
+      <c r="H88" s="4">
+        <v>0</v>
+      </c>
+      <c r="K88" s="5">
         <v>42101</v>
       </c>
-      <c r="L88" s="0">
-        <v>1</v>
-      </c>
-      <c r="M88" s="0">
+      <c r="L88" s="4">
+        <v>1</v>
+      </c>
+      <c r="M88" s="4">
         <v>1</v>
       </c>
     </row>
     <row outlineLevel="0" r="89">
-      <c r="A89" s="0">
+      <c r="A89" s="4">
         <v>109</v>
       </c>
-      <c r="B89" s="1">
+      <c r="B89" s="5">
         <v>42471.9993055556</v>
       </c>
-      <c r="C89" s="1">
+      <c r="C89" s="5">
         <v>42464.9993055556</v>
       </c>
-      <c r="E89" s="0" t="inlineStr">
+      <c r="E89" s="6" t="inlineStr">
         <is>
           <t>2016 First Biannual </t>
         </is>
       </c>
-      <c r="F89" s="0">
-        <v>1</v>
-      </c>
-      <c r="G89" s="0">
+      <c r="F89" s="4">
+        <v>1</v>
+      </c>
+      <c r="G89" s="4">
         <v>3</v>
       </c>
-      <c r="H89" s="0">
-        <v>0</v>
-      </c>
-      <c r="K89" s="1">
+      <c r="H89" s="4">
+        <v>0</v>
+      </c>
+      <c r="K89" s="5">
         <v>42283</v>
       </c>
-      <c r="L89" s="0">
-        <v>1</v>
-      </c>
-      <c r="M89" s="0">
+      <c r="L89" s="4">
+        <v>1</v>
+      </c>
+      <c r="M89" s="4">
         <v>1</v>
       </c>
     </row>
     <row outlineLevel="0" r="90">
-      <c r="A90" s="0">
+      <c r="A90" s="4">
         <v>110</v>
       </c>
-      <c r="B90" s="1">
+      <c r="B90" s="5">
         <v>42471.9993055556</v>
       </c>
-      <c r="C90" s="1">
+      <c r="C90" s="5">
         <v>42464.9993055556</v>
       </c>
-      <c r="E90" s="0" t="inlineStr">
+      <c r="E90" s="6" t="inlineStr">
         <is>
           <t>2016 First Primary</t>
         </is>
       </c>
-      <c r="F90" s="0">
-        <v>1</v>
-      </c>
-      <c r="G90" s="0">
-        <v>1</v>
-      </c>
-      <c r="H90" s="0">
-        <v>0</v>
-      </c>
-      <c r="K90" s="1">
+      <c r="F90" s="4">
+        <v>1</v>
+      </c>
+      <c r="G90" s="4">
+        <v>1</v>
+      </c>
+      <c r="H90" s="4">
+        <v>0</v>
+      </c>
+      <c r="K90" s="5">
         <v>42283</v>
       </c>
-      <c r="L90" s="0">
-        <v>1</v>
-      </c>
-      <c r="M90" s="0">
+      <c r="L90" s="4">
+        <v>1</v>
+      </c>
+      <c r="M90" s="4">
         <v>1</v>
       </c>
     </row>
     <row outlineLevel="0" r="91">
-      <c r="A91" s="0">
+      <c r="A91" s="4">
         <v>111</v>
       </c>
-      <c r="B91" s="1">
+      <c r="B91" s="5">
         <v>42471</v>
       </c>
-      <c r="C91" s="1">
+      <c r="C91" s="5">
         <v>42471.9993055556</v>
       </c>
-      <c r="E91" s="0" t="inlineStr">
+      <c r="E91" s="6" t="inlineStr">
         <is>
           <t>2016 School District Report</t>
         </is>
       </c>
-      <c r="F91" s="0">
-        <v>1</v>
-      </c>
-      <c r="G91" s="0">
+      <c r="F91" s="4">
+        <v>1</v>
+      </c>
+      <c r="G91" s="4">
         <v>4</v>
       </c>
-      <c r="H91" s="0">
-        <v>0</v>
-      </c>
-      <c r="K91" s="1">
+      <c r="H91" s="4">
+        <v>0</v>
+      </c>
+      <c r="K91" s="5">
         <v>42067</v>
       </c>
-      <c r="L91" s="0">
-        <v>1</v>
-      </c>
-      <c r="M91" s="0">
+      <c r="L91" s="4">
+        <v>1</v>
+      </c>
+      <c r="M91" s="4">
         <v>1</v>
       </c>
     </row>
     <row outlineLevel="0" r="92">
-      <c r="A92" s="0">
+      <c r="A92" s="4">
         <v>112</v>
       </c>
-      <c r="B92" s="1">
+      <c r="B92" s="5">
         <v>42499.9993055556</v>
       </c>
-      <c r="C92" s="1">
+      <c r="C92" s="5">
         <v>42492.9993055556</v>
       </c>
-      <c r="E92" s="0" t="inlineStr">
+      <c r="E92" s="6" t="inlineStr">
         <is>
           <t>2016 Second Primary</t>
         </is>
       </c>
-      <c r="F92" s="0">
-        <v>1</v>
-      </c>
-      <c r="G92" s="0">
-        <v>1</v>
-      </c>
-      <c r="H92" s="0">
-        <v>0</v>
-      </c>
-      <c r="K92" s="1">
+      <c r="F92" s="4">
+        <v>1</v>
+      </c>
+      <c r="G92" s="4">
+        <v>1</v>
+      </c>
+      <c r="H92" s="4">
+        <v>0</v>
+      </c>
+      <c r="K92" s="5">
         <v>42465</v>
       </c>
-      <c r="L92" s="0">
-        <v>1</v>
-      </c>
-      <c r="M92" s="0">
+      <c r="L92" s="4">
+        <v>1</v>
+      </c>
+      <c r="M92" s="4">
         <v>1</v>
       </c>
     </row>
     <row outlineLevel="0" r="93">
-      <c r="A93" s="0">
+      <c r="A93" s="4">
         <v>113</v>
       </c>
-      <c r="B93" s="1">
+      <c r="B93" s="5">
         <v>42654.9993055556</v>
       </c>
-      <c r="C93" s="1">
+      <c r="C93" s="5">
         <v>42646.9993055556</v>
       </c>
-      <c r="E93" s="0" t="inlineStr">
+      <c r="E93" s="6" t="inlineStr">
         <is>
           <t>2016 Second Biannual </t>
         </is>
       </c>
-      <c r="F93" s="0">
-        <v>1</v>
-      </c>
-      <c r="G93" s="0">
+      <c r="F93" s="4">
+        <v>1</v>
+      </c>
+      <c r="G93" s="4">
         <v>3</v>
       </c>
-      <c r="H93" s="0">
-        <v>0</v>
-      </c>
-      <c r="K93" s="1">
+      <c r="H93" s="4">
+        <v>0</v>
+      </c>
+      <c r="K93" s="5">
         <v>42465</v>
       </c>
-      <c r="L93" s="0">
-        <v>1</v>
-      </c>
-      <c r="M93" s="0">
+      <c r="L93" s="4">
+        <v>1</v>
+      </c>
+      <c r="M93" s="4">
         <v>1</v>
       </c>
     </row>
     <row outlineLevel="0" r="94">
-      <c r="A94" s="0">
+      <c r="A94" s="4">
         <v>114</v>
       </c>
-      <c r="B94" s="1">
+      <c r="B94" s="5">
         <v>42523.9993055556</v>
       </c>
-      <c r="C94" s="1">
+      <c r="C94" s="5">
         <v>42523.9993055556</v>
       </c>
-      <c r="E94" s="0" t="inlineStr">
+      <c r="E94" s="6" t="inlineStr">
         <is>
           <t>2016 Third Primary</t>
         </is>
       </c>
-      <c r="F94" s="0">
-        <v>1</v>
-      </c>
-      <c r="G94" s="0">
-        <v>1</v>
-      </c>
-      <c r="H94" s="0">
-        <v>0</v>
-      </c>
-      <c r="K94" s="1">
+      <c r="F94" s="4">
+        <v>1</v>
+      </c>
+      <c r="G94" s="4">
+        <v>1</v>
+      </c>
+      <c r="H94" s="4">
+        <v>0</v>
+      </c>
+      <c r="K94" s="5">
         <v>42493</v>
       </c>
-      <c r="L94" s="0">
-        <v>1</v>
-      </c>
-      <c r="M94" s="0">
+      <c r="L94" s="4">
+        <v>1</v>
+      </c>
+      <c r="M94" s="4">
         <v>1</v>
       </c>
     </row>
     <row outlineLevel="0" r="95">
-      <c r="A95" s="0">
+      <c r="A95" s="4">
         <v>115</v>
       </c>
-      <c r="B95" s="1">
+      <c r="B95" s="5">
         <v>42558.9993055556</v>
       </c>
-      <c r="C95" s="1">
+      <c r="C95" s="5">
         <v>42553.5409722222</v>
       </c>
-      <c r="E95" s="0" t="inlineStr">
+      <c r="E95" s="6" t="inlineStr">
         <is>
           <t>2016 Fourth Primary</t>
         </is>
       </c>
-      <c r="F95" s="0">
-        <v>1</v>
-      </c>
-      <c r="G95" s="0">
-        <v>1</v>
-      </c>
-      <c r="H95" s="0">
-        <v>0</v>
-      </c>
-      <c r="K95" s="1">
+      <c r="F95" s="4">
+        <v>1</v>
+      </c>
+      <c r="G95" s="4">
+        <v>1</v>
+      </c>
+      <c r="H95" s="4">
+        <v>0</v>
+      </c>
+      <c r="K95" s="5">
         <v>42522</v>
       </c>
-      <c r="L95" s="0">
-        <v>1</v>
-      </c>
-      <c r="M95" s="0">
+      <c r="L95" s="4">
+        <v>1</v>
+      </c>
+      <c r="M95" s="4">
         <v>1</v>
       </c>
     </row>
     <row outlineLevel="0" r="96">
-      <c r="A96" s="0">
+      <c r="A96" s="4">
         <v>116</v>
       </c>
-      <c r="B96" s="1">
+      <c r="B96" s="5">
         <v>42527.5</v>
       </c>
-      <c r="C96" s="1">
+      <c r="C96" s="5">
         <v>42527.5</v>
       </c>
-      <c r="E96" s="0" t="inlineStr">
+      <c r="E96" s="6" t="inlineStr">
         <is>
           <t>2016 Primary Supplemental</t>
         </is>
       </c>
-      <c r="F96" s="0">
-        <v>0</v>
-      </c>
-      <c r="G96" s="0">
+      <c r="F96" s="4">
+        <v>0</v>
+      </c>
+      <c r="G96" s="4">
         <v>2</v>
       </c>
-      <c r="H96" s="0">
-        <v>0</v>
-      </c>
-      <c r="I96" s="1">
+      <c r="H96" s="4">
+        <v>0</v>
+      </c>
+      <c r="I96" s="5">
         <v>42521</v>
       </c>
-      <c r="J96" s="0">
+      <c r="J96" s="4">
         <v>115</v>
       </c>
-      <c r="K96" s="1">
+      <c r="K96" s="5">
         <v>42521</v>
       </c>
-      <c r="L96" s="0">
-        <v>1</v>
-      </c>
-      <c r="M96" s="0">
+      <c r="L96" s="4">
+        <v>1</v>
+      </c>
+      <c r="M96" s="4">
         <v>1</v>
       </c>
     </row>
     <row outlineLevel="0" r="97">
-      <c r="A97" s="0">
+      <c r="A97" s="4">
         <v>117</v>
       </c>
-      <c r="B97" s="1">
+      <c r="B97" s="5">
         <v>42625.9993055556</v>
       </c>
-      <c r="C97" s="1">
+      <c r="C97" s="5">
         <v>42618</v>
       </c>
-      <c r="E97" s="0" t="inlineStr">
+      <c r="E97" s="6" t="inlineStr">
         <is>
           <t>2016 First General </t>
         </is>
       </c>
-      <c r="F97" s="0">
-        <v>1</v>
-      </c>
-      <c r="G97" s="0">
-        <v>1</v>
-      </c>
-      <c r="H97" s="0">
-        <v>0</v>
-      </c>
-      <c r="K97" s="1">
+      <c r="F97" s="4">
+        <v>1</v>
+      </c>
+      <c r="G97" s="4">
+        <v>1</v>
+      </c>
+      <c r="H97" s="4">
+        <v>0</v>
+      </c>
+      <c r="K97" s="5">
         <v>42554</v>
       </c>
-      <c r="L97" s="0">
-        <v>1</v>
-      </c>
-      <c r="M97" s="0">
+      <c r="L97" s="4">
+        <v>1</v>
+      </c>
+      <c r="M97" s="4">
         <v>1</v>
       </c>
     </row>
     <row outlineLevel="0" r="98">
-      <c r="A98" s="0">
+      <c r="A98" s="4">
         <v>118</v>
       </c>
-      <c r="B98" s="1">
+      <c r="B98" s="5">
         <v>42654.9993055556</v>
       </c>
-      <c r="C98" s="1">
+      <c r="C98" s="5">
         <v>42646.9993055556</v>
       </c>
-      <c r="E98" s="0" t="inlineStr">
+      <c r="E98" s="6" t="inlineStr">
         <is>
           <t>2016 Second General</t>
         </is>
       </c>
-      <c r="F98" s="0">
-        <v>1</v>
-      </c>
-      <c r="G98" s="0">
-        <v>1</v>
-      </c>
-      <c r="H98" s="0">
-        <v>0</v>
-      </c>
-      <c r="K98" s="1">
+      <c r="F98" s="4">
+        <v>1</v>
+      </c>
+      <c r="G98" s="4">
+        <v>1</v>
+      </c>
+      <c r="H98" s="4">
+        <v>0</v>
+      </c>
+      <c r="K98" s="5">
         <v>42619</v>
       </c>
-      <c r="L98" s="0">
-        <v>1</v>
-      </c>
-      <c r="M98" s="0">
+      <c r="L98" s="4">
+        <v>1</v>
+      </c>
+      <c r="M98" s="4">
         <v>1</v>
       </c>
     </row>
     <row outlineLevel="0" r="99">
-      <c r="A99" s="0">
+      <c r="A99" s="4">
         <v>119</v>
       </c>
-      <c r="B99" s="1">
+      <c r="B99" s="5">
         <v>42677.9993055556</v>
       </c>
-      <c r="C99" s="1">
+      <c r="C99" s="5">
         <v>42677.9993055556</v>
       </c>
-      <c r="E99" s="0" t="inlineStr">
+      <c r="E99" s="6" t="inlineStr">
         <is>
           <t>2016 Third General</t>
         </is>
       </c>
-      <c r="F99" s="0">
-        <v>1</v>
-      </c>
-      <c r="G99" s="0">
-        <v>1</v>
-      </c>
-      <c r="H99" s="0">
-        <v>0</v>
-      </c>
-      <c r="K99" s="1">
+      <c r="F99" s="4">
+        <v>1</v>
+      </c>
+      <c r="G99" s="4">
+        <v>1</v>
+      </c>
+      <c r="H99" s="4">
+        <v>0</v>
+      </c>
+      <c r="K99" s="5">
         <v>42647</v>
       </c>
-      <c r="L99" s="0">
-        <v>1</v>
-      </c>
-      <c r="M99" s="0">
+      <c r="L99" s="4">
+        <v>1</v>
+      </c>
+      <c r="M99" s="4">
         <v>1</v>
       </c>
     </row>
     <row outlineLevel="0" r="100">
-      <c r="A100" s="0">
+      <c r="A100" s="4">
         <v>120</v>
       </c>
-      <c r="B100" s="1">
+      <c r="B100" s="5">
         <v>42681.5</v>
       </c>
-      <c r="C100" s="1">
+      <c r="C100" s="5">
         <v>42681.5</v>
       </c>
-      <c r="E100" s="0" t="inlineStr">
+      <c r="E100" s="6" t="inlineStr">
         <is>
           <t>2016 General Supplemental </t>
         </is>
       </c>
-      <c r="F100" s="0">
-        <v>0</v>
-      </c>
-      <c r="G100" s="0">
+      <c r="F100" s="4">
+        <v>0</v>
+      </c>
+      <c r="G100" s="4">
         <v>2</v>
       </c>
-      <c r="H100" s="0">
-        <v>0</v>
-      </c>
-      <c r="I100" s="1">
+      <c r="H100" s="4">
+        <v>0</v>
+      </c>
+      <c r="I100" s="5">
         <v>42675</v>
       </c>
-      <c r="J100" s="0">
+      <c r="J100" s="4">
         <v>121</v>
       </c>
-      <c r="K100" s="1">
+      <c r="K100" s="5">
         <v>42675</v>
       </c>
-      <c r="L100" s="0">
-        <v>1</v>
-      </c>
-      <c r="M100" s="0">
+      <c r="L100" s="4">
+        <v>1</v>
+      </c>
+      <c r="M100" s="4">
         <v>1</v>
       </c>
     </row>
     <row outlineLevel="0" r="101">
-      <c r="A101" s="0">
+      <c r="A101" s="4">
         <v>121</v>
       </c>
-      <c r="B101" s="1">
+      <c r="B101" s="5">
         <v>42712.9993055556</v>
       </c>
-      <c r="C101" s="1">
+      <c r="C101" s="5">
         <v>42707.9993055556</v>
       </c>
-      <c r="E101" s="0" t="inlineStr">
+      <c r="E101" s="6" t="inlineStr">
         <is>
           <t>2016 Fourth General </t>
         </is>
       </c>
-      <c r="F101" s="0">
-        <v>1</v>
-      </c>
-      <c r="G101" s="0">
-        <v>1</v>
-      </c>
-      <c r="H101" s="0">
-        <v>0</v>
-      </c>
-      <c r="K101" s="1">
+      <c r="F101" s="4">
+        <v>1</v>
+      </c>
+      <c r="G101" s="4">
+        <v>1</v>
+      </c>
+      <c r="H101" s="4">
+        <v>0</v>
+      </c>
+      <c r="K101" s="5">
         <v>42676</v>
       </c>
-      <c r="L101" s="0">
-        <v>1</v>
-      </c>
-      <c r="M101" s="0">
+      <c r="L101" s="4">
+        <v>1</v>
+      </c>
+      <c r="M101" s="4">
         <v>1</v>
       </c>
     </row>
     <row outlineLevel="0" r="102">
-      <c r="A102" s="0">
+      <c r="A102" s="4">
         <v>122</v>
       </c>
-      <c r="B102" s="1">
+      <c r="B102" s="5">
         <v>42835.9993055556</v>
       </c>
-      <c r="C102" s="1">
+      <c r="C102" s="5">
         <v>42773.9993055556</v>
       </c>
-      <c r="E102" s="0" t="inlineStr">
+      <c r="E102" s="6" t="inlineStr">
         <is>
           <t>2017 School District Report</t>
         </is>
       </c>
-      <c r="F102" s="0">
-        <v>1</v>
-      </c>
-      <c r="G102" s="0">
+      <c r="F102" s="4">
+        <v>1</v>
+      </c>
+      <c r="G102" s="4">
         <v>4</v>
       </c>
-      <c r="H102" s="0">
-        <v>0</v>
-      </c>
-      <c r="K102" s="1">
+      <c r="H102" s="4">
+        <v>0</v>
+      </c>
+      <c r="K102" s="5">
         <v>42068</v>
       </c>
-      <c r="L102" s="0">
-        <v>1</v>
-      </c>
-      <c r="M102" s="0">
+      <c r="L102" s="4">
+        <v>1</v>
+      </c>
+      <c r="M102" s="4">
         <v>1</v>
       </c>
     </row>
     <row outlineLevel="0" r="103">
-      <c r="A103" s="0">
+      <c r="A103" s="4">
         <v>123</v>
       </c>
-      <c r="B103" s="1">
+      <c r="B103" s="5">
         <v>42835.9993055556</v>
       </c>
-      <c r="C103" s="1">
+      <c r="C103" s="5">
         <v>42828.9993055556</v>
       </c>
-      <c r="E103" s="0" t="inlineStr">
+      <c r="E103" s="6" t="inlineStr">
         <is>
           <t>2017 First Biannual</t>
         </is>
       </c>
-      <c r="F103" s="0">
-        <v>1</v>
-      </c>
-      <c r="G103" s="0">
+      <c r="F103" s="4">
+        <v>1</v>
+      </c>
+      <c r="G103" s="4">
         <v>3</v>
       </c>
-      <c r="H103" s="0">
-        <v>0</v>
-      </c>
-      <c r="K103" s="1">
+      <c r="H103" s="4">
+        <v>0</v>
+      </c>
+      <c r="K103" s="5">
         <v>42647</v>
       </c>
-      <c r="L103" s="0">
-        <v>1</v>
-      </c>
-      <c r="M103" s="0">
+      <c r="L103" s="4">
+        <v>1</v>
+      </c>
+      <c r="M103" s="4">
         <v>1</v>
       </c>
     </row>
     <row outlineLevel="0" r="104">
-      <c r="A104" s="0">
+      <c r="A104" s="4">
         <v>124</v>
       </c>
-      <c r="B104" s="1">
+      <c r="B104" s="5">
         <v>43017.9993055556</v>
       </c>
-      <c r="C104" s="1">
+      <c r="C104" s="5">
         <v>43010.9993055556</v>
       </c>
-      <c r="E104" s="0" t="inlineStr">
+      <c r="E104" s="6" t="inlineStr">
         <is>
           <t>2017 Second Biannual</t>
         </is>
       </c>
-      <c r="F104" s="0">
-        <v>1</v>
-      </c>
-      <c r="G104" s="0">
+      <c r="F104" s="4">
+        <v>1</v>
+      </c>
+      <c r="G104" s="4">
         <v>3</v>
       </c>
-      <c r="H104" s="0">
-        <v>0</v>
-      </c>
-      <c r="K104" s="1">
+      <c r="H104" s="4">
+        <v>0</v>
+      </c>
+      <c r="K104" s="5">
         <v>42829</v>
       </c>
-      <c r="L104" s="0">
-        <v>1</v>
-      </c>
-      <c r="M104" s="0">
+      <c r="L104" s="4">
+        <v>1</v>
+      </c>
+      <c r="M104" s="4">
         <v>1</v>
       </c>
     </row>
     <row outlineLevel="0" r="105">
-      <c r="A105" s="0">
+      <c r="A105" s="4">
         <v>125</v>
       </c>
-      <c r="B105" s="1">
+      <c r="B105" s="5">
         <v>43199.9993055556</v>
       </c>
-      <c r="C105" s="1">
+      <c r="C105" s="5">
         <v>43192.9993055556</v>
       </c>
-      <c r="E105" s="0" t="inlineStr">
+      <c r="E105" s="6" t="inlineStr">
         <is>
           <t>2018 First Primary Report</t>
         </is>
       </c>
-      <c r="F105" s="0">
-        <v>1</v>
-      </c>
-      <c r="G105" s="0">
-        <v>1</v>
-      </c>
-      <c r="H105" s="0">
-        <v>0</v>
-      </c>
-      <c r="K105" s="1">
+      <c r="F105" s="4">
+        <v>1</v>
+      </c>
+      <c r="G105" s="4">
+        <v>1</v>
+      </c>
+      <c r="H105" s="4">
+        <v>0</v>
+      </c>
+      <c r="K105" s="5">
         <v>43011.9993055556</v>
       </c>
-      <c r="L105" s="0">
-        <v>1</v>
-      </c>
-      <c r="M105" s="0">
+      <c r="L105" s="4">
+        <v>1</v>
+      </c>
+      <c r="M105" s="4">
         <v>1</v>
       </c>
     </row>
     <row outlineLevel="0" r="106">
-      <c r="A106" s="0">
+      <c r="A106" s="4">
         <v>126</v>
       </c>
-      <c r="B106" s="1">
+      <c r="B106" s="5">
         <v>43199.9993055556</v>
       </c>
-      <c r="C106" s="1">
+      <c r="C106" s="5">
         <v>43192.9993055556</v>
       </c>
-      <c r="E106" s="0" t="inlineStr">
+      <c r="E106" s="6" t="inlineStr">
         <is>
           <t>2018 First Biannual</t>
         </is>
       </c>
-      <c r="F106" s="0">
-        <v>1</v>
-      </c>
-      <c r="G106" s="0">
+      <c r="F106" s="4">
+        <v>1</v>
+      </c>
+      <c r="G106" s="4">
         <v>3</v>
       </c>
-      <c r="H106" s="0">
-        <v>0</v>
-      </c>
-      <c r="K106" s="1">
+      <c r="H106" s="4">
+        <v>0</v>
+      </c>
+      <c r="K106" s="5">
         <v>43011.9993055556</v>
       </c>
-      <c r="L106" s="0">
+      <c r="L106" s="4">
         <v>1</v>
       </c>
     </row>
     <row outlineLevel="0" r="107">
-      <c r="A107" s="0">
+      <c r="A107" s="4">
         <v>127</v>
       </c>
-      <c r="B107" s="1">
+      <c r="B107" s="5">
         <v>43199.9993055556</v>
       </c>
-      <c r="C107" s="1">
+      <c r="C107" s="5">
         <v>43199.9993055556</v>
       </c>
-      <c r="E107" s="0" t="inlineStr">
+      <c r="E107" s="6" t="inlineStr">
         <is>
           <t>2018 School District Report</t>
         </is>
       </c>
-      <c r="F107" s="0">
-        <v>1</v>
-      </c>
-      <c r="G107" s="0">
+      <c r="F107" s="4">
+        <v>1</v>
+      </c>
+      <c r="G107" s="4">
         <v>4</v>
       </c>
-      <c r="H107" s="0">
-        <v>0</v>
-      </c>
-      <c r="K107" s="1">
+      <c r="H107" s="4">
+        <v>0</v>
+      </c>
+      <c r="K107" s="5">
         <v>42774</v>
       </c>
-      <c r="L107" s="0">
-        <v>1</v>
-      </c>
-      <c r="M107" s="0">
+      <c r="L107" s="4">
+        <v>1</v>
+      </c>
+      <c r="M107" s="4">
         <v>1</v>
       </c>
     </row>
     <row outlineLevel="0" r="108">
-      <c r="A108" s="0">
+      <c r="A108" s="4">
         <v>128</v>
       </c>
-      <c r="B108" s="1">
+      <c r="B108" s="5">
         <v>43234.9993055556</v>
       </c>
-      <c r="C108" s="1">
+      <c r="C108" s="5">
         <v>43227.9993055556</v>
       </c>
-      <c r="E108" s="0" t="inlineStr">
+      <c r="E108" s="6" t="inlineStr">
         <is>
           <t>2018 Second Primary</t>
         </is>
       </c>
-      <c r="F108" s="0">
-        <v>1</v>
-      </c>
-      <c r="G108" s="0">
-        <v>1</v>
-      </c>
-      <c r="H108" s="0">
-        <v>0</v>
-      </c>
-      <c r="K108" s="1">
+      <c r="F108" s="4">
+        <v>1</v>
+      </c>
+      <c r="G108" s="4">
+        <v>1</v>
+      </c>
+      <c r="H108" s="4">
+        <v>0</v>
+      </c>
+      <c r="K108" s="5">
         <v>43193</v>
       </c>
-      <c r="L108" s="0">
-        <v>1</v>
-      </c>
-      <c r="M108" s="0">
+      <c r="L108" s="4">
+        <v>1</v>
+      </c>
+      <c r="M108" s="4">
         <v>1</v>
       </c>
     </row>
     <row outlineLevel="0" r="109">
-      <c r="A109" s="0">
+      <c r="A109" s="4">
         <v>129</v>
       </c>
-      <c r="B109" s="1">
+      <c r="B109" s="5">
         <v>43381.9993055556</v>
       </c>
-      <c r="C109" s="1">
+      <c r="C109" s="5">
         <v>43374.9993055556</v>
       </c>
-      <c r="E109" s="0" t="inlineStr">
+      <c r="E109" s="6" t="inlineStr">
         <is>
           <t>2018 Second Biannual</t>
         </is>
       </c>
-      <c r="F109" s="0">
-        <v>1</v>
-      </c>
-      <c r="G109" s="0">
+      <c r="F109" s="4">
+        <v>1</v>
+      </c>
+      <c r="G109" s="4">
         <v>3</v>
       </c>
-      <c r="H109" s="0">
-        <v>0</v>
-      </c>
-      <c r="K109" s="1">
+      <c r="H109" s="4">
+        <v>0</v>
+      </c>
+      <c r="K109" s="5">
         <v>43193</v>
       </c>
-      <c r="L109" s="0">
-        <v>1</v>
-      </c>
-      <c r="M109" s="0">
+      <c r="L109" s="4">
+        <v>1</v>
+      </c>
+      <c r="M109" s="4">
         <v>1</v>
       </c>
     </row>
     <row outlineLevel="0" r="110">
-      <c r="A110" s="0">
+      <c r="A110" s="4">
         <v>130</v>
       </c>
-      <c r="B110" s="1">
+      <c r="B110" s="5">
         <v>43251.9993055556</v>
       </c>
-      <c r="C110" s="1">
+      <c r="C110" s="5">
         <v>43251.9993055556</v>
       </c>
-      <c r="E110" s="0" t="inlineStr">
+      <c r="E110" s="6" t="inlineStr">
         <is>
           <t>2018 Third Primary</t>
         </is>
       </c>
-      <c r="F110" s="0">
-        <v>1</v>
-      </c>
-      <c r="G110" s="0">
-        <v>1</v>
-      </c>
-      <c r="H110" s="0">
-        <v>0</v>
-      </c>
-      <c r="K110" s="1">
+      <c r="F110" s="4">
+        <v>1</v>
+      </c>
+      <c r="G110" s="4">
+        <v>1</v>
+      </c>
+      <c r="H110" s="4">
+        <v>0</v>
+      </c>
+      <c r="K110" s="5">
         <v>43228</v>
       </c>
-      <c r="L110" s="0">
-        <v>1</v>
-      </c>
-      <c r="M110" s="0">
+      <c r="L110" s="4">
+        <v>1</v>
+      </c>
+      <c r="M110" s="4">
         <v>1</v>
       </c>
     </row>
     <row outlineLevel="0" r="111">
-      <c r="A111" s="0">
+      <c r="A111" s="4">
         <v>131</v>
       </c>
-      <c r="B111" s="1">
+      <c r="B111" s="5">
         <v>43286.9993055556</v>
       </c>
-      <c r="C111" s="1">
+      <c r="C111" s="5">
         <v>43281.5409722222</v>
       </c>
-      <c r="E111" s="0" t="inlineStr">
+      <c r="E111" s="6" t="inlineStr">
         <is>
           <t>2018 Fourth Primary</t>
         </is>
       </c>
-      <c r="F111" s="0">
-        <v>1</v>
-      </c>
-      <c r="G111" s="0">
-        <v>1</v>
-      </c>
-      <c r="H111" s="0">
-        <v>0</v>
-      </c>
-      <c r="K111" s="1">
+      <c r="F111" s="4">
+        <v>1</v>
+      </c>
+      <c r="G111" s="4">
+        <v>1</v>
+      </c>
+      <c r="H111" s="4">
+        <v>0</v>
+      </c>
+      <c r="K111" s="5">
         <v>43250</v>
       </c>
-      <c r="L111" s="0">
-        <v>1</v>
-      </c>
-      <c r="M111" s="0">
+      <c r="L111" s="4">
+        <v>1</v>
+      </c>
+      <c r="M111" s="4">
         <v>1</v>
       </c>
     </row>
     <row outlineLevel="0" r="112">
-      <c r="A112" s="0">
+      <c r="A112" s="4">
         <v>132</v>
       </c>
-      <c r="B112" s="1">
+      <c r="B112" s="5">
         <v>43255.5</v>
       </c>
-      <c r="C112" s="1">
+      <c r="C112" s="5">
         <v>43255.5</v>
       </c>
-      <c r="E112" s="0" t="inlineStr">
+      <c r="E112" s="6" t="inlineStr">
         <is>
           <t>2018 Primary Supplemental</t>
         </is>
       </c>
-      <c r="F112" s="0">
-        <v>0</v>
-      </c>
-      <c r="G112" s="0">
+      <c r="F112" s="4">
+        <v>0</v>
+      </c>
+      <c r="G112" s="4">
         <v>2</v>
       </c>
-      <c r="H112" s="0">
-        <v>0</v>
-      </c>
-      <c r="I112" s="1">
+      <c r="H112" s="4">
+        <v>0</v>
+      </c>
+      <c r="I112" s="5">
         <v>43252</v>
       </c>
-      <c r="J112" s="0">
+      <c r="J112" s="4">
         <v>131</v>
       </c>
-      <c r="K112" s="1">
+      <c r="K112" s="5">
         <v>43252</v>
       </c>
-      <c r="L112" s="0">
-        <v>1</v>
-      </c>
-      <c r="M112" s="0">
+      <c r="L112" s="4">
+        <v>1</v>
+      </c>
+      <c r="M112" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="113">
+      <c r="A113" s="4">
+        <v>133</v>
+      </c>
+      <c r="B113" s="5">
+        <v>43353.9993055556</v>
+      </c>
+      <c r="C113" s="5">
+        <v>43346</v>
+      </c>
+      <c r="E113" s="6" t="inlineStr">
+        <is>
+          <t>2018 First General</t>
+        </is>
+      </c>
+      <c r="F113" s="4">
+        <v>1</v>
+      </c>
+      <c r="G113" s="4">
+        <v>1</v>
+      </c>
+      <c r="H113" s="4">
+        <v>0</v>
+      </c>
+      <c r="K113" s="5">
+        <v>43282</v>
+      </c>
+      <c r="L113" s="4">
+        <v>1</v>
+      </c>
+      <c r="M113" s="4">
         <v>1</v>
       </c>
     </row>

--- a/data/Cam_FilingPeriod.xlsx
+++ b/data/Cam_FilingPeriod.xlsx
@@ -8,9 +8,10 @@
   </bookViews>
   <sheets>
     <sheet sheetId="1" r:id="rId1" name="Cam_FilingPeriod"/>
+    <sheet r:id="rId4" sheetId="2" name="Cam_FilingPeriod1"/>
   </sheets>
   <definedNames>
-    <definedName name="Cam_FilingPeriod">'Cam_FilingPeriod'!$A$1:$N$115</definedName>
+    <definedName name="Cam_FilingPeriod">'Cam_FilingPeriod1'!$A$1:$N$117</definedName>
   </definedNames>
   <calcPr calcId="125725" fullCalcOnLoad="true"/>
 </workbook>
@@ -18,6 +19,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="dd-mmm-yy"/>
+  </numFmts>
   <fonts count="1">
     <font>
       <sz val="11"/>
@@ -26,6 +30,37 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000" tint="0"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000" tint="0"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000" tint="0"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000" tint="0"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000" tint="0"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000" tint="0"/>
+      <name val="Calibri"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -33,6 +68,42 @@
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FF000000"/>
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC0C0C0"/>
+        <bgColor rgb="FFC0C0C0"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FF000000"/>
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FF000000"/>
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FF000000"/>
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FF000000"/>
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -43,12 +114,98 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFD0D7E5"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFD0D7E5"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFD0D7E5"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFD0D7E5"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFD0D7E5"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFD0D7E5"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFD0D7E5"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFD0D7E5"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFD0D7E5"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFD0D7E5"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFD0D7E5"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFD0D7E5"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFD0D7E5"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFD0D7E5"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFD0D7E5"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFD0D7E5"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyFill="1" applyProtection="1" applyAlignment="1" applyFont="1" xfId="0">
+      <alignment wrapText="0" vertical="center" horizontal="left"/>
+      <protection locked="1" hidden="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyFill="1" applyProtection="1" applyBorder="1" applyAlignment="1" applyFont="1" xfId="0">
+      <alignment wrapText="0" vertical="center" horizontal="center"/>
+      <protection locked="1" hidden="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" applyFill="1" applyProtection="1" applyBorder="1" applyAlignment="1" applyFont="1" xfId="0">
+      <alignment wrapText="0" vertical="center" horizontal="center"/>
+      <protection locked="1" hidden="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="3" applyFill="1" applyProtection="1" applyBorder="1" applyAlignment="1" applyFont="1" xfId="0">
+      <alignment wrapText="1" vertical="center" horizontal="right"/>
+      <protection locked="1" hidden="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="6" borderId="4" applyFill="1" applyProtection="1" applyBorder="1" applyAlignment="1" applyNumberFormat="1" applyFont="1" xfId="0">
+      <alignment wrapText="1" vertical="center" horizontal="right"/>
+      <protection locked="1" hidden="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="5" applyFill="1" applyProtection="1" applyBorder="1" applyAlignment="1" applyFont="1" xfId="0">
+      <alignment wrapText="1" vertical="center" horizontal="general"/>
+      <protection locked="1" hidden="0"/>
+    </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" applyProtection="1" applyNumberFormat="1" xfId="0">
       <alignment wrapText="0" vertical="center" horizontal="general"/>
       <protection locked="1" hidden="0"/>
@@ -347,7 +504,4065 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N115"/>
+  <dimension ref="A1:N113"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0" rightToLeft="false">
+      <selection activeCell="C5" sqref="C5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col customWidth="true" min="1" max="1" width="14.0625"/>
+    <col customWidth="true" min="2" max="2" width="14.0625"/>
+    <col customWidth="true" min="3" max="3" width="14.0625"/>
+    <col customWidth="true" min="4" max="4" width="14.0625"/>
+    <col customWidth="true" min="5" max="5" width="14.0625"/>
+    <col customWidth="true" min="6" max="6" width="14.0625"/>
+    <col customWidth="true" min="7" max="7" width="14.0625"/>
+    <col customWidth="true" min="8" max="8" width="14.0625"/>
+    <col customWidth="true" min="9" max="9" width="14.0625"/>
+    <col customWidth="true" min="10" max="10" width="14.0625"/>
+    <col customWidth="true" min="11" max="11" width="14.0625"/>
+    <col customWidth="true" min="12" max="12" width="14.0625"/>
+    <col customWidth="true" min="13" max="13" width="14.0625"/>
+    <col customWidth="true" min="14" max="14" width="14.0625"/>
+  </cols>
+  <sheetData>
+    <row outlineLevel="0" r="1">
+      <c r="A1" s="2" t="inlineStr">
+        <is>
+          <t>FilingPeriodId</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>FilingDate</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>DueDate</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>OLDDBReportingPeriodId</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>AllowStatementOfNoActivity</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>FilingPeriodTypeId</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>ExcludeFromCascading</t>
+        </is>
+      </c>
+      <c r="I1" s="2" t="inlineStr">
+        <is>
+          <t>SupplementalInitDate</t>
+        </is>
+      </c>
+      <c r="J1" s="2" t="inlineStr">
+        <is>
+          <t>RegularFilingPeriodId</t>
+        </is>
+      </c>
+      <c r="K1" s="2" t="inlineStr">
+        <is>
+          <t>InitialDate</t>
+        </is>
+      </c>
+      <c r="L1" s="2" t="inlineStr">
+        <is>
+          <t>FilingPeriodEmailingSendStatusId</t>
+        </is>
+      </c>
+      <c r="M1" s="2" t="inlineStr">
+        <is>
+          <t>FilingPeriodReminderSendStatusId</t>
+        </is>
+      </c>
+      <c r="N1" s="2" t="inlineStr">
+        <is>
+          <t>DateReminderSent</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2">
+      <c r="A2" s="4">
+        <v>19</v>
+      </c>
+      <c r="B2" s="5">
+        <v>38117</v>
+      </c>
+      <c r="C2" s="5">
+        <v>38117</v>
+      </c>
+      <c r="E2" s="6" t="inlineStr">
+        <is>
+          <t>First Primary Report </t>
+        </is>
+      </c>
+      <c r="F2" s="4">
+        <v>1</v>
+      </c>
+      <c r="G2" s="4">
+        <v>1</v>
+      </c>
+      <c r="H2" s="4">
+        <v>0</v>
+      </c>
+      <c r="K2" s="5">
+        <v>37988</v>
+      </c>
+      <c r="L2" s="4">
+        <v>1</v>
+      </c>
+      <c r="M2" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3">
+      <c r="A3" s="4">
+        <v>20</v>
+      </c>
+      <c r="B3" s="5">
+        <v>38134</v>
+      </c>
+      <c r="C3" s="5">
+        <v>38134</v>
+      </c>
+      <c r="E3" s="6" t="inlineStr">
+        <is>
+          <t>Second Primary Report</t>
+        </is>
+      </c>
+      <c r="F3" s="4">
+        <v>1</v>
+      </c>
+      <c r="G3" s="4">
+        <v>1</v>
+      </c>
+      <c r="H3" s="4">
+        <v>0</v>
+      </c>
+      <c r="K3" s="5">
+        <v>38118</v>
+      </c>
+      <c r="L3" s="4">
+        <v>1</v>
+      </c>
+      <c r="M3" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="4">
+      <c r="A4" s="4">
+        <v>21</v>
+      </c>
+      <c r="B4" s="5">
+        <v>38169</v>
+      </c>
+      <c r="C4" s="5">
+        <v>38169</v>
+      </c>
+      <c r="E4" s="6" t="inlineStr">
+        <is>
+          <t>Third Primary Report</t>
+        </is>
+      </c>
+      <c r="F4" s="4">
+        <v>1</v>
+      </c>
+      <c r="G4" s="4">
+        <v>1</v>
+      </c>
+      <c r="H4" s="4">
+        <v>0</v>
+      </c>
+      <c r="K4" s="5">
+        <v>38140</v>
+      </c>
+      <c r="L4" s="4">
+        <v>1</v>
+      </c>
+      <c r="M4" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="5">
+      <c r="A5" s="4">
+        <v>22</v>
+      </c>
+      <c r="B5" s="5">
+        <v>38272</v>
+      </c>
+      <c r="C5" s="5">
+        <v>38272</v>
+      </c>
+      <c r="E5" s="6" t="inlineStr">
+        <is>
+          <t>First General Report</t>
+        </is>
+      </c>
+      <c r="F5" s="4">
+        <v>1</v>
+      </c>
+      <c r="G5" s="4">
+        <v>1</v>
+      </c>
+      <c r="H5" s="4">
+        <v>0</v>
+      </c>
+      <c r="K5" s="5">
+        <v>38170</v>
+      </c>
+      <c r="L5" s="4">
+        <v>1</v>
+      </c>
+      <c r="M5" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="6">
+      <c r="A6" s="4">
+        <v>23</v>
+      </c>
+      <c r="B6" s="5">
+        <v>38288</v>
+      </c>
+      <c r="C6" s="5">
+        <v>38288</v>
+      </c>
+      <c r="E6" s="6" t="inlineStr">
+        <is>
+          <t>Second General Report</t>
+        </is>
+      </c>
+      <c r="F6" s="4">
+        <v>1</v>
+      </c>
+      <c r="G6" s="4">
+        <v>1</v>
+      </c>
+      <c r="H6" s="4">
+        <v>0</v>
+      </c>
+      <c r="K6" s="5">
+        <v>38273</v>
+      </c>
+      <c r="L6" s="4">
+        <v>1</v>
+      </c>
+      <c r="M6" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="7">
+      <c r="A7" s="4">
+        <v>24</v>
+      </c>
+      <c r="B7" s="5">
+        <v>38323.7083333333</v>
+      </c>
+      <c r="C7" s="5">
+        <v>38323.7083333333</v>
+      </c>
+      <c r="D7" s="4">
+        <v>17</v>
+      </c>
+      <c r="E7" s="6" t="inlineStr">
+        <is>
+          <t>Third General</t>
+        </is>
+      </c>
+      <c r="F7" s="4">
+        <v>1</v>
+      </c>
+      <c r="G7" s="4">
+        <v>1</v>
+      </c>
+      <c r="H7" s="4">
+        <v>0</v>
+      </c>
+      <c r="K7" s="5">
+        <v>38294</v>
+      </c>
+      <c r="L7" s="4">
+        <v>1</v>
+      </c>
+      <c r="M7" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="8">
+      <c r="A8" s="4">
+        <v>25</v>
+      </c>
+      <c r="B8" s="5">
+        <v>38481.7083333333</v>
+      </c>
+      <c r="C8" s="5">
+        <v>38481.7083333333</v>
+      </c>
+      <c r="D8" s="4">
+        <v>18</v>
+      </c>
+      <c r="E8" s="6" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="F8" s="4">
+        <v>1</v>
+      </c>
+      <c r="G8" s="4">
+        <v>1</v>
+      </c>
+      <c r="H8" s="4">
+        <v>0</v>
+      </c>
+      <c r="K8" s="5">
+        <v>38324</v>
+      </c>
+      <c r="L8" s="4">
+        <v>1</v>
+      </c>
+      <c r="M8" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="9">
+      <c r="A9" s="4">
+        <v>26</v>
+      </c>
+      <c r="B9" s="5">
+        <v>37987.7083333333</v>
+      </c>
+      <c r="C9" s="5">
+        <v>37987.7083333333</v>
+      </c>
+      <c r="D9" s="4">
+        <v>19</v>
+      </c>
+      <c r="E9" s="6" t="inlineStr">
+        <is>
+          <t>1/1/2004 Opening</t>
+        </is>
+      </c>
+      <c r="F9" s="4">
+        <v>1</v>
+      </c>
+      <c r="G9" s="4">
+        <v>1</v>
+      </c>
+      <c r="H9" s="4">
+        <v>0</v>
+      </c>
+      <c r="K9" s="5">
+        <v>38078</v>
+      </c>
+      <c r="L9" s="4">
+        <v>1</v>
+      </c>
+      <c r="M9" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="10">
+      <c r="A10" s="4">
+        <v>27</v>
+      </c>
+      <c r="B10" s="5">
+        <v>38139</v>
+      </c>
+      <c r="C10" s="5">
+        <v>38139</v>
+      </c>
+      <c r="E10" s="6" t="inlineStr">
+        <is>
+          <t>Primary Supplemental Report</t>
+        </is>
+      </c>
+      <c r="F10" s="4">
+        <v>1</v>
+      </c>
+      <c r="G10" s="4">
+        <v>1</v>
+      </c>
+      <c r="H10" s="4">
+        <v>1</v>
+      </c>
+      <c r="K10" s="5">
+        <v>38135</v>
+      </c>
+      <c r="L10" s="4">
+        <v>1</v>
+      </c>
+      <c r="M10" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="11">
+      <c r="A11" s="4">
+        <v>28</v>
+      </c>
+      <c r="B11" s="5">
+        <v>38293</v>
+      </c>
+      <c r="C11" s="5">
+        <v>38293</v>
+      </c>
+      <c r="E11" s="6" t="inlineStr">
+        <is>
+          <t>General Supplemental Report</t>
+        </is>
+      </c>
+      <c r="F11" s="4">
+        <v>1</v>
+      </c>
+      <c r="G11" s="4">
+        <v>1</v>
+      </c>
+      <c r="H11" s="4">
+        <v>1</v>
+      </c>
+      <c r="K11" s="5">
+        <v>38289</v>
+      </c>
+      <c r="L11" s="4">
+        <v>1</v>
+      </c>
+      <c r="M11" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="12">
+      <c r="A12" s="4">
+        <v>29</v>
+      </c>
+      <c r="B12" s="5">
+        <v>38845.7083333333</v>
+      </c>
+      <c r="C12" s="5">
+        <v>38845.7083333333</v>
+      </c>
+      <c r="D12" s="4">
+        <v>26</v>
+      </c>
+      <c r="E12" s="6" t="inlineStr">
+        <is>
+          <t>First Primary</t>
+        </is>
+      </c>
+      <c r="F12" s="4">
+        <v>1</v>
+      </c>
+      <c r="G12" s="4">
+        <v>1</v>
+      </c>
+      <c r="H12" s="4">
+        <v>0</v>
+      </c>
+      <c r="K12" s="5">
+        <v>38482</v>
+      </c>
+      <c r="L12" s="4">
+        <v>1</v>
+      </c>
+      <c r="M12" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="13">
+      <c r="A13" s="4">
+        <v>30</v>
+      </c>
+      <c r="B13" s="5">
+        <v>38869.7083333333</v>
+      </c>
+      <c r="C13" s="5">
+        <v>38869.7083333333</v>
+      </c>
+      <c r="D13" s="4">
+        <v>27</v>
+      </c>
+      <c r="E13" s="6" t="inlineStr">
+        <is>
+          <t>Second Primary</t>
+        </is>
+      </c>
+      <c r="F13" s="4">
+        <v>1</v>
+      </c>
+      <c r="G13" s="4">
+        <v>1</v>
+      </c>
+      <c r="H13" s="4">
+        <v>0</v>
+      </c>
+      <c r="K13" s="5">
+        <v>38864</v>
+      </c>
+      <c r="L13" s="4">
+        <v>1</v>
+      </c>
+      <c r="M13" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="14">
+      <c r="A14" s="4">
+        <v>31</v>
+      </c>
+      <c r="B14" s="5">
+        <v>38904.7083333333</v>
+      </c>
+      <c r="C14" s="5">
+        <v>38904.7083333333</v>
+      </c>
+      <c r="D14" s="4">
+        <v>28</v>
+      </c>
+      <c r="E14" s="6" t="inlineStr">
+        <is>
+          <t>Third Primary</t>
+        </is>
+      </c>
+      <c r="F14" s="4">
+        <v>1</v>
+      </c>
+      <c r="G14" s="4">
+        <v>1</v>
+      </c>
+      <c r="H14" s="4">
+        <v>0</v>
+      </c>
+      <c r="K14" s="5">
+        <v>38875</v>
+      </c>
+      <c r="L14" s="4">
+        <v>1</v>
+      </c>
+      <c r="M14" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="15">
+      <c r="A15" s="4">
+        <v>32</v>
+      </c>
+      <c r="B15" s="5">
+        <v>39000.7083333333</v>
+      </c>
+      <c r="C15" s="5">
+        <v>39000.7083333333</v>
+      </c>
+      <c r="D15" s="4">
+        <v>29</v>
+      </c>
+      <c r="E15" s="6" t="inlineStr">
+        <is>
+          <t>First General</t>
+        </is>
+      </c>
+      <c r="F15" s="4">
+        <v>1</v>
+      </c>
+      <c r="G15" s="4">
+        <v>1</v>
+      </c>
+      <c r="H15" s="4">
+        <v>0</v>
+      </c>
+      <c r="K15" s="5">
+        <v>38905</v>
+      </c>
+      <c r="L15" s="4">
+        <v>1</v>
+      </c>
+      <c r="M15" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="16">
+      <c r="A16" s="4">
+        <v>33</v>
+      </c>
+      <c r="B16" s="5">
+        <v>39023.7083333333</v>
+      </c>
+      <c r="C16" s="5">
+        <v>39023.7083333333</v>
+      </c>
+      <c r="D16" s="4">
+        <v>30</v>
+      </c>
+      <c r="E16" s="6" t="inlineStr">
+        <is>
+          <t>Second General</t>
+        </is>
+      </c>
+      <c r="F16" s="4">
+        <v>1</v>
+      </c>
+      <c r="G16" s="4">
+        <v>1</v>
+      </c>
+      <c r="H16" s="4">
+        <v>0</v>
+      </c>
+      <c r="K16" s="5">
+        <v>39001</v>
+      </c>
+      <c r="L16" s="4">
+        <v>1</v>
+      </c>
+      <c r="M16" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="17">
+      <c r="A17" s="4">
+        <v>34</v>
+      </c>
+      <c r="B17" s="5">
+        <v>39058.7083333333</v>
+      </c>
+      <c r="C17" s="5">
+        <v>39058.7083333333</v>
+      </c>
+      <c r="D17" s="4">
+        <v>31</v>
+      </c>
+      <c r="E17" s="6" t="inlineStr">
+        <is>
+          <t>Third General</t>
+        </is>
+      </c>
+      <c r="F17" s="4">
+        <v>1</v>
+      </c>
+      <c r="G17" s="4">
+        <v>1</v>
+      </c>
+      <c r="H17" s="4">
+        <v>0</v>
+      </c>
+      <c r="K17" s="5">
+        <v>39029</v>
+      </c>
+      <c r="L17" s="4">
+        <v>1</v>
+      </c>
+      <c r="M17" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="18">
+      <c r="A18" s="4">
+        <v>35</v>
+      </c>
+      <c r="B18" s="5">
+        <v>38874.7083333333</v>
+      </c>
+      <c r="C18" s="5">
+        <v>38874.7083333333</v>
+      </c>
+      <c r="D18" s="4">
+        <v>37</v>
+      </c>
+      <c r="E18" s="6" t="inlineStr">
+        <is>
+          <t>Primary Supplemental</t>
+        </is>
+      </c>
+      <c r="F18" s="4">
+        <v>1</v>
+      </c>
+      <c r="G18" s="4">
+        <v>1</v>
+      </c>
+      <c r="H18" s="4">
+        <v>1</v>
+      </c>
+      <c r="K18" s="5">
+        <v>38870</v>
+      </c>
+      <c r="L18" s="4">
+        <v>1</v>
+      </c>
+      <c r="M18" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="19">
+      <c r="A19" s="4">
+        <v>36</v>
+      </c>
+      <c r="B19" s="5">
+        <v>39028.7083333333</v>
+      </c>
+      <c r="C19" s="5">
+        <v>39028.7083333333</v>
+      </c>
+      <c r="D19" s="4">
+        <v>39</v>
+      </c>
+      <c r="E19" s="6" t="inlineStr">
+        <is>
+          <t>General Supplemental</t>
+        </is>
+      </c>
+      <c r="F19" s="4">
+        <v>1</v>
+      </c>
+      <c r="G19" s="4">
+        <v>1</v>
+      </c>
+      <c r="H19" s="4">
+        <v>1</v>
+      </c>
+      <c r="K19" s="5">
+        <v>39024</v>
+      </c>
+      <c r="L19" s="4">
+        <v>1</v>
+      </c>
+      <c r="M19" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="20">
+      <c r="A20" s="4">
+        <v>37</v>
+      </c>
+      <c r="B20" s="5">
+        <v>39216.7083333333</v>
+      </c>
+      <c r="C20" s="5">
+        <v>39216.7083333333</v>
+      </c>
+      <c r="D20" s="4">
+        <v>41</v>
+      </c>
+      <c r="E20" s="6" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="F20" s="4">
+        <v>1</v>
+      </c>
+      <c r="G20" s="4">
+        <v>1</v>
+      </c>
+      <c r="H20" s="4">
+        <v>0</v>
+      </c>
+      <c r="K20" s="5">
+        <v>39059</v>
+      </c>
+      <c r="L20" s="4">
+        <v>1</v>
+      </c>
+      <c r="M20" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="21">
+      <c r="A21" s="4">
+        <v>38</v>
+      </c>
+      <c r="B21" s="5">
+        <v>38863.7083333333</v>
+      </c>
+      <c r="C21" s="5">
+        <v>38863.7083333333</v>
+      </c>
+      <c r="D21" s="4">
+        <v>43</v>
+      </c>
+      <c r="E21" s="6" t="inlineStr">
+        <is>
+          <t>PRC Non Participating Report</t>
+        </is>
+      </c>
+      <c r="F21" s="4">
+        <v>1</v>
+      </c>
+      <c r="G21" s="4">
+        <v>1</v>
+      </c>
+      <c r="H21" s="4">
+        <v>1</v>
+      </c>
+      <c r="K21" s="5">
+        <v>38846</v>
+      </c>
+      <c r="L21" s="4">
+        <v>1</v>
+      </c>
+      <c r="M21" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="22">
+      <c r="A22" s="4">
+        <v>39</v>
+      </c>
+      <c r="B22" s="5">
+        <v>39000.7083333333</v>
+      </c>
+      <c r="C22" s="5">
+        <v>39000.7083333333</v>
+      </c>
+      <c r="D22" s="4">
+        <v>57</v>
+      </c>
+      <c r="E22" s="6" t="inlineStr">
+        <is>
+          <t>General Statement Of Exception</t>
+        </is>
+      </c>
+      <c r="F22" s="4">
+        <v>1</v>
+      </c>
+      <c r="G22" s="4">
+        <v>1</v>
+      </c>
+      <c r="H22" s="4">
+        <v>1</v>
+      </c>
+      <c r="K22" s="5">
+        <v>38905</v>
+      </c>
+      <c r="L22" s="4">
+        <v>1</v>
+      </c>
+      <c r="M22" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="23">
+      <c r="A23" s="4">
+        <v>40</v>
+      </c>
+      <c r="B23" s="5">
+        <v>39580.7083333333</v>
+      </c>
+      <c r="C23" s="5">
+        <v>39580.7083333333</v>
+      </c>
+      <c r="D23" s="4">
+        <v>60</v>
+      </c>
+      <c r="E23" s="6" t="inlineStr">
+        <is>
+          <t>2008 Annual</t>
+        </is>
+      </c>
+      <c r="F23" s="4">
+        <v>1</v>
+      </c>
+      <c r="G23" s="4">
+        <v>1</v>
+      </c>
+      <c r="H23" s="4">
+        <v>0</v>
+      </c>
+      <c r="K23" s="5">
+        <v>39581</v>
+      </c>
+      <c r="L23" s="4">
+        <v>1</v>
+      </c>
+      <c r="M23" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="24">
+      <c r="A24" s="4">
+        <v>41</v>
+      </c>
+      <c r="B24" s="5">
+        <v>39944.7083333333</v>
+      </c>
+      <c r="C24" s="5">
+        <v>39944.7083333333</v>
+      </c>
+      <c r="D24" s="4">
+        <v>61</v>
+      </c>
+      <c r="E24" s="6" t="inlineStr">
+        <is>
+          <t>2009 Annual</t>
+        </is>
+      </c>
+      <c r="F24" s="4">
+        <v>1</v>
+      </c>
+      <c r="G24" s="4">
+        <v>1</v>
+      </c>
+      <c r="H24" s="4">
+        <v>0</v>
+      </c>
+      <c r="K24" s="5">
+        <v>39787</v>
+      </c>
+      <c r="L24" s="4">
+        <v>1</v>
+      </c>
+      <c r="M24" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="25">
+      <c r="A25" s="4">
+        <v>42</v>
+      </c>
+      <c r="B25" s="5">
+        <v>39580.7083333333</v>
+      </c>
+      <c r="C25" s="5">
+        <v>39580.7083333333</v>
+      </c>
+      <c r="D25" s="4">
+        <v>62</v>
+      </c>
+      <c r="E25" s="6" t="inlineStr">
+        <is>
+          <t>Primary Statement Of Exception</t>
+        </is>
+      </c>
+      <c r="F25" s="4">
+        <v>1</v>
+      </c>
+      <c r="G25" s="4">
+        <v>1</v>
+      </c>
+      <c r="H25" s="4">
+        <v>1</v>
+      </c>
+      <c r="K25" s="5">
+        <v>39581</v>
+      </c>
+      <c r="L25" s="4">
+        <v>1</v>
+      </c>
+      <c r="M25" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="26">
+      <c r="A26" s="4">
+        <v>43</v>
+      </c>
+      <c r="B26" s="5">
+        <v>39580</v>
+      </c>
+      <c r="C26" s="5">
+        <v>39580</v>
+      </c>
+      <c r="E26" s="6" t="inlineStr">
+        <is>
+          <t>First Primary</t>
+        </is>
+      </c>
+      <c r="F26" s="4">
+        <v>1</v>
+      </c>
+      <c r="G26" s="4">
+        <v>1</v>
+      </c>
+      <c r="H26" s="4">
+        <v>0</v>
+      </c>
+      <c r="K26" s="5">
+        <v>39217</v>
+      </c>
+      <c r="L26" s="4">
+        <v>1</v>
+      </c>
+      <c r="M26" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="27">
+      <c r="A27" s="4">
+        <v>44</v>
+      </c>
+      <c r="B27" s="5">
+        <v>39597.7083333333</v>
+      </c>
+      <c r="C27" s="5">
+        <v>39597.7083333333</v>
+      </c>
+      <c r="D27" s="4">
+        <v>64</v>
+      </c>
+      <c r="E27" s="6" t="inlineStr">
+        <is>
+          <t>Second Primary</t>
+        </is>
+      </c>
+      <c r="F27" s="4">
+        <v>1</v>
+      </c>
+      <c r="G27" s="4">
+        <v>1</v>
+      </c>
+      <c r="H27" s="4">
+        <v>0</v>
+      </c>
+      <c r="K27" s="5">
+        <v>39592</v>
+      </c>
+      <c r="L27" s="4">
+        <v>1</v>
+      </c>
+      <c r="M27" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="28">
+      <c r="A28" s="4">
+        <v>45</v>
+      </c>
+      <c r="B28" s="5">
+        <v>39602.7083333333</v>
+      </c>
+      <c r="C28" s="5">
+        <v>39602.7083333333</v>
+      </c>
+      <c r="D28" s="4">
+        <v>65</v>
+      </c>
+      <c r="E28" s="6" t="inlineStr">
+        <is>
+          <t>Primary Supplemental</t>
+        </is>
+      </c>
+      <c r="F28" s="4">
+        <v>1</v>
+      </c>
+      <c r="G28" s="4">
+        <v>1</v>
+      </c>
+      <c r="H28" s="4">
+        <v>1</v>
+      </c>
+      <c r="K28" s="5">
+        <v>39598</v>
+      </c>
+      <c r="L28" s="4">
+        <v>1</v>
+      </c>
+      <c r="M28" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="29">
+      <c r="A29" s="4">
+        <v>46</v>
+      </c>
+      <c r="B29" s="5">
+        <v>39632.7083333333</v>
+      </c>
+      <c r="C29" s="5">
+        <v>39632.7083333333</v>
+      </c>
+      <c r="D29" s="4">
+        <v>66</v>
+      </c>
+      <c r="E29" s="6" t="inlineStr">
+        <is>
+          <t>Third Primary</t>
+        </is>
+      </c>
+      <c r="F29" s="4">
+        <v>1</v>
+      </c>
+      <c r="G29" s="4">
+        <v>1</v>
+      </c>
+      <c r="H29" s="4">
+        <v>0</v>
+      </c>
+      <c r="K29" s="5">
+        <v>39603</v>
+      </c>
+      <c r="L29" s="4">
+        <v>1</v>
+      </c>
+      <c r="M29" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="30">
+      <c r="A30" s="4">
+        <v>47</v>
+      </c>
+      <c r="B30" s="5">
+        <v>39734.7083333333</v>
+      </c>
+      <c r="C30" s="5">
+        <v>39734.7083333333</v>
+      </c>
+      <c r="E30" s="6" t="inlineStr">
+        <is>
+          <t>General Statement Of Exception</t>
+        </is>
+      </c>
+      <c r="F30" s="4">
+        <v>1</v>
+      </c>
+      <c r="G30" s="4">
+        <v>1</v>
+      </c>
+      <c r="H30" s="4">
+        <v>0</v>
+      </c>
+      <c r="K30" s="5">
+        <v>39729</v>
+      </c>
+      <c r="L30" s="4">
+        <v>1</v>
+      </c>
+      <c r="M30" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="31">
+      <c r="A31" s="4">
+        <v>48</v>
+      </c>
+      <c r="B31" s="5">
+        <v>39734.7083333333</v>
+      </c>
+      <c r="C31" s="5">
+        <v>39734.7083333333</v>
+      </c>
+      <c r="D31" s="4">
+        <v>68</v>
+      </c>
+      <c r="E31" s="6" t="inlineStr">
+        <is>
+          <t>First General</t>
+        </is>
+      </c>
+      <c r="F31" s="4">
+        <v>1</v>
+      </c>
+      <c r="G31" s="4">
+        <v>1</v>
+      </c>
+      <c r="H31" s="4">
+        <v>0</v>
+      </c>
+      <c r="K31" s="5">
+        <v>39729</v>
+      </c>
+      <c r="L31" s="4">
+        <v>1</v>
+      </c>
+      <c r="M31" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="32">
+      <c r="A32" s="4">
+        <v>49</v>
+      </c>
+      <c r="B32" s="5">
+        <v>39751.7083333333</v>
+      </c>
+      <c r="C32" s="5">
+        <v>39751.7083333333</v>
+      </c>
+      <c r="D32" s="4">
+        <v>69</v>
+      </c>
+      <c r="E32" s="6" t="inlineStr">
+        <is>
+          <t>Second General</t>
+        </is>
+      </c>
+      <c r="F32" s="4">
+        <v>1</v>
+      </c>
+      <c r="G32" s="4">
+        <v>1</v>
+      </c>
+      <c r="H32" s="4">
+        <v>0</v>
+      </c>
+      <c r="K32" s="5">
+        <v>39746</v>
+      </c>
+      <c r="L32" s="4">
+        <v>1</v>
+      </c>
+      <c r="M32" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="33">
+      <c r="A33" s="4">
+        <v>50</v>
+      </c>
+      <c r="B33" s="5">
+        <v>39756.7083333333</v>
+      </c>
+      <c r="C33" s="5">
+        <v>39756.7083333333</v>
+      </c>
+      <c r="D33" s="4">
+        <v>70</v>
+      </c>
+      <c r="E33" s="6" t="inlineStr">
+        <is>
+          <t>General Supplemental</t>
+        </is>
+      </c>
+      <c r="F33" s="4">
+        <v>1</v>
+      </c>
+      <c r="G33" s="4">
+        <v>1</v>
+      </c>
+      <c r="H33" s="4">
+        <v>1</v>
+      </c>
+      <c r="K33" s="5">
+        <v>39752</v>
+      </c>
+      <c r="L33" s="4">
+        <v>1</v>
+      </c>
+      <c r="M33" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="34">
+      <c r="A34" s="4">
+        <v>51</v>
+      </c>
+      <c r="B34" s="5">
+        <v>39786.7083333333</v>
+      </c>
+      <c r="C34" s="5">
+        <v>39786.7083333333</v>
+      </c>
+      <c r="D34" s="4">
+        <v>71</v>
+      </c>
+      <c r="E34" s="6" t="inlineStr">
+        <is>
+          <t>Third General</t>
+        </is>
+      </c>
+      <c r="F34" s="4">
+        <v>1</v>
+      </c>
+      <c r="G34" s="4">
+        <v>1</v>
+      </c>
+      <c r="H34" s="4">
+        <v>0</v>
+      </c>
+      <c r="K34" s="5">
+        <v>39757</v>
+      </c>
+      <c r="L34" s="4">
+        <v>1</v>
+      </c>
+      <c r="M34" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="35">
+      <c r="A35" s="4">
+        <v>52</v>
+      </c>
+      <c r="B35" s="5">
+        <v>39944.7083333333</v>
+      </c>
+      <c r="C35" s="5">
+        <v>39944.7083333333</v>
+      </c>
+      <c r="D35" s="4">
+        <v>72</v>
+      </c>
+      <c r="E35" s="6" t="inlineStr">
+        <is>
+          <t>2009 Annual</t>
+        </is>
+      </c>
+      <c r="F35" s="4">
+        <v>1</v>
+      </c>
+      <c r="G35" s="4">
+        <v>1</v>
+      </c>
+      <c r="H35" s="4">
+        <v>0</v>
+      </c>
+      <c r="K35" s="5">
+        <v>39787</v>
+      </c>
+      <c r="L35" s="4">
+        <v>1</v>
+      </c>
+      <c r="M35" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="36">
+      <c r="A36" s="4">
+        <v>53</v>
+      </c>
+      <c r="B36" s="5">
+        <v>39591.7083333333</v>
+      </c>
+      <c r="C36" s="5">
+        <v>39591.7083333333</v>
+      </c>
+      <c r="D36" s="4">
+        <v>73</v>
+      </c>
+      <c r="E36" s="6" t="inlineStr">
+        <is>
+          <t>Primary Supplemental PRC/JUDGES</t>
+        </is>
+      </c>
+      <c r="F36" s="4">
+        <v>1</v>
+      </c>
+      <c r="G36" s="4">
+        <v>1</v>
+      </c>
+      <c r="H36" s="4">
+        <v>1</v>
+      </c>
+      <c r="K36" s="5">
+        <v>39581</v>
+      </c>
+      <c r="L36" s="4">
+        <v>1</v>
+      </c>
+      <c r="M36" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="37">
+      <c r="A37" s="4">
+        <v>54</v>
+      </c>
+      <c r="B37" s="5">
+        <v>39728.7083333333</v>
+      </c>
+      <c r="C37" s="5">
+        <v>39728.7083333333</v>
+      </c>
+      <c r="D37" s="4">
+        <v>74</v>
+      </c>
+      <c r="E37" s="6" t="inlineStr">
+        <is>
+          <t>General 1 Supplemental PRC/JUDGES</t>
+        </is>
+      </c>
+      <c r="F37" s="4">
+        <v>1</v>
+      </c>
+      <c r="G37" s="4">
+        <v>1</v>
+      </c>
+      <c r="H37" s="4">
+        <v>1</v>
+      </c>
+      <c r="K37" s="5">
+        <v>39633</v>
+      </c>
+      <c r="L37" s="4">
+        <v>1</v>
+      </c>
+      <c r="M37" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="38">
+      <c r="A38" s="4">
+        <v>55</v>
+      </c>
+      <c r="B38" s="5">
+        <v>39745.7083333333</v>
+      </c>
+      <c r="C38" s="5">
+        <v>39745.7083333333</v>
+      </c>
+      <c r="D38" s="4">
+        <v>75</v>
+      </c>
+      <c r="E38" s="6" t="inlineStr">
+        <is>
+          <t>General 2 Supplemental PRC/JUDGES</t>
+        </is>
+      </c>
+      <c r="F38" s="4">
+        <v>1</v>
+      </c>
+      <c r="G38" s="4">
+        <v>1</v>
+      </c>
+      <c r="H38" s="4">
+        <v>1</v>
+      </c>
+      <c r="K38" s="5">
+        <v>39735</v>
+      </c>
+      <c r="L38" s="4">
+        <v>1</v>
+      </c>
+      <c r="M38" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="39">
+      <c r="A39" s="4">
+        <v>56</v>
+      </c>
+      <c r="B39" s="5">
+        <v>38845.7083333333</v>
+      </c>
+      <c r="C39" s="5">
+        <v>38845.7083333333</v>
+      </c>
+      <c r="D39" s="4">
+        <v>79</v>
+      </c>
+      <c r="E39" s="6" t="inlineStr">
+        <is>
+          <t>2006 Annual</t>
+        </is>
+      </c>
+      <c r="F39" s="4">
+        <v>1</v>
+      </c>
+      <c r="G39" s="4">
+        <v>1</v>
+      </c>
+      <c r="H39" s="4">
+        <v>0</v>
+      </c>
+      <c r="K39" s="5">
+        <v>38482</v>
+      </c>
+      <c r="L39" s="4">
+        <v>1</v>
+      </c>
+      <c r="M39" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="40">
+      <c r="A40" s="4">
+        <v>57</v>
+      </c>
+      <c r="B40" s="5">
+        <v>39216.7083333333</v>
+      </c>
+      <c r="C40" s="5">
+        <v>39216.7083333333</v>
+      </c>
+      <c r="D40" s="4">
+        <v>80</v>
+      </c>
+      <c r="E40" s="6" t="inlineStr">
+        <is>
+          <t>2007 Annual</t>
+        </is>
+      </c>
+      <c r="F40" s="4">
+        <v>1</v>
+      </c>
+      <c r="G40" s="4">
+        <v>1</v>
+      </c>
+      <c r="H40" s="4">
+        <v>0</v>
+      </c>
+      <c r="K40" s="5">
+        <v>39059</v>
+      </c>
+      <c r="L40" s="4">
+        <v>1</v>
+      </c>
+      <c r="M40" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="41">
+      <c r="A41" s="4">
+        <v>58</v>
+      </c>
+      <c r="B41" s="5">
+        <v>39580.7083333333</v>
+      </c>
+      <c r="C41" s="5">
+        <v>39580.7083333333</v>
+      </c>
+      <c r="D41" s="4">
+        <v>81</v>
+      </c>
+      <c r="E41" s="6" t="inlineStr">
+        <is>
+          <t>2008 Annual</t>
+        </is>
+      </c>
+      <c r="F41" s="4">
+        <v>1</v>
+      </c>
+      <c r="G41" s="4">
+        <v>1</v>
+      </c>
+      <c r="H41" s="4">
+        <v>0</v>
+      </c>
+      <c r="K41" s="5">
+        <v>39581</v>
+      </c>
+      <c r="L41" s="4">
+        <v>1</v>
+      </c>
+      <c r="M41" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="42">
+      <c r="A42" s="4">
+        <v>59</v>
+      </c>
+      <c r="B42" s="5">
+        <v>39944.7083333333</v>
+      </c>
+      <c r="C42" s="5">
+        <v>39944.7083333333</v>
+      </c>
+      <c r="D42" s="4">
+        <v>82</v>
+      </c>
+      <c r="E42" s="6" t="inlineStr">
+        <is>
+          <t>2009 Annual</t>
+        </is>
+      </c>
+      <c r="F42" s="4">
+        <v>1</v>
+      </c>
+      <c r="G42" s="4">
+        <v>1</v>
+      </c>
+      <c r="H42" s="4">
+        <v>0</v>
+      </c>
+      <c r="K42" s="5">
+        <v>39787</v>
+      </c>
+      <c r="L42" s="4">
+        <v>1</v>
+      </c>
+      <c r="M42" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="43">
+      <c r="A43" s="4">
+        <v>60</v>
+      </c>
+      <c r="B43" s="5">
+        <v>40098</v>
+      </c>
+      <c r="C43" s="5">
+        <v>40090</v>
+      </c>
+      <c r="E43" s="6" t="inlineStr">
+        <is>
+          <t>2009 Second Bi-Annual</t>
+        </is>
+      </c>
+      <c r="F43" s="4">
+        <v>1</v>
+      </c>
+      <c r="G43" s="4">
+        <v>1</v>
+      </c>
+      <c r="H43" s="4">
+        <v>0</v>
+      </c>
+      <c r="K43" s="5">
+        <v>39945</v>
+      </c>
+      <c r="L43" s="4">
+        <v>1</v>
+      </c>
+      <c r="M43" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="44">
+      <c r="A44" s="4">
+        <v>62</v>
+      </c>
+      <c r="B44" s="5">
+        <v>40098</v>
+      </c>
+      <c r="C44" s="5">
+        <v>40090</v>
+      </c>
+      <c r="E44" s="6" t="inlineStr">
+        <is>
+          <t>2009 Second Bi-Annual</t>
+        </is>
+      </c>
+      <c r="F44" s="4">
+        <v>1</v>
+      </c>
+      <c r="G44" s="4">
+        <v>1</v>
+      </c>
+      <c r="H44" s="4">
+        <v>0</v>
+      </c>
+      <c r="K44" s="5">
+        <v>39945</v>
+      </c>
+      <c r="L44" s="4">
+        <v>1</v>
+      </c>
+      <c r="M44" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="45">
+      <c r="A45" s="4">
+        <v>63</v>
+      </c>
+      <c r="B45" s="5">
+        <v>40280</v>
+      </c>
+      <c r="C45" s="5">
+        <v>40273</v>
+      </c>
+      <c r="E45" s="6" t="inlineStr">
+        <is>
+          <t>First Primary Report 2010</t>
+        </is>
+      </c>
+      <c r="F45" s="4">
+        <v>1</v>
+      </c>
+      <c r="G45" s="4">
+        <v>1</v>
+      </c>
+      <c r="H45" s="4">
+        <v>0</v>
+      </c>
+      <c r="K45" s="5">
+        <v>40091</v>
+      </c>
+      <c r="L45" s="4">
+        <v>1</v>
+      </c>
+      <c r="M45" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="46">
+      <c r="A46" s="4">
+        <v>64</v>
+      </c>
+      <c r="B46" s="5">
+        <v>40308.9999884259</v>
+      </c>
+      <c r="C46" s="5">
+        <v>40301</v>
+      </c>
+      <c r="E46" s="6" t="inlineStr">
+        <is>
+          <t>Second Primary Report 2010</t>
+        </is>
+      </c>
+      <c r="F46" s="4">
+        <v>1</v>
+      </c>
+      <c r="G46" s="4">
+        <v>1</v>
+      </c>
+      <c r="H46" s="4">
+        <v>0</v>
+      </c>
+      <c r="K46" s="5">
+        <v>40274</v>
+      </c>
+      <c r="L46" s="4">
+        <v>1</v>
+      </c>
+      <c r="M46" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="47">
+      <c r="A47" s="4">
+        <v>65</v>
+      </c>
+      <c r="B47" s="5">
+        <v>40325.9993055556</v>
+      </c>
+      <c r="C47" s="5">
+        <v>40323.9993055556</v>
+      </c>
+      <c r="E47" s="6" t="inlineStr">
+        <is>
+          <t>Third Primary Report 2010</t>
+        </is>
+      </c>
+      <c r="F47" s="4">
+        <v>1</v>
+      </c>
+      <c r="G47" s="4">
+        <v>1</v>
+      </c>
+      <c r="H47" s="4">
+        <v>0</v>
+      </c>
+      <c r="K47" s="5">
+        <v>40302</v>
+      </c>
+      <c r="L47" s="4">
+        <v>1</v>
+      </c>
+      <c r="M47" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="48">
+      <c r="A48" s="4">
+        <v>67</v>
+      </c>
+      <c r="B48" s="5">
+        <v>40360.7083333333</v>
+      </c>
+      <c r="C48" s="5">
+        <v>40354.9993055556</v>
+      </c>
+      <c r="E48" s="6" t="inlineStr">
+        <is>
+          <t>Fourth Primary Report 2010</t>
+        </is>
+      </c>
+      <c r="F48" s="4">
+        <v>1</v>
+      </c>
+      <c r="G48" s="4">
+        <v>1</v>
+      </c>
+      <c r="H48" s="4">
+        <v>0</v>
+      </c>
+      <c r="K48" s="5">
+        <v>40324</v>
+      </c>
+      <c r="L48" s="4">
+        <v>1</v>
+      </c>
+      <c r="M48" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="49">
+      <c r="A49" s="4">
+        <v>68</v>
+      </c>
+      <c r="B49" s="5">
+        <v>40329.5</v>
+      </c>
+      <c r="C49" s="5">
+        <v>40329.5</v>
+      </c>
+      <c r="E49" s="6" t="inlineStr">
+        <is>
+          <t>Primary Supplemental Report 2010</t>
+        </is>
+      </c>
+      <c r="F49" s="4">
+        <v>0</v>
+      </c>
+      <c r="G49" s="4">
+        <v>2</v>
+      </c>
+      <c r="H49" s="4">
+        <v>1</v>
+      </c>
+      <c r="I49" s="5">
+        <v>40323.7083333333</v>
+      </c>
+      <c r="J49" s="4">
+        <v>67</v>
+      </c>
+      <c r="K49" s="5">
+        <v>40323</v>
+      </c>
+      <c r="L49" s="4">
+        <v>1</v>
+      </c>
+      <c r="M49" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="50">
+      <c r="A50" s="4">
+        <v>69</v>
+      </c>
+      <c r="B50" s="5">
+        <v>40434.7083333333</v>
+      </c>
+      <c r="C50" s="5">
+        <v>40427.7083333333</v>
+      </c>
+      <c r="E50" s="6" t="inlineStr">
+        <is>
+          <t>First General Report  2010</t>
+        </is>
+      </c>
+      <c r="F50" s="4">
+        <v>0</v>
+      </c>
+      <c r="G50" s="4">
+        <v>1</v>
+      </c>
+      <c r="H50" s="4">
+        <v>0</v>
+      </c>
+      <c r="K50" s="5">
+        <v>40355</v>
+      </c>
+      <c r="L50" s="4">
+        <v>1</v>
+      </c>
+      <c r="M50" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="51">
+      <c r="A51" s="4">
+        <v>70</v>
+      </c>
+      <c r="B51" s="5">
+        <v>40463.7083333333</v>
+      </c>
+      <c r="C51" s="5">
+        <v>40455.9993055556</v>
+      </c>
+      <c r="E51" s="6" t="inlineStr">
+        <is>
+          <t>Second General Report  2010</t>
+        </is>
+      </c>
+      <c r="F51" s="4">
+        <v>1</v>
+      </c>
+      <c r="G51" s="4">
+        <v>1</v>
+      </c>
+      <c r="H51" s="4">
+        <v>0</v>
+      </c>
+      <c r="K51" s="5">
+        <v>40428</v>
+      </c>
+      <c r="L51" s="4">
+        <v>1</v>
+      </c>
+      <c r="M51" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="52">
+      <c r="A52" s="4">
+        <v>71</v>
+      </c>
+      <c r="B52" s="5">
+        <v>40479.7083333333</v>
+      </c>
+      <c r="C52" s="5">
+        <v>40477.7083333333</v>
+      </c>
+      <c r="E52" s="6" t="inlineStr">
+        <is>
+          <t>Third General Report  2010</t>
+        </is>
+      </c>
+      <c r="F52" s="4">
+        <v>1</v>
+      </c>
+      <c r="G52" s="4">
+        <v>1</v>
+      </c>
+      <c r="H52" s="4">
+        <v>0</v>
+      </c>
+      <c r="K52" s="5">
+        <v>40456</v>
+      </c>
+      <c r="L52" s="4">
+        <v>1</v>
+      </c>
+      <c r="M52" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="53">
+      <c r="A53" s="4">
+        <v>72</v>
+      </c>
+      <c r="B53" s="5">
+        <v>40514.7083333333</v>
+      </c>
+      <c r="C53" s="5">
+        <v>40509.7083333333</v>
+      </c>
+      <c r="E53" s="6" t="inlineStr">
+        <is>
+          <t>Fourth General Report 2010 </t>
+        </is>
+      </c>
+      <c r="F53" s="4">
+        <v>1</v>
+      </c>
+      <c r="G53" s="4">
+        <v>1</v>
+      </c>
+      <c r="H53" s="4">
+        <v>0</v>
+      </c>
+      <c r="K53" s="5">
+        <v>40478</v>
+      </c>
+      <c r="L53" s="4">
+        <v>1</v>
+      </c>
+      <c r="M53" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="54">
+      <c r="A54" s="4">
+        <v>73</v>
+      </c>
+      <c r="B54" s="5">
+        <v>40483.5</v>
+      </c>
+      <c r="C54" s="5">
+        <v>40483.5</v>
+      </c>
+      <c r="E54" s="6" t="inlineStr">
+        <is>
+          <t>General Supplemental Report 2010</t>
+        </is>
+      </c>
+      <c r="F54" s="4">
+        <v>0</v>
+      </c>
+      <c r="G54" s="4">
+        <v>2</v>
+      </c>
+      <c r="H54" s="4">
+        <v>1</v>
+      </c>
+      <c r="I54" s="5">
+        <v>40477.7083333333</v>
+      </c>
+      <c r="J54" s="4">
+        <v>72</v>
+      </c>
+      <c r="K54" s="5">
+        <v>40477</v>
+      </c>
+      <c r="L54" s="4">
+        <v>1</v>
+      </c>
+      <c r="M54" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="55">
+      <c r="A55" s="4">
+        <v>75</v>
+      </c>
+      <c r="B55" s="5">
+        <v>40280.7083333333</v>
+      </c>
+      <c r="C55" s="5">
+        <v>40273.7083333333</v>
+      </c>
+      <c r="E55" s="6" t="inlineStr">
+        <is>
+          <t>2010 First biannual</t>
+        </is>
+      </c>
+      <c r="F55" s="4">
+        <v>0</v>
+      </c>
+      <c r="G55" s="4">
+        <v>3</v>
+      </c>
+      <c r="H55" s="4">
+        <v>0</v>
+      </c>
+      <c r="K55" s="5">
+        <v>40091</v>
+      </c>
+      <c r="L55" s="4">
+        <v>1</v>
+      </c>
+      <c r="M55" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="56">
+      <c r="A56" s="4">
+        <v>76</v>
+      </c>
+      <c r="B56" s="5">
+        <v>40463.7083333333</v>
+      </c>
+      <c r="C56" s="5">
+        <v>40455.9993055556</v>
+      </c>
+      <c r="E56" s="6" t="inlineStr">
+        <is>
+          <t>2010 Second Biannual</t>
+        </is>
+      </c>
+      <c r="F56" s="4">
+        <v>0</v>
+      </c>
+      <c r="G56" s="4">
+        <v>3</v>
+      </c>
+      <c r="H56" s="4">
+        <v>0</v>
+      </c>
+      <c r="K56" s="5">
+        <v>40274</v>
+      </c>
+      <c r="L56" s="4">
+        <v>1</v>
+      </c>
+      <c r="M56" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="57">
+      <c r="A57" s="4">
+        <v>77</v>
+      </c>
+      <c r="B57" s="5">
+        <v>40644.7083333333</v>
+      </c>
+      <c r="C57" s="5">
+        <v>40637.7083333333</v>
+      </c>
+      <c r="E57" s="6" t="inlineStr">
+        <is>
+          <t>2011 First Bi-Annual </t>
+        </is>
+      </c>
+      <c r="F57" s="4">
+        <v>1</v>
+      </c>
+      <c r="G57" s="4">
+        <v>3</v>
+      </c>
+      <c r="H57" s="4">
+        <v>0</v>
+      </c>
+      <c r="K57" s="5">
+        <v>40456</v>
+      </c>
+      <c r="L57" s="4">
+        <v>1</v>
+      </c>
+      <c r="M57" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="58">
+      <c r="A58" s="4">
+        <v>78</v>
+      </c>
+      <c r="B58" s="5">
+        <v>40827.7083333333</v>
+      </c>
+      <c r="C58" s="5">
+        <v>40819.7083333333</v>
+      </c>
+      <c r="E58" s="6" t="inlineStr">
+        <is>
+          <t>2011 Second Bi-Annual</t>
+        </is>
+      </c>
+      <c r="F58" s="4">
+        <v>1</v>
+      </c>
+      <c r="G58" s="4">
+        <v>3</v>
+      </c>
+      <c r="H58" s="4">
+        <v>0</v>
+      </c>
+      <c r="K58" s="5">
+        <v>40638</v>
+      </c>
+      <c r="L58" s="4">
+        <v>1</v>
+      </c>
+      <c r="M58" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="59">
+      <c r="A59" s="4">
+        <v>79</v>
+      </c>
+      <c r="B59" s="5">
+        <v>41008.7083333333</v>
+      </c>
+      <c r="C59" s="5">
+        <v>41001.9993055556</v>
+      </c>
+      <c r="E59" s="6" t="inlineStr">
+        <is>
+          <t>2012 First Biannual</t>
+        </is>
+      </c>
+      <c r="F59" s="4">
+        <v>1</v>
+      </c>
+      <c r="G59" s="4">
+        <v>3</v>
+      </c>
+      <c r="H59" s="4">
+        <v>0</v>
+      </c>
+      <c r="K59" s="5">
+        <v>40820</v>
+      </c>
+      <c r="L59" s="4">
+        <v>1</v>
+      </c>
+      <c r="M59" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="60">
+      <c r="A60" s="4">
+        <v>80</v>
+      </c>
+      <c r="B60" s="5">
+        <v>41008.7083333333</v>
+      </c>
+      <c r="C60" s="5">
+        <v>41001.9993055556</v>
+      </c>
+      <c r="E60" s="6" t="inlineStr">
+        <is>
+          <t>First Primary Report 2012 </t>
+        </is>
+      </c>
+      <c r="F60" s="4">
+        <v>1</v>
+      </c>
+      <c r="G60" s="4">
+        <v>1</v>
+      </c>
+      <c r="H60" s="4">
+        <v>0</v>
+      </c>
+      <c r="K60" s="5">
+        <v>40820</v>
+      </c>
+      <c r="L60" s="4">
+        <v>1</v>
+      </c>
+      <c r="M60" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="61">
+      <c r="A61" s="4">
+        <v>81</v>
+      </c>
+      <c r="B61" s="5">
+        <v>41043.7083333333</v>
+      </c>
+      <c r="C61" s="5">
+        <v>41036.5</v>
+      </c>
+      <c r="E61" s="6" t="inlineStr">
+        <is>
+          <t>Second Primary Report 2012</t>
+        </is>
+      </c>
+      <c r="F61" s="4">
+        <v>1</v>
+      </c>
+      <c r="G61" s="4">
+        <v>1</v>
+      </c>
+      <c r="H61" s="4">
+        <v>0</v>
+      </c>
+      <c r="K61" s="5">
+        <v>41002</v>
+      </c>
+      <c r="L61" s="4">
+        <v>1</v>
+      </c>
+      <c r="M61" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="62">
+      <c r="A62" s="4">
+        <v>82</v>
+      </c>
+      <c r="B62" s="5">
+        <v>41060.7083333333</v>
+      </c>
+      <c r="C62" s="5">
+        <v>41060.9993055556</v>
+      </c>
+      <c r="E62" s="6" t="inlineStr">
+        <is>
+          <t>Third Primary Report 2012</t>
+        </is>
+      </c>
+      <c r="F62" s="4">
+        <v>1</v>
+      </c>
+      <c r="G62" s="4">
+        <v>1</v>
+      </c>
+      <c r="H62" s="4">
+        <v>0</v>
+      </c>
+      <c r="K62" s="5">
+        <v>41037</v>
+      </c>
+      <c r="L62" s="4">
+        <v>1</v>
+      </c>
+      <c r="M62" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="63">
+      <c r="A63" s="4">
+        <v>83</v>
+      </c>
+      <c r="B63" s="5">
+        <v>41190.7083333333</v>
+      </c>
+      <c r="C63" s="5">
+        <v>41183.7083333333</v>
+      </c>
+      <c r="E63" s="6" t="inlineStr">
+        <is>
+          <t>2012 Second Biannual</t>
+        </is>
+      </c>
+      <c r="F63" s="4">
+        <v>1</v>
+      </c>
+      <c r="G63" s="4">
+        <v>3</v>
+      </c>
+      <c r="H63" s="4">
+        <v>0</v>
+      </c>
+      <c r="K63" s="5">
+        <v>41002</v>
+      </c>
+      <c r="L63" s="4">
+        <v>1</v>
+      </c>
+      <c r="M63" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="64">
+      <c r="A64" s="4">
+        <v>84</v>
+      </c>
+      <c r="B64" s="5">
+        <v>41055.5</v>
+      </c>
+      <c r="C64" s="5">
+        <v>41053.5</v>
+      </c>
+      <c r="E64" s="6" t="inlineStr">
+        <is>
+          <t>2012 Voter Action Act Primary Supplemental </t>
+        </is>
+      </c>
+      <c r="F64" s="4">
+        <v>1</v>
+      </c>
+      <c r="G64" s="4">
+        <v>1</v>
+      </c>
+      <c r="H64" s="4">
+        <v>0</v>
+      </c>
+      <c r="K64" s="5">
+        <v>41037</v>
+      </c>
+      <c r="L64" s="4">
+        <v>1</v>
+      </c>
+      <c r="M64" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="65">
+      <c r="A65" s="4">
+        <v>85</v>
+      </c>
+      <c r="B65" s="5">
+        <v>41064.5</v>
+      </c>
+      <c r="C65" s="5">
+        <v>41064.5</v>
+      </c>
+      <c r="E65" s="6" t="inlineStr">
+        <is>
+          <t>2012 Primary Supp. (Legis/Judical Candidates Only)</t>
+        </is>
+      </c>
+      <c r="F65" s="4">
+        <v>0</v>
+      </c>
+      <c r="G65" s="4">
+        <v>2</v>
+      </c>
+      <c r="H65" s="4">
+        <v>1</v>
+      </c>
+      <c r="I65" s="5">
+        <v>41061</v>
+      </c>
+      <c r="J65" s="4">
+        <v>86</v>
+      </c>
+      <c r="K65" s="5">
+        <v>41061</v>
+      </c>
+      <c r="L65" s="4">
+        <v>1</v>
+      </c>
+      <c r="M65" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="66">
+      <c r="A66" s="4">
+        <v>86</v>
+      </c>
+      <c r="B66" s="5">
+        <v>41095.7083333333</v>
+      </c>
+      <c r="C66" s="5">
+        <v>41090</v>
+      </c>
+      <c r="E66" s="6" t="inlineStr">
+        <is>
+          <t>Fourth Primary Report 2012</t>
+        </is>
+      </c>
+      <c r="F66" s="4">
+        <v>1</v>
+      </c>
+      <c r="G66" s="4">
+        <v>1</v>
+      </c>
+      <c r="H66" s="4">
+        <v>0</v>
+      </c>
+      <c r="K66" s="5">
+        <v>41059</v>
+      </c>
+      <c r="L66" s="4">
+        <v>1</v>
+      </c>
+      <c r="M66" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="67">
+      <c r="A67" s="4">
+        <v>87</v>
+      </c>
+      <c r="B67" s="5">
+        <v>41162.7083333333</v>
+      </c>
+      <c r="C67" s="5">
+        <v>41155</v>
+      </c>
+      <c r="E67" s="6" t="inlineStr">
+        <is>
+          <t>First General Report 2012</t>
+        </is>
+      </c>
+      <c r="F67" s="4">
+        <v>1</v>
+      </c>
+      <c r="G67" s="4">
+        <v>1</v>
+      </c>
+      <c r="H67" s="4">
+        <v>0</v>
+      </c>
+      <c r="K67" s="5">
+        <v>41091</v>
+      </c>
+      <c r="L67" s="4">
+        <v>1</v>
+      </c>
+      <c r="M67" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="68">
+      <c r="A68" s="4">
+        <v>88</v>
+      </c>
+      <c r="B68" s="5">
+        <v>41190.7083333333</v>
+      </c>
+      <c r="C68" s="5">
+        <v>41183.5</v>
+      </c>
+      <c r="E68" s="6" t="inlineStr">
+        <is>
+          <t>Second General Report 2012</t>
+        </is>
+      </c>
+      <c r="F68" s="4">
+        <v>1</v>
+      </c>
+      <c r="G68" s="4">
+        <v>1</v>
+      </c>
+      <c r="H68" s="4">
+        <v>0</v>
+      </c>
+      <c r="K68" s="5">
+        <v>41156</v>
+      </c>
+      <c r="L68" s="4">
+        <v>1</v>
+      </c>
+      <c r="M68" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="69">
+      <c r="A69" s="4">
+        <v>89</v>
+      </c>
+      <c r="B69" s="5">
+        <v>41214.7083333333</v>
+      </c>
+      <c r="C69" s="5">
+        <v>41214.7083333333</v>
+      </c>
+      <c r="E69" s="6" t="inlineStr">
+        <is>
+          <t>Third General Report 2012</t>
+        </is>
+      </c>
+      <c r="F69" s="4">
+        <v>1</v>
+      </c>
+      <c r="G69" s="4">
+        <v>1</v>
+      </c>
+      <c r="H69" s="4">
+        <v>0</v>
+      </c>
+      <c r="K69" s="5">
+        <v>41184</v>
+      </c>
+      <c r="L69" s="4">
+        <v>1</v>
+      </c>
+      <c r="M69" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="70">
+      <c r="A70" s="4">
+        <v>90</v>
+      </c>
+      <c r="B70" s="5">
+        <v>41372.7083333333</v>
+      </c>
+      <c r="C70" s="5">
+        <v>41365.9993055556</v>
+      </c>
+      <c r="E70" s="6" t="inlineStr">
+        <is>
+          <t>2013 First Biannual</t>
+        </is>
+      </c>
+      <c r="F70" s="4">
+        <v>1</v>
+      </c>
+      <c r="G70" s="4">
+        <v>3</v>
+      </c>
+      <c r="H70" s="4">
+        <v>0</v>
+      </c>
+      <c r="K70" s="5">
+        <v>41184</v>
+      </c>
+      <c r="L70" s="4">
+        <v>1</v>
+      </c>
+      <c r="M70" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="71">
+      <c r="A71" s="4">
+        <v>91</v>
+      </c>
+      <c r="B71" s="5">
+        <v>41249.7083333333</v>
+      </c>
+      <c r="C71" s="5">
+        <v>41244.9993055556</v>
+      </c>
+      <c r="E71" s="6" t="inlineStr">
+        <is>
+          <t>Fourth General Report 2012</t>
+        </is>
+      </c>
+      <c r="F71" s="4">
+        <v>1</v>
+      </c>
+      <c r="G71" s="4">
+        <v>1</v>
+      </c>
+      <c r="H71" s="4">
+        <v>0</v>
+      </c>
+      <c r="K71" s="5">
+        <v>41213</v>
+      </c>
+      <c r="L71" s="4">
+        <v>1</v>
+      </c>
+      <c r="M71" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="72">
+      <c r="A72" s="4">
+        <v>92</v>
+      </c>
+      <c r="B72" s="5">
+        <v>41218.5</v>
+      </c>
+      <c r="C72" s="5">
+        <v>41218.5</v>
+      </c>
+      <c r="E72" s="6" t="inlineStr">
+        <is>
+          <t>2012 General Supp. (Legis/Judical Candidates Only)</t>
+        </is>
+      </c>
+      <c r="F72" s="4">
+        <v>0</v>
+      </c>
+      <c r="G72" s="4">
+        <v>2</v>
+      </c>
+      <c r="H72" s="4">
+        <v>1</v>
+      </c>
+      <c r="I72" s="5">
+        <v>41214.7090277778</v>
+      </c>
+      <c r="J72" s="4">
+        <v>91</v>
+      </c>
+      <c r="K72" s="5">
+        <v>41214.7090277778</v>
+      </c>
+      <c r="L72" s="4">
+        <v>1</v>
+      </c>
+      <c r="M72" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="73">
+      <c r="A73" s="4">
+        <v>93</v>
+      </c>
+      <c r="B73" s="5">
+        <v>41561.7083333333</v>
+      </c>
+      <c r="C73" s="5">
+        <v>41554.9993055556</v>
+      </c>
+      <c r="E73" s="6" t="inlineStr">
+        <is>
+          <t>2013 Second Biannual</t>
+        </is>
+      </c>
+      <c r="F73" s="4">
+        <v>1</v>
+      </c>
+      <c r="G73" s="4">
+        <v>3</v>
+      </c>
+      <c r="H73" s="4">
+        <v>0</v>
+      </c>
+      <c r="K73" s="5">
+        <v>41366</v>
+      </c>
+      <c r="L73" s="4">
+        <v>1</v>
+      </c>
+      <c r="M73" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="74">
+      <c r="A74" s="4">
+        <v>94</v>
+      </c>
+      <c r="B74" s="5">
+        <v>41743.7083333333</v>
+      </c>
+      <c r="C74" s="5">
+        <v>41736.9993055556</v>
+      </c>
+      <c r="E74" s="6" t="inlineStr">
+        <is>
+          <t>2014 First Biannual </t>
+        </is>
+      </c>
+      <c r="F74" s="4">
+        <v>1</v>
+      </c>
+      <c r="G74" s="4">
+        <v>3</v>
+      </c>
+      <c r="H74" s="4">
+        <v>0</v>
+      </c>
+      <c r="K74" s="5">
+        <v>41555</v>
+      </c>
+      <c r="L74" s="4">
+        <v>1</v>
+      </c>
+      <c r="M74" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="75">
+      <c r="A75" s="4">
+        <v>95</v>
+      </c>
+      <c r="B75" s="5">
+        <v>41743.7083333333</v>
+      </c>
+      <c r="C75" s="5">
+        <v>41736.9993055556</v>
+      </c>
+      <c r="E75" s="6" t="inlineStr">
+        <is>
+          <t>2014 First Primary</t>
+        </is>
+      </c>
+      <c r="F75" s="4">
+        <v>1</v>
+      </c>
+      <c r="G75" s="4">
+        <v>1</v>
+      </c>
+      <c r="H75" s="4">
+        <v>0</v>
+      </c>
+      <c r="K75" s="5">
+        <v>41555</v>
+      </c>
+      <c r="L75" s="4">
+        <v>1</v>
+      </c>
+      <c r="M75" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="76">
+      <c r="A76" s="4">
+        <v>96</v>
+      </c>
+      <c r="B76" s="5">
+        <v>41771.7083333333</v>
+      </c>
+      <c r="C76" s="5">
+        <v>41764.9993055556</v>
+      </c>
+      <c r="E76" s="6" t="inlineStr">
+        <is>
+          <t>2014 Second Primary</t>
+        </is>
+      </c>
+      <c r="F76" s="4">
+        <v>1</v>
+      </c>
+      <c r="G76" s="4">
+        <v>1</v>
+      </c>
+      <c r="H76" s="4">
+        <v>0</v>
+      </c>
+      <c r="K76" s="5">
+        <v>41737</v>
+      </c>
+      <c r="L76" s="4">
+        <v>1</v>
+      </c>
+      <c r="M76" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="77">
+      <c r="A77" s="4">
+        <v>97</v>
+      </c>
+      <c r="B77" s="5">
+        <v>41925.7083333333</v>
+      </c>
+      <c r="C77" s="5">
+        <v>41918.9993055556</v>
+      </c>
+      <c r="E77" s="6" t="inlineStr">
+        <is>
+          <t>2014 Second Biannual</t>
+        </is>
+      </c>
+      <c r="F77" s="4">
+        <v>1</v>
+      </c>
+      <c r="G77" s="4">
+        <v>3</v>
+      </c>
+      <c r="H77" s="4">
+        <v>0</v>
+      </c>
+      <c r="K77" s="5">
+        <v>41737</v>
+      </c>
+      <c r="L77" s="4">
+        <v>1</v>
+      </c>
+      <c r="M77" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="78">
+      <c r="A78" s="4">
+        <v>98</v>
+      </c>
+      <c r="B78" s="5">
+        <v>41788.7083333333</v>
+      </c>
+      <c r="C78" s="5">
+        <v>41786.9993055556</v>
+      </c>
+      <c r="E78" s="6" t="inlineStr">
+        <is>
+          <t>2014 Third Primary</t>
+        </is>
+      </c>
+      <c r="F78" s="4">
+        <v>1</v>
+      </c>
+      <c r="G78" s="4">
+        <v>1</v>
+      </c>
+      <c r="H78" s="4">
+        <v>0</v>
+      </c>
+      <c r="K78" s="5">
+        <v>41765</v>
+      </c>
+      <c r="L78" s="4">
+        <v>1</v>
+      </c>
+      <c r="M78" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="79">
+      <c r="A79" s="4">
+        <v>99</v>
+      </c>
+      <c r="B79" s="5">
+        <v>41792.5</v>
+      </c>
+      <c r="C79" s="5">
+        <v>41792.5</v>
+      </c>
+      <c r="E79" s="6" t="inlineStr">
+        <is>
+          <t>2014 Primary Supplemental</t>
+        </is>
+      </c>
+      <c r="F79" s="4">
+        <v>0</v>
+      </c>
+      <c r="G79" s="4">
+        <v>2</v>
+      </c>
+      <c r="H79" s="4">
+        <v>1</v>
+      </c>
+      <c r="I79" s="5">
+        <v>41786.7090277778</v>
+      </c>
+      <c r="J79" s="4">
+        <v>100</v>
+      </c>
+      <c r="K79" s="5">
+        <v>41786.7090277778</v>
+      </c>
+      <c r="L79" s="4">
+        <v>1</v>
+      </c>
+      <c r="M79" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="80">
+      <c r="A80" s="4">
+        <v>100</v>
+      </c>
+      <c r="B80" s="5">
+        <v>41823.7083333333</v>
+      </c>
+      <c r="C80" s="5">
+        <v>41818.9993055556</v>
+      </c>
+      <c r="E80" s="6" t="inlineStr">
+        <is>
+          <t>2014 Fourth Primary</t>
+        </is>
+      </c>
+      <c r="F80" s="4">
+        <v>1</v>
+      </c>
+      <c r="G80" s="4">
+        <v>1</v>
+      </c>
+      <c r="H80" s="4">
+        <v>0</v>
+      </c>
+      <c r="K80" s="5">
+        <v>41787</v>
+      </c>
+      <c r="L80" s="4">
+        <v>1</v>
+      </c>
+      <c r="M80" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="81">
+      <c r="A81" s="4">
+        <v>101</v>
+      </c>
+      <c r="B81" s="5">
+        <v>41890.7083333333</v>
+      </c>
+      <c r="C81" s="5">
+        <v>41883.9993055556</v>
+      </c>
+      <c r="E81" s="6" t="inlineStr">
+        <is>
+          <t>2014 First General </t>
+        </is>
+      </c>
+      <c r="F81" s="4">
+        <v>1</v>
+      </c>
+      <c r="G81" s="4">
+        <v>1</v>
+      </c>
+      <c r="H81" s="4">
+        <v>0</v>
+      </c>
+      <c r="K81" s="5">
+        <v>41819</v>
+      </c>
+      <c r="L81" s="4">
+        <v>1</v>
+      </c>
+      <c r="M81" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="82">
+      <c r="A82" s="4">
+        <v>102</v>
+      </c>
+      <c r="B82" s="5">
+        <v>41925.7083333333</v>
+      </c>
+      <c r="C82" s="5">
+        <v>41918.9993055556</v>
+      </c>
+      <c r="E82" s="6" t="inlineStr">
+        <is>
+          <t>2014 Second General </t>
+        </is>
+      </c>
+      <c r="F82" s="4">
+        <v>1</v>
+      </c>
+      <c r="G82" s="4">
+        <v>1</v>
+      </c>
+      <c r="H82" s="4">
+        <v>0</v>
+      </c>
+      <c r="K82" s="5">
+        <v>41884</v>
+      </c>
+      <c r="L82" s="4">
+        <v>1</v>
+      </c>
+      <c r="M82" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="83">
+      <c r="A83" s="4">
+        <v>103</v>
+      </c>
+      <c r="B83" s="5">
+        <v>41942.7083333333</v>
+      </c>
+      <c r="C83" s="5">
+        <v>41942.7083333333</v>
+      </c>
+      <c r="E83" s="6" t="inlineStr">
+        <is>
+          <t>2014 Third General</t>
+        </is>
+      </c>
+      <c r="F83" s="4">
+        <v>1</v>
+      </c>
+      <c r="G83" s="4">
+        <v>1</v>
+      </c>
+      <c r="H83" s="4">
+        <v>0</v>
+      </c>
+      <c r="K83" s="5">
+        <v>41919</v>
+      </c>
+      <c r="L83" s="4">
+        <v>1</v>
+      </c>
+      <c r="M83" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="84">
+      <c r="A84" s="4">
+        <v>104</v>
+      </c>
+      <c r="B84" s="5">
+        <v>41977.7083333333</v>
+      </c>
+      <c r="C84" s="5">
+        <v>41972.9993055556</v>
+      </c>
+      <c r="E84" s="6" t="inlineStr">
+        <is>
+          <t>2014 Fourth General</t>
+        </is>
+      </c>
+      <c r="F84" s="4">
+        <v>1</v>
+      </c>
+      <c r="G84" s="4">
+        <v>1</v>
+      </c>
+      <c r="H84" s="4">
+        <v>0</v>
+      </c>
+      <c r="K84" s="5">
+        <v>41941</v>
+      </c>
+      <c r="L84" s="4">
+        <v>1</v>
+      </c>
+      <c r="M84" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="85">
+      <c r="A85" s="4">
+        <v>105</v>
+      </c>
+      <c r="B85" s="5">
+        <v>41946.5</v>
+      </c>
+      <c r="C85" s="5">
+        <v>41946.5</v>
+      </c>
+      <c r="E85" s="6" t="inlineStr">
+        <is>
+          <t>2014 General Supplemental</t>
+        </is>
+      </c>
+      <c r="F85" s="4">
+        <v>0</v>
+      </c>
+      <c r="G85" s="4">
+        <v>2</v>
+      </c>
+      <c r="H85" s="4">
+        <v>0</v>
+      </c>
+      <c r="I85" s="5">
+        <v>41940.7090277778</v>
+      </c>
+      <c r="J85" s="4">
+        <v>104</v>
+      </c>
+      <c r="K85" s="5">
+        <v>41940.7090277778</v>
+      </c>
+      <c r="L85" s="4">
+        <v>1</v>
+      </c>
+      <c r="M85" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="86">
+      <c r="A86" s="4">
+        <v>106</v>
+      </c>
+      <c r="B86" s="5">
+        <v>42107.7083333333</v>
+      </c>
+      <c r="C86" s="5">
+        <v>42100.9993055556</v>
+      </c>
+      <c r="E86" s="6" t="inlineStr">
+        <is>
+          <t>2015 First Biannual</t>
+        </is>
+      </c>
+      <c r="F86" s="4">
+        <v>1</v>
+      </c>
+      <c r="G86" s="4">
+        <v>3</v>
+      </c>
+      <c r="H86" s="4">
+        <v>0</v>
+      </c>
+      <c r="K86" s="5">
+        <v>41919</v>
+      </c>
+      <c r="L86" s="4">
+        <v>1</v>
+      </c>
+      <c r="M86" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="87">
+      <c r="A87" s="4">
+        <v>107</v>
+      </c>
+      <c r="B87" s="5">
+        <v>42107.9993055556</v>
+      </c>
+      <c r="C87" s="5">
+        <v>42066.9993055556</v>
+      </c>
+      <c r="E87" s="6" t="inlineStr">
+        <is>
+          <t>2015 School District Report </t>
+        </is>
+      </c>
+      <c r="F87" s="4">
+        <v>1</v>
+      </c>
+      <c r="G87" s="4">
+        <v>4</v>
+      </c>
+      <c r="H87" s="4">
+        <v>0</v>
+      </c>
+      <c r="K87" s="5">
+        <v>41334</v>
+      </c>
+      <c r="L87" s="4">
+        <v>1</v>
+      </c>
+      <c r="M87" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="88">
+      <c r="A88" s="4">
+        <v>108</v>
+      </c>
+      <c r="B88" s="5">
+        <v>42290.9993055556</v>
+      </c>
+      <c r="C88" s="5">
+        <v>42282.9993055556</v>
+      </c>
+      <c r="E88" s="6" t="inlineStr">
+        <is>
+          <t>2015 Second Biannual</t>
+        </is>
+      </c>
+      <c r="F88" s="4">
+        <v>1</v>
+      </c>
+      <c r="G88" s="4">
+        <v>3</v>
+      </c>
+      <c r="H88" s="4">
+        <v>0</v>
+      </c>
+      <c r="K88" s="5">
+        <v>42101</v>
+      </c>
+      <c r="L88" s="4">
+        <v>1</v>
+      </c>
+      <c r="M88" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="89">
+      <c r="A89" s="4">
+        <v>109</v>
+      </c>
+      <c r="B89" s="5">
+        <v>42471.9993055556</v>
+      </c>
+      <c r="C89" s="5">
+        <v>42464.9993055556</v>
+      </c>
+      <c r="E89" s="6" t="inlineStr">
+        <is>
+          <t>2016 First Biannual </t>
+        </is>
+      </c>
+      <c r="F89" s="4">
+        <v>1</v>
+      </c>
+      <c r="G89" s="4">
+        <v>3</v>
+      </c>
+      <c r="H89" s="4">
+        <v>0</v>
+      </c>
+      <c r="K89" s="5">
+        <v>42283</v>
+      </c>
+      <c r="L89" s="4">
+        <v>1</v>
+      </c>
+      <c r="M89" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="90">
+      <c r="A90" s="4">
+        <v>110</v>
+      </c>
+      <c r="B90" s="5">
+        <v>42471.9993055556</v>
+      </c>
+      <c r="C90" s="5">
+        <v>42464.9993055556</v>
+      </c>
+      <c r="E90" s="6" t="inlineStr">
+        <is>
+          <t>2016 First Primary</t>
+        </is>
+      </c>
+      <c r="F90" s="4">
+        <v>1</v>
+      </c>
+      <c r="G90" s="4">
+        <v>1</v>
+      </c>
+      <c r="H90" s="4">
+        <v>0</v>
+      </c>
+      <c r="K90" s="5">
+        <v>42283</v>
+      </c>
+      <c r="L90" s="4">
+        <v>1</v>
+      </c>
+      <c r="M90" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="91">
+      <c r="A91" s="4">
+        <v>111</v>
+      </c>
+      <c r="B91" s="5">
+        <v>42471</v>
+      </c>
+      <c r="C91" s="5">
+        <v>42471.9993055556</v>
+      </c>
+      <c r="E91" s="6" t="inlineStr">
+        <is>
+          <t>2016 School District Report</t>
+        </is>
+      </c>
+      <c r="F91" s="4">
+        <v>1</v>
+      </c>
+      <c r="G91" s="4">
+        <v>4</v>
+      </c>
+      <c r="H91" s="4">
+        <v>0</v>
+      </c>
+      <c r="K91" s="5">
+        <v>42067</v>
+      </c>
+      <c r="L91" s="4">
+        <v>1</v>
+      </c>
+      <c r="M91" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="92">
+      <c r="A92" s="4">
+        <v>112</v>
+      </c>
+      <c r="B92" s="5">
+        <v>42499.9993055556</v>
+      </c>
+      <c r="C92" s="5">
+        <v>42492.9993055556</v>
+      </c>
+      <c r="E92" s="6" t="inlineStr">
+        <is>
+          <t>2016 Second Primary</t>
+        </is>
+      </c>
+      <c r="F92" s="4">
+        <v>1</v>
+      </c>
+      <c r="G92" s="4">
+        <v>1</v>
+      </c>
+      <c r="H92" s="4">
+        <v>0</v>
+      </c>
+      <c r="K92" s="5">
+        <v>42465</v>
+      </c>
+      <c r="L92" s="4">
+        <v>1</v>
+      </c>
+      <c r="M92" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="93">
+      <c r="A93" s="4">
+        <v>113</v>
+      </c>
+      <c r="B93" s="5">
+        <v>42654.9993055556</v>
+      </c>
+      <c r="C93" s="5">
+        <v>42646.9993055556</v>
+      </c>
+      <c r="E93" s="6" t="inlineStr">
+        <is>
+          <t>2016 Second Biannual </t>
+        </is>
+      </c>
+      <c r="F93" s="4">
+        <v>1</v>
+      </c>
+      <c r="G93" s="4">
+        <v>3</v>
+      </c>
+      <c r="H93" s="4">
+        <v>0</v>
+      </c>
+      <c r="K93" s="5">
+        <v>42465</v>
+      </c>
+      <c r="L93" s="4">
+        <v>1</v>
+      </c>
+      <c r="M93" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="94">
+      <c r="A94" s="4">
+        <v>114</v>
+      </c>
+      <c r="B94" s="5">
+        <v>42523.9993055556</v>
+      </c>
+      <c r="C94" s="5">
+        <v>42523.9993055556</v>
+      </c>
+      <c r="E94" s="6" t="inlineStr">
+        <is>
+          <t>2016 Third Primary</t>
+        </is>
+      </c>
+      <c r="F94" s="4">
+        <v>1</v>
+      </c>
+      <c r="G94" s="4">
+        <v>1</v>
+      </c>
+      <c r="H94" s="4">
+        <v>0</v>
+      </c>
+      <c r="K94" s="5">
+        <v>42493</v>
+      </c>
+      <c r="L94" s="4">
+        <v>1</v>
+      </c>
+      <c r="M94" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="95">
+      <c r="A95" s="4">
+        <v>115</v>
+      </c>
+      <c r="B95" s="5">
+        <v>42558.9993055556</v>
+      </c>
+      <c r="C95" s="5">
+        <v>42553.5409722222</v>
+      </c>
+      <c r="E95" s="6" t="inlineStr">
+        <is>
+          <t>2016 Fourth Primary</t>
+        </is>
+      </c>
+      <c r="F95" s="4">
+        <v>1</v>
+      </c>
+      <c r="G95" s="4">
+        <v>1</v>
+      </c>
+      <c r="H95" s="4">
+        <v>0</v>
+      </c>
+      <c r="K95" s="5">
+        <v>42522</v>
+      </c>
+      <c r="L95" s="4">
+        <v>1</v>
+      </c>
+      <c r="M95" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="96">
+      <c r="A96" s="4">
+        <v>116</v>
+      </c>
+      <c r="B96" s="5">
+        <v>42527.5</v>
+      </c>
+      <c r="C96" s="5">
+        <v>42527.5</v>
+      </c>
+      <c r="E96" s="6" t="inlineStr">
+        <is>
+          <t>2016 Primary Supplemental</t>
+        </is>
+      </c>
+      <c r="F96" s="4">
+        <v>0</v>
+      </c>
+      <c r="G96" s="4">
+        <v>2</v>
+      </c>
+      <c r="H96" s="4">
+        <v>0</v>
+      </c>
+      <c r="I96" s="5">
+        <v>42521</v>
+      </c>
+      <c r="J96" s="4">
+        <v>115</v>
+      </c>
+      <c r="K96" s="5">
+        <v>42521</v>
+      </c>
+      <c r="L96" s="4">
+        <v>1</v>
+      </c>
+      <c r="M96" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="97">
+      <c r="A97" s="4">
+        <v>117</v>
+      </c>
+      <c r="B97" s="5">
+        <v>42625.9993055556</v>
+      </c>
+      <c r="C97" s="5">
+        <v>42618</v>
+      </c>
+      <c r="E97" s="6" t="inlineStr">
+        <is>
+          <t>2016 First General </t>
+        </is>
+      </c>
+      <c r="F97" s="4">
+        <v>1</v>
+      </c>
+      <c r="G97" s="4">
+        <v>1</v>
+      </c>
+      <c r="H97" s="4">
+        <v>0</v>
+      </c>
+      <c r="K97" s="5">
+        <v>42554</v>
+      </c>
+      <c r="L97" s="4">
+        <v>1</v>
+      </c>
+      <c r="M97" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="98">
+      <c r="A98" s="4">
+        <v>118</v>
+      </c>
+      <c r="B98" s="5">
+        <v>42654.9993055556</v>
+      </c>
+      <c r="C98" s="5">
+        <v>42646.9993055556</v>
+      </c>
+      <c r="E98" s="6" t="inlineStr">
+        <is>
+          <t>2016 Second General</t>
+        </is>
+      </c>
+      <c r="F98" s="4">
+        <v>1</v>
+      </c>
+      <c r="G98" s="4">
+        <v>1</v>
+      </c>
+      <c r="H98" s="4">
+        <v>0</v>
+      </c>
+      <c r="K98" s="5">
+        <v>42619</v>
+      </c>
+      <c r="L98" s="4">
+        <v>1</v>
+      </c>
+      <c r="M98" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="99">
+      <c r="A99" s="4">
+        <v>119</v>
+      </c>
+      <c r="B99" s="5">
+        <v>42677.9993055556</v>
+      </c>
+      <c r="C99" s="5">
+        <v>42677.9993055556</v>
+      </c>
+      <c r="E99" s="6" t="inlineStr">
+        <is>
+          <t>2016 Third General</t>
+        </is>
+      </c>
+      <c r="F99" s="4">
+        <v>1</v>
+      </c>
+      <c r="G99" s="4">
+        <v>1</v>
+      </c>
+      <c r="H99" s="4">
+        <v>0</v>
+      </c>
+      <c r="K99" s="5">
+        <v>42647</v>
+      </c>
+      <c r="L99" s="4">
+        <v>1</v>
+      </c>
+      <c r="M99" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="100">
+      <c r="A100" s="4">
+        <v>120</v>
+      </c>
+      <c r="B100" s="5">
+        <v>42681.5</v>
+      </c>
+      <c r="C100" s="5">
+        <v>42681.5</v>
+      </c>
+      <c r="E100" s="6" t="inlineStr">
+        <is>
+          <t>2016 General Supplemental </t>
+        </is>
+      </c>
+      <c r="F100" s="4">
+        <v>0</v>
+      </c>
+      <c r="G100" s="4">
+        <v>2</v>
+      </c>
+      <c r="H100" s="4">
+        <v>0</v>
+      </c>
+      <c r="I100" s="5">
+        <v>42675</v>
+      </c>
+      <c r="J100" s="4">
+        <v>121</v>
+      </c>
+      <c r="K100" s="5">
+        <v>42675</v>
+      </c>
+      <c r="L100" s="4">
+        <v>1</v>
+      </c>
+      <c r="M100" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="101">
+      <c r="A101" s="4">
+        <v>121</v>
+      </c>
+      <c r="B101" s="5">
+        <v>42712.9993055556</v>
+      </c>
+      <c r="C101" s="5">
+        <v>42707.9993055556</v>
+      </c>
+      <c r="E101" s="6" t="inlineStr">
+        <is>
+          <t>2016 Fourth General </t>
+        </is>
+      </c>
+      <c r="F101" s="4">
+        <v>1</v>
+      </c>
+      <c r="G101" s="4">
+        <v>1</v>
+      </c>
+      <c r="H101" s="4">
+        <v>0</v>
+      </c>
+      <c r="K101" s="5">
+        <v>42676</v>
+      </c>
+      <c r="L101" s="4">
+        <v>1</v>
+      </c>
+      <c r="M101" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="102">
+      <c r="A102" s="4">
+        <v>122</v>
+      </c>
+      <c r="B102" s="5">
+        <v>42835.9993055556</v>
+      </c>
+      <c r="C102" s="5">
+        <v>42773.9993055556</v>
+      </c>
+      <c r="E102" s="6" t="inlineStr">
+        <is>
+          <t>2017 School District Report</t>
+        </is>
+      </c>
+      <c r="F102" s="4">
+        <v>1</v>
+      </c>
+      <c r="G102" s="4">
+        <v>4</v>
+      </c>
+      <c r="H102" s="4">
+        <v>0</v>
+      </c>
+      <c r="K102" s="5">
+        <v>42068</v>
+      </c>
+      <c r="L102" s="4">
+        <v>1</v>
+      </c>
+      <c r="M102" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="103">
+      <c r="A103" s="4">
+        <v>123</v>
+      </c>
+      <c r="B103" s="5">
+        <v>42835.9993055556</v>
+      </c>
+      <c r="C103" s="5">
+        <v>42828.9993055556</v>
+      </c>
+      <c r="E103" s="6" t="inlineStr">
+        <is>
+          <t>2017 First Biannual</t>
+        </is>
+      </c>
+      <c r="F103" s="4">
+        <v>1</v>
+      </c>
+      <c r="G103" s="4">
+        <v>3</v>
+      </c>
+      <c r="H103" s="4">
+        <v>0</v>
+      </c>
+      <c r="K103" s="5">
+        <v>42647</v>
+      </c>
+      <c r="L103" s="4">
+        <v>1</v>
+      </c>
+      <c r="M103" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="104">
+      <c r="A104" s="4">
+        <v>124</v>
+      </c>
+      <c r="B104" s="5">
+        <v>43017.9993055556</v>
+      </c>
+      <c r="C104" s="5">
+        <v>43010.9993055556</v>
+      </c>
+      <c r="E104" s="6" t="inlineStr">
+        <is>
+          <t>2017 Second Biannual</t>
+        </is>
+      </c>
+      <c r="F104" s="4">
+        <v>1</v>
+      </c>
+      <c r="G104" s="4">
+        <v>3</v>
+      </c>
+      <c r="H104" s="4">
+        <v>0</v>
+      </c>
+      <c r="K104" s="5">
+        <v>42829</v>
+      </c>
+      <c r="L104" s="4">
+        <v>1</v>
+      </c>
+      <c r="M104" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="105">
+      <c r="A105" s="4">
+        <v>125</v>
+      </c>
+      <c r="B105" s="5">
+        <v>43199.9993055556</v>
+      </c>
+      <c r="C105" s="5">
+        <v>43192.9993055556</v>
+      </c>
+      <c r="E105" s="6" t="inlineStr">
+        <is>
+          <t>2018 First Primary Report</t>
+        </is>
+      </c>
+      <c r="F105" s="4">
+        <v>1</v>
+      </c>
+      <c r="G105" s="4">
+        <v>1</v>
+      </c>
+      <c r="H105" s="4">
+        <v>0</v>
+      </c>
+      <c r="K105" s="5">
+        <v>43011.9993055556</v>
+      </c>
+      <c r="L105" s="4">
+        <v>1</v>
+      </c>
+      <c r="M105" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="106">
+      <c r="A106" s="4">
+        <v>126</v>
+      </c>
+      <c r="B106" s="5">
+        <v>43199.9993055556</v>
+      </c>
+      <c r="C106" s="5">
+        <v>43192.9993055556</v>
+      </c>
+      <c r="E106" s="6" t="inlineStr">
+        <is>
+          <t>2018 First Biannual</t>
+        </is>
+      </c>
+      <c r="F106" s="4">
+        <v>1</v>
+      </c>
+      <c r="G106" s="4">
+        <v>3</v>
+      </c>
+      <c r="H106" s="4">
+        <v>0</v>
+      </c>
+      <c r="K106" s="5">
+        <v>43011.9993055556</v>
+      </c>
+      <c r="L106" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="107">
+      <c r="A107" s="4">
+        <v>127</v>
+      </c>
+      <c r="B107" s="5">
+        <v>43199.9993055556</v>
+      </c>
+      <c r="C107" s="5">
+        <v>43199.9993055556</v>
+      </c>
+      <c r="E107" s="6" t="inlineStr">
+        <is>
+          <t>2018 School District Report</t>
+        </is>
+      </c>
+      <c r="F107" s="4">
+        <v>1</v>
+      </c>
+      <c r="G107" s="4">
+        <v>4</v>
+      </c>
+      <c r="H107" s="4">
+        <v>0</v>
+      </c>
+      <c r="K107" s="5">
+        <v>42774</v>
+      </c>
+      <c r="L107" s="4">
+        <v>1</v>
+      </c>
+      <c r="M107" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="108">
+      <c r="A108" s="4">
+        <v>128</v>
+      </c>
+      <c r="B108" s="5">
+        <v>43234.9993055556</v>
+      </c>
+      <c r="C108" s="5">
+        <v>43227.9993055556</v>
+      </c>
+      <c r="E108" s="6" t="inlineStr">
+        <is>
+          <t>2018 Second Primary</t>
+        </is>
+      </c>
+      <c r="F108" s="4">
+        <v>1</v>
+      </c>
+      <c r="G108" s="4">
+        <v>1</v>
+      </c>
+      <c r="H108" s="4">
+        <v>0</v>
+      </c>
+      <c r="K108" s="5">
+        <v>43193</v>
+      </c>
+      <c r="L108" s="4">
+        <v>1</v>
+      </c>
+      <c r="M108" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="109">
+      <c r="A109" s="4">
+        <v>129</v>
+      </c>
+      <c r="B109" s="5">
+        <v>43381.9993055556</v>
+      </c>
+      <c r="C109" s="5">
+        <v>43374.9993055556</v>
+      </c>
+      <c r="E109" s="6" t="inlineStr">
+        <is>
+          <t>2018 Second Biannual</t>
+        </is>
+      </c>
+      <c r="F109" s="4">
+        <v>1</v>
+      </c>
+      <c r="G109" s="4">
+        <v>3</v>
+      </c>
+      <c r="H109" s="4">
+        <v>0</v>
+      </c>
+      <c r="K109" s="5">
+        <v>43193</v>
+      </c>
+      <c r="L109" s="4">
+        <v>1</v>
+      </c>
+      <c r="M109" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="110">
+      <c r="A110" s="4">
+        <v>130</v>
+      </c>
+      <c r="B110" s="5">
+        <v>43251.9993055556</v>
+      </c>
+      <c r="C110" s="5">
+        <v>43251.9993055556</v>
+      </c>
+      <c r="E110" s="6" t="inlineStr">
+        <is>
+          <t>2018 Third Primary</t>
+        </is>
+      </c>
+      <c r="F110" s="4">
+        <v>1</v>
+      </c>
+      <c r="G110" s="4">
+        <v>1</v>
+      </c>
+      <c r="H110" s="4">
+        <v>0</v>
+      </c>
+      <c r="K110" s="5">
+        <v>43228</v>
+      </c>
+      <c r="L110" s="4">
+        <v>1</v>
+      </c>
+      <c r="M110" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="111">
+      <c r="A111" s="4">
+        <v>131</v>
+      </c>
+      <c r="B111" s="5">
+        <v>43286.9993055556</v>
+      </c>
+      <c r="C111" s="5">
+        <v>43281.5409722222</v>
+      </c>
+      <c r="E111" s="6" t="inlineStr">
+        <is>
+          <t>2018 Fourth Primary</t>
+        </is>
+      </c>
+      <c r="F111" s="4">
+        <v>1</v>
+      </c>
+      <c r="G111" s="4">
+        <v>1</v>
+      </c>
+      <c r="H111" s="4">
+        <v>0</v>
+      </c>
+      <c r="K111" s="5">
+        <v>43250</v>
+      </c>
+      <c r="L111" s="4">
+        <v>1</v>
+      </c>
+      <c r="M111" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="112">
+      <c r="A112" s="4">
+        <v>132</v>
+      </c>
+      <c r="B112" s="5">
+        <v>43255.5</v>
+      </c>
+      <c r="C112" s="5">
+        <v>43255.5</v>
+      </c>
+      <c r="E112" s="6" t="inlineStr">
+        <is>
+          <t>2018 Primary Supplemental</t>
+        </is>
+      </c>
+      <c r="F112" s="4">
+        <v>0</v>
+      </c>
+      <c r="G112" s="4">
+        <v>2</v>
+      </c>
+      <c r="H112" s="4">
+        <v>0</v>
+      </c>
+      <c r="I112" s="5">
+        <v>43252</v>
+      </c>
+      <c r="J112" s="4">
+        <v>131</v>
+      </c>
+      <c r="K112" s="5">
+        <v>43252</v>
+      </c>
+      <c r="L112" s="4">
+        <v>1</v>
+      </c>
+      <c r="M112" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="113">
+      <c r="A113" s="4">
+        <v>133</v>
+      </c>
+      <c r="B113" s="5">
+        <v>43353.9993055556</v>
+      </c>
+      <c r="C113" s="5">
+        <v>43346</v>
+      </c>
+      <c r="E113" s="6" t="inlineStr">
+        <is>
+          <t>2018 First General</t>
+        </is>
+      </c>
+      <c r="F113" s="4">
+        <v>1</v>
+      </c>
+      <c r="G113" s="4">
+        <v>1</v>
+      </c>
+      <c r="H113" s="4">
+        <v>0</v>
+      </c>
+      <c r="K113" s="5">
+        <v>43282</v>
+      </c>
+      <c r="L113" s="4">
+        <v>1</v>
+      </c>
+      <c r="M113" s="4">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:N117"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" rightToLeft="false">
       <selection activeCell="C5" sqref="C5"/>
@@ -431,10 +4646,10 @@
       <c r="A2" s="0">
         <v>19</v>
       </c>
-      <c r="B2" s="1">
+      <c r="B2" s="7">
         <v>38117</v>
       </c>
-      <c r="C2" s="1">
+      <c r="C2" s="7">
         <v>38117</v>
       </c>
       <c r="E2" s="0" t="inlineStr">
@@ -451,7 +4666,7 @@
       <c r="H2" s="0">
         <v>0</v>
       </c>
-      <c r="K2" s="1">
+      <c r="K2" s="7">
         <v>37988</v>
       </c>
       <c r="L2" s="0">
@@ -465,10 +4680,10 @@
       <c r="A3" s="0">
         <v>20</v>
       </c>
-      <c r="B3" s="1">
+      <c r="B3" s="7">
         <v>38134</v>
       </c>
-      <c r="C3" s="1">
+      <c r="C3" s="7">
         <v>38134</v>
       </c>
       <c r="E3" s="0" t="inlineStr">
@@ -485,7 +4700,7 @@
       <c r="H3" s="0">
         <v>0</v>
       </c>
-      <c r="K3" s="1">
+      <c r="K3" s="7">
         <v>38118</v>
       </c>
       <c r="L3" s="0">
@@ -499,10 +4714,10 @@
       <c r="A4" s="0">
         <v>21</v>
       </c>
-      <c r="B4" s="1">
+      <c r="B4" s="7">
         <v>38169</v>
       </c>
-      <c r="C4" s="1">
+      <c r="C4" s="7">
         <v>38169</v>
       </c>
       <c r="E4" s="0" t="inlineStr">
@@ -519,7 +4734,7 @@
       <c r="H4" s="0">
         <v>0</v>
       </c>
-      <c r="K4" s="1">
+      <c r="K4" s="7">
         <v>38140</v>
       </c>
       <c r="L4" s="0">
@@ -533,10 +4748,10 @@
       <c r="A5" s="0">
         <v>22</v>
       </c>
-      <c r="B5" s="1">
+      <c r="B5" s="7">
         <v>38272</v>
       </c>
-      <c r="C5" s="1">
+      <c r="C5" s="7">
         <v>38272</v>
       </c>
       <c r="E5" s="0" t="inlineStr">
@@ -553,7 +4768,7 @@
       <c r="H5" s="0">
         <v>0</v>
       </c>
-      <c r="K5" s="1">
+      <c r="K5" s="7">
         <v>38170</v>
       </c>
       <c r="L5" s="0">
@@ -567,10 +4782,10 @@
       <c r="A6" s="0">
         <v>23</v>
       </c>
-      <c r="B6" s="1">
+      <c r="B6" s="7">
         <v>38288</v>
       </c>
-      <c r="C6" s="1">
+      <c r="C6" s="7">
         <v>38288</v>
       </c>
       <c r="E6" s="0" t="inlineStr">
@@ -587,7 +4802,7 @@
       <c r="H6" s="0">
         <v>0</v>
       </c>
-      <c r="K6" s="1">
+      <c r="K6" s="7">
         <v>38273</v>
       </c>
       <c r="L6" s="0">
@@ -601,10 +4816,10 @@
       <c r="A7" s="0">
         <v>24</v>
       </c>
-      <c r="B7" s="1">
+      <c r="B7" s="7">
         <v>38323.7083333333</v>
       </c>
-      <c r="C7" s="1">
+      <c r="C7" s="7">
         <v>38323.7083333333</v>
       </c>
       <c r="D7" s="0">
@@ -624,7 +4839,7 @@
       <c r="H7" s="0">
         <v>0</v>
       </c>
-      <c r="K7" s="1">
+      <c r="K7" s="7">
         <v>38294</v>
       </c>
       <c r="L7" s="0">
@@ -638,10 +4853,10 @@
       <c r="A8" s="0">
         <v>25</v>
       </c>
-      <c r="B8" s="1">
+      <c r="B8" s="7">
         <v>38481.7083333333</v>
       </c>
-      <c r="C8" s="1">
+      <c r="C8" s="7">
         <v>38481.7083333333</v>
       </c>
       <c r="D8" s="0">
@@ -656,7 +4871,7 @@
       <c r="H8" s="0">
         <v>0</v>
       </c>
-      <c r="K8" s="1">
+      <c r="K8" s="7">
         <v>38324</v>
       </c>
       <c r="L8" s="0">
@@ -670,10 +4885,10 @@
       <c r="A9" s="0">
         <v>26</v>
       </c>
-      <c r="B9" s="1">
+      <c r="B9" s="7">
         <v>37987.7083333333</v>
       </c>
-      <c r="C9" s="1">
+      <c r="C9" s="7">
         <v>37987.7083333333</v>
       </c>
       <c r="D9" s="0">
@@ -693,7 +4908,7 @@
       <c r="H9" s="0">
         <v>0</v>
       </c>
-      <c r="K9" s="1">
+      <c r="K9" s="7">
         <v>38078</v>
       </c>
       <c r="L9" s="0">
@@ -707,10 +4922,10 @@
       <c r="A10" s="0">
         <v>27</v>
       </c>
-      <c r="B10" s="1">
+      <c r="B10" s="7">
         <v>38139</v>
       </c>
-      <c r="C10" s="1">
+      <c r="C10" s="7">
         <v>38139</v>
       </c>
       <c r="E10" s="0" t="inlineStr">
@@ -727,7 +4942,7 @@
       <c r="H10" s="0">
         <v>1</v>
       </c>
-      <c r="K10" s="1">
+      <c r="K10" s="7">
         <v>38135</v>
       </c>
       <c r="L10" s="0">
@@ -741,10 +4956,10 @@
       <c r="A11" s="0">
         <v>28</v>
       </c>
-      <c r="B11" s="1">
+      <c r="B11" s="7">
         <v>38293</v>
       </c>
-      <c r="C11" s="1">
+      <c r="C11" s="7">
         <v>38293</v>
       </c>
       <c r="E11" s="0" t="inlineStr">
@@ -761,7 +4976,7 @@
       <c r="H11" s="0">
         <v>1</v>
       </c>
-      <c r="K11" s="1">
+      <c r="K11" s="7">
         <v>38289</v>
       </c>
       <c r="L11" s="0">
@@ -775,10 +4990,10 @@
       <c r="A12" s="0">
         <v>29</v>
       </c>
-      <c r="B12" s="1">
+      <c r="B12" s="7">
         <v>38845.7083333333</v>
       </c>
-      <c r="C12" s="1">
+      <c r="C12" s="7">
         <v>38845.7083333333</v>
       </c>
       <c r="D12" s="0">
@@ -798,7 +5013,7 @@
       <c r="H12" s="0">
         <v>0</v>
       </c>
-      <c r="K12" s="1">
+      <c r="K12" s="7">
         <v>38482</v>
       </c>
       <c r="L12" s="0">
@@ -812,10 +5027,10 @@
       <c r="A13" s="0">
         <v>30</v>
       </c>
-      <c r="B13" s="1">
+      <c r="B13" s="7">
         <v>38869.7083333333</v>
       </c>
-      <c r="C13" s="1">
+      <c r="C13" s="7">
         <v>38869.7083333333</v>
       </c>
       <c r="D13" s="0">
@@ -835,7 +5050,7 @@
       <c r="H13" s="0">
         <v>0</v>
       </c>
-      <c r="K13" s="1">
+      <c r="K13" s="7">
         <v>38864</v>
       </c>
       <c r="L13" s="0">
@@ -849,10 +5064,10 @@
       <c r="A14" s="0">
         <v>31</v>
       </c>
-      <c r="B14" s="1">
+      <c r="B14" s="7">
         <v>38904.7083333333</v>
       </c>
-      <c r="C14" s="1">
+      <c r="C14" s="7">
         <v>38904.7083333333</v>
       </c>
       <c r="D14" s="0">
@@ -872,7 +5087,7 @@
       <c r="H14" s="0">
         <v>0</v>
       </c>
-      <c r="K14" s="1">
+      <c r="K14" s="7">
         <v>38875</v>
       </c>
       <c r="L14" s="0">
@@ -886,10 +5101,10 @@
       <c r="A15" s="0">
         <v>32</v>
       </c>
-      <c r="B15" s="1">
+      <c r="B15" s="7">
         <v>39000.7083333333</v>
       </c>
-      <c r="C15" s="1">
+      <c r="C15" s="7">
         <v>39000.7083333333</v>
       </c>
       <c r="D15" s="0">
@@ -909,7 +5124,7 @@
       <c r="H15" s="0">
         <v>0</v>
       </c>
-      <c r="K15" s="1">
+      <c r="K15" s="7">
         <v>38905</v>
       </c>
       <c r="L15" s="0">
@@ -923,10 +5138,10 @@
       <c r="A16" s="0">
         <v>33</v>
       </c>
-      <c r="B16" s="1">
+      <c r="B16" s="7">
         <v>39023.7083333333</v>
       </c>
-      <c r="C16" s="1">
+      <c r="C16" s="7">
         <v>39023.7083333333</v>
       </c>
       <c r="D16" s="0">
@@ -946,7 +5161,7 @@
       <c r="H16" s="0">
         <v>0</v>
       </c>
-      <c r="K16" s="1">
+      <c r="K16" s="7">
         <v>39001</v>
       </c>
       <c r="L16" s="0">
@@ -960,10 +5175,10 @@
       <c r="A17" s="0">
         <v>34</v>
       </c>
-      <c r="B17" s="1">
+      <c r="B17" s="7">
         <v>39058.7083333333</v>
       </c>
-      <c r="C17" s="1">
+      <c r="C17" s="7">
         <v>39058.7083333333</v>
       </c>
       <c r="D17" s="0">
@@ -983,7 +5198,7 @@
       <c r="H17" s="0">
         <v>0</v>
       </c>
-      <c r="K17" s="1">
+      <c r="K17" s="7">
         <v>39029</v>
       </c>
       <c r="L17" s="0">
@@ -997,10 +5212,10 @@
       <c r="A18" s="0">
         <v>35</v>
       </c>
-      <c r="B18" s="1">
+      <c r="B18" s="7">
         <v>38874.7083333333</v>
       </c>
-      <c r="C18" s="1">
+      <c r="C18" s="7">
         <v>38874.7083333333</v>
       </c>
       <c r="D18" s="0">
@@ -1020,7 +5235,7 @@
       <c r="H18" s="0">
         <v>1</v>
       </c>
-      <c r="K18" s="1">
+      <c r="K18" s="7">
         <v>38870</v>
       </c>
       <c r="L18" s="0">
@@ -1034,10 +5249,10 @@
       <c r="A19" s="0">
         <v>36</v>
       </c>
-      <c r="B19" s="1">
+      <c r="B19" s="7">
         <v>39028.7083333333</v>
       </c>
-      <c r="C19" s="1">
+      <c r="C19" s="7">
         <v>39028.7083333333</v>
       </c>
       <c r="D19" s="0">
@@ -1057,7 +5272,7 @@
       <c r="H19" s="0">
         <v>1</v>
       </c>
-      <c r="K19" s="1">
+      <c r="K19" s="7">
         <v>39024</v>
       </c>
       <c r="L19" s="0">
@@ -1071,10 +5286,10 @@
       <c r="A20" s="0">
         <v>37</v>
       </c>
-      <c r="B20" s="1">
+      <c r="B20" s="7">
         <v>39216.7083333333</v>
       </c>
-      <c r="C20" s="1">
+      <c r="C20" s="7">
         <v>39216.7083333333</v>
       </c>
       <c r="D20" s="0">
@@ -1089,7 +5304,7 @@
       <c r="H20" s="0">
         <v>0</v>
       </c>
-      <c r="K20" s="1">
+      <c r="K20" s="7">
         <v>39059</v>
       </c>
       <c r="L20" s="0">
@@ -1103,10 +5318,10 @@
       <c r="A21" s="0">
         <v>38</v>
       </c>
-      <c r="B21" s="1">
+      <c r="B21" s="7">
         <v>38863.7083333333</v>
       </c>
-      <c r="C21" s="1">
+      <c r="C21" s="7">
         <v>38863.7083333333</v>
       </c>
       <c r="D21" s="0">
@@ -1126,7 +5341,7 @@
       <c r="H21" s="0">
         <v>1</v>
       </c>
-      <c r="K21" s="1">
+      <c r="K21" s="7">
         <v>38846</v>
       </c>
       <c r="L21" s="0">
@@ -1140,10 +5355,10 @@
       <c r="A22" s="0">
         <v>39</v>
       </c>
-      <c r="B22" s="1">
+      <c r="B22" s="7">
         <v>39000.7083333333</v>
       </c>
-      <c r="C22" s="1">
+      <c r="C22" s="7">
         <v>39000.7083333333</v>
       </c>
       <c r="D22" s="0">
@@ -1163,7 +5378,7 @@
       <c r="H22" s="0">
         <v>1</v>
       </c>
-      <c r="K22" s="1">
+      <c r="K22" s="7">
         <v>38905</v>
       </c>
       <c r="L22" s="0">
@@ -1177,10 +5392,10 @@
       <c r="A23" s="0">
         <v>40</v>
       </c>
-      <c r="B23" s="1">
+      <c r="B23" s="7">
         <v>39580.7083333333</v>
       </c>
-      <c r="C23" s="1">
+      <c r="C23" s="7">
         <v>39580.7083333333</v>
       </c>
       <c r="D23" s="0">
@@ -1200,7 +5415,7 @@
       <c r="H23" s="0">
         <v>0</v>
       </c>
-      <c r="K23" s="1">
+      <c r="K23" s="7">
         <v>39581</v>
       </c>
       <c r="L23" s="0">
@@ -1214,10 +5429,10 @@
       <c r="A24" s="0">
         <v>41</v>
       </c>
-      <c r="B24" s="1">
+      <c r="B24" s="7">
         <v>39944.7083333333</v>
       </c>
-      <c r="C24" s="1">
+      <c r="C24" s="7">
         <v>39944.7083333333</v>
       </c>
       <c r="D24" s="0">
@@ -1237,7 +5452,7 @@
       <c r="H24" s="0">
         <v>0</v>
       </c>
-      <c r="K24" s="1">
+      <c r="K24" s="7">
         <v>39787</v>
       </c>
       <c r="L24" s="0">
@@ -1251,10 +5466,10 @@
       <c r="A25" s="0">
         <v>42</v>
       </c>
-      <c r="B25" s="1">
+      <c r="B25" s="7">
         <v>39580.7083333333</v>
       </c>
-      <c r="C25" s="1">
+      <c r="C25" s="7">
         <v>39580.7083333333</v>
       </c>
       <c r="D25" s="0">
@@ -1274,7 +5489,7 @@
       <c r="H25" s="0">
         <v>1</v>
       </c>
-      <c r="K25" s="1">
+      <c r="K25" s="7">
         <v>39581</v>
       </c>
       <c r="L25" s="0">
@@ -1288,10 +5503,10 @@
       <c r="A26" s="0">
         <v>43</v>
       </c>
-      <c r="B26" s="1">
+      <c r="B26" s="7">
         <v>39580</v>
       </c>
-      <c r="C26" s="1">
+      <c r="C26" s="7">
         <v>39580</v>
       </c>
       <c r="E26" s="0" t="inlineStr">
@@ -1308,7 +5523,7 @@
       <c r="H26" s="0">
         <v>0</v>
       </c>
-      <c r="K26" s="1">
+      <c r="K26" s="7">
         <v>39217</v>
       </c>
       <c r="L26" s="0">
@@ -1322,10 +5537,10 @@
       <c r="A27" s="0">
         <v>44</v>
       </c>
-      <c r="B27" s="1">
+      <c r="B27" s="7">
         <v>39597.7083333333</v>
       </c>
-      <c r="C27" s="1">
+      <c r="C27" s="7">
         <v>39597.7083333333</v>
       </c>
       <c r="D27" s="0">
@@ -1345,7 +5560,7 @@
       <c r="H27" s="0">
         <v>0</v>
       </c>
-      <c r="K27" s="1">
+      <c r="K27" s="7">
         <v>39592</v>
       </c>
       <c r="L27" s="0">
@@ -1359,10 +5574,10 @@
       <c r="A28" s="0">
         <v>45</v>
       </c>
-      <c r="B28" s="1">
+      <c r="B28" s="7">
         <v>39602.7083333333</v>
       </c>
-      <c r="C28" s="1">
+      <c r="C28" s="7">
         <v>39602.7083333333</v>
       </c>
       <c r="D28" s="0">
@@ -1382,7 +5597,7 @@
       <c r="H28" s="0">
         <v>1</v>
       </c>
-      <c r="K28" s="1">
+      <c r="K28" s="7">
         <v>39598</v>
       </c>
       <c r="L28" s="0">
@@ -1396,10 +5611,10 @@
       <c r="A29" s="0">
         <v>46</v>
       </c>
-      <c r="B29" s="1">
+      <c r="B29" s="7">
         <v>39632.7083333333</v>
       </c>
-      <c r="C29" s="1">
+      <c r="C29" s="7">
         <v>39632.7083333333</v>
       </c>
       <c r="D29" s="0">
@@ -1419,7 +5634,7 @@
       <c r="H29" s="0">
         <v>0</v>
       </c>
-      <c r="K29" s="1">
+      <c r="K29" s="7">
         <v>39603</v>
       </c>
       <c r="L29" s="0">
@@ -1433,10 +5648,10 @@
       <c r="A30" s="0">
         <v>47</v>
       </c>
-      <c r="B30" s="1">
+      <c r="B30" s="7">
         <v>39734.7083333333</v>
       </c>
-      <c r="C30" s="1">
+      <c r="C30" s="7">
         <v>39734.7083333333</v>
       </c>
       <c r="E30" s="0" t="inlineStr">
@@ -1453,7 +5668,7 @@
       <c r="H30" s="0">
         <v>0</v>
       </c>
-      <c r="K30" s="1">
+      <c r="K30" s="7">
         <v>39729</v>
       </c>
       <c r="L30" s="0">
@@ -1467,10 +5682,10 @@
       <c r="A31" s="0">
         <v>48</v>
       </c>
-      <c r="B31" s="1">
+      <c r="B31" s="7">
         <v>39734.7083333333</v>
       </c>
-      <c r="C31" s="1">
+      <c r="C31" s="7">
         <v>39734.7083333333</v>
       </c>
       <c r="D31" s="0">
@@ -1490,7 +5705,7 @@
       <c r="H31" s="0">
         <v>0</v>
       </c>
-      <c r="K31" s="1">
+      <c r="K31" s="7">
         <v>39729</v>
       </c>
       <c r="L31" s="0">
@@ -1504,10 +5719,10 @@
       <c r="A32" s="0">
         <v>49</v>
       </c>
-      <c r="B32" s="1">
+      <c r="B32" s="7">
         <v>39751.7083333333</v>
       </c>
-      <c r="C32" s="1">
+      <c r="C32" s="7">
         <v>39751.7083333333</v>
       </c>
       <c r="D32" s="0">
@@ -1527,7 +5742,7 @@
       <c r="H32" s="0">
         <v>0</v>
       </c>
-      <c r="K32" s="1">
+      <c r="K32" s="7">
         <v>39746</v>
       </c>
       <c r="L32" s="0">
@@ -1541,10 +5756,10 @@
       <c r="A33" s="0">
         <v>50</v>
       </c>
-      <c r="B33" s="1">
+      <c r="B33" s="7">
         <v>39756.7083333333</v>
       </c>
-      <c r="C33" s="1">
+      <c r="C33" s="7">
         <v>39756.7083333333</v>
       </c>
       <c r="D33" s="0">
@@ -1564,7 +5779,7 @@
       <c r="H33" s="0">
         <v>1</v>
       </c>
-      <c r="K33" s="1">
+      <c r="K33" s="7">
         <v>39752</v>
       </c>
       <c r="L33" s="0">
@@ -1578,10 +5793,10 @@
       <c r="A34" s="0">
         <v>51</v>
       </c>
-      <c r="B34" s="1">
+      <c r="B34" s="7">
         <v>39786.7083333333</v>
       </c>
-      <c r="C34" s="1">
+      <c r="C34" s="7">
         <v>39786.7083333333</v>
       </c>
       <c r="D34" s="0">
@@ -1601,7 +5816,7 @@
       <c r="H34" s="0">
         <v>0</v>
       </c>
-      <c r="K34" s="1">
+      <c r="K34" s="7">
         <v>39757</v>
       </c>
       <c r="L34" s="0">
@@ -1615,10 +5830,10 @@
       <c r="A35" s="0">
         <v>52</v>
       </c>
-      <c r="B35" s="1">
+      <c r="B35" s="7">
         <v>39944.7083333333</v>
       </c>
-      <c r="C35" s="1">
+      <c r="C35" s="7">
         <v>39944.7083333333</v>
       </c>
       <c r="D35" s="0">
@@ -1638,7 +5853,7 @@
       <c r="H35" s="0">
         <v>0</v>
       </c>
-      <c r="K35" s="1">
+      <c r="K35" s="7">
         <v>39787</v>
       </c>
       <c r="L35" s="0">
@@ -1652,10 +5867,10 @@
       <c r="A36" s="0">
         <v>53</v>
       </c>
-      <c r="B36" s="1">
+      <c r="B36" s="7">
         <v>39591.7083333333</v>
       </c>
-      <c r="C36" s="1">
+      <c r="C36" s="7">
         <v>39591.7083333333</v>
       </c>
       <c r="D36" s="0">
@@ -1675,7 +5890,7 @@
       <c r="H36" s="0">
         <v>1</v>
       </c>
-      <c r="K36" s="1">
+      <c r="K36" s="7">
         <v>39581</v>
       </c>
       <c r="L36" s="0">
@@ -1689,10 +5904,10 @@
       <c r="A37" s="0">
         <v>54</v>
       </c>
-      <c r="B37" s="1">
+      <c r="B37" s="7">
         <v>39728.7083333333</v>
       </c>
-      <c r="C37" s="1">
+      <c r="C37" s="7">
         <v>39728.7083333333</v>
       </c>
       <c r="D37" s="0">
@@ -1712,7 +5927,7 @@
       <c r="H37" s="0">
         <v>1</v>
       </c>
-      <c r="K37" s="1">
+      <c r="K37" s="7">
         <v>39633</v>
       </c>
       <c r="L37" s="0">
@@ -1726,10 +5941,10 @@
       <c r="A38" s="0">
         <v>55</v>
       </c>
-      <c r="B38" s="1">
+      <c r="B38" s="7">
         <v>39745.7083333333</v>
       </c>
-      <c r="C38" s="1">
+      <c r="C38" s="7">
         <v>39745.7083333333</v>
       </c>
       <c r="D38" s="0">
@@ -1749,7 +5964,7 @@
       <c r="H38" s="0">
         <v>1</v>
       </c>
-      <c r="K38" s="1">
+      <c r="K38" s="7">
         <v>39735</v>
       </c>
       <c r="L38" s="0">
@@ -1763,10 +5978,10 @@
       <c r="A39" s="0">
         <v>56</v>
       </c>
-      <c r="B39" s="1">
+      <c r="B39" s="7">
         <v>38845.7083333333</v>
       </c>
-      <c r="C39" s="1">
+      <c r="C39" s="7">
         <v>38845.7083333333</v>
       </c>
       <c r="D39" s="0">
@@ -1786,7 +6001,7 @@
       <c r="H39" s="0">
         <v>0</v>
       </c>
-      <c r="K39" s="1">
+      <c r="K39" s="7">
         <v>38482</v>
       </c>
       <c r="L39" s="0">
@@ -1800,10 +6015,10 @@
       <c r="A40" s="0">
         <v>57</v>
       </c>
-      <c r="B40" s="1">
+      <c r="B40" s="7">
         <v>39216.7083333333</v>
       </c>
-      <c r="C40" s="1">
+      <c r="C40" s="7">
         <v>39216.7083333333</v>
       </c>
       <c r="D40" s="0">
@@ -1823,7 +6038,7 @@
       <c r="H40" s="0">
         <v>0</v>
       </c>
-      <c r="K40" s="1">
+      <c r="K40" s="7">
         <v>39059</v>
       </c>
       <c r="L40" s="0">
@@ -1837,10 +6052,10 @@
       <c r="A41" s="0">
         <v>58</v>
       </c>
-      <c r="B41" s="1">
+      <c r="B41" s="7">
         <v>39580.7083333333</v>
       </c>
-      <c r="C41" s="1">
+      <c r="C41" s="7">
         <v>39580.7083333333</v>
       </c>
       <c r="D41" s="0">
@@ -1860,7 +6075,7 @@
       <c r="H41" s="0">
         <v>0</v>
       </c>
-      <c r="K41" s="1">
+      <c r="K41" s="7">
         <v>39581</v>
       </c>
       <c r="L41" s="0">
@@ -1874,10 +6089,10 @@
       <c r="A42" s="0">
         <v>59</v>
       </c>
-      <c r="B42" s="1">
+      <c r="B42" s="7">
         <v>39944.7083333333</v>
       </c>
-      <c r="C42" s="1">
+      <c r="C42" s="7">
         <v>39944.7083333333</v>
       </c>
       <c r="D42" s="0">
@@ -1897,7 +6112,7 @@
       <c r="H42" s="0">
         <v>0</v>
       </c>
-      <c r="K42" s="1">
+      <c r="K42" s="7">
         <v>39787</v>
       </c>
       <c r="L42" s="0">
@@ -1911,10 +6126,10 @@
       <c r="A43" s="0">
         <v>60</v>
       </c>
-      <c r="B43" s="1">
+      <c r="B43" s="7">
         <v>40098</v>
       </c>
-      <c r="C43" s="1">
+      <c r="C43" s="7">
         <v>40090</v>
       </c>
       <c r="E43" s="0" t="inlineStr">
@@ -1931,7 +6146,7 @@
       <c r="H43" s="0">
         <v>0</v>
       </c>
-      <c r="K43" s="1">
+      <c r="K43" s="7">
         <v>39945</v>
       </c>
       <c r="L43" s="0">
@@ -1945,10 +6160,10 @@
       <c r="A44" s="0">
         <v>62</v>
       </c>
-      <c r="B44" s="1">
+      <c r="B44" s="7">
         <v>40098</v>
       </c>
-      <c r="C44" s="1">
+      <c r="C44" s="7">
         <v>40090</v>
       </c>
       <c r="E44" s="0" t="inlineStr">
@@ -1965,7 +6180,7 @@
       <c r="H44" s="0">
         <v>0</v>
       </c>
-      <c r="K44" s="1">
+      <c r="K44" s="7">
         <v>39945</v>
       </c>
       <c r="L44" s="0">
@@ -1979,10 +6194,10 @@
       <c r="A45" s="0">
         <v>63</v>
       </c>
-      <c r="B45" s="1">
+      <c r="B45" s="7">
         <v>40280</v>
       </c>
-      <c r="C45" s="1">
+      <c r="C45" s="7">
         <v>40273</v>
       </c>
       <c r="E45" s="0" t="inlineStr">
@@ -1999,7 +6214,7 @@
       <c r="H45" s="0">
         <v>0</v>
       </c>
-      <c r="K45" s="1">
+      <c r="K45" s="7">
         <v>40091</v>
       </c>
       <c r="L45" s="0">
@@ -2013,10 +6228,10 @@
       <c r="A46" s="0">
         <v>64</v>
       </c>
-      <c r="B46" s="1">
+      <c r="B46" s="7">
         <v>40308.9999884259</v>
       </c>
-      <c r="C46" s="1">
+      <c r="C46" s="7">
         <v>40301</v>
       </c>
       <c r="E46" s="0" t="inlineStr">
@@ -2033,7 +6248,7 @@
       <c r="H46" s="0">
         <v>0</v>
       </c>
-      <c r="K46" s="1">
+      <c r="K46" s="7">
         <v>40274</v>
       </c>
       <c r="L46" s="0">
@@ -2047,10 +6262,10 @@
       <c r="A47" s="0">
         <v>65</v>
       </c>
-      <c r="B47" s="1">
+      <c r="B47" s="7">
         <v>40325.9993055556</v>
       </c>
-      <c r="C47" s="1">
+      <c r="C47" s="7">
         <v>40323.9993055556</v>
       </c>
       <c r="E47" s="0" t="inlineStr">
@@ -2067,7 +6282,7 @@
       <c r="H47" s="0">
         <v>0</v>
       </c>
-      <c r="K47" s="1">
+      <c r="K47" s="7">
         <v>40302</v>
       </c>
       <c r="L47" s="0">
@@ -2081,10 +6296,10 @@
       <c r="A48" s="0">
         <v>67</v>
       </c>
-      <c r="B48" s="1">
+      <c r="B48" s="7">
         <v>40360.7083333333</v>
       </c>
-      <c r="C48" s="1">
+      <c r="C48" s="7">
         <v>40354.9993055556</v>
       </c>
       <c r="E48" s="0" t="inlineStr">
@@ -2101,7 +6316,7 @@
       <c r="H48" s="0">
         <v>0</v>
       </c>
-      <c r="K48" s="1">
+      <c r="K48" s="7">
         <v>40324</v>
       </c>
       <c r="L48" s="0">
@@ -2115,10 +6330,10 @@
       <c r="A49" s="0">
         <v>68</v>
       </c>
-      <c r="B49" s="1">
+      <c r="B49" s="7">
         <v>40329.5</v>
       </c>
-      <c r="C49" s="1">
+      <c r="C49" s="7">
         <v>40329.5</v>
       </c>
       <c r="E49" s="0" t="inlineStr">
@@ -2135,13 +6350,13 @@
       <c r="H49" s="0">
         <v>1</v>
       </c>
-      <c r="I49" s="1">
+      <c r="I49" s="7">
         <v>40323.7083333333</v>
       </c>
       <c r="J49" s="0">
         <v>67</v>
       </c>
-      <c r="K49" s="1">
+      <c r="K49" s="7">
         <v>40323</v>
       </c>
       <c r="L49" s="0">
@@ -2155,10 +6370,10 @@
       <c r="A50" s="0">
         <v>69</v>
       </c>
-      <c r="B50" s="1">
+      <c r="B50" s="7">
         <v>40434.7083333333</v>
       </c>
-      <c r="C50" s="1">
+      <c r="C50" s="7">
         <v>40427.7083333333</v>
       </c>
       <c r="E50" s="0" t="inlineStr">
@@ -2175,7 +6390,7 @@
       <c r="H50" s="0">
         <v>0</v>
       </c>
-      <c r="K50" s="1">
+      <c r="K50" s="7">
         <v>40355</v>
       </c>
       <c r="L50" s="0">
@@ -2189,10 +6404,10 @@
       <c r="A51" s="0">
         <v>70</v>
       </c>
-      <c r="B51" s="1">
+      <c r="B51" s="7">
         <v>40463.7083333333</v>
       </c>
-      <c r="C51" s="1">
+      <c r="C51" s="7">
         <v>40455.9993055556</v>
       </c>
       <c r="E51" s="0" t="inlineStr">
@@ -2209,7 +6424,7 @@
       <c r="H51" s="0">
         <v>0</v>
       </c>
-      <c r="K51" s="1">
+      <c r="K51" s="7">
         <v>40428</v>
       </c>
       <c r="L51" s="0">
@@ -2223,10 +6438,10 @@
       <c r="A52" s="0">
         <v>71</v>
       </c>
-      <c r="B52" s="1">
+      <c r="B52" s="7">
         <v>40479.7083333333</v>
       </c>
-      <c r="C52" s="1">
+      <c r="C52" s="7">
         <v>40477.7083333333</v>
       </c>
       <c r="E52" s="0" t="inlineStr">
@@ -2243,7 +6458,7 @@
       <c r="H52" s="0">
         <v>0</v>
       </c>
-      <c r="K52" s="1">
+      <c r="K52" s="7">
         <v>40456</v>
       </c>
       <c r="L52" s="0">
@@ -2257,10 +6472,10 @@
       <c r="A53" s="0">
         <v>72</v>
       </c>
-      <c r="B53" s="1">
+      <c r="B53" s="7">
         <v>40514.7083333333</v>
       </c>
-      <c r="C53" s="1">
+      <c r="C53" s="7">
         <v>40509.7083333333</v>
       </c>
       <c r="E53" s="0" t="inlineStr">
@@ -2277,7 +6492,7 @@
       <c r="H53" s="0">
         <v>0</v>
       </c>
-      <c r="K53" s="1">
+      <c r="K53" s="7">
         <v>40478</v>
       </c>
       <c r="L53" s="0">
@@ -2291,10 +6506,10 @@
       <c r="A54" s="0">
         <v>73</v>
       </c>
-      <c r="B54" s="1">
+      <c r="B54" s="7">
         <v>40483.5</v>
       </c>
-      <c r="C54" s="1">
+      <c r="C54" s="7">
         <v>40483.5</v>
       </c>
       <c r="E54" s="0" t="inlineStr">
@@ -2311,13 +6526,13 @@
       <c r="H54" s="0">
         <v>1</v>
       </c>
-      <c r="I54" s="1">
+      <c r="I54" s="7">
         <v>40477.7083333333</v>
       </c>
       <c r="J54" s="0">
         <v>72</v>
       </c>
-      <c r="K54" s="1">
+      <c r="K54" s="7">
         <v>40477</v>
       </c>
       <c r="L54" s="0">
@@ -2331,10 +6546,10 @@
       <c r="A55" s="0">
         <v>75</v>
       </c>
-      <c r="B55" s="1">
+      <c r="B55" s="7">
         <v>40280.7083333333</v>
       </c>
-      <c r="C55" s="1">
+      <c r="C55" s="7">
         <v>40273.7083333333</v>
       </c>
       <c r="E55" s="0" t="inlineStr">
@@ -2351,7 +6566,7 @@
       <c r="H55" s="0">
         <v>0</v>
       </c>
-      <c r="K55" s="1">
+      <c r="K55" s="7">
         <v>40091</v>
       </c>
       <c r="L55" s="0">
@@ -2365,10 +6580,10 @@
       <c r="A56" s="0">
         <v>76</v>
       </c>
-      <c r="B56" s="1">
+      <c r="B56" s="7">
         <v>40463.7083333333</v>
       </c>
-      <c r="C56" s="1">
+      <c r="C56" s="7">
         <v>40455.9993055556</v>
       </c>
       <c r="E56" s="0" t="inlineStr">
@@ -2385,7 +6600,7 @@
       <c r="H56" s="0">
         <v>0</v>
       </c>
-      <c r="K56" s="1">
+      <c r="K56" s="7">
         <v>40274</v>
       </c>
       <c r="L56" s="0">
@@ -2399,10 +6614,10 @@
       <c r="A57" s="0">
         <v>77</v>
       </c>
-      <c r="B57" s="1">
+      <c r="B57" s="7">
         <v>40644.7083333333</v>
       </c>
-      <c r="C57" s="1">
+      <c r="C57" s="7">
         <v>40637.7083333333</v>
       </c>
       <c r="E57" s="0" t="inlineStr">
@@ -2419,7 +6634,7 @@
       <c r="H57" s="0">
         <v>0</v>
       </c>
-      <c r="K57" s="1">
+      <c r="K57" s="7">
         <v>40456</v>
       </c>
       <c r="L57" s="0">
@@ -2433,10 +6648,10 @@
       <c r="A58" s="0">
         <v>78</v>
       </c>
-      <c r="B58" s="1">
+      <c r="B58" s="7">
         <v>40827.7083333333</v>
       </c>
-      <c r="C58" s="1">
+      <c r="C58" s="7">
         <v>40819.7083333333</v>
       </c>
       <c r="E58" s="0" t="inlineStr">
@@ -2453,7 +6668,7 @@
       <c r="H58" s="0">
         <v>0</v>
       </c>
-      <c r="K58" s="1">
+      <c r="K58" s="7">
         <v>40638</v>
       </c>
       <c r="L58" s="0">
@@ -2467,10 +6682,10 @@
       <c r="A59" s="0">
         <v>79</v>
       </c>
-      <c r="B59" s="1">
+      <c r="B59" s="7">
         <v>41008.7083333333</v>
       </c>
-      <c r="C59" s="1">
+      <c r="C59" s="7">
         <v>41001.9993055556</v>
       </c>
       <c r="E59" s="0" t="inlineStr">
@@ -2487,7 +6702,7 @@
       <c r="H59" s="0">
         <v>0</v>
       </c>
-      <c r="K59" s="1">
+      <c r="K59" s="7">
         <v>40820</v>
       </c>
       <c r="L59" s="0">
@@ -2501,10 +6716,10 @@
       <c r="A60" s="0">
         <v>80</v>
       </c>
-      <c r="B60" s="1">
+      <c r="B60" s="7">
         <v>41008.7083333333</v>
       </c>
-      <c r="C60" s="1">
+      <c r="C60" s="7">
         <v>41001.9993055556</v>
       </c>
       <c r="E60" s="0" t="inlineStr">
@@ -2521,7 +6736,7 @@
       <c r="H60" s="0">
         <v>0</v>
       </c>
-      <c r="K60" s="1">
+      <c r="K60" s="7">
         <v>40820</v>
       </c>
       <c r="L60" s="0">
@@ -2535,10 +6750,10 @@
       <c r="A61" s="0">
         <v>81</v>
       </c>
-      <c r="B61" s="1">
+      <c r="B61" s="7">
         <v>41043.7083333333</v>
       </c>
-      <c r="C61" s="1">
+      <c r="C61" s="7">
         <v>41036.5</v>
       </c>
       <c r="E61" s="0" t="inlineStr">
@@ -2555,7 +6770,7 @@
       <c r="H61" s="0">
         <v>0</v>
       </c>
-      <c r="K61" s="1">
+      <c r="K61" s="7">
         <v>41002</v>
       </c>
       <c r="L61" s="0">
@@ -2569,10 +6784,10 @@
       <c r="A62" s="0">
         <v>82</v>
       </c>
-      <c r="B62" s="1">
+      <c r="B62" s="7">
         <v>41060.7083333333</v>
       </c>
-      <c r="C62" s="1">
+      <c r="C62" s="7">
         <v>41060.9993055556</v>
       </c>
       <c r="E62" s="0" t="inlineStr">
@@ -2589,7 +6804,7 @@
       <c r="H62" s="0">
         <v>0</v>
       </c>
-      <c r="K62" s="1">
+      <c r="K62" s="7">
         <v>41037</v>
       </c>
       <c r="L62" s="0">
@@ -2603,10 +6818,10 @@
       <c r="A63" s="0">
         <v>83</v>
       </c>
-      <c r="B63" s="1">
+      <c r="B63" s="7">
         <v>41190.7083333333</v>
       </c>
-      <c r="C63" s="1">
+      <c r="C63" s="7">
         <v>41183.7083333333</v>
       </c>
       <c r="E63" s="0" t="inlineStr">
@@ -2623,7 +6838,7 @@
       <c r="H63" s="0">
         <v>0</v>
       </c>
-      <c r="K63" s="1">
+      <c r="K63" s="7">
         <v>41002</v>
       </c>
       <c r="L63" s="0">
@@ -2637,10 +6852,10 @@
       <c r="A64" s="0">
         <v>84</v>
       </c>
-      <c r="B64" s="1">
+      <c r="B64" s="7">
         <v>41055.5</v>
       </c>
-      <c r="C64" s="1">
+      <c r="C64" s="7">
         <v>41053.5</v>
       </c>
       <c r="E64" s="0" t="inlineStr">
@@ -2657,7 +6872,7 @@
       <c r="H64" s="0">
         <v>0</v>
       </c>
-      <c r="K64" s="1">
+      <c r="K64" s="7">
         <v>41037</v>
       </c>
       <c r="L64" s="0">
@@ -2671,10 +6886,10 @@
       <c r="A65" s="0">
         <v>85</v>
       </c>
-      <c r="B65" s="1">
+      <c r="B65" s="7">
         <v>41064.5</v>
       </c>
-      <c r="C65" s="1">
+      <c r="C65" s="7">
         <v>41064.5</v>
       </c>
       <c r="E65" s="0" t="inlineStr">
@@ -2691,13 +6906,13 @@
       <c r="H65" s="0">
         <v>1</v>
       </c>
-      <c r="I65" s="1">
+      <c r="I65" s="7">
         <v>41061</v>
       </c>
       <c r="J65" s="0">
         <v>86</v>
       </c>
-      <c r="K65" s="1">
+      <c r="K65" s="7">
         <v>41061</v>
       </c>
       <c r="L65" s="0">
@@ -2711,10 +6926,10 @@
       <c r="A66" s="0">
         <v>86</v>
       </c>
-      <c r="B66" s="1">
+      <c r="B66" s="7">
         <v>41095.7083333333</v>
       </c>
-      <c r="C66" s="1">
+      <c r="C66" s="7">
         <v>41090</v>
       </c>
       <c r="E66" s="0" t="inlineStr">
@@ -2731,7 +6946,7 @@
       <c r="H66" s="0">
         <v>0</v>
       </c>
-      <c r="K66" s="1">
+      <c r="K66" s="7">
         <v>41059</v>
       </c>
       <c r="L66" s="0">
@@ -2745,10 +6960,10 @@
       <c r="A67" s="0">
         <v>87</v>
       </c>
-      <c r="B67" s="1">
+      <c r="B67" s="7">
         <v>41162.7083333333</v>
       </c>
-      <c r="C67" s="1">
+      <c r="C67" s="7">
         <v>41155</v>
       </c>
       <c r="E67" s="0" t="inlineStr">
@@ -2765,7 +6980,7 @@
       <c r="H67" s="0">
         <v>0</v>
       </c>
-      <c r="K67" s="1">
+      <c r="K67" s="7">
         <v>41091</v>
       </c>
       <c r="L67" s="0">
@@ -2779,10 +6994,10 @@
       <c r="A68" s="0">
         <v>88</v>
       </c>
-      <c r="B68" s="1">
+      <c r="B68" s="7">
         <v>41190.7083333333</v>
       </c>
-      <c r="C68" s="1">
+      <c r="C68" s="7">
         <v>41183.5</v>
       </c>
       <c r="E68" s="0" t="inlineStr">
@@ -2799,7 +7014,7 @@
       <c r="H68" s="0">
         <v>0</v>
       </c>
-      <c r="K68" s="1">
+      <c r="K68" s="7">
         <v>41156</v>
       </c>
       <c r="L68" s="0">
@@ -2813,10 +7028,10 @@
       <c r="A69" s="0">
         <v>89</v>
       </c>
-      <c r="B69" s="1">
+      <c r="B69" s="7">
         <v>41214.7083333333</v>
       </c>
-      <c r="C69" s="1">
+      <c r="C69" s="7">
         <v>41214.7083333333</v>
       </c>
       <c r="E69" s="0" t="inlineStr">
@@ -2833,7 +7048,7 @@
       <c r="H69" s="0">
         <v>0</v>
       </c>
-      <c r="K69" s="1">
+      <c r="K69" s="7">
         <v>41184</v>
       </c>
       <c r="L69" s="0">
@@ -2847,10 +7062,10 @@
       <c r="A70" s="0">
         <v>90</v>
       </c>
-      <c r="B70" s="1">
+      <c r="B70" s="7">
         <v>41372.7083333333</v>
       </c>
-      <c r="C70" s="1">
+      <c r="C70" s="7">
         <v>41365.9993055556</v>
       </c>
       <c r="E70" s="0" t="inlineStr">
@@ -2867,7 +7082,7 @@
       <c r="H70" s="0">
         <v>0</v>
       </c>
-      <c r="K70" s="1">
+      <c r="K70" s="7">
         <v>41184</v>
       </c>
       <c r="L70" s="0">
@@ -2881,10 +7096,10 @@
       <c r="A71" s="0">
         <v>91</v>
       </c>
-      <c r="B71" s="1">
+      <c r="B71" s="7">
         <v>41249.7083333333</v>
       </c>
-      <c r="C71" s="1">
+      <c r="C71" s="7">
         <v>41244.9993055556</v>
       </c>
       <c r="E71" s="0" t="inlineStr">
@@ -2901,7 +7116,7 @@
       <c r="H71" s="0">
         <v>0</v>
       </c>
-      <c r="K71" s="1">
+      <c r="K71" s="7">
         <v>41213</v>
       </c>
       <c r="L71" s="0">
@@ -2915,10 +7130,10 @@
       <c r="A72" s="0">
         <v>92</v>
       </c>
-      <c r="B72" s="1">
+      <c r="B72" s="7">
         <v>41218.5</v>
       </c>
-      <c r="C72" s="1">
+      <c r="C72" s="7">
         <v>41218.5</v>
       </c>
       <c r="E72" s="0" t="inlineStr">
@@ -2935,13 +7150,13 @@
       <c r="H72" s="0">
         <v>1</v>
       </c>
-      <c r="I72" s="1">
+      <c r="I72" s="7">
         <v>41214.7090277778</v>
       </c>
       <c r="J72" s="0">
         <v>91</v>
       </c>
-      <c r="K72" s="1">
+      <c r="K72" s="7">
         <v>41214.7090277778</v>
       </c>
       <c r="L72" s="0">
@@ -2955,10 +7170,10 @@
       <c r="A73" s="0">
         <v>93</v>
       </c>
-      <c r="B73" s="1">
+      <c r="B73" s="7">
         <v>41561.7083333333</v>
       </c>
-      <c r="C73" s="1">
+      <c r="C73" s="7">
         <v>41554.9993055556</v>
       </c>
       <c r="E73" s="0" t="inlineStr">
@@ -2975,7 +7190,7 @@
       <c r="H73" s="0">
         <v>0</v>
       </c>
-      <c r="K73" s="1">
+      <c r="K73" s="7">
         <v>41366</v>
       </c>
       <c r="L73" s="0">
@@ -2989,10 +7204,10 @@
       <c r="A74" s="0">
         <v>94</v>
       </c>
-      <c r="B74" s="1">
+      <c r="B74" s="7">
         <v>41743.7083333333</v>
       </c>
-      <c r="C74" s="1">
+      <c r="C74" s="7">
         <v>41736.9993055556</v>
       </c>
       <c r="E74" s="0" t="inlineStr">
@@ -3009,7 +7224,7 @@
       <c r="H74" s="0">
         <v>0</v>
       </c>
-      <c r="K74" s="1">
+      <c r="K74" s="7">
         <v>41555</v>
       </c>
       <c r="L74" s="0">
@@ -3023,10 +7238,10 @@
       <c r="A75" s="0">
         <v>95</v>
       </c>
-      <c r="B75" s="1">
+      <c r="B75" s="7">
         <v>41743.7083333333</v>
       </c>
-      <c r="C75" s="1">
+      <c r="C75" s="7">
         <v>41736.9993055556</v>
       </c>
       <c r="E75" s="0" t="inlineStr">
@@ -3043,7 +7258,7 @@
       <c r="H75" s="0">
         <v>0</v>
       </c>
-      <c r="K75" s="1">
+      <c r="K75" s="7">
         <v>41555</v>
       </c>
       <c r="L75" s="0">
@@ -3057,10 +7272,10 @@
       <c r="A76" s="0">
         <v>96</v>
       </c>
-      <c r="B76" s="1">
+      <c r="B76" s="7">
         <v>41771.7083333333</v>
       </c>
-      <c r="C76" s="1">
+      <c r="C76" s="7">
         <v>41764.9993055556</v>
       </c>
       <c r="E76" s="0" t="inlineStr">
@@ -3077,7 +7292,7 @@
       <c r="H76" s="0">
         <v>0</v>
       </c>
-      <c r="K76" s="1">
+      <c r="K76" s="7">
         <v>41737</v>
       </c>
       <c r="L76" s="0">
@@ -3091,10 +7306,10 @@
       <c r="A77" s="0">
         <v>97</v>
       </c>
-      <c r="B77" s="1">
+      <c r="B77" s="7">
         <v>41925.7083333333</v>
       </c>
-      <c r="C77" s="1">
+      <c r="C77" s="7">
         <v>41918.9993055556</v>
       </c>
       <c r="E77" s="0" t="inlineStr">
@@ -3111,7 +7326,7 @@
       <c r="H77" s="0">
         <v>0</v>
       </c>
-      <c r="K77" s="1">
+      <c r="K77" s="7">
         <v>41737</v>
       </c>
       <c r="L77" s="0">
@@ -3125,10 +7340,10 @@
       <c r="A78" s="0">
         <v>98</v>
       </c>
-      <c r="B78" s="1">
+      <c r="B78" s="7">
         <v>41788.7083333333</v>
       </c>
-      <c r="C78" s="1">
+      <c r="C78" s="7">
         <v>41786.9993055556</v>
       </c>
       <c r="E78" s="0" t="inlineStr">
@@ -3145,7 +7360,7 @@
       <c r="H78" s="0">
         <v>0</v>
       </c>
-      <c r="K78" s="1">
+      <c r="K78" s="7">
         <v>41765</v>
       </c>
       <c r="L78" s="0">
@@ -3159,10 +7374,10 @@
       <c r="A79" s="0">
         <v>99</v>
       </c>
-      <c r="B79" s="1">
+      <c r="B79" s="7">
         <v>41792.5</v>
       </c>
-      <c r="C79" s="1">
+      <c r="C79" s="7">
         <v>41792.5</v>
       </c>
       <c r="E79" s="0" t="inlineStr">
@@ -3179,13 +7394,13 @@
       <c r="H79" s="0">
         <v>1</v>
       </c>
-      <c r="I79" s="1">
+      <c r="I79" s="7">
         <v>41786.7090277778</v>
       </c>
       <c r="J79" s="0">
         <v>100</v>
       </c>
-      <c r="K79" s="1">
+      <c r="K79" s="7">
         <v>41786.7090277778</v>
       </c>
       <c r="L79" s="0">
@@ -3199,10 +7414,10 @@
       <c r="A80" s="0">
         <v>100</v>
       </c>
-      <c r="B80" s="1">
+      <c r="B80" s="7">
         <v>41823.7083333333</v>
       </c>
-      <c r="C80" s="1">
+      <c r="C80" s="7">
         <v>41818.9993055556</v>
       </c>
       <c r="E80" s="0" t="inlineStr">
@@ -3219,7 +7434,7 @@
       <c r="H80" s="0">
         <v>0</v>
       </c>
-      <c r="K80" s="1">
+      <c r="K80" s="7">
         <v>41787</v>
       </c>
       <c r="L80" s="0">
@@ -3233,10 +7448,10 @@
       <c r="A81" s="0">
         <v>101</v>
       </c>
-      <c r="B81" s="1">
+      <c r="B81" s="7">
         <v>41890.7083333333</v>
       </c>
-      <c r="C81" s="1">
+      <c r="C81" s="7">
         <v>41883.9993055556</v>
       </c>
       <c r="E81" s="0" t="inlineStr">
@@ -3253,7 +7468,7 @@
       <c r="H81" s="0">
         <v>0</v>
       </c>
-      <c r="K81" s="1">
+      <c r="K81" s="7">
         <v>41819</v>
       </c>
       <c r="L81" s="0">
@@ -3267,10 +7482,10 @@
       <c r="A82" s="0">
         <v>102</v>
       </c>
-      <c r="B82" s="1">
+      <c r="B82" s="7">
         <v>41925.7083333333</v>
       </c>
-      <c r="C82" s="1">
+      <c r="C82" s="7">
         <v>41918.9993055556</v>
       </c>
       <c r="E82" s="0" t="inlineStr">
@@ -3287,7 +7502,7 @@
       <c r="H82" s="0">
         <v>0</v>
       </c>
-      <c r="K82" s="1">
+      <c r="K82" s="7">
         <v>41884</v>
       </c>
       <c r="L82" s="0">
@@ -3301,10 +7516,10 @@
       <c r="A83" s="0">
         <v>103</v>
       </c>
-      <c r="B83" s="1">
+      <c r="B83" s="7">
         <v>41942.7083333333</v>
       </c>
-      <c r="C83" s="1">
+      <c r="C83" s="7">
         <v>41942.7083333333</v>
       </c>
       <c r="E83" s="0" t="inlineStr">
@@ -3321,7 +7536,7 @@
       <c r="H83" s="0">
         <v>0</v>
       </c>
-      <c r="K83" s="1">
+      <c r="K83" s="7">
         <v>41919</v>
       </c>
       <c r="L83" s="0">
@@ -3335,10 +7550,10 @@
       <c r="A84" s="0">
         <v>104</v>
       </c>
-      <c r="B84" s="1">
+      <c r="B84" s="7">
         <v>41977.7083333333</v>
       </c>
-      <c r="C84" s="1">
+      <c r="C84" s="7">
         <v>41972.9993055556</v>
       </c>
       <c r="E84" s="0" t="inlineStr">
@@ -3355,7 +7570,7 @@
       <c r="H84" s="0">
         <v>0</v>
       </c>
-      <c r="K84" s="1">
+      <c r="K84" s="7">
         <v>41941</v>
       </c>
       <c r="L84" s="0">
@@ -3369,10 +7584,10 @@
       <c r="A85" s="0">
         <v>105</v>
       </c>
-      <c r="B85" s="1">
+      <c r="B85" s="7">
         <v>41946.5</v>
       </c>
-      <c r="C85" s="1">
+      <c r="C85" s="7">
         <v>41946.5</v>
       </c>
       <c r="E85" s="0" t="inlineStr">
@@ -3389,13 +7604,13 @@
       <c r="H85" s="0">
         <v>0</v>
       </c>
-      <c r="I85" s="1">
+      <c r="I85" s="7">
         <v>41940.7090277778</v>
       </c>
       <c r="J85" s="0">
         <v>104</v>
       </c>
-      <c r="K85" s="1">
+      <c r="K85" s="7">
         <v>41940.7090277778</v>
       </c>
       <c r="L85" s="0">
@@ -3409,10 +7624,10 @@
       <c r="A86" s="0">
         <v>106</v>
       </c>
-      <c r="B86" s="1">
+      <c r="B86" s="7">
         <v>42107.7083333333</v>
       </c>
-      <c r="C86" s="1">
+      <c r="C86" s="7">
         <v>42100.9993055556</v>
       </c>
       <c r="E86" s="0" t="inlineStr">
@@ -3429,7 +7644,7 @@
       <c r="H86" s="0">
         <v>0</v>
       </c>
-      <c r="K86" s="1">
+      <c r="K86" s="7">
         <v>41919</v>
       </c>
       <c r="L86" s="0">
@@ -3443,10 +7658,10 @@
       <c r="A87" s="0">
         <v>107</v>
       </c>
-      <c r="B87" s="1">
+      <c r="B87" s="7">
         <v>42107.9993055556</v>
       </c>
-      <c r="C87" s="1">
+      <c r="C87" s="7">
         <v>42066.9993055556</v>
       </c>
       <c r="E87" s="0" t="inlineStr">
@@ -3463,7 +7678,7 @@
       <c r="H87" s="0">
         <v>0</v>
       </c>
-      <c r="K87" s="1">
+      <c r="K87" s="7">
         <v>41334</v>
       </c>
       <c r="L87" s="0">
@@ -3477,10 +7692,10 @@
       <c r="A88" s="0">
         <v>108</v>
       </c>
-      <c r="B88" s="1">
+      <c r="B88" s="7">
         <v>42290.9993055556</v>
       </c>
-      <c r="C88" s="1">
+      <c r="C88" s="7">
         <v>42282.9993055556</v>
       </c>
       <c r="E88" s="0" t="inlineStr">
@@ -3497,7 +7712,7 @@
       <c r="H88" s="0">
         <v>0</v>
       </c>
-      <c r="K88" s="1">
+      <c r="K88" s="7">
         <v>42101</v>
       </c>
       <c r="L88" s="0">
@@ -3511,10 +7726,10 @@
       <c r="A89" s="0">
         <v>109</v>
       </c>
-      <c r="B89" s="1">
+      <c r="B89" s="7">
         <v>42471.9993055556</v>
       </c>
-      <c r="C89" s="1">
+      <c r="C89" s="7">
         <v>42464.9993055556</v>
       </c>
       <c r="E89" s="0" t="inlineStr">
@@ -3531,7 +7746,7 @@
       <c r="H89" s="0">
         <v>0</v>
       </c>
-      <c r="K89" s="1">
+      <c r="K89" s="7">
         <v>42283</v>
       </c>
       <c r="L89" s="0">
@@ -3545,10 +7760,10 @@
       <c r="A90" s="0">
         <v>110</v>
       </c>
-      <c r="B90" s="1">
+      <c r="B90" s="7">
         <v>42471.9993055556</v>
       </c>
-      <c r="C90" s="1">
+      <c r="C90" s="7">
         <v>42464.9993055556</v>
       </c>
       <c r="E90" s="0" t="inlineStr">
@@ -3565,7 +7780,7 @@
       <c r="H90" s="0">
         <v>0</v>
       </c>
-      <c r="K90" s="1">
+      <c r="K90" s="7">
         <v>42283</v>
       </c>
       <c r="L90" s="0">
@@ -3579,10 +7794,10 @@
       <c r="A91" s="0">
         <v>111</v>
       </c>
-      <c r="B91" s="1">
+      <c r="B91" s="7">
         <v>42471</v>
       </c>
-      <c r="C91" s="1">
+      <c r="C91" s="7">
         <v>42471.9993055556</v>
       </c>
       <c r="E91" s="0" t="inlineStr">
@@ -3599,7 +7814,7 @@
       <c r="H91" s="0">
         <v>0</v>
       </c>
-      <c r="K91" s="1">
+      <c r="K91" s="7">
         <v>42067</v>
       </c>
       <c r="L91" s="0">
@@ -3613,10 +7828,10 @@
       <c r="A92" s="0">
         <v>112</v>
       </c>
-      <c r="B92" s="1">
+      <c r="B92" s="7">
         <v>42499.9993055556</v>
       </c>
-      <c r="C92" s="1">
+      <c r="C92" s="7">
         <v>42492.9993055556</v>
       </c>
       <c r="E92" s="0" t="inlineStr">
@@ -3633,7 +7848,7 @@
       <c r="H92" s="0">
         <v>0</v>
       </c>
-      <c r="K92" s="1">
+      <c r="K92" s="7">
         <v>42465</v>
       </c>
       <c r="L92" s="0">
@@ -3647,10 +7862,10 @@
       <c r="A93" s="0">
         <v>113</v>
       </c>
-      <c r="B93" s="1">
+      <c r="B93" s="7">
         <v>42654.9993055556</v>
       </c>
-      <c r="C93" s="1">
+      <c r="C93" s="7">
         <v>42646.9993055556</v>
       </c>
       <c r="E93" s="0" t="inlineStr">
@@ -3667,7 +7882,7 @@
       <c r="H93" s="0">
         <v>0</v>
       </c>
-      <c r="K93" s="1">
+      <c r="K93" s="7">
         <v>42465</v>
       </c>
       <c r="L93" s="0">
@@ -3681,10 +7896,10 @@
       <c r="A94" s="0">
         <v>114</v>
       </c>
-      <c r="B94" s="1">
+      <c r="B94" s="7">
         <v>42523.9993055556</v>
       </c>
-      <c r="C94" s="1">
+      <c r="C94" s="7">
         <v>42523.9993055556</v>
       </c>
       <c r="E94" s="0" t="inlineStr">
@@ -3701,7 +7916,7 @@
       <c r="H94" s="0">
         <v>0</v>
       </c>
-      <c r="K94" s="1">
+      <c r="K94" s="7">
         <v>42493</v>
       </c>
       <c r="L94" s="0">
@@ -3715,10 +7930,10 @@
       <c r="A95" s="0">
         <v>115</v>
       </c>
-      <c r="B95" s="1">
+      <c r="B95" s="7">
         <v>42558.9993055556</v>
       </c>
-      <c r="C95" s="1">
+      <c r="C95" s="7">
         <v>42553.5409722222</v>
       </c>
       <c r="E95" s="0" t="inlineStr">
@@ -3735,7 +7950,7 @@
       <c r="H95" s="0">
         <v>0</v>
       </c>
-      <c r="K95" s="1">
+      <c r="K95" s="7">
         <v>42522</v>
       </c>
       <c r="L95" s="0">
@@ -3749,10 +7964,10 @@
       <c r="A96" s="0">
         <v>116</v>
       </c>
-      <c r="B96" s="1">
+      <c r="B96" s="7">
         <v>42527.5</v>
       </c>
-      <c r="C96" s="1">
+      <c r="C96" s="7">
         <v>42527.5</v>
       </c>
       <c r="E96" s="0" t="inlineStr">
@@ -3769,13 +7984,13 @@
       <c r="H96" s="0">
         <v>0</v>
       </c>
-      <c r="I96" s="1">
+      <c r="I96" s="7">
         <v>42521</v>
       </c>
       <c r="J96" s="0">
         <v>115</v>
       </c>
-      <c r="K96" s="1">
+      <c r="K96" s="7">
         <v>42521</v>
       </c>
       <c r="L96" s="0">
@@ -3789,10 +8004,10 @@
       <c r="A97" s="0">
         <v>117</v>
       </c>
-      <c r="B97" s="1">
+      <c r="B97" s="7">
         <v>42625.9993055556</v>
       </c>
-      <c r="C97" s="1">
+      <c r="C97" s="7">
         <v>42618</v>
       </c>
       <c r="E97" s="0" t="inlineStr">
@@ -3809,7 +8024,7 @@
       <c r="H97" s="0">
         <v>0</v>
       </c>
-      <c r="K97" s="1">
+      <c r="K97" s="7">
         <v>42554</v>
       </c>
       <c r="L97" s="0">
@@ -3823,10 +8038,10 @@
       <c r="A98" s="0">
         <v>118</v>
       </c>
-      <c r="B98" s="1">
+      <c r="B98" s="7">
         <v>42654.9993055556</v>
       </c>
-      <c r="C98" s="1">
+      <c r="C98" s="7">
         <v>42646.9993055556</v>
       </c>
       <c r="E98" s="0" t="inlineStr">
@@ -3843,7 +8058,7 @@
       <c r="H98" s="0">
         <v>0</v>
       </c>
-      <c r="K98" s="1">
+      <c r="K98" s="7">
         <v>42619</v>
       </c>
       <c r="L98" s="0">
@@ -3857,10 +8072,10 @@
       <c r="A99" s="0">
         <v>119</v>
       </c>
-      <c r="B99" s="1">
+      <c r="B99" s="7">
         <v>42677.9993055556</v>
       </c>
-      <c r="C99" s="1">
+      <c r="C99" s="7">
         <v>42677.9993055556</v>
       </c>
       <c r="E99" s="0" t="inlineStr">
@@ -3877,7 +8092,7 @@
       <c r="H99" s="0">
         <v>0</v>
       </c>
-      <c r="K99" s="1">
+      <c r="K99" s="7">
         <v>42647</v>
       </c>
       <c r="L99" s="0">
@@ -3891,10 +8106,10 @@
       <c r="A100" s="0">
         <v>120</v>
       </c>
-      <c r="B100" s="1">
+      <c r="B100" s="7">
         <v>42681.5</v>
       </c>
-      <c r="C100" s="1">
+      <c r="C100" s="7">
         <v>42681.5</v>
       </c>
       <c r="E100" s="0" t="inlineStr">
@@ -3911,13 +8126,13 @@
       <c r="H100" s="0">
         <v>0</v>
       </c>
-      <c r="I100" s="1">
+      <c r="I100" s="7">
         <v>42675</v>
       </c>
       <c r="J100" s="0">
         <v>121</v>
       </c>
-      <c r="K100" s="1">
+      <c r="K100" s="7">
         <v>42675</v>
       </c>
       <c r="L100" s="0">
@@ -3931,10 +8146,10 @@
       <c r="A101" s="0">
         <v>121</v>
       </c>
-      <c r="B101" s="1">
+      <c r="B101" s="7">
         <v>42712.9993055556</v>
       </c>
-      <c r="C101" s="1">
+      <c r="C101" s="7">
         <v>42707.9993055556</v>
       </c>
       <c r="E101" s="0" t="inlineStr">
@@ -3951,7 +8166,7 @@
       <c r="H101" s="0">
         <v>0</v>
       </c>
-      <c r="K101" s="1">
+      <c r="K101" s="7">
         <v>42676</v>
       </c>
       <c r="L101" s="0">
@@ -3965,10 +8180,10 @@
       <c r="A102" s="0">
         <v>122</v>
       </c>
-      <c r="B102" s="1">
+      <c r="B102" s="7">
         <v>42835.9993055556</v>
       </c>
-      <c r="C102" s="1">
+      <c r="C102" s="7">
         <v>42773.9993055556</v>
       </c>
       <c r="E102" s="0" t="inlineStr">
@@ -3985,7 +8200,7 @@
       <c r="H102" s="0">
         <v>0</v>
       </c>
-      <c r="K102" s="1">
+      <c r="K102" s="7">
         <v>42068</v>
       </c>
       <c r="L102" s="0">
@@ -3999,10 +8214,10 @@
       <c r="A103" s="0">
         <v>123</v>
       </c>
-      <c r="B103" s="1">
+      <c r="B103" s="7">
         <v>42835.9993055556</v>
       </c>
-      <c r="C103" s="1">
+      <c r="C103" s="7">
         <v>42828.9993055556</v>
       </c>
       <c r="E103" s="0" t="inlineStr">
@@ -4019,7 +8234,7 @@
       <c r="H103" s="0">
         <v>0</v>
       </c>
-      <c r="K103" s="1">
+      <c r="K103" s="7">
         <v>42647</v>
       </c>
       <c r="L103" s="0">
@@ -4033,10 +8248,10 @@
       <c r="A104" s="0">
         <v>124</v>
       </c>
-      <c r="B104" s="1">
+      <c r="B104" s="7">
         <v>43017.9993055556</v>
       </c>
-      <c r="C104" s="1">
+      <c r="C104" s="7">
         <v>43010.9993055556</v>
       </c>
       <c r="E104" s="0" t="inlineStr">
@@ -4053,7 +8268,7 @@
       <c r="H104" s="0">
         <v>0</v>
       </c>
-      <c r="K104" s="1">
+      <c r="K104" s="7">
         <v>42829</v>
       </c>
       <c r="L104" s="0">
@@ -4067,10 +8282,10 @@
       <c r="A105" s="0">
         <v>125</v>
       </c>
-      <c r="B105" s="1">
+      <c r="B105" s="7">
         <v>43199.9993055556</v>
       </c>
-      <c r="C105" s="1">
+      <c r="C105" s="7">
         <v>43192.9993055556</v>
       </c>
       <c r="E105" s="0" t="inlineStr">
@@ -4087,7 +8302,7 @@
       <c r="H105" s="0">
         <v>0</v>
       </c>
-      <c r="K105" s="1">
+      <c r="K105" s="7">
         <v>43011.9993055556</v>
       </c>
       <c r="L105" s="0">
@@ -4101,10 +8316,10 @@
       <c r="A106" s="0">
         <v>126</v>
       </c>
-      <c r="B106" s="1">
+      <c r="B106" s="7">
         <v>43199.9993055556</v>
       </c>
-      <c r="C106" s="1">
+      <c r="C106" s="7">
         <v>43192.9993055556</v>
       </c>
       <c r="E106" s="0" t="inlineStr">
@@ -4121,7 +8336,7 @@
       <c r="H106" s="0">
         <v>0</v>
       </c>
-      <c r="K106" s="1">
+      <c r="K106" s="7">
         <v>43011.9993055556</v>
       </c>
       <c r="L106" s="0">
@@ -4132,10 +8347,10 @@
       <c r="A107" s="0">
         <v>127</v>
       </c>
-      <c r="B107" s="1">
+      <c r="B107" s="7">
         <v>43199.9993055556</v>
       </c>
-      <c r="C107" s="1">
+      <c r="C107" s="7">
         <v>43199.9993055556</v>
       </c>
       <c r="E107" s="0" t="inlineStr">
@@ -4152,7 +8367,7 @@
       <c r="H107" s="0">
         <v>0</v>
       </c>
-      <c r="K107" s="1">
+      <c r="K107" s="7">
         <v>42774</v>
       </c>
       <c r="L107" s="0">
@@ -4166,10 +8381,10 @@
       <c r="A108" s="0">
         <v>128</v>
       </c>
-      <c r="B108" s="1">
+      <c r="B108" s="7">
         <v>43234.9993055556</v>
       </c>
-      <c r="C108" s="1">
+      <c r="C108" s="7">
         <v>43227.9993055556</v>
       </c>
       <c r="E108" s="0" t="inlineStr">
@@ -4186,7 +8401,7 @@
       <c r="H108" s="0">
         <v>0</v>
       </c>
-      <c r="K108" s="1">
+      <c r="K108" s="7">
         <v>43193</v>
       </c>
       <c r="L108" s="0">
@@ -4200,10 +8415,10 @@
       <c r="A109" s="0">
         <v>129</v>
       </c>
-      <c r="B109" s="1">
+      <c r="B109" s="7">
         <v>43381.9993055556</v>
       </c>
-      <c r="C109" s="1">
+      <c r="C109" s="7">
         <v>43374.9993055556</v>
       </c>
       <c r="E109" s="0" t="inlineStr">
@@ -4220,7 +8435,7 @@
       <c r="H109" s="0">
         <v>0</v>
       </c>
-      <c r="K109" s="1">
+      <c r="K109" s="7">
         <v>43193</v>
       </c>
       <c r="L109" s="0">
@@ -4234,10 +8449,10 @@
       <c r="A110" s="0">
         <v>130</v>
       </c>
-      <c r="B110" s="1">
+      <c r="B110" s="7">
         <v>43251.9993055556</v>
       </c>
-      <c r="C110" s="1">
+      <c r="C110" s="7">
         <v>43251.9993055556</v>
       </c>
       <c r="E110" s="0" t="inlineStr">
@@ -4254,7 +8469,7 @@
       <c r="H110" s="0">
         <v>0</v>
       </c>
-      <c r="K110" s="1">
+      <c r="K110" s="7">
         <v>43228</v>
       </c>
       <c r="L110" s="0">
@@ -4268,10 +8483,10 @@
       <c r="A111" s="0">
         <v>131</v>
       </c>
-      <c r="B111" s="1">
+      <c r="B111" s="7">
         <v>43286.9993055556</v>
       </c>
-      <c r="C111" s="1">
+      <c r="C111" s="7">
         <v>43281.5409722222</v>
       </c>
       <c r="E111" s="0" t="inlineStr">
@@ -4288,7 +8503,7 @@
       <c r="H111" s="0">
         <v>0</v>
       </c>
-      <c r="K111" s="1">
+      <c r="K111" s="7">
         <v>43250</v>
       </c>
       <c r="L111" s="0">
@@ -4302,10 +8517,10 @@
       <c r="A112" s="0">
         <v>132</v>
       </c>
-      <c r="B112" s="1">
+      <c r="B112" s="7">
         <v>43255.5</v>
       </c>
-      <c r="C112" s="1">
+      <c r="C112" s="7">
         <v>43255.5</v>
       </c>
       <c r="E112" s="0" t="inlineStr">
@@ -4322,13 +8537,13 @@
       <c r="H112" s="0">
         <v>0</v>
       </c>
-      <c r="I112" s="1">
+      <c r="I112" s="7">
         <v>43252</v>
       </c>
       <c r="J112" s="0">
         <v>131</v>
       </c>
-      <c r="K112" s="1">
+      <c r="K112" s="7">
         <v>43252</v>
       </c>
       <c r="L112" s="0">
@@ -4342,10 +8557,10 @@
       <c r="A113" s="0">
         <v>133</v>
       </c>
-      <c r="B113" s="1">
+      <c r="B113" s="7">
         <v>43353.9993055556</v>
       </c>
-      <c r="C113" s="1">
+      <c r="C113" s="7">
         <v>43346</v>
       </c>
       <c r="E113" s="0" t="inlineStr">
@@ -4362,7 +8577,7 @@
       <c r="H113" s="0">
         <v>0</v>
       </c>
-      <c r="K113" s="1">
+      <c r="K113" s="7">
         <v>43282</v>
       </c>
       <c r="L113" s="0">
@@ -4376,10 +8591,10 @@
       <c r="A114" s="0">
         <v>134</v>
       </c>
-      <c r="B114" s="1">
+      <c r="B114" s="7">
         <v>43381.9993055556</v>
       </c>
-      <c r="C114" s="1">
+      <c r="C114" s="7">
         <v>43374.9993055556</v>
       </c>
       <c r="E114" s="0" t="inlineStr">
@@ -4396,7 +8611,7 @@
       <c r="H114" s="0">
         <v>0</v>
       </c>
-      <c r="K114" s="1">
+      <c r="K114" s="7">
         <v>43347</v>
       </c>
       <c r="L114" s="0">
@@ -4410,10 +8625,10 @@
       <c r="A115" s="0">
         <v>135</v>
       </c>
-      <c r="B115" s="1">
+      <c r="B115" s="7">
         <v>43405.9993055556</v>
       </c>
-      <c r="C115" s="1">
+      <c r="C115" s="7">
         <v>43405.9993055556</v>
       </c>
       <c r="E115" s="0" t="inlineStr">
@@ -4430,13 +8645,87 @@
       <c r="H115" s="0">
         <v>0</v>
       </c>
-      <c r="K115" s="1">
+      <c r="K115" s="7">
         <v>43375</v>
       </c>
       <c r="L115" s="0">
         <v>1</v>
       </c>
       <c r="M115" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="116">
+      <c r="A116" s="0">
+        <v>136</v>
+      </c>
+      <c r="B116" s="7">
+        <v>43440.9993055556</v>
+      </c>
+      <c r="C116" s="7">
+        <v>43435.5409722222</v>
+      </c>
+      <c r="E116" s="0" t="inlineStr">
+        <is>
+          <t>2018 Fourth General</t>
+        </is>
+      </c>
+      <c r="F116" s="0">
+        <v>1</v>
+      </c>
+      <c r="G116" s="0">
+        <v>1</v>
+      </c>
+      <c r="H116" s="0">
+        <v>0</v>
+      </c>
+      <c r="K116" s="7">
+        <v>43404</v>
+      </c>
+      <c r="L116" s="0">
+        <v>1</v>
+      </c>
+      <c r="M116" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="117">
+      <c r="A117" s="0">
+        <v>137</v>
+      </c>
+      <c r="B117" s="7">
+        <v>43409.5</v>
+      </c>
+      <c r="C117" s="7">
+        <v>43409.5</v>
+      </c>
+      <c r="E117" s="0" t="inlineStr">
+        <is>
+          <t>2018 General Supplemental</t>
+        </is>
+      </c>
+      <c r="F117" s="0">
+        <v>0</v>
+      </c>
+      <c r="G117" s="0">
+        <v>2</v>
+      </c>
+      <c r="H117" s="0">
+        <v>0</v>
+      </c>
+      <c r="I117" s="7">
+        <v>43406.9993055556</v>
+      </c>
+      <c r="J117" s="0">
+        <v>136</v>
+      </c>
+      <c r="K117" s="7">
+        <v>43406.9993055556</v>
+      </c>
+      <c r="L117" s="0">
+        <v>1</v>
+      </c>
+      <c r="M117" s="0">
         <v>1</v>
       </c>
     </row>

--- a/data/Cam_FilingPeriod.xlsx
+++ b/data/Cam_FilingPeriod.xlsx
@@ -7,10 +7,10 @@
     <workbookView xWindow="120" yWindow="90" windowWidth="23895" windowHeight="14535"/>
   </bookViews>
   <sheets>
-    <sheet sheetId="1" r:id="rId1" name="Cam_FilingPeriod"/>
+    <sheet sheetId="1" r:id="rId1" name="NMInDepth_Cam_FilingPeriod"/>
   </sheets>
   <definedNames>
-    <definedName name="Cam_FilingPeriod">'Cam_FilingPeriod'!$A$1:$N$119</definedName>
+    <definedName name="NMInDepth_Cam_FilingPeriod">'NMInDepth_Cam_FilingPeriod'!$A$1:$N$121</definedName>
   </definedNames>
   <calcPr calcId="125725" fullCalcOnLoad="true"/>
 </workbook>
@@ -347,7 +347,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N119"/>
+  <dimension ref="A1:N121"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" rightToLeft="false">
       <selection activeCell="C5" sqref="C5"/>
@@ -4582,6 +4582,74 @@
         <v>1</v>
       </c>
     </row>
+    <row outlineLevel="0" r="120">
+      <c r="A120" s="0">
+        <v>140</v>
+      </c>
+      <c r="B120" s="1">
+        <v>43753.9993055556</v>
+      </c>
+      <c r="C120" s="1">
+        <v>43745.9993055556</v>
+      </c>
+      <c r="E120" s="0" t="inlineStr">
+        <is>
+          <t>2019 Second Biannual</t>
+        </is>
+      </c>
+      <c r="F120" s="0">
+        <v>1</v>
+      </c>
+      <c r="G120" s="0">
+        <v>3</v>
+      </c>
+      <c r="H120" s="0">
+        <v>0</v>
+      </c>
+      <c r="K120" s="1">
+        <v>43557</v>
+      </c>
+      <c r="L120" s="0">
+        <v>1</v>
+      </c>
+      <c r="M120" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="121">
+      <c r="A121" s="0">
+        <v>141</v>
+      </c>
+      <c r="B121" s="1">
+        <v>43753.9993055556</v>
+      </c>
+      <c r="C121" s="1">
+        <v>43753.9993055556</v>
+      </c>
+      <c r="E121" s="0" t="inlineStr">
+        <is>
+          <t>2019 RLE First School District Report</t>
+        </is>
+      </c>
+      <c r="F121" s="0">
+        <v>1</v>
+      </c>
+      <c r="G121" s="0">
+        <v>4</v>
+      </c>
+      <c r="H121" s="0">
+        <v>0</v>
+      </c>
+      <c r="K121" s="1">
+        <v>43563</v>
+      </c>
+      <c r="L121" s="0">
+        <v>1</v>
+      </c>
+      <c r="M121" s="0">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
